--- a/Recycling/SW2/SW2_Avg.xlsx
+++ b/Recycling/SW2/SW2_Avg.xlsx
@@ -796,7 +796,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.741234973982693E-08</v>
+        <v>0.06463540392811892</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.262715566124602E-11</v>
+        <v>0.0002582875934423252</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -851,7 +851,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.07400965530420915</v>
+        <v>300994.3598500011</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.813942377942772E-08</v>
+        <v>0.03149748511036064</v>
       </c>
       <c r="C7">
-        <v>0.0166617515195503</v>
+        <v>67762.68869234422</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -900,22 +900,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.634268698921698E-08</v>
+        <v>0.1325622399017378</v>
       </c>
       <c r="C8">
-        <v>0.08460167327612869</v>
+        <v>344071.6807194622</v>
       </c>
       <c r="D8">
-        <v>2.992987979186152E-09</v>
+        <v>0.005170832314249511</v>
       </c>
       <c r="E8">
-        <v>5.010172452899679E-12</v>
+        <v>2.0663007475386E-05</v>
       </c>
       <c r="F8">
-        <v>0.002960386212168369</v>
+        <v>12039.77439400005</v>
       </c>
       <c r="G8">
-        <v>0.001666176965897408</v>
+        <v>6776.272018982932</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1014,7 +1014,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>871.1590946610828</v>
+        <v>1033101223.548244</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1040,7 +1040,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>34.2090344950825</v>
+        <v>87370820.16468748</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>13261.38793112674</v>
+        <v>9460120739.590557</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1092,10 +1092,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>457.0622907353736</v>
+        <v>591586049.9849173</v>
       </c>
       <c r="C7">
-        <v>2985.52870709331</v>
+        <v>2129751590.655468</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1118,22 +1118,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1923.620277054135</v>
+        <v>2489785187.796669</v>
       </c>
       <c r="C8">
-        <v>15159.31406957077</v>
+        <v>10814022044.47304</v>
       </c>
       <c r="D8">
-        <v>69.6927275728866</v>
+        <v>82648097.8838595</v>
       </c>
       <c r="E8">
-        <v>2.736722759606598</v>
+        <v>6989665.613174995</v>
       </c>
       <c r="F8">
-        <v>530.4555172450703</v>
+        <v>378404829.5836226</v>
       </c>
       <c r="G8">
-        <v>344.2590997828683</v>
+        <v>272133764.0640385</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>884.6190351757466</v>
+        <v>1100703521.086549</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1258,7 +1258,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>34.70720720413429</v>
+        <v>93420133.14408515</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1287,7 +1287,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>13123.66523771512</v>
+        <v>9420118782.233515</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1310,10 +1310,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>464.0920154983826</v>
+        <v>630648890.2065049</v>
       </c>
       <c r="C7">
-        <v>2954.523275615544</v>
+        <v>2120745972.793324</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1336,22 +1336,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1953.206006111935</v>
+        <v>2654187443.359417</v>
       </c>
       <c r="C8">
-        <v>15001.88095813651</v>
+        <v>10768295138.80357</v>
       </c>
       <c r="D8">
-        <v>70.7695228140597</v>
+        <v>88056281.68692388</v>
       </c>
       <c r="E8">
-        <v>2.776576576330742</v>
+        <v>7473610.651526809</v>
       </c>
       <c r="F8">
-        <v>524.9466095086051</v>
+        <v>376804751.2893409</v>
       </c>
       <c r="G8">
-        <v>341.8615291113926</v>
+        <v>275139486.2999828</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1450,7 +1450,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5.257053275233127E-07</v>
+        <v>0.9082342175225949</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1476,7 +1476,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.051260266241504E-09</v>
+        <v>0.004335618972028115</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1505,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1639901263523162</v>
+        <v>666941.3997436757</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1528,10 +1528,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.550702060014309E-07</v>
+        <v>0.4433395559629014</v>
       </c>
       <c r="C7">
-        <v>0.03691900368554416</v>
+        <v>150148.137225525</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1554,22 +1554,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.073504050284484E-06</v>
+        <v>1.865865937218984</v>
       </c>
       <c r="C8">
-        <v>0.1874598528143755</v>
+        <v>762391.8550020509</v>
       </c>
       <c r="D8">
-        <v>4.205642620186499E-08</v>
+        <v>0.07265873740180756</v>
       </c>
       <c r="E8">
-        <v>8.410082129932031E-11</v>
+        <v>0.0003468495177622491</v>
       </c>
       <c r="F8">
-        <v>0.006559605054092654</v>
+        <v>26677.65598974705</v>
       </c>
       <c r="G8">
-        <v>0.003691925875575015</v>
+        <v>15014.85805650809</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1668,7 +1668,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5.593362297300758E-06</v>
+        <v>9.663366078754565</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1694,7 +1694,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.314799499266483E-08</v>
+        <v>0.05422510330209006</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1723,7 +1723,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.3413204223134685</v>
+        <v>1388136.745073202</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1746,10 +1746,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.715956387946912E-06</v>
+        <v>4.725584894605062</v>
       </c>
       <c r="C7">
-        <v>0.07684127215238563</v>
+        <v>312510.4343007477</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1772,22 +1772,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.143053996216505E-05</v>
+        <v>19.88838525614886</v>
       </c>
       <c r="C8">
-        <v>0.3901690763501238</v>
+        <v>1586802.30149096</v>
       </c>
       <c r="D8">
-        <v>4.474689837840604E-07</v>
+        <v>0.7730692863003649</v>
       </c>
       <c r="E8">
-        <v>1.051839599413186E-09</v>
+        <v>0.004338008264167203</v>
       </c>
       <c r="F8">
-        <v>0.01365281689253875</v>
+        <v>55525.46980292814</v>
       </c>
       <c r="G8">
-        <v>0.007684398810877356</v>
+        <v>31251.51598856422</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1886,7 +1886,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4.75124699544339E-05</v>
+        <v>82.08486525127988</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.28929448257901E-07</v>
+        <v>0.5317322264243718</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1941,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.6786189329942343</v>
+        <v>2759835.447609405</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1964,10 +1964,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.308878380454085E-05</v>
+        <v>40.21649787766104</v>
       </c>
       <c r="C7">
-        <v>0.1527770936310418</v>
+        <v>621320.1814533999</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1990,22 +1990,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>9.717286592922715E-05</v>
+        <v>169.2576096468291</v>
       </c>
       <c r="C8">
-        <v>0.7757406383286864</v>
+        <v>3154814.001967798</v>
       </c>
       <c r="D8">
-        <v>3.80099759635471E-06</v>
+        <v>6.566789220102387</v>
       </c>
       <c r="E8">
-        <v>1.031435586063208E-08</v>
+        <v>0.04253857811394973</v>
       </c>
       <c r="F8">
-        <v>0.02714475731976939</v>
+        <v>110393.4179043763</v>
       </c>
       <c r="G8">
-        <v>0.01528001824148463</v>
+        <v>62136.03979512776</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -2104,7 +2104,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.0003350743719541821</v>
+        <v>578.8908616494591</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -2130,7 +2130,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.031397647587085E-06</v>
+        <v>4.253701345120986</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -2159,7 +2159,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1.304504677033531</v>
+        <v>5301877.158605545</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -2182,10 +2182,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.0001629594261296406</v>
+        <v>284.1540650538014</v>
       </c>
       <c r="C7">
-        <v>0.2936823944860039</v>
+        <v>1193608.583106601</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -2208,22 +2208,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.0006858409954050965</v>
+        <v>1195.908156118968</v>
       </c>
       <c r="C8">
-        <v>1.491201087478864</v>
+        <v>6060664.345466902</v>
       </c>
       <c r="D8">
-        <v>2.680594975633455E-05</v>
+        <v>46.3112689319567</v>
       </c>
       <c r="E8">
-        <v>8.251181180696677E-08</v>
+        <v>0.3402961076096787</v>
       </c>
       <c r="F8">
-        <v>0.05218018708134129</v>
+        <v>212075.086344222</v>
       </c>
       <c r="G8">
-        <v>0.02938453539121335</v>
+        <v>119389.2737171654</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -2322,7 +2322,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.00202111857577944</v>
+        <v>3491.783233092724</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -2348,7 +2348,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.945145923692537E-06</v>
+        <v>28.64324601358768</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -2377,7 +2377,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>2.441704963623754</v>
+        <v>9896901.94241982</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -2400,10 +2400,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.0009837134710808213</v>
+        <v>1717.136289820771</v>
       </c>
       <c r="C7">
-        <v>0.5496996469005017</v>
+        <v>2228083.893921006</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -2426,22 +2426,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.004140116605852217</v>
+        <v>7226.844682921251</v>
       </c>
       <c r="C8">
-        <v>2.791153731497654</v>
+        <v>11313313.93366002</v>
       </c>
       <c r="D8">
-        <v>0.0001616894860623551</v>
+        <v>279.3426586474178</v>
       </c>
       <c r="E8">
-        <v>5.556116738954027E-07</v>
+        <v>2.291459681087014</v>
       </c>
       <c r="F8">
-        <v>0.09766819854495025</v>
+        <v>395876.0776967931</v>
       </c>
       <c r="G8">
-        <v>0.05506833603715824</v>
+        <v>222980.1030210826</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -2540,7 +2540,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.01067109429937809</v>
+        <v>18435.90405820206</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -2566,7 +2566,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4.036201705860131E-05</v>
+        <v>166.4614677526422</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -2595,7 +2595,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.451093434669178</v>
+        <v>17934038.22541994</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -2618,10 +2618,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.005197717286405184</v>
+        <v>9082.257818644834</v>
       </c>
       <c r="C7">
-        <v>1.002072128209759</v>
+        <v>4037479.804842026</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -2644,22 +2644,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.0218754304811215</v>
+        <v>38224.14505749234</v>
       </c>
       <c r="C8">
-        <v>5.08811925867714</v>
+        <v>20500698.67549147</v>
       </c>
       <c r="D8">
-        <v>0.0008536875439502464</v>
+        <v>1474.872324656164</v>
       </c>
       <c r="E8">
-        <v>3.228961364688103E-06</v>
+        <v>13.31691742021137</v>
       </c>
       <c r="F8">
-        <v>0.1780437373867673</v>
+        <v>717361.5290167981</v>
       </c>
       <c r="G8">
-        <v>0.1007269845496164</v>
+        <v>404656.2062660669</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.05022940255645252</v>
+        <v>86778.77080375013</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -2784,7 +2784,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.0002065669401147629</v>
+        <v>851.9256109283259</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -2813,7 +2813,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>7.871509865573148</v>
+        <v>31427108.76312434</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -2836,10 +2836,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.02448348625398886</v>
+        <v>42823.07601810843</v>
       </c>
       <c r="C7">
-        <v>1.772108529958382</v>
+        <v>7075167.085115167</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -2862,22 +2862,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1030426958552505</v>
+        <v>180227.8136350502</v>
       </c>
       <c r="C8">
-        <v>8.998054417356121</v>
+        <v>35924853.00279453</v>
       </c>
       <c r="D8">
-        <v>0.004018352204516199</v>
+        <v>6942.301664300006</v>
       </c>
       <c r="E8">
-        <v>1.652535520918103E-05</v>
+        <v>68.15404887426604</v>
       </c>
       <c r="F8">
-        <v>0.3148603946229262</v>
+        <v>1257084.350524975</v>
       </c>
       <c r="G8">
-        <v>0.179659201621237</v>
+        <v>711799.0161133274</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -2976,7 +2976,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.213909941735066</v>
+        <v>369561.2701233092</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -3002,7 +3002,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.0009464149890388771</v>
+        <v>3903.21494502595</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -3031,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>13.45269813501786</v>
+        <v>53102895.40859414</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -3054,10 +3054,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1043374869689851</v>
+        <v>182660.275847129</v>
       </c>
       <c r="C7">
-        <v>3.028598264265089</v>
+        <v>11955024.57929086</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -3080,22 +3080,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.4391211212535018</v>
+        <v>768755.1949790405</v>
       </c>
       <c r="C8">
-        <v>15.37800395938931</v>
+        <v>60702806.80146348</v>
       </c>
       <c r="D8">
-        <v>0.01711279533880527</v>
+        <v>29564.90160986472</v>
       </c>
       <c r="E8">
-        <v>7.571319912311013E-05</v>
+        <v>312.2571956020759</v>
       </c>
       <c r="F8">
-        <v>0.5381079254007148</v>
+        <v>2124115.816343768</v>
       </c>
       <c r="G8">
-        <v>0.3132935751234074</v>
+        <v>1213768.485513798</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -3194,7 +3194,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8339491433025253</v>
+        <v>1440771.298866766</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -3220,7 +3220,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003934325707954458</v>
+        <v>16225.98869411386</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>22.18229033490804</v>
+        <v>86459481.43887128</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -3272,10 +3272,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.4070290924292068</v>
+        <v>713187.5607323707</v>
       </c>
       <c r="C7">
-        <v>4.993886381115737</v>
+        <v>19464573.78192539</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -3298,22 +3298,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.713047502317538</v>
+        <v>3001564.734120363</v>
       </c>
       <c r="C8">
-        <v>25.35694662698133</v>
+        <v>98833277.49938725</v>
       </c>
       <c r="D8">
-        <v>0.06671593146420199</v>
+        <v>115261.7039093412</v>
       </c>
       <c r="E8">
-        <v>0.0003147460566363565</v>
+        <v>1298.079095529108</v>
       </c>
       <c r="F8">
-        <v>0.8872916133963225</v>
+        <v>3458379.257554854</v>
       </c>
       <c r="G8">
-        <v>0.5400915473544943</v>
+        <v>2017776.134265776</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -3630,7 +3630,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.002867025241502</v>
+        <v>5187899.834503516</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -3656,7 +3656,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.01500090581462526</v>
+        <v>61866.89842038271</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -3685,7 +3685,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>35.30424692891764</v>
+        <v>135786135.1465857</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.466505438222504</v>
+        <v>2571674.530594409</v>
       </c>
       <c r="C7">
-        <v>7.948024990747635</v>
+        <v>30569455.21922753</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -3734,22 +3734,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6.172024370761862</v>
+        <v>10823306.52365984</v>
       </c>
       <c r="C8">
-        <v>40.35687440595594</v>
+        <v>155219399.3321619</v>
       </c>
       <c r="D8">
-        <v>0.24022936201932</v>
+        <v>415031.986760281</v>
       </c>
       <c r="E8">
-        <v>0.00120007246517002</v>
+        <v>4949.351873630614</v>
       </c>
       <c r="F8">
-        <v>1.412169877156707</v>
+        <v>5431445.405863431</v>
       </c>
       <c r="G8">
-        <v>0.9414530428970138</v>
+        <v>3314112.974982194</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -3848,7 +3848,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.03468538996871</v>
+        <v>17336412.88449991</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -3874,7 +3874,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.05287379402531614</v>
+        <v>218062.6771820482</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -3903,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>54.32492796146002</v>
+        <v>206130273.8636217</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -3926,10 +3926,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4.903530431134412</v>
+        <v>8605757.570250403</v>
       </c>
       <c r="C7">
-        <v>12.23014007146496</v>
+        <v>46405991.07853418</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -3952,22 +3952,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.63729771122889</v>
+        <v>36218717.00444049</v>
       </c>
       <c r="C8">
-        <v>62.0997326261467</v>
+        <v>235630959.3666929</v>
       </c>
       <c r="D8">
-        <v>0.8027748311974964</v>
+        <v>1386913.030759992</v>
       </c>
       <c r="E8">
-        <v>0.004229903522025289</v>
+        <v>17445.01417456385</v>
       </c>
       <c r="F8">
-        <v>2.172997118458403</v>
+        <v>8245210.954544876</v>
       </c>
       <c r="G8">
-        <v>1.713367050259937</v>
+        <v>5501174.864878456</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -4066,7 +4066,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>31.01882131378499</v>
+        <v>53589631.31929215</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4092,7 +4092,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1728280776738279</v>
+        <v>712779.4649760119</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4121,7 +4121,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>81.00565517044549</v>
+        <v>303195054.6744168</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -4144,10 +4144,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.16753827562171</v>
+        <v>26642769.11015701</v>
       </c>
       <c r="C7">
-        <v>18.23675698232278</v>
+        <v>68258129.86395971</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -4170,22 +4170,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>63.83502811627282</v>
+        <v>112130385.5864194</v>
       </c>
       <c r="C8">
-        <v>92.59891758824354</v>
+        <v>346587331.7348655</v>
       </c>
       <c r="D8">
-        <v>2.481505705102798</v>
+        <v>4287170.50554337</v>
       </c>
       <c r="E8">
-        <v>0.01382624621390622</v>
+        <v>57022.35719808092</v>
       </c>
       <c r="F8">
-        <v>3.240226206817823</v>
+        <v>12127802.18697668</v>
       </c>
       <c r="G8">
-        <v>3.340429525794448</v>
+        <v>9490089.897411671</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -4284,7 +4284,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>86.8090643231297</v>
+        <v>149975578.5771292</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4310,7 +4310,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5203785084480369</v>
+        <v>2146150.981609816</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4339,7 +4339,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>117.3410763573397</v>
+        <v>433146371.2368786</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -4362,10 +4362,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>42.48663521163714</v>
+        <v>74722559.69638424</v>
       </c>
       <c r="C7">
-        <v>26.41692964608876</v>
+        <v>97513995.70068409</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -4388,22 +4388,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>178.8118483049956</v>
+        <v>314481929.2663395</v>
       </c>
       <c r="C8">
-        <v>134.134544513793</v>
+        <v>495136852.4755045</v>
       </c>
       <c r="D8">
-        <v>6.944725145850373</v>
+        <v>11998046.28617033</v>
       </c>
       <c r="E8">
-        <v>0.04163028067584293</v>
+        <v>171692.0785287852</v>
       </c>
       <c r="F8">
-        <v>4.693643054293593</v>
+        <v>17325854.84947516</v>
       </c>
       <c r="G8">
-        <v>6.89035648577259</v>
+        <v>17223655.53970683</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -4502,7 +4502,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>207.1289514145016</v>
+        <v>357846072.5029075</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4528,7 +4528,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.402386554148301</v>
+        <v>5783739.948802859</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4557,7 +4557,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>165.514128871403</v>
+        <v>602297334.0940039</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -4580,10 +4580,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>101.5445631457959</v>
+        <v>178992200.239889</v>
       </c>
       <c r="C7">
-        <v>37.26210150411689</v>
+        <v>135594855.5673266</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -4606,22 +4606,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>427.3666514417169</v>
+        <v>753317507.9090744</v>
       </c>
       <c r="C8">
-        <v>189.2019655517179</v>
+        <v>688496143.7079718</v>
       </c>
       <c r="D8">
-        <v>16.57031611316012</v>
+        <v>28627685.80023258</v>
       </c>
       <c r="E8">
-        <v>0.112190924331864</v>
+        <v>462699.1959042284</v>
       </c>
       <c r="F8">
-        <v>6.620565154856126</v>
+        <v>24091893.36376018</v>
       </c>
       <c r="G8">
-        <v>13.88066646499128</v>
+        <v>31458705.58072156</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -4720,7 +4720,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>375.4099287133689</v>
+        <v>648576369.4561766</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4746,7 +4746,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.145361758520577</v>
+        <v>12972148.00810478</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4775,7 +4775,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>227.8203415572261</v>
+        <v>816640978.2207716</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -4798,10 +4798,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>184.683147898049</v>
+        <v>327049603.2132493</v>
       </c>
       <c r="C7">
-        <v>51.28906365693744</v>
+        <v>183849918.0122939</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -4824,22 +4824,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>777.2687778624046</v>
+        <v>1376440938.348506</v>
       </c>
       <c r="C8">
-        <v>260.4252380700429</v>
+        <v>933515943.8231099</v>
       </c>
       <c r="D8">
-        <v>30.0327942970695</v>
+        <v>51886109.5564941</v>
       </c>
       <c r="E8">
-        <v>0.251628940681646</v>
+        <v>1037771.840648382</v>
       </c>
       <c r="F8">
-        <v>9.112813662289051</v>
+        <v>32665639.12883089</v>
       </c>
       <c r="G8">
-        <v>23.59722115549864</v>
+        <v>51089952.12255431</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -4938,7 +4938,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>475.8669006959026</v>
+        <v>822129976.6418266</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4964,7 +4964,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.105992570914183</v>
+        <v>21058259.3002547</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4993,7 +4993,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>306.5954042563025</v>
+        <v>1081239121.548187</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -5016,10 +5016,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>235.2878781129029</v>
+        <v>419452024.6538493</v>
       </c>
       <c r="C7">
-        <v>69.0236486274252</v>
+        <v>243418747.2215961</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -5042,22 +5042,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>990.2469367026986</v>
+        <v>1765331413.749705</v>
       </c>
       <c r="C8">
-        <v>350.4743281432239</v>
+        <v>1235982501.453235</v>
       </c>
       <c r="D8">
-        <v>38.06935205567219</v>
+        <v>65770398.1313461</v>
       </c>
       <c r="E8">
-        <v>0.4084794056731345</v>
+        <v>1684660.744020375</v>
       </c>
       <c r="F8">
-        <v>12.26381617025211</v>
+        <v>43249564.86192752</v>
       </c>
       <c r="G8">
-        <v>30.4311526740328</v>
+        <v>66287077.18754452</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -5156,7 +5156,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>500.0788298152992</v>
+        <v>863956055.090048</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -5182,7 +5182,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.031855253688829</v>
+        <v>20752764.84417545</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -5211,7 +5211,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>404.2551122650439</v>
+        <v>1399544123.997804</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -5234,10 +5234,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>246.9056405428611</v>
+        <v>439333822.9239293</v>
       </c>
       <c r="C7">
-        <v>91.00972303386744</v>
+        <v>315078571.0168264</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -5260,22 +5260,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1039.142161352076</v>
+        <v>1849007164.455572</v>
       </c>
       <c r="C8">
-        <v>462.1107717293593</v>
+        <v>1599842266.894789</v>
       </c>
       <c r="D8">
-        <v>40.00630638522392</v>
+        <v>69116484.40720381</v>
       </c>
       <c r="E8">
-        <v>0.4025484202951061</v>
+        <v>1660221.187534035</v>
       </c>
       <c r="F8">
-        <v>16.17020449060177</v>
+        <v>55981764.9599122</v>
       </c>
       <c r="G8">
-        <v>33.79153635767285</v>
+        <v>75441239.39407557</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -5374,7 +5374,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>539.5652435812624</v>
+        <v>932159180.0837102</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -5400,7 +5400,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.066831785005175</v>
+        <v>12649711.58475125</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -5429,7 +5429,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>523.4414237506019</v>
+        <v>1772672197.694262</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -5452,10 +5452,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>263.8999227910447</v>
+        <v>463700980.8769667</v>
       </c>
       <c r="C7">
-        <v>117.842069412748</v>
+        <v>399080681.5974612</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -5478,22 +5478,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1110.665335740387</v>
+        <v>1951560273.917367</v>
       </c>
       <c r="C8">
-        <v>598.3546353420387</v>
+        <v>2026371200.873268</v>
       </c>
       <c r="D8">
-        <v>43.16521948650097</v>
+        <v>74572734.40669678</v>
       </c>
       <c r="E8">
-        <v>0.2453465428004139</v>
+        <v>1011976.9267801</v>
       </c>
       <c r="F8">
-        <v>20.93765695002409</v>
+        <v>70906887.90777053</v>
       </c>
       <c r="G8">
-        <v>38.17419922037925</v>
+        <v>86278166.24744277</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -5592,7 +5592,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>591.4844657100875</v>
+        <v>1021796674.433462</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -5618,7 +5618,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.714307856232375</v>
+        <v>11200188.25393694</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -5647,7 +5647,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>667.3253411164465</v>
+        <v>2198727195.658155</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -5670,10 +5670,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>288.6077039566741</v>
+        <v>505468042.8190863</v>
       </c>
       <c r="C7">
-        <v>150.2345737279636</v>
+        <v>494998200.4746659</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -5696,22 +5696,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1214.652012862125</v>
+        <v>2127343682.20417</v>
       </c>
       <c r="C8">
-        <v>762.8307447988324</v>
+        <v>2513401786.102233</v>
       </c>
       <c r="D8">
-        <v>47.31875725680698</v>
+        <v>81743733.95467693</v>
       </c>
       <c r="E8">
-        <v>0.2171446284985899</v>
+        <v>896015.060314955</v>
       </c>
       <c r="F8">
-        <v>26.69301364465788</v>
+        <v>87949087.82632628</v>
       </c>
       <c r="G8">
-        <v>43.88422776846376</v>
+        <v>100046624.3293752</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -5865,7 +5865,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>5.824101545078756E-07</v>
+        <v>2.368639212082215</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -5891,7 +5891,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>1.311176661610695E-07</v>
+        <v>0.5332503958970979</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -5917,7 +5917,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>6.657627765167097E-07</v>
+        <v>2.70763105038012</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -5926,10 +5926,10 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.329640618031504E-08</v>
+        <v>0.09474556848328868</v>
       </c>
       <c r="G8">
-        <v>1.311176661610695E-08</v>
+        <v>0.05332503958970978</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -6028,7 +6028,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>649.5092567602952</v>
+        <v>1121824366.230682</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -6054,7 +6054,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4.621399499536212</v>
+        <v>19081190.73620512</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -6083,7 +6083,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>840.3733368731581</v>
+        <v>2672511195.325106</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -6106,10 +6106,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>318.657660307046</v>
+        <v>562134473.7205285</v>
       </c>
       <c r="C7">
-        <v>189.1927703903191</v>
+        <v>601660922.3038876</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -6132,22 +6132,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1341.122094800332</v>
+        <v>2365833484.841185</v>
       </c>
       <c r="C8">
-        <v>960.6447994369925</v>
+        <v>3054992190.469394</v>
       </c>
       <c r="D8">
-        <v>51.96074054082359</v>
+        <v>89745949.29845451</v>
       </c>
       <c r="E8">
-        <v>0.3697119599628967</v>
+        <v>1526495.258896409</v>
       </c>
       <c r="F8">
-        <v>33.61493347492635</v>
+        <v>106900447.8130043</v>
       </c>
       <c r="G8">
-        <v>50.7850430697365</v>
+        <v>116379539.6024416</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -6246,7 +6246,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>705.8192711432062</v>
+        <v>1218376850.988804</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -6272,7 +6272,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.894823879485283</v>
+        <v>28510212.41672206</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -6301,7 +6301,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1049.593503785064</v>
+        <v>3185807494.961815</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -6324,10 +6324,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>348.2671540749739</v>
+        <v>618761302.5280811</v>
       </c>
       <c r="C7">
-        <v>236.2943873298423</v>
+        <v>717219025.7067162</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -6350,22 +6350,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1465.738419007814</v>
+        <v>2604156615.686708</v>
       </c>
       <c r="C8">
-        <v>1199.807867162448</v>
+        <v>3641749764.967124</v>
       </c>
       <c r="D8">
-        <v>56.46554169145647</v>
+        <v>97470148.0791043</v>
       </c>
       <c r="E8">
-        <v>0.5515859103588223</v>
+        <v>2280816.993337763</v>
       </c>
       <c r="F8">
-        <v>41.98374015140259</v>
+        <v>127432299.7984727</v>
       </c>
       <c r="G8">
-        <v>58.4561541404816</v>
+        <v>133598032.8234797</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -6464,7 +6464,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>752.3396220776807</v>
+        <v>1296485134.298156</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -6490,7 +6490,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.728367632822547</v>
+        <v>40361014.32818764</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -6519,7 +6519,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1306.148394475129</v>
+        <v>3728383670.295573</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -6542,10 +6542,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>373.7405802544193</v>
+        <v>669042552.271364</v>
       </c>
       <c r="C7">
-        <v>294.0524436568544</v>
+        <v>839368890.8382305</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -6568,22 +6568,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1572.947436505154</v>
+        <v>2815773354.854109</v>
       </c>
       <c r="C8">
-        <v>1493.080048343913</v>
+        <v>4261977654.481256</v>
       </c>
       <c r="D8">
-        <v>60.18716976621442</v>
+        <v>103718810.7438524</v>
       </c>
       <c r="E8">
-        <v>0.7782694106258033</v>
+        <v>3228881.146255009</v>
       </c>
       <c r="F8">
-        <v>52.24593577900522</v>
+        <v>149135346.811823</v>
       </c>
       <c r="G8">
-        <v>66.77930239112737</v>
+        <v>150841144.3109594</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -6682,7 +6682,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>804.2403221729397</v>
+        <v>1379807591.579154</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -6708,7 +6708,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.01719826184728</v>
+        <v>54388493.22686084</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -6737,7 +6737,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1627.330923991054</v>
+        <v>4289971899.117383</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -6760,10 +6760,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>402.2952412244566</v>
+        <v>724147539.7172371</v>
       </c>
       <c r="C7">
-        <v>366.3600834805819</v>
+        <v>965798928.7362884</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -6786,22 +6786,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1693.124326963554</v>
+        <v>3047691571.181141</v>
       </c>
       <c r="C8">
-        <v>1860.229163042755</v>
+        <v>4903938539.925353</v>
       </c>
       <c r="D8">
-        <v>64.33922577383514</v>
+        <v>110384607.3263323</v>
       </c>
       <c r="E8">
-        <v>1.041375860947782</v>
+        <v>4351079.458148865</v>
       </c>
       <c r="F8">
-        <v>65.09323695964223</v>
+        <v>171598875.9646955</v>
       </c>
       <c r="G8">
-        <v>76.86553247050384</v>
+        <v>168994646.8453525</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -6900,7 +6900,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>801.1985886616011</v>
+        <v>1359370886.660058</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -6926,7 +6926,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.73256044095651</v>
+        <v>62580570.50769158</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -6955,7 +6955,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>2038.907915254062</v>
+        <v>4863464605.878381</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -6978,10 +6978,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>402.6422402907301</v>
+        <v>722949587.6292338</v>
       </c>
       <c r="C7">
-        <v>459.0181769604247</v>
+        <v>1094909014.968275</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -7004,22 +7004,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1694.584728430777</v>
+        <v>3042649796.845055</v>
       </c>
       <c r="C8">
-        <v>2330.709696963371</v>
+        <v>5559507632.960667</v>
       </c>
       <c r="D8">
-        <v>64.09588709292805</v>
+        <v>108749670.9328046</v>
       </c>
       <c r="E8">
-        <v>1.17860483527652</v>
+        <v>5006445.640615324</v>
       </c>
       <c r="F8">
-        <v>81.55631661016255</v>
+        <v>194538584.2351354</v>
       </c>
       <c r="G8">
-        <v>86.16604172511545</v>
+        <v>181785860.2597509</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -7118,7 +7118,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>795.0866671988791</v>
+        <v>1321572477.658353</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -7144,7 +7144,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.74111972950973</v>
+        <v>73001103.76071149</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -7173,7 +7173,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>2577.776071282182</v>
+        <v>5449406418.317728</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -7196,10 +7196,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>401.8165632454344</v>
+        <v>715724276.9569077</v>
       </c>
       <c r="C7">
-        <v>580.3332578189107</v>
+        <v>1226821761.266718</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -7222,22 +7222,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1691.109733580352</v>
+        <v>3012240912.981675</v>
       </c>
       <c r="C8">
-        <v>2946.69888766844</v>
+        <v>6229307506.653594</v>
       </c>
       <c r="D8">
-        <v>63.6069333759103</v>
+        <v>105725798.2126682</v>
       </c>
       <c r="E8">
-        <v>1.339289578360778</v>
+        <v>5840088.300856916</v>
       </c>
       <c r="F8">
-        <v>103.1110428512874</v>
+        <v>217976256.7327093</v>
       </c>
       <c r="G8">
-        <v>98.21498210643449</v>
+        <v>194254603.8223625</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -7336,7 +7336,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>812.7523568042752</v>
+        <v>1321328502.860866</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -7362,7 +7362,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>25.44902075583304</v>
+        <v>112411691.2578856</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -7391,7 +7391,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3294.789985116536</v>
+        <v>6061576820.852435</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -7414,10 +7414,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>419.5712703529971</v>
+        <v>757338257.2444725</v>
       </c>
       <c r="C7">
-        <v>741.7541916046786</v>
+        <v>1364639335.105308</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -7440,22 +7440,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1765.833278483422</v>
+        <v>3187380052.465919</v>
       </c>
       <c r="C8">
-        <v>3766.329469966292</v>
+        <v>6929089719.821287</v>
       </c>
       <c r="D8">
-        <v>65.02018854434199</v>
+        <v>105706280.2288692</v>
       </c>
       <c r="E8">
-        <v>2.035921660466642</v>
+        <v>8992935.300630843</v>
       </c>
       <c r="F8">
-        <v>131.7915994046616</v>
+        <v>242463072.8340976</v>
       </c>
       <c r="G8">
-        <v>116.1325461957675</v>
+        <v>212197759.234978</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -7554,7 +7554,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>813.3740091494878</v>
+        <v>1296081935.2626</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -7580,7 +7580,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>39.53207969342345</v>
+        <v>175818865.8684479</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -7609,7 +7609,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4257.463995540665</v>
+        <v>6733018082.623174</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -7632,10 +7632,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>434.7841170851891</v>
+        <v>812283985.1371458</v>
       </c>
       <c r="C7">
-        <v>958.4804429307482</v>
+        <v>1515800523.704454</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -7658,22 +7658,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1829.858994537745</v>
+        <v>3418627999.308769</v>
       </c>
       <c r="C8">
-        <v>4866.778212316949</v>
+        <v>7696625442.274637</v>
       </c>
       <c r="D8">
-        <v>65.069920731959</v>
+        <v>103686554.821008</v>
       </c>
       <c r="E8">
-        <v>3.162566375473874</v>
+        <v>14065509.26947583</v>
       </c>
       <c r="F8">
-        <v>170.2985598216267</v>
+        <v>269320723.3049272</v>
       </c>
       <c r="G8">
-        <v>139.3264560015937</v>
+        <v>232808450.8841599</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -7772,7 +7772,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>838.7129205848889</v>
+        <v>1294630919.110743</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -7798,7 +7798,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>54.13897352598934</v>
+        <v>240081248.5043343</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -7827,7 +7827,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>5552.027538088339</v>
+        <v>7521343856.600515</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -7850,10 +7850,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>462.4920326676755</v>
+        <v>879630415.3232199</v>
       </c>
       <c r="C7">
-        <v>1249.924795475536</v>
+        <v>1693275855.922636</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -7876,22 +7876,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1946.472220633515</v>
+        <v>3702066299.337218</v>
       </c>
       <c r="C8">
-        <v>6346.615422902867</v>
+        <v>8597773803.134375</v>
       </c>
       <c r="D8">
-        <v>67.09703364679108</v>
+        <v>103570473.5288594</v>
       </c>
       <c r="E8">
-        <v>4.331117882079146</v>
+        <v>19206499.88034673</v>
       </c>
       <c r="F8">
-        <v>222.0811015235338</v>
+        <v>300853754.2640209</v>
       </c>
       <c r="G8">
-        <v>171.2416828143211</v>
+        <v>257290627.1245855</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -7990,7 +7990,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>854.8701826512475</v>
+        <v>1267842582.353245</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -8016,7 +8016,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>69.54286192773026</v>
+        <v>299691669.7432816</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -8045,7 +8045,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>7283.98191575331</v>
+        <v>8511666999.865415</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -8068,10 +8068,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>486.6084262446571</v>
+        <v>929810968.3478065</v>
       </c>
       <c r="C7">
-        <v>1639.83869745543</v>
+        <v>1916226740.76754</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -8094,22 +8094,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2047.969947823963</v>
+        <v>3913259240.143119</v>
       </c>
       <c r="C8">
-        <v>8326.441403527848</v>
+        <v>9729828731.101601</v>
       </c>
       <c r="D8">
-        <v>68.38961461209976</v>
+        <v>101427406.5882595</v>
       </c>
       <c r="E8">
-        <v>5.563428954218418</v>
+        <v>23975333.57946252</v>
       </c>
       <c r="F8">
-        <v>291.3592766301327</v>
+        <v>340466679.9946169</v>
       </c>
       <c r="G8">
-        <v>212.6447123700087</v>
+        <v>284603770.9115346</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -8263,7 +8263,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>2.450104808205437E-05</v>
+        <v>99.64479976023659</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>5.515906991239928E-06</v>
+        <v>22.4329769811262</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>2.800755734154587E-05</v>
+        <v>113.9056351273312</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -8324,10 +8324,10 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>9.800419232821755E-07</v>
+        <v>3.985791990409467</v>
       </c>
       <c r="G8">
-        <v>5.515906991239927E-07</v>
+        <v>2.243297698112619</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -8426,7 +8426,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>837.9358818439798</v>
+        <v>1209560938.162163</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -8452,7 +8452,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>70.99150770368365</v>
+        <v>287819604.6671568</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -8481,7 +8481,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>9575.936133350464</v>
+        <v>9815235394.445396</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -8504,10 +8504,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>479.9617966759438</v>
+        <v>889085029.396348</v>
       </c>
       <c r="C7">
-        <v>2155.825044247903</v>
+        <v>2209698350.518376</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -8530,22 +8530,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2019.996536602763</v>
+        <v>3741857565.673212</v>
       </c>
       <c r="C8">
-        <v>10946.41255572387</v>
+        <v>11219959538.46764</v>
       </c>
       <c r="D8">
-        <v>67.03487054751835</v>
+        <v>96764875.05297297</v>
       </c>
       <c r="E8">
-        <v>5.67932061629469</v>
+        <v>23025568.37337253</v>
       </c>
       <c r="F8">
-        <v>383.0374453340189</v>
+        <v>392609415.7778162</v>
       </c>
       <c r="G8">
-        <v>263.5786840923847</v>
+        <v>309878337.9914723</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -8644,7 +8644,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>801.55230721268</v>
+        <v>1126655079.864232</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -8670,7 +8670,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>67.76317179711992</v>
+        <v>259402200.3585807</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -8699,7 +8699,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>12561.89712481383</v>
+        <v>11562580051.03065</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -8722,10 +8722,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>458.967185759209</v>
+        <v>818943811.6230226</v>
       </c>
       <c r="C7">
-        <v>2828.052740517193</v>
+        <v>2603077057.220469</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -8748,22 +8748,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1931.637334614525</v>
+        <v>3446656951.881697</v>
       </c>
       <c r="C8">
-        <v>14359.71444419628</v>
+        <v>13217378404.01406</v>
       </c>
       <c r="D8">
-        <v>64.12418457701438</v>
+        <v>90132406.3891385</v>
       </c>
       <c r="E8">
-        <v>5.421053743769591</v>
+        <v>20752176.02868645</v>
       </c>
       <c r="F8">
-        <v>502.4758849925538</v>
+        <v>462503202.0412264</v>
       </c>
       <c r="G8">
-        <v>328.7019926276401</v>
+        <v>342202086.8843491</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -8862,7 +8862,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>775.3495915013076</v>
+        <v>1032218603.020914</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -8888,7 +8888,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>71.00229206946214</v>
+        <v>253675914.224986</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -8917,7 +8917,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>16377.60428010252</v>
+        <v>13891101152.10779</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -8940,10 +8940,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>449.73911469967</v>
+        <v>767260004.7757795</v>
       </c>
       <c r="C7">
-        <v>3687.080717765109</v>
+        <v>3127295685.650839</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -8966,22 +8966,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1892.799511044208</v>
+        <v>3229137325.20948</v>
       </c>
       <c r="C8">
-        <v>18721.51303307257</v>
+        <v>15879149771.54934</v>
       </c>
       <c r="D8">
-        <v>62.02796732010458</v>
+        <v>82577488.2416731</v>
       </c>
       <c r="E8">
-        <v>5.680183365556968</v>
+        <v>20294073.13799887</v>
       </c>
       <c r="F8">
-        <v>655.1041712041015</v>
+        <v>555644046.0843122</v>
       </c>
       <c r="G8">
-        <v>413.6819832464778</v>
+        <v>389455569.0426618</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -9080,7 +9080,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>857.9887815843807</v>
+        <v>1066135165.1656</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -9106,7 +9106,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>72.94161107614038</v>
+        <v>228286981.8690724</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -9135,7 +9135,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>21146.83479210451</v>
+        <v>16928235002.08378</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -9158,10 +9158,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>491.7138875826358</v>
+        <v>756760052.3194951</v>
       </c>
       <c r="C7">
-        <v>4760.774864884255</v>
+        <v>3811043898.392982</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -9184,22 +9184,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2069.457104284958</v>
+        <v>3184946583.898232</v>
       </c>
       <c r="C8">
-        <v>24173.30009918513</v>
+        <v>19350948209.40703</v>
       </c>
       <c r="D8">
-        <v>68.63910252675042</v>
+        <v>85290813.21324795</v>
       </c>
       <c r="E8">
-        <v>5.835328886091228</v>
+        <v>18262958.54952579</v>
       </c>
       <c r="F8">
-        <v>845.8733916841812</v>
+        <v>677129400.0833519</v>
       </c>
       <c r="G8">
-        <v>525.248875246689</v>
+        <v>456780395.0712476</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -9298,7 +9298,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1093.936536892078</v>
+        <v>1285317035.281001</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -9324,7 +9324,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>71.45271426209648</v>
+        <v>197005718.2241387</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -9353,7 +9353,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>26964.14556050273</v>
+        <v>20772437573.19838</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -9376,10 +9376,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>604.1186223893217</v>
+        <v>829518432.5016311</v>
       </c>
       <c r="C7">
-        <v>6070.422722811015</v>
+        <v>4676487032.36587</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -9402,22 +9402,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2542.5305375869</v>
+        <v>3491161947.276358</v>
       </c>
       <c r="C8">
-        <v>30823.16521409185</v>
+        <v>23745320384.11698</v>
       </c>
       <c r="D8">
-        <v>87.51492295136616</v>
+        <v>102825362.82248</v>
       </c>
       <c r="E8">
-        <v>5.716217140967715</v>
+        <v>15760457.45793109</v>
       </c>
       <c r="F8">
-        <v>1078.56582242011</v>
+        <v>830897502.9279361</v>
       </c>
       <c r="G8">
-        <v>667.4541345200334</v>
+        <v>550600546.48675</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -9516,7 +9516,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1589.190428324267</v>
+        <v>1820143173.65566</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -9542,7 +9542,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>67.62441827707609</v>
+        <v>171239141.2263343</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -9571,7 +9571,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>33875.09669918066</v>
+        <v>25474656911.74017</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -9594,10 +9594,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>839.3114311446244</v>
+        <v>1060597321.38106</v>
       </c>
       <c r="C7">
-        <v>7626.281214018661</v>
+        <v>5735094992.194478</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -9620,22 +9620,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3532.377359583762</v>
+        <v>4463694674.779285</v>
       </c>
       <c r="C8">
-        <v>38723.18890503405</v>
+        <v>29120505858.45577</v>
       </c>
       <c r="D8">
-        <v>127.1352342659413</v>
+        <v>145611453.8924527</v>
       </c>
       <c r="E8">
-        <v>5.409953462166085</v>
+        <v>13699131.29810674</v>
       </c>
       <c r="F8">
-        <v>1355.003867967228</v>
+        <v>1018986276.469608</v>
       </c>
       <c r="G8">
-        <v>846.5592645163282</v>
+        <v>679569231.3575536</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -9734,7 +9734,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2455.168541614119</v>
+        <v>2801976208.168977</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -9760,7 +9760,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>88.56925573129639</v>
+        <v>215753117.7416984</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -9789,7 +9789,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>41855.68905096246</v>
+        <v>31022652060.35159</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -9812,10 +9812,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1279.825452774362</v>
+        <v>1582035725.927767</v>
       </c>
       <c r="C7">
-        <v>9422.947421929639</v>
+        <v>6984111978.125188</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -9838,22 +9838,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5386.351580406626</v>
+        <v>6658252196.921358</v>
       </c>
       <c r="C8">
-        <v>47845.93733454899</v>
+        <v>35462511789.58833</v>
       </c>
       <c r="D8">
-        <v>196.4134833291294</v>
+        <v>224158096.653518</v>
       </c>
       <c r="E8">
-        <v>7.085540458503708</v>
+        <v>17260249.41933587</v>
       </c>
       <c r="F8">
-        <v>1674.2275620385</v>
+        <v>1240906082.414064</v>
       </c>
       <c r="G8">
-        <v>1070.2772874704</v>
+        <v>856614770.4052951</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -9952,7 +9952,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3636.208842101102</v>
+        <v>4143577617.217184</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -9978,7 +9978,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>137.0602095574586</v>
+        <v>333095080.7145106</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -10007,7 +10007,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>50793.370941699</v>
+        <v>37329660512.62894</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -10030,10 +10030,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1901.707855321534</v>
+        <v>2354388052.353054</v>
       </c>
       <c r="C7">
-        <v>11435.08265228744</v>
+        <v>8404005196.53844</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -10056,22 +10056,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8003.643848290274</v>
+        <v>9908821378.096279</v>
       </c>
       <c r="C8">
-        <v>58062.75080379184</v>
+        <v>42672158507.11607</v>
       </c>
       <c r="D8">
-        <v>290.896707368088</v>
+        <v>331486209.3773745</v>
       </c>
       <c r="E8">
-        <v>10.96481676459668</v>
+        <v>26647606.45716083</v>
       </c>
       <c r="F8">
-        <v>2031.734837667962</v>
+        <v>1493186420.505159</v>
       </c>
       <c r="G8">
-        <v>1333.679050760898</v>
+        <v>1075839324.889149</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -10170,7 +10170,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4951.113082104714</v>
+        <v>5619265249.094445</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -10196,7 +10196,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>190.5998877363994</v>
+        <v>462787013.3580912</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -10225,7 +10225,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>60472.54896189</v>
+        <v>44228182877.47684</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -10248,10 +10248,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2593.603161091686</v>
+        <v>3204591945.103992</v>
       </c>
       <c r="C7">
-        <v>13614.15048368084</v>
+        <v>9957065604.977055</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -10274,22 +10274,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10915.59669751059</v>
+        <v>13487041416.97705</v>
       </c>
       <c r="C8">
-        <v>69127.18088497226</v>
+        <v>50557974659.07612</v>
       </c>
       <c r="D8">
-        <v>396.0890465683769</v>
+        <v>449541219.9275554</v>
       </c>
       <c r="E8">
-        <v>15.24799101891194</v>
+        <v>37022961.06864727</v>
       </c>
       <c r="F8">
-        <v>2418.901958475602</v>
+        <v>1769127315.099075</v>
       </c>
       <c r="G8">
-        <v>1620.775364477252</v>
+        <v>1316165755.008104</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -10388,7 +10388,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6924.683192853097</v>
+        <v>7812370675.783173</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -10414,7 +10414,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>268.9209185918537</v>
+        <v>651411920.2156777</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -10443,7 +10443,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>70568.11759135203</v>
+        <v>51469641878.85085</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -10466,10 +10466,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3629.926850175933</v>
+        <v>4463769146.657792</v>
       </c>
       <c r="C7">
-        <v>15886.96009563287</v>
+        <v>11587331142.95264</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -10492,22 +10492,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15277.13188061801</v>
+        <v>18786491505.9706</v>
       </c>
       <c r="C8">
-        <v>80667.59402722758</v>
+        <v>58835807408.85088</v>
       </c>
       <c r="D8">
-        <v>553.9746554282475</v>
+        <v>624989654.0626535</v>
       </c>
       <c r="E8">
-        <v>21.51367348734829</v>
+        <v>52112953.61725419</v>
       </c>
       <c r="F8">
-        <v>2822.724703654083</v>
+        <v>2058785675.154036</v>
       </c>
       <c r="G8">
-        <v>1951.68869458088</v>
+        <v>1605110028.961043</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -10661,7 +10661,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.0002166874789278535</v>
+        <v>881.2594618811924</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -10687,7 +10687,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.878272863795319E-05</v>
+        <v>198.3974404118317</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -10713,7 +10713,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.0002476990768289618</v>
+        <v>1007.38241191794</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -10722,10 +10722,10 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>8.667499157114148E-06</v>
+        <v>35.25037847524773</v>
       </c>
       <c r="G8">
-        <v>4.878272863795318E-06</v>
+        <v>19.83974404118317</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -10824,7 +10824,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9543.447754094481</v>
+        <v>10728129393.12714</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -10850,7 +10850,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>371.9763741057424</v>
+        <v>899089540.8234892</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -10879,7 +10879,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>80650.81496849148</v>
+        <v>58731309356.98637</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -10902,10 +10902,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5004.121474834437</v>
+        <v>6134575605.451101</v>
       </c>
       <c r="C7">
-        <v>18156.87200988502</v>
+        <v>13222146203.78448</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -10928,22 +10928,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21060.65132248412</v>
+        <v>25818349631.90959</v>
       </c>
       <c r="C8">
-        <v>92193.29382594449</v>
+        <v>67136740805.98524</v>
       </c>
       <c r="D8">
-        <v>763.475820327558</v>
+        <v>858250351.4501706</v>
       </c>
       <c r="E8">
-        <v>29.75810992845937</v>
+        <v>71927163.26587909</v>
       </c>
       <c r="F8">
-        <v>3226.032598739662</v>
+        <v>2349252374.279457</v>
       </c>
       <c r="G8">
-        <v>2316.099348471945</v>
+        <v>1935672180.923558</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -11042,7 +11042,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10882.79944675329</v>
+        <v>12225986675.62416</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>424.3805440835829</v>
+        <v>1025260672.322288</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -11097,7 +11097,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>90207.63749177856</v>
+        <v>65632429956.24877</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -11120,10 +11120,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5706.624434656906</v>
+        <v>6991761009.916128</v>
       </c>
       <c r="C7">
-        <v>20308.39401799245</v>
+        <v>14775791551.25606</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -11146,22 +11146,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24017.24819253184</v>
+        <v>29425952487.46532</v>
       </c>
       <c r="C8">
-        <v>103117.8572947207</v>
+        <v>75025527043.10684</v>
       </c>
       <c r="D8">
-        <v>870.6239557402624</v>
+        <v>978078934.0499321</v>
       </c>
       <c r="E8">
-        <v>33.95044352668661</v>
+        <v>82020853.78578298</v>
       </c>
       <c r="F8">
-        <v>3608.305499671145</v>
+        <v>2625297198.249953</v>
       </c>
       <c r="G8">
-        <v>2601.501845264935</v>
+        <v>2176755256.117218</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -11260,7 +11260,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10943.72703980629</v>
+        <v>12298083373.35398</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -11286,7 +11286,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>427.3641940582654</v>
+        <v>1033968332.34958</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -11315,7 +11315,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>98678.70208307641</v>
+        <v>71760955725.60045</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -11338,10 +11338,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5739.216639469663</v>
+        <v>7035809920.522795</v>
       </c>
       <c r="C7">
-        <v>22215.47996165903</v>
+        <v>16155503064.98191</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -11364,22 +11364,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24154.41773664552</v>
+        <v>29611339423.43153</v>
       </c>
       <c r="C8">
-        <v>112801.2727343438</v>
+        <v>82031147224.30957</v>
       </c>
       <c r="D8">
-        <v>875.4981631845029</v>
+        <v>983846669.8683175</v>
       </c>
       <c r="E8">
-        <v>34.18913552466122</v>
+        <v>82717466.58796632</v>
       </c>
       <c r="F8">
-        <v>3947.14808332306</v>
+        <v>2870438229.024021</v>
       </c>
       <c r="G8">
-        <v>2795.469660112868</v>
+        <v>2319131298.550469</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -11478,7 +11478,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10802.43859596438</v>
+        <v>12140351980.47541</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -11504,7 +11504,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>422.9674565301079</v>
+        <v>1025502872.389998</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -11533,7 +11533,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>105508.7384296899</v>
+        <v>76710289822.51405</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -11556,10 +11556,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5666.3075049379</v>
+        <v>6950649181.235563</v>
       </c>
       <c r="C7">
-        <v>23753.12215184362</v>
+        <v>17269743829.52878</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -11582,22 +11582,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23847.56789930252</v>
+        <v>29252926733.9089</v>
       </c>
       <c r="C8">
-        <v>120608.801374832</v>
+        <v>87688813706.8837</v>
       </c>
       <c r="D8">
-        <v>864.19508767715</v>
+        <v>971228158.4380326</v>
       </c>
       <c r="E8">
-        <v>33.83739652240862</v>
+        <v>82040229.79119983</v>
       </c>
       <c r="F8">
-        <v>4220.349537187599</v>
+        <v>3068411592.900565</v>
       </c>
       <c r="G8">
-        <v>2941.942965678151</v>
+        <v>2422039301.076433</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -11696,7 +11696,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10487.629614847</v>
+        <v>11783461195.69021</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -11722,7 +11722,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>411.5103861811454</v>
+        <v>999194330.62718</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -11751,7 +11751,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>110207.3617353194</v>
+        <v>80122357952.57054</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -11774,10 +11774,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5502.098120329345</v>
+        <v>6750384764.02745</v>
       </c>
       <c r="C7">
-        <v>24810.92053883211</v>
+        <v>18037900783.06541</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -11800,22 +11800,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23156.46625228766</v>
+        <v>28410081674.22535</v>
       </c>
       <c r="C8">
-        <v>125979.8761638787</v>
+        <v>91589205783.40933</v>
       </c>
       <c r="D8">
-        <v>839.0103691877592</v>
+        <v>942676895.6552163</v>
       </c>
       <c r="E8">
-        <v>32.92083089449162</v>
+        <v>79935546.45017436</v>
       </c>
       <c r="F8">
-        <v>4408.294469412779</v>
+        <v>3204894318.102825</v>
       </c>
       <c r="G8">
-        <v>3031.301865916145</v>
+        <v>2478828554.709286</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -11914,7 +11914,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10035.03195547061</v>
+        <v>11267331017.16489</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -11940,7 +11940,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>394.4861223898204</v>
+        <v>958941415.7398486</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -11969,7 +11969,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>112408.6622385552</v>
+        <v>81730357241.68025</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -11992,10 +11992,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5265.430868448332</v>
+        <v>6458429507.760067</v>
       </c>
       <c r="C7">
-        <v>25306.49806657518</v>
+        <v>18399908746.60252</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -12018,22 +12018,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>22160.4139988836</v>
+        <v>27181340948.21864</v>
       </c>
       <c r="C8">
-        <v>128496.2195408589</v>
+        <v>93427336631.69299</v>
       </c>
       <c r="D8">
-        <v>802.802556437648</v>
+        <v>901386481.3731909</v>
       </c>
       <c r="E8">
-        <v>31.55888979118562</v>
+        <v>76715313.25918785</v>
       </c>
       <c r="F8">
-        <v>4496.346489542211</v>
+        <v>3269214289.667213</v>
       </c>
       <c r="G8">
-        <v>3057.19289350235</v>
+        <v>2485833825.436258</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -12132,7 +12132,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9680.17710223012</v>
+        <v>10855520175.0635</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -12158,7 +12158,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>381.4031165321133</v>
+        <v>928294906.6998389</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -12187,7 +12187,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>111918.9209190139</v>
+        <v>81393041526.70052</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -12210,10 +12210,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5080.154475631538</v>
+        <v>6227040912.578687</v>
       </c>
       <c r="C7">
-        <v>25196.24288241692</v>
+        <v>18323969051.92984</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -12236,22 +12236,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21380.64845421699</v>
+        <v>26207504771.85449</v>
       </c>
       <c r="C8">
-        <v>127936.3880575835</v>
+        <v>93041745403.19289</v>
       </c>
       <c r="D8">
-        <v>774.4141681784092</v>
+        <v>868441614.0050795</v>
       </c>
       <c r="E8">
-        <v>30.51224932256905</v>
+        <v>74263592.53598708</v>
       </c>
       <c r="F8">
-        <v>4476.756836760558</v>
+        <v>3255721661.068024</v>
       </c>
       <c r="G8">
-        <v>3027.639735804845</v>
+        <v>2455100996.450852</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -12350,7 +12350,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9246.030106441911</v>
+        <v>10351068900.04176</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -12376,7 +12376,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>365.73047712907</v>
+        <v>892297438.1993116</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -12405,7 +12405,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>108742.6702152533</v>
+        <v>79113333307.37505</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -12428,10 +12428,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4853.831579643631</v>
+        <v>5945233574.160452</v>
       </c>
       <c r="C7">
-        <v>24481.17537166681</v>
+        <v>17810739639.74911</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -12454,22 +12454,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20428.13208892356</v>
+        <v>25021473192.80692</v>
       </c>
       <c r="C8">
-        <v>124305.5628202804</v>
+        <v>90435772856.18509</v>
       </c>
       <c r="D8">
-        <v>739.6824085153524</v>
+        <v>828085512.0033405</v>
       </c>
       <c r="E8">
-        <v>29.25843817032558</v>
+        <v>71383795.05594489</v>
       </c>
       <c r="F8">
-        <v>4349.706808610137</v>
+        <v>3164533332.295005</v>
       </c>
       <c r="G8">
-        <v>2933.500695131043</v>
+        <v>2375597321.390956</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -12568,7 +12568,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8180.994932348867</v>
+        <v>9146426444.392271</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -12594,7 +12594,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>326.4316171898311</v>
+        <v>801878699.146521</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -12623,7 +12623,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>103081.9943098734</v>
+        <v>75037463831.1057</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -12646,10 +12646,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4297.722279390026</v>
+        <v>5267552176.07462</v>
       </c>
       <c r="C7">
-        <v>23206.79063118307</v>
+        <v>16893141467.44878</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -12672,22 +12672,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18087.6565171911</v>
+        <v>22169341863.74252</v>
       </c>
       <c r="C8">
-        <v>117834.7496338046</v>
+        <v>85776578372.30167</v>
       </c>
       <c r="D8">
-        <v>654.4795945879091</v>
+        <v>731714115.5513813</v>
       </c>
       <c r="E8">
-        <v>26.11452937518647</v>
+        <v>64150295.93172164</v>
       </c>
       <c r="F8">
-        <v>4123.279772394941</v>
+        <v>3001498553.244231</v>
       </c>
       <c r="G8">
-        <v>2750.451291057309</v>
+        <v>2216069364.35234</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -12786,7 +12786,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5932.917100435739</v>
+        <v>6624548850.693637</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -12812,7 +12812,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>241.8114324576654</v>
+        <v>604001532.7712909</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -12841,7 +12841,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>95310.55856861576</v>
+        <v>69435704415.8629</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -12864,10 +12864,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3122.119598109872</v>
+        <v>3839754945.134686</v>
       </c>
       <c r="C7">
-        <v>21457.21173179826</v>
+        <v>15632020562.81232</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -12890,22 +12890,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13139.94325948328</v>
+        <v>16160227218.69303</v>
       </c>
       <c r="C8">
-        <v>108951.0916196466</v>
+        <v>79373113609.87497</v>
       </c>
       <c r="D8">
-        <v>474.6333680348589</v>
+        <v>529963908.0554907</v>
       </c>
       <c r="E8">
-        <v>19.34491459661322</v>
+        <v>48320122.62170324</v>
       </c>
       <c r="F8">
-        <v>3812.422342744634</v>
+        <v>2777428176.634519</v>
       </c>
       <c r="G8">
-        <v>2457.933132990813</v>
+        <v>1947177550.7947</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -13059,7 +13059,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.001044670990942265</v>
+        <v>4248.635868928988</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -13085,7 +13085,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.0002351861848189486</v>
+        <v>956.4929718179282</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -13111,7 +13111,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.001194180860503489</v>
+        <v>4856.686633317271</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -13120,10 +13120,10 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>4.178683963769065E-05</v>
+        <v>169.9454347571597</v>
       </c>
       <c r="G8">
-        <v>2.351861848189486E-05</v>
+        <v>95.64929718179279</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -13222,7 +13222,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2903.491419184226</v>
+        <v>3226084107.50987</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -13248,7 +13248,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>125.6510405119867</v>
+        <v>326745892.6533798</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -13277,7 +13277,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>85929.88299398035</v>
+        <v>62670137173.61481</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -13300,10 +13300,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1535.666541565401</v>
+        <v>1904443363.206603</v>
       </c>
       <c r="C7">
-        <v>19345.34558585229</v>
+        <v>14108892265.35171</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -13326,22 +13326,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6463.100015089868</v>
+        <v>8015156673.877559</v>
       </c>
       <c r="C8">
-        <v>98227.88467032945</v>
+        <v>71639280679.51408</v>
       </c>
       <c r="D8">
-        <v>232.279313534738</v>
+        <v>258086728.6007894</v>
       </c>
       <c r="E8">
-        <v>10.05208324095893</v>
+        <v>26139671.41227037</v>
       </c>
       <c r="F8">
-        <v>3437.195319759217</v>
+        <v>2506805486.944595</v>
       </c>
       <c r="G8">
-        <v>2088.101212741768</v>
+        <v>1601333562.855831</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -13440,7 +13440,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1331.340349268666</v>
+        <v>1459600980.172295</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -13466,7 +13466,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>63.64997012330604</v>
+        <v>172609461.7552371</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -13495,7 +13495,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>75518.17305689685</v>
+        <v>55156957754.25077</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -13518,10 +13518,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>710.5410194611995</v>
+        <v>887878111.4879647</v>
       </c>
       <c r="C7">
-        <v>17001.36326148857</v>
+        <v>12417454464.5311</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -13544,22 +13544,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2990.426338858977</v>
+        <v>3736778057.237785</v>
       </c>
       <c r="C8">
-        <v>86326.08511833419</v>
+        <v>63050839780.96795</v>
       </c>
       <c r="D8">
-        <v>106.5072279414933</v>
+        <v>116768078.4137836</v>
       </c>
       <c r="E8">
-        <v>5.091997609864481</v>
+        <v>13808756.94041896</v>
       </c>
       <c r="F8">
-        <v>3020.726922275876</v>
+        <v>2206278310.170033</v>
       </c>
       <c r="G8">
-        <v>1771.190428094977</v>
+        <v>1330533257.601907</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -13658,7 +13658,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1142.83116365296</v>
+        <v>1248257397.459432</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -13684,7 +13684,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>52.96675722540856</v>
+        <v>135008286.481694</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -13713,7 +13713,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>64680.36964333412</v>
+        <v>47329642630.47256</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -13736,10 +13736,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>608.163808375949</v>
+        <v>745966681.712592</v>
       </c>
       <c r="C7">
-        <v>14561.45475560141</v>
+        <v>10655295471.60584</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -13762,22 +13762,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2559.555354435851</v>
+        <v>3139520945.034449</v>
       </c>
       <c r="C8">
-        <v>73937.21099567629</v>
+        <v>54103305111.21085</v>
       </c>
       <c r="D8">
-        <v>91.42649309223675</v>
+        <v>99860591.79675448</v>
       </c>
       <c r="E8">
-        <v>4.237340578032683</v>
+        <v>10800662.91853552</v>
       </c>
       <c r="F8">
-        <v>2587.214785733367</v>
+        <v>1893185705.218904</v>
       </c>
       <c r="G8">
-        <v>1516.961856397736</v>
+        <v>1140126215.331843</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -13876,7 +13876,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>978.7835979477159</v>
+        <v>1077312263.733253</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -13902,7 +13902,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>41.48793368142245</v>
+        <v>94008151.7701446</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -13931,7 +13931,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>54003.25251306805</v>
+        <v>39605855187.07407</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -13954,10 +13954,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>516.761012488559</v>
+        <v>619971725.3003737</v>
       </c>
       <c r="C7">
-        <v>12157.72146109559</v>
+        <v>8916443606.362669</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -13980,22 +13980,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2174.871964201365</v>
+        <v>2609250874.906484</v>
       </c>
       <c r="C8">
-        <v>61732.02004764666</v>
+        <v>45274114662.27895</v>
       </c>
       <c r="D8">
-        <v>78.30268783581722</v>
+        <v>86184981.09866022</v>
       </c>
       <c r="E8">
-        <v>3.319034694513795</v>
+        <v>7520652.141611564</v>
       </c>
       <c r="F8">
-        <v>2160.130100522724</v>
+        <v>1584234207.482964</v>
       </c>
       <c r="G8">
-        <v>1267.448247358414</v>
+        <v>953641533.1663042</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -14094,7 +14094,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>656.6775104672494</v>
+        <v>753549098.5493582</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -14120,7 +14120,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>25.69640404158737</v>
+        <v>52643024.85649134</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -14149,7 +14149,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>44014.87578733461</v>
+        <v>32357715641.01336</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -14172,10 +14172,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>344.4367960396642</v>
+        <v>419767148.4460174</v>
       </c>
       <c r="C7">
-        <v>9909.043901339881</v>
+        <v>7284674081.169093</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -14198,22 +14198,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1449.617740197834</v>
+        <v>1766657662.991184</v>
       </c>
       <c r="C8">
-        <v>50314.13976113587</v>
+        <v>36988645270.27734</v>
       </c>
       <c r="D8">
-        <v>52.53420083737992</v>
+        <v>60283927.88394863</v>
       </c>
       <c r="E8">
-        <v>2.055712323326989</v>
+        <v>4211441.988519305</v>
       </c>
       <c r="F8">
-        <v>1760.595031493386</v>
+        <v>1294308625.640536</v>
       </c>
       <c r="G8">
-        <v>1025.348069737954</v>
+        <v>770444122.9615109</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -14312,7 +14312,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>241.4408612229639</v>
+        <v>367644999.2116991</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -14338,7 +14338,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.180800738659881</v>
+        <v>18982098.86321873</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -14367,7 +14367,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>35146.78589503945</v>
+        <v>25884511606.60804</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -14390,10 +14390,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>126.3564712051666</v>
+        <v>197701584.271306</v>
       </c>
       <c r="C7">
-        <v>7912.575877929776</v>
+        <v>5827365346.068445</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -14416,22 +14416,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>531.7915633691855</v>
+        <v>832058964.4316028</v>
       </c>
       <c r="C8">
-        <v>40176.87806781429</v>
+        <v>29589017606.59693</v>
       </c>
       <c r="D8">
-        <v>19.3152688978371</v>
+        <v>29411599.93693592</v>
       </c>
       <c r="E8">
-        <v>0.7344640590927901</v>
+        <v>1518567.909057498</v>
       </c>
       <c r="F8">
-        <v>1405.871435801579</v>
+        <v>1035380464.264323</v>
       </c>
       <c r="G8">
-        <v>803.8932349134941</v>
+        <v>602506693.033975</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -14530,7 +14530,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>49.19159801491465</v>
+        <v>285162342.4412051</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -14556,7 +14556,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.947866151879403</v>
+        <v>6551916.923183489</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -14585,7 +14585,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>27701.03684728419</v>
+        <v>20389533438.35201</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -14608,10 +14608,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>25.82600535298857</v>
+        <v>144693662.9950996</v>
       </c>
       <c r="C7">
-        <v>6236.318638239985</v>
+        <v>4590284042.710061</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -14634,22 +14634,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>108.6929037448869</v>
+        <v>608966588.8883401</v>
       </c>
       <c r="C8">
-        <v>31665.51795344808</v>
+        <v>23307616271.33334</v>
       </c>
       <c r="D8">
-        <v>3.93532784119317</v>
+        <v>22812987.3952964</v>
       </c>
       <c r="E8">
-        <v>0.1558292921503522</v>
+        <v>524153.3538546788</v>
       </c>
       <c r="F8">
-        <v>1108.041473891368</v>
+        <v>815581337.534081</v>
       </c>
       <c r="G8">
-        <v>626.2144643592973</v>
+        <v>473497770.570516</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -14748,7 +14748,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>99.91705697291363</v>
+        <v>510173245.2745111</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -14774,7 +14774,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4.055305451074871</v>
+        <v>15361007.38157435</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -14803,7 +14803,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>21828.83697636311</v>
+        <v>15966175104.45272</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -14826,10 +14826,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>52.56195807830529</v>
+        <v>262719568.1335361</v>
       </c>
       <c r="C7">
-        <v>4914.313627944283</v>
+        <v>3594455901.930025</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -14852,22 +14852,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>221.215467586314</v>
+        <v>1105697623.025244</v>
       </c>
       <c r="C8">
-        <v>24952.9081885498</v>
+        <v>18251201469.64861</v>
       </c>
       <c r="D8">
-        <v>7.993364557833086</v>
+        <v>40813859.62196087</v>
       </c>
       <c r="E8">
-        <v>0.3244244360859895</v>
+        <v>1228880.590525947</v>
       </c>
       <c r="F8">
-        <v>873.1534790545253</v>
+        <v>638647004.1781094</v>
       </c>
       <c r="G8">
-        <v>496.6875586022587</v>
+        <v>385717547.006356</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -14966,7 +14966,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>281.5907558292195</v>
+        <v>835682160.3353277</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -14992,7 +14992,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.41804846130657</v>
+        <v>39002626.36766968</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -15021,7 +15021,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>17529.0122326987</v>
+        <v>12599296294.95111</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -15044,10 +15044,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>148.1210484657405</v>
+        <v>445000071.2600661</v>
       </c>
       <c r="C7">
-        <v>3946.296533930389</v>
+        <v>2836472394.375913</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -15070,22 +15070,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>623.3912927465343</v>
+        <v>1872854483.333444</v>
       </c>
       <c r="C8">
-        <v>20037.70669743542</v>
+        <v>14402466060.31646</v>
       </c>
       <c r="D8">
-        <v>22.52726046633754</v>
+        <v>66854572.82682618</v>
       </c>
       <c r="E8">
-        <v>0.9134438769045253</v>
+        <v>3120210.109413573</v>
       </c>
       <c r="F8">
-        <v>701.1604893079485</v>
+        <v>503971851.7980447</v>
       </c>
       <c r="G8">
-        <v>409.4417582396129</v>
+        <v>328147246.5635979</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -15184,7 +15184,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>680.7452325126897</v>
+        <v>1198909177.543329</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -15210,7 +15210,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>27.55559443830156</v>
+        <v>80110304.00289044</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -15239,7 +15239,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>14669.86636701007</v>
+        <v>10184281650.7002</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -15262,10 +15262,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>358.032094265581</v>
+        <v>663996180.1989844</v>
       </c>
       <c r="C7">
-        <v>3302.61865465314</v>
+        <v>2292781523.864652</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -15288,22 +15288,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1506.835742798519</v>
+        <v>2794534885.085861</v>
       </c>
       <c r="C8">
-        <v>16769.36929762554</v>
+        <v>11641822478.74364</v>
       </c>
       <c r="D8">
-        <v>54.45961860101514</v>
+        <v>95912734.20346627</v>
       </c>
       <c r="E8">
-        <v>2.204447555064124</v>
+        <v>6408824.320231232</v>
       </c>
       <c r="F8">
-        <v>586.7946546804031</v>
+        <v>407371266.0280082</v>
       </c>
       <c r="G8">
-        <v>366.0650748918721</v>
+        <v>295677770.4063635</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -15402,7 +15402,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9.895628706290487E-13</v>
+        <v>1.709617179893105E-06</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -15428,7 +15428,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8.945962288203702E-16</v>
+        <v>3.689503452694342E-09</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -15457,7 +15457,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.003757779698955622</v>
+        <v>15282.74237051</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -15480,10 +15480,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4.789839968554507E-13</v>
+        <v>8.29786395690814E-07</v>
       </c>
       <c r="C7">
-        <v>0.00084598680201728</v>
+        <v>3440.5950800349</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -15506,22 +15506,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.015881308548017E-12</v>
+        <v>3.492289713523246E-06</v>
       </c>
       <c r="C8">
-        <v>0.004295580745889948</v>
+        <v>17469.95809504333</v>
       </c>
       <c r="D8">
-        <v>7.916502965032386E-14</v>
+        <v>1.367693743914483E-07</v>
       </c>
       <c r="E8">
-        <v>7.156769830562958E-17</v>
+        <v>2.951602762155472E-10</v>
       </c>
       <c r="F8">
-        <v>0.000150311187958225</v>
+        <v>611.3096948204005</v>
       </c>
       <c r="G8">
-        <v>8.459868024962638E-05</v>
+        <v>344.0595080864685</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -15620,7 +15620,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1273.713981623175</v>
+        <v>1538247365.844959</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -15646,7 +15646,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>51.36127076402366</v>
+        <v>125497367.1251111</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -15675,7 +15675,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>13029.48339161037</v>
+        <v>8559751523.611358</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -15698,10 +15698,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>669.6904569217086</v>
+        <v>875983543.4216871</v>
       </c>
       <c r="C7">
-        <v>2933.32017027747</v>
+        <v>1927051982.194455</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -15724,22 +15724,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2818.500165943677</v>
+        <v>3686717851.478348</v>
       </c>
       <c r="C8">
-        <v>14894.22011658895</v>
+        <v>9784794953.425854</v>
       </c>
       <c r="D8">
-        <v>101.8971185298539</v>
+        <v>123059789.2675967</v>
       </c>
       <c r="E8">
-        <v>4.108901661121891</v>
+        <v>10039789.37000888</v>
       </c>
       <c r="F8">
-        <v>521.1793356644155</v>
+        <v>342390060.9444546</v>
       </c>
       <c r="G8">
-        <v>360.3010627199178</v>
+        <v>280303552.5616141</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -15838,7 +15838,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1748.193652739394</v>
+        <v>1844234660.988817</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -15864,7 +15864,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>69.93596517660845</v>
+        <v>158807909.2753213</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -15893,7 +15893,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>12342.38003784407</v>
+        <v>7544411696.277289</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -15916,10 +15916,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>918.570191536855</v>
+        <v>1059071983.41501</v>
       </c>
       <c r="C7">
-        <v>2778.632983833397</v>
+        <v>1698469105.522399</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -15942,22 +15942,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3865.950620198566</v>
+        <v>4457275044.238043</v>
       </c>
       <c r="C8">
-        <v>14108.78079514729</v>
+        <v>8624143036.006746</v>
       </c>
       <c r="D8">
-        <v>139.8554922191514</v>
+        <v>147538772.8791053</v>
       </c>
       <c r="E8">
-        <v>5.594877214128673</v>
+        <v>12704632.7420257</v>
       </c>
       <c r="F8">
-        <v>493.6952015137634</v>
+        <v>301776467.8510919</v>
       </c>
       <c r="G8">
-        <v>369.7203175370251</v>
+        <v>275754108.8937408</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -16056,7 +16056,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2019.114504737271</v>
+        <v>2071878079.420777</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -16082,7 +16082,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>80.01828706622966</v>
+        <v>177606463.4983228</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -16111,7 +16111,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>12339.38245570802</v>
+        <v>6967609270.707593</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -16134,10 +16134,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1060.122437324022</v>
+        <v>1188947435.79367</v>
       </c>
       <c r="C7">
-        <v>2777.958139875469</v>
+        <v>1568613904.181263</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -16160,22 +16160,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4461.696048727902</v>
+        <v>5003876806.735695</v>
       </c>
       <c r="C8">
-        <v>14105.35420893431</v>
+        <v>7964790548.113849</v>
       </c>
       <c r="D8">
-        <v>161.5291603789816</v>
+        <v>165750246.3536621</v>
       </c>
       <c r="E8">
-        <v>6.40146296529837</v>
+        <v>14208517.07986582</v>
       </c>
       <c r="F8">
-        <v>493.5752982283213</v>
+        <v>278704370.828304</v>
       </c>
       <c r="G8">
-        <v>383.808057719949</v>
+        <v>275756133.9974932</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -16274,7 +16274,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1990.001172696541</v>
+        <v>1904546824.422061</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -16300,7 +16300,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>78.46538702369625</v>
+        <v>162277233.7310977</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -16329,7 +16329,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>12773.20740821198</v>
+        <v>6687305969.007212</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -16352,10 +16352,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1044.414043170733</v>
+        <v>1091881167.625397</v>
       </c>
       <c r="C7">
-        <v>2875.624904190079</v>
+        <v>1505509381.618034</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -16378,22 +16378,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4395.58474152597</v>
+        <v>4595357781.09906</v>
       </c>
       <c r="C8">
-        <v>14601.26675899162</v>
+        <v>7644371161.600004</v>
       </c>
       <c r="D8">
-        <v>159.2000938157232</v>
+        <v>152363745.9537648</v>
       </c>
       <c r="E8">
-        <v>6.277230961895697</v>
+        <v>12982178.69848781</v>
       </c>
       <c r="F8">
-        <v>510.9282963284797</v>
+        <v>267492238.7602887</v>
       </c>
       <c r="G8">
-        <v>392.0038947360811</v>
+        <v>259739054.924343</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -16492,7 +16492,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1568.895635942849</v>
+        <v>1156718662.686472</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -16518,7 +16518,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>61.89955015117839</v>
+        <v>98572819.27339487</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -16547,7 +16547,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>13430.38625766496</v>
+        <v>6595495865.935664</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -16570,10 +16570,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>823.4453917118632</v>
+        <v>663164785.1679282</v>
       </c>
       <c r="C7">
-        <v>3023.575204032466</v>
+        <v>1484840225.437334</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -16596,22 +16596,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3465.602576828669</v>
+        <v>2791035825.171274</v>
       </c>
       <c r="C8">
-        <v>15352.49887967737</v>
+        <v>7539421499.132586</v>
       </c>
       <c r="D8">
-        <v>125.5116508754279</v>
+        <v>92537493.01491769</v>
       </c>
       <c r="E8">
-        <v>4.951964012094269</v>
+        <v>7885825.541871586</v>
       </c>
       <c r="F8">
-        <v>537.2154503065989</v>
+        <v>263819834.6374268</v>
       </c>
       <c r="G8">
-        <v>384.7020595744328</v>
+        <v>214800501.0605262</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -16710,7 +16710,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1184.423448700395</v>
+        <v>374281940.6649475</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -16736,7 +16736,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>47.07797216952024</v>
+        <v>32509295.07950342</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -16765,7 +16765,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>14135.40618756706</v>
+        <v>6615555117.958099</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -16788,10 +16788,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>622.0205241303948</v>
+        <v>215231686.2430946</v>
       </c>
       <c r="C7">
-        <v>3182.295939051098</v>
+        <v>1489356153.413111</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -16814,22 +16814,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2617.873574816145</v>
+        <v>905837222.4399471</v>
       </c>
       <c r="C8">
-        <v>16158.41893858818</v>
+        <v>7562351565.200183</v>
       </c>
       <c r="D8">
-        <v>94.75387589603157</v>
+        <v>29942555.25319578</v>
       </c>
       <c r="E8">
-        <v>3.766237773561618</v>
+        <v>2600743.606360273</v>
       </c>
       <c r="F8">
-        <v>565.4162475026831</v>
+        <v>264622204.7183242</v>
       </c>
       <c r="G8">
-        <v>380.4316463181493</v>
+        <v>170458783.9656205</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -16928,7 +16928,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>994.4612175961045</v>
+        <v>49914709.07731952</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -16954,7 +16954,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>39.86632969506865</v>
+        <v>4738737.615556953</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -16983,7 +16983,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>14752.72321361587</v>
+        <v>6696570809.736188</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -17006,10 +17006,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>522.6174208923239</v>
+        <v>29130576.42043501</v>
       </c>
       <c r="C7">
-        <v>3321.272169308287</v>
+        <v>1507595169.931192</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -17032,22 +17032,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2199.51960235604</v>
+        <v>122600723.4035136</v>
       </c>
       <c r="C8">
-        <v>16864.08434306686</v>
+        <v>7654961955.802279</v>
       </c>
       <c r="D8">
-        <v>79.55689740768831</v>
+        <v>3993176.726185559</v>
       </c>
       <c r="E8">
-        <v>3.18930637560549</v>
+        <v>379099.009244556</v>
       </c>
       <c r="F8">
-        <v>590.1089285446353</v>
+        <v>267862832.3894477</v>
       </c>
       <c r="G8">
-        <v>384.388959020061</v>
+        <v>153672574.6351627</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -17146,7 +17146,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>869.3676526260813</v>
+        <v>10088104.76939696</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -17172,7 +17172,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>34.97940500228965</v>
+        <v>1065962.127660306</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -17201,7 +17201,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>15188.55662199006</v>
+        <v>6807467289.67862</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -17224,10 +17224,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>457.0126280188088</v>
+        <v>6002094.612779343</v>
       </c>
       <c r="C7">
-        <v>3419.391096148316</v>
+        <v>1532561231.259254</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -17250,22 +17250,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1923.411263511487</v>
+        <v>25260782.03337147</v>
       </c>
       <c r="C8">
-        <v>17362.29279257977</v>
+        <v>7781729574.500119</v>
       </c>
       <c r="D8">
-        <v>69.54941221008647</v>
+        <v>807048.3815517561</v>
       </c>
       <c r="E8">
-        <v>2.79835240018317</v>
+        <v>85276.97021282441</v>
       </c>
       <c r="F8">
-        <v>607.5422648796031</v>
+        <v>272298691.587145</v>
       </c>
       <c r="G8">
-        <v>387.6403724167124</v>
+        <v>153856332.5872033</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -17364,7 +17364,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>807.5194612882949</v>
+        <v>24166592.3003242</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -17390,7 +17390,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>32.56188270514228</v>
+        <v>2562417.963600702</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -17419,7 +17419,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>15391.10259951413</v>
+        <v>6931413822.858342</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -17442,10 +17442,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>424.5751739574517</v>
+        <v>14387707.43982693</v>
       </c>
       <c r="C7">
-        <v>3464.990156634664</v>
+        <v>1560465243.635228</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -17468,22 +17468,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1786.893012863317</v>
+        <v>60552984.42373063</v>
       </c>
       <c r="C8">
-        <v>17593.82648292667</v>
+        <v>7923414927.048751</v>
       </c>
       <c r="D8">
-        <v>64.60155690306355</v>
+        <v>1933327.384025935</v>
       </c>
       <c r="E8">
-        <v>2.604950616411381</v>
+        <v>204993.437088056</v>
       </c>
       <c r="F8">
-        <v>615.6441039805657</v>
+        <v>277256552.9143339</v>
       </c>
       <c r="G8">
-        <v>388.9565330592115</v>
+        <v>157485295.1075054</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -17582,7 +17582,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>783.8837141287895</v>
+        <v>64602985.70047408</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -17608,7 +17608,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>31.79253921873093</v>
+        <v>6820778.231693786</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -17637,7 +17637,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>15347.35695098285</v>
+        <v>7060258823.517076</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -17660,10 +17660,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>412.3425915964773</v>
+        <v>38430840.59890335</v>
       </c>
       <c r="C7">
-        <v>3455.141723712044</v>
+        <v>1589472045.20305</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -17686,22 +17686,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1735.410219495161</v>
+        <v>161742383.3441711</v>
       </c>
       <c r="C8">
-        <v>17543.82010133925</v>
+        <v>8070699799.59933</v>
       </c>
       <c r="D8">
-        <v>62.71069713030313</v>
+        <v>5168238.856037924</v>
       </c>
       <c r="E8">
-        <v>2.543403137498474</v>
+        <v>545662.2585355026</v>
       </c>
       <c r="F8">
-        <v>613.8942780393145</v>
+        <v>282410352.9406832</v>
       </c>
       <c r="G8">
-        <v>386.748431530852</v>
+        <v>162790288.5801953</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -17800,7 +17800,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5.903842161519028E-11</v>
+        <v>0.0001019976626679013</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -17826,7 +17826,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.857151093608837E-14</v>
+        <v>2.828033678263647E-07</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -17855,7 +17855,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.01142933131415919</v>
+        <v>46482.64132941133</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -17878,10 +17878,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.859281216467572E-11</v>
+        <v>4.957235488551255E-05</v>
       </c>
       <c r="C7">
-        <v>0.002573078845028823</v>
+        <v>10464.61055141523</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -17904,22 +17904,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.203374559066717E-10</v>
+        <v>0.0002086332409651914</v>
       </c>
       <c r="C8">
-        <v>0.01306505954703629</v>
+        <v>53135.08377519331</v>
       </c>
       <c r="D8">
-        <v>4.72307372921522E-12</v>
+        <v>8.159813013432099E-06</v>
       </c>
       <c r="E8">
-        <v>5.485720874887067E-15</v>
+        <v>2.262426942610916E-08</v>
       </c>
       <c r="F8">
-        <v>0.0004571732525663681</v>
+        <v>1859.305653176455</v>
       </c>
       <c r="G8">
-        <v>0.0002573078873621635</v>
+        <v>1046.461060098758</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -18018,7 +18018,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>673.2479707413925</v>
+        <v>140948779.0981342</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -18044,7 +18044,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>27.62622017501182</v>
+        <v>14749810.77653402</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -18073,7 +18073,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>15076.41614812956</v>
+        <v>7189319504.166049</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -18096,10 +18096,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>354.4851125999874</v>
+        <v>83707910.65159102</v>
       </c>
       <c r="C7">
-        <v>3394.144975178448</v>
+        <v>1618527402.684156</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -18122,22 +18122,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1491.907699088552</v>
+        <v>352298226.1786801</v>
       </c>
       <c r="C8">
-        <v>17234.10314365383</v>
+        <v>8218231219.549589</v>
       </c>
       <c r="D8">
-        <v>53.85983765931137</v>
+        <v>11275902.32785073</v>
       </c>
       <c r="E8">
-        <v>2.210097614000945</v>
+        <v>1179984.862122721</v>
       </c>
       <c r="F8">
-        <v>603.0566459251828</v>
+        <v>287572780.1666422</v>
       </c>
       <c r="G8">
-        <v>374.8630087778434</v>
+        <v>170223531.3335747</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -18236,7 +18236,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>396.5977335085047</v>
+        <v>206878099.8413188</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -18262,7 +18262,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.57155307609407</v>
+        <v>21024649.50362831</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -18291,7 +18291,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>14620.7929743891</v>
+        <v>7313526264.038898</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -18314,10 +18314,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>209.1355074894245</v>
+        <v>122201380.5101436</v>
       </c>
       <c r="C7">
-        <v>3291.57078973996</v>
+        <v>1646489999.747247</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -18340,22 +18340,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>880.1804721439664</v>
+        <v>514304194.8508036</v>
       </c>
       <c r="C8">
-        <v>16713.27268277164</v>
+        <v>8360214041.578106</v>
       </c>
       <c r="D8">
-        <v>31.72781868068036</v>
+        <v>16550247.9873055</v>
       </c>
       <c r="E8">
-        <v>1.325724246087525</v>
+        <v>1681971.960290264</v>
       </c>
       <c r="F8">
-        <v>584.8317189755644</v>
+        <v>292541050.5615562</v>
       </c>
       <c r="G8">
-        <v>350.0706297229383</v>
+        <v>176869138.025739</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -18454,7 +18454,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>178.4600453993319</v>
+        <v>181137615.919551</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -18480,7 +18480,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.203942707064184</v>
+        <v>15951544.89102222</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -18509,7 +18509,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>14037.5977208312</v>
+        <v>7425873435.47065</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -18532,10 +18532,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>93.83848945550284</v>
+        <v>104394795.5411509</v>
       </c>
       <c r="C7">
-        <v>3160.276374677197</v>
+        <v>1671782654.423531</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -18558,22 +18558,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>394.9343989728656</v>
+        <v>439362313.6110901</v>
       </c>
       <c r="C8">
-        <v>16046.61244641612</v>
+        <v>8488639969.950532</v>
       </c>
       <c r="D8">
-        <v>14.27680363194655</v>
+        <v>14491009.27356408</v>
       </c>
       <c r="E8">
-        <v>0.5763154165651344</v>
+        <v>1276123.591281777</v>
       </c>
       <c r="F8">
-        <v>561.5039088332484</v>
+        <v>297034937.4188263</v>
       </c>
       <c r="G8">
-        <v>325.4114864132699</v>
+        <v>177617744.9964682</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -18672,7 +18672,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>228.3040840319626</v>
+        <v>257566881.1675694</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -18698,7 +18698,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8.290422033422251</v>
+        <v>18026590.72132168</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -18727,7 +18727,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>13390.63665310599</v>
+        <v>7518420892.615081</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -18750,10 +18750,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>119.0675531358984</v>
+        <v>143513407.2543976</v>
       </c>
       <c r="C7">
-        <v>3014.626398211934</v>
+        <v>1692617810.706431</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -18776,22 +18776,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>501.1149775294921</v>
+        <v>603999292.480511</v>
       </c>
       <c r="C8">
-        <v>15307.06044270681</v>
+        <v>8594432514.175829</v>
       </c>
       <c r="D8">
-        <v>18.26432672255699</v>
+        <v>20605350.49340554</v>
       </c>
       <c r="E8">
-        <v>0.6632337626737798</v>
+        <v>1442127.257705734</v>
       </c>
       <c r="F8">
-        <v>535.6254661242402</v>
+        <v>300736835.7046035</v>
       </c>
       <c r="G8">
-        <v>313.3693951347832</v>
+        <v>183613121.7960828</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -18890,7 +18890,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>521.9154324577175</v>
+        <v>590540863.3305528</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -18916,7 +18916,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.81924270976528</v>
+        <v>40762249.20805716</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -18945,7 +18945,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>12743.58336130605</v>
+        <v>7585188634.885964</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -18968,10 +18968,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>272.0538908312725</v>
+        <v>328440804.1824899</v>
       </c>
       <c r="C7">
-        <v>2868.955659393284</v>
+        <v>1707649194.472051</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -18994,22 +18994,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1144.982623730603</v>
+        <v>1382296031.731037</v>
       </c>
       <c r="C8">
-        <v>14567.40301611711</v>
+        <v>8670755835.690676</v>
       </c>
       <c r="D8">
-        <v>41.75323459661738</v>
+        <v>47243269.0664442</v>
       </c>
       <c r="E8">
-        <v>1.505539416781221</v>
+        <v>3260979.936644571</v>
       </c>
       <c r="F8">
-        <v>509.7433344522424</v>
+        <v>303407545.3954388</v>
       </c>
       <c r="G8">
-        <v>314.1009550224555</v>
+        <v>203608999.865454</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -19108,7 +19108,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>918.2730049122434</v>
+        <v>1044052900.113442</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -19134,7 +19134,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>33.10914922997658</v>
+        <v>72431665.36331168</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -19163,7 +19163,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>12154.08549113729</v>
+        <v>7625581665.683794</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -19186,10 +19186,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>478.6573479422234</v>
+        <v>581057512.3029519</v>
       </c>
       <c r="C7">
-        <v>2736.242339844864</v>
+        <v>1716742854.475041</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -19212,22 +19212,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2014.50655397802</v>
+        <v>2445474140.958455</v>
       </c>
       <c r="C8">
-        <v>13893.53815343135</v>
+        <v>8716929783.943022</v>
       </c>
       <c r="D8">
-        <v>73.46184039297944</v>
+        <v>83524232.00907534</v>
       </c>
       <c r="E8">
-        <v>2.648731938398125</v>
+        <v>5794533.229064931</v>
       </c>
       <c r="F8">
-        <v>486.1634196454921</v>
+        <v>305023266.6273521</v>
       </c>
       <c r="G8">
-        <v>321.4899687787086</v>
+        <v>229780036.6777993</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -19326,7 +19326,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1096.744661976314</v>
+        <v>1262700350.865489</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -19352,7 +19352,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>39.76711604950065</v>
+        <v>89600782.35268389</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -19381,7 +19381,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>11668.93074373724</v>
+        <v>7646714908.311898</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -19404,10 +19404,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>571.9233133183591</v>
+        <v>704861794.8599483</v>
       </c>
       <c r="C7">
-        <v>2627.01972805883</v>
+        <v>1721500569.343791</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -19430,22 +19430,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2407.031393137057</v>
+        <v>2966524407.279071</v>
       </c>
       <c r="C8">
-        <v>13338.94965738729</v>
+        <v>8741087546.61249</v>
       </c>
       <c r="D8">
-        <v>87.7395729581051</v>
+        <v>101016028.069239</v>
       </c>
       <c r="E8">
-        <v>3.18136928396005</v>
+        <v>7168062.588214708</v>
       </c>
       <c r="F8">
-        <v>466.7572297494902</v>
+        <v>305868596.3324762</v>
       </c>
       <c r="G8">
-        <v>319.8943041377189</v>
+        <v>242636236.4203738</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -19544,7 +19544,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1072.047371490809</v>
+        <v>1263177988.391952</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -19570,7 +19570,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>39.92404682502795</v>
+        <v>95341125.09176634</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -19599,7 +19599,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>11320.68321522595</v>
+        <v>7663315869.32565</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -19622,10 +19622,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>560.1587530942369</v>
+        <v>711170975.6536508</v>
       </c>
       <c r="C7">
-        <v>2548.618960435978</v>
+        <v>1725237934.235708</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -19648,22 +19648,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2357.51834632382</v>
+        <v>2993077610.972249</v>
       </c>
       <c r="C8">
-        <v>12940.86209022824</v>
+        <v>8760064382.45887</v>
       </c>
       <c r="D8">
-        <v>85.76378971926465</v>
+        <v>101054239.0713561</v>
       </c>
       <c r="E8">
-        <v>3.193923746002234</v>
+        <v>7627290.007341304</v>
       </c>
       <c r="F8">
-        <v>452.8273286090383</v>
+        <v>306532634.7730263</v>
       </c>
       <c r="G8">
-        <v>310.8777713530214</v>
+        <v>243640890.9889359</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -19762,7 +19762,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1088.674674819738</v>
+        <v>1313191393.597138</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -19788,7 +19788,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>42.04767478238863</v>
+        <v>105084994.9494919</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -19817,7 +19817,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>11126.11172044265</v>
+        <v>7694768184.065122</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -19840,10 +19840,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>570.4397565055432</v>
+        <v>745649160.5611041</v>
       </c>
       <c r="C7">
-        <v>2504.815190704295</v>
+        <v>1732318775.927913</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -19866,22 +19866,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2400.787605309575</v>
+        <v>3138184606.12009</v>
       </c>
       <c r="C8">
-        <v>12718.44416431245</v>
+        <v>8796018048.83428</v>
       </c>
       <c r="D8">
-        <v>87.09397398557897</v>
+        <v>105055311.487771</v>
       </c>
       <c r="E8">
-        <v>3.363813982591089</v>
+        <v>8406799.595959349</v>
       </c>
       <c r="F8">
-        <v>445.0444688177063</v>
+        <v>307790727.3626052</v>
       </c>
       <c r="G8">
-        <v>307.5254947209837</v>
+        <v>247796793.6489017</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -19980,7 +19980,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1195.346809080879</v>
+        <v>1450307434.923959</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -20006,7 +20006,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>46.95115827145105</v>
+        <v>117884199.4055045</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -20035,7 +20035,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>11086.3369183382</v>
+        <v>7760054973.891301</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -20058,10 +20058,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>627.1630833366072</v>
+        <v>825440061.9109372</v>
       </c>
       <c r="C7">
-        <v>2495.860712174709</v>
+        <v>1747016753.713672</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -20084,22 +20084,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2639.516863631562</v>
+        <v>3473997467.675607</v>
       </c>
       <c r="C8">
-        <v>12672.97692360674</v>
+        <v>8870648468.870941</v>
       </c>
       <c r="D8">
-        <v>95.62774472647024</v>
+        <v>116024594.7939166</v>
       </c>
       <c r="E8">
-        <v>3.756092661716082</v>
+        <v>9430735.952440359</v>
       </c>
       <c r="F8">
-        <v>443.4534767335285</v>
+        <v>310402198.9556523</v>
       </c>
       <c r="G8">
-        <v>312.3023795511315</v>
+        <v>257245681.5624608</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -20198,7 +20198,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.871728587730088E-09</v>
+        <v>0.003233689788346917</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -20224,7 +20224,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.600091399287888E-12</v>
+        <v>1.072332510013269E-05</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -20253,7 +20253,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.03067156123285918</v>
+        <v>124740.0342690086</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -20276,10 +20276,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9.069453804868001E-10</v>
+        <v>0.001573481463509907</v>
       </c>
       <c r="C7">
-        <v>0.006905071100223151</v>
+        <v>28082.65282397832</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -20302,22 +20302,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.817025730296075E-09</v>
+        <v>0.006622250205560925</v>
       </c>
       <c r="C8">
-        <v>0.03506117399986795</v>
+        <v>142592.4168988741</v>
       </c>
       <c r="D8">
-        <v>1.497382870184069E-10</v>
+        <v>0.0002586951830677533</v>
       </c>
       <c r="E8">
-        <v>2.080073119430309E-13</v>
+        <v>8.578660080106147E-07</v>
       </c>
       <c r="F8">
-        <v>0.001226862449314368</v>
+        <v>4989.601370760349</v>
       </c>
       <c r="G8">
-        <v>0.000690507200716853</v>
+        <v>2808.265439745978</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -20416,7 +20416,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1326.101381842901</v>
+        <v>1572932233.785552</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -20442,7 +20442,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>52.20695210750029</v>
+        <v>129492895.8382846</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -20471,7 +20471,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>11188.30537590095</v>
+        <v>7872337261.30289</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -20494,10 +20494,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>695.8931835302214</v>
+        <v>896969925.2234987</v>
       </c>
       <c r="C7">
-        <v>2518.816812912631</v>
+        <v>1772294801.087475</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -20520,22 +20520,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2928.778561777088</v>
+        <v>3775042419.910833</v>
       </c>
       <c r="C8">
-        <v>12789.53877078378</v>
+        <v>8999000227.236061</v>
       </c>
       <c r="D8">
-        <v>106.088110547432</v>
+        <v>125834578.7028441</v>
       </c>
       <c r="E8">
-        <v>4.176556168600022</v>
+        <v>10359431.66706276</v>
       </c>
       <c r="F8">
-        <v>447.5322150360385</v>
+        <v>314893490.4521159</v>
       </c>
       <c r="G8">
-        <v>321.4709996442852</v>
+        <v>266926472.6310973</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -20634,7 +20634,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1456.656626578347</v>
+        <v>1633023225.67504</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -20660,7 +20660,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>57.38250515731128</v>
+        <v>139834294.4674247</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -20689,7 +20689,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>11407.20946322034</v>
+        <v>8035135221.726838</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -20712,10 +20712,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>764.4420257032165</v>
+        <v>936949099.9782077</v>
       </c>
       <c r="C7">
-        <v>2568.098565334497</v>
+        <v>1808945413.136997</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -20738,22 +20738,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3217.277406344647</v>
+        <v>3943301216.965204</v>
       </c>
       <c r="C8">
-        <v>13039.77168969255</v>
+        <v>9185097295.263126</v>
       </c>
       <c r="D8">
-        <v>116.5325301262677</v>
+        <v>130641858.0540031</v>
       </c>
       <c r="E8">
-        <v>4.5906004125849</v>
+        <v>11186743.55739397</v>
       </c>
       <c r="F8">
-        <v>456.2883785288142</v>
+        <v>321405408.8690738</v>
       </c>
       <c r="G8">
-        <v>333.2540591037713</v>
+        <v>274589451.3115204</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -20852,7 +20852,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1572.032570271221</v>
+        <v>1636576776.205872</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -20878,7 +20878,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>61.9390589680369</v>
+        <v>146364189.2049288</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -20907,7 +20907,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>11709.67195139301</v>
+        <v>8241397955.91625</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -20930,10 +20930,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>825.0026136110201</v>
+        <v>945580244.6912541</v>
       </c>
       <c r="C7">
-        <v>2636.191772919418</v>
+        <v>1855381224.933185</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -20956,22 +20956,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3472.156396038457</v>
+        <v>3979626779.849625</v>
       </c>
       <c r="C8">
-        <v>13385.52161242208</v>
+        <v>9420879672.240919</v>
       </c>
       <c r="D8">
-        <v>125.7626056216976</v>
+        <v>130926142.0964697</v>
       </c>
       <c r="E8">
-        <v>4.955124717442949</v>
+        <v>11709135.1363943</v>
       </c>
       <c r="F8">
-        <v>468.386878055721</v>
+        <v>329655918.2366503</v>
       </c>
       <c r="G8">
-        <v>346.1194386530437</v>
+        <v>280096146.9624439</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -21070,7 +21070,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1589.889869747834</v>
+        <v>1573523587.38999</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -21096,7 +21096,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>62.5071963403958</v>
+        <v>142501767.6055865</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -21125,7 +21125,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>12057.58857070471</v>
+        <v>8475514654.145006</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -21148,10 +21148,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>834.2306941926645</v>
+        <v>911030679.3524393</v>
       </c>
       <c r="C7">
-        <v>2714.518043142753</v>
+        <v>1908087783.779207</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -21174,22 +21174,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3510.994259684089</v>
+        <v>3834219368.657985</v>
       </c>
       <c r="C8">
-        <v>13783.23091174737</v>
+        <v>9688502380.799984</v>
       </c>
       <c r="D8">
-        <v>127.1911895798267</v>
+        <v>125881886.9911992</v>
       </c>
       <c r="E8">
-        <v>5.000575707231661</v>
+        <v>11400141.40844692</v>
       </c>
       <c r="F8">
-        <v>482.3035428281887</v>
+        <v>339020586.1658006</v>
       </c>
       <c r="G8">
-        <v>354.8748737335417</v>
+        <v>281911846.3131645</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -21288,7 +21288,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1446.039279107499</v>
+        <v>1426476776.022019</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -21314,7 +21314,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>56.58111765421642</v>
+        <v>126042806.692981</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -21343,7 +21343,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>12412.34136312365</v>
+        <v>8717213809.109352</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -21366,10 +21366,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>758.4644230897226</v>
+        <v>822567121.7177724</v>
       </c>
       <c r="C7">
-        <v>2794.383337121699</v>
+        <v>1962501376.788769</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -21392,22 +21392,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3192.119702835595</v>
+        <v>3461906236.081234</v>
       </c>
       <c r="C8">
-        <v>14188.75475474674</v>
+        <v>9964792722.315022</v>
       </c>
       <c r="D8">
-        <v>115.6831423285999</v>
+        <v>114118142.0817614</v>
       </c>
       <c r="E8">
-        <v>4.526489412337312</v>
+        <v>10083424.53543847</v>
       </c>
       <c r="F8">
-        <v>496.4936545249465</v>
+        <v>348688552.3643744</v>
       </c>
       <c r="G8">
-        <v>355.284776021142</v>
+        <v>278506849.850654</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -21506,7 +21506,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1189.057451936058</v>
+        <v>1174130337.31281</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -21532,7 +21532,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>46.31247705878935</v>
+        <v>100272250.1182896</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -21561,7 +21561,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>12738.82802173461</v>
+        <v>8945845997.136932</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -21584,10 +21584,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>623.4485300679197</v>
+        <v>673375519.6376051</v>
       </c>
       <c r="C7">
-        <v>2867.885092505699</v>
+        <v>2013973210.978895</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -21610,22 +21610,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2623.883567836477</v>
+        <v>2834009345.996815</v>
       </c>
       <c r="C8">
-        <v>14561.9671080172</v>
+        <v>10226145995.64685</v>
       </c>
       <c r="D8">
-        <v>95.12459615488463</v>
+        <v>93930426.98502475</v>
       </c>
       <c r="E8">
-        <v>3.704998164703146</v>
+        <v>8021780.009463164</v>
       </c>
       <c r="F8">
-        <v>509.5531208693851</v>
+        <v>357833839.8854776</v>
       </c>
       <c r="G8">
-        <v>349.1333622573617</v>
+        <v>268734873.06165</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -21724,7 +21724,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>933.10552475698</v>
+        <v>863278607.7956409</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -21750,7 +21750,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>36.34923215206861</v>
+        <v>72416538.09305601</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -21779,7 +21779,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>13008.66862337247</v>
+        <v>9143818278.912197</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -21802,10 +21802,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>489.253543007027</v>
+        <v>493713290.404135</v>
       </c>
       <c r="C7">
-        <v>2928.634153366683</v>
+        <v>2058542597.947925</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -21828,22 +21828,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2059.102347810591</v>
+        <v>2077871913.135732</v>
       </c>
       <c r="C8">
-        <v>14870.42640731489</v>
+        <v>10452451417.98177</v>
       </c>
       <c r="D8">
-        <v>74.64844198055836</v>
+        <v>69062288.62365124</v>
       </c>
       <c r="E8">
-        <v>2.907938572165487</v>
+        <v>5793323.047444478</v>
       </c>
       <c r="F8">
-        <v>520.3467449348991</v>
+        <v>365752731.1564882</v>
       </c>
       <c r="G8">
-        <v>341.7887696373709</v>
+        <v>255225588.835206</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -21942,7 +21942,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>769.7997641186143</v>
+        <v>641664638.3103839</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -21968,7 +21968,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>30.15634346032013</v>
+        <v>53791125.77628359</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -21997,7 +21997,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>13202.14371907699</v>
+        <v>9298598281.067081</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -22020,10 +22020,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>403.806369471081</v>
+        <v>366933875.9930015</v>
       </c>
       <c r="C7">
-        <v>2972.191091398614</v>
+        <v>2093388131.621874</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -22046,22 +22046,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1699.4841536116</v>
+        <v>1544300325.153859</v>
       </c>
       <c r="C8">
-        <v>15091.59102112888</v>
+        <v>10629383023.9751</v>
       </c>
       <c r="D8">
-        <v>61.58398112948912</v>
+        <v>51333171.06483069</v>
       </c>
       <c r="E8">
-        <v>2.412507476825609</v>
+        <v>4303290.062102685</v>
       </c>
       <c r="F8">
-        <v>528.0857487630801</v>
+        <v>371943931.2426836</v>
       </c>
       <c r="G8">
-        <v>337.5997460869694</v>
+        <v>246032200.7614875</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -22160,7 +22160,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>758.5072706135836</v>
+        <v>664734993.2069801</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -22186,7 +22186,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>29.85817648964816</v>
+        <v>55986305.40324362</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -22215,7 +22215,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>13308.76732993835</v>
+        <v>9403314212.727568</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -22238,10 +22238,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>398.035478029108</v>
+        <v>380403146.1538458</v>
       </c>
       <c r="C7">
-        <v>2996.195204145619</v>
+        <v>2116962769.637598</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -22264,22 +22264,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1675.196427366241</v>
+        <v>1600987918.341286</v>
       </c>
       <c r="C8">
-        <v>15213.47425180379</v>
+        <v>10749085554.68857</v>
       </c>
       <c r="D8">
-        <v>60.68058164908666</v>
+        <v>53178799.45655838</v>
       </c>
       <c r="E8">
-        <v>2.388654119171852</v>
+        <v>4478904.432259488</v>
       </c>
       <c r="F8">
-        <v>532.3506931975346</v>
+        <v>376132568.5091031</v>
       </c>
       <c r="G8">
-        <v>339.4230682174726</v>
+        <v>249736591.5791443</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -22378,7 +22378,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>829.0809979075708</v>
+        <v>867784457.6778352</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -22404,7 +22404,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>32.62661273225039</v>
+        <v>73225168.46751037</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -22433,7 +22433,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>13326.70519131765</v>
+        <v>9456314934.841877</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -22456,10 +22456,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>435.0596348378785</v>
+        <v>496746228.3972195</v>
       </c>
       <c r="C7">
-        <v>3000.233544654915</v>
+        <v>2128894792.001376</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -22482,22 +22482,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1831.018555382086</v>
+        <v>2090636521.244527</v>
       </c>
       <c r="C8">
-        <v>15233.97932079035</v>
+        <v>10809671565.49058</v>
       </c>
       <c r="D8">
-        <v>66.32647983260563</v>
+        <v>69422756.61422679</v>
       </c>
       <c r="E8">
-        <v>2.61012901858003</v>
+        <v>5858013.477400827</v>
       </c>
       <c r="F8">
-        <v>533.0682076527065</v>
+        <v>378252597.3936754</v>
       </c>
       <c r="G8">
-        <v>343.5293179492792</v>
+        <v>262564102.0398596</v>
       </c>
       <c r="H8">
         <v>0</v>

--- a/Recycling/SW2/SW2_Avg.xlsx
+++ b/Recycling/SW2/SW2_Avg.xlsx
@@ -796,7 +796,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.06463540392811892</v>
+        <v>6.463540392811896E-08</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.0002582875934423252</v>
+        <v>2.582875934423252E-10</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -851,7 +851,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>300994.3598500011</v>
+        <v>0.3009943598500011</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.03149748511036064</v>
+        <v>3.149748511036065E-08</v>
       </c>
       <c r="C7">
-        <v>67762.68869234422</v>
+        <v>0.06776268869234424</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -900,22 +900,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1325622399017378</v>
+        <v>1.325622399017379E-07</v>
       </c>
       <c r="C8">
-        <v>344071.6807194622</v>
+        <v>0.3440716807194621</v>
       </c>
       <c r="D8">
-        <v>0.005170832314249511</v>
+        <v>5.170832314249514E-09</v>
       </c>
       <c r="E8">
-        <v>2.0663007475386E-05</v>
+        <v>2.0663007475386E-11</v>
       </c>
       <c r="F8">
-        <v>12039.77439400005</v>
+        <v>0.01203977439400005</v>
       </c>
       <c r="G8">
-        <v>6776.272018982932</v>
+        <v>0.006776272018982934</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1014,7 +1014,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1033101223.548244</v>
+        <v>1033.101223548244</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1040,7 +1040,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>87370820.16468748</v>
+        <v>87.37082016468764</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>9460120739.590557</v>
+        <v>9460.120739590551</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1092,10 +1092,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>591586049.9849173</v>
+        <v>591.5860499849171</v>
       </c>
       <c r="C7">
-        <v>2129751590.655468</v>
+        <v>2129.751590655467</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1118,22 +1118,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2489785187.796669</v>
+        <v>2489.785187796668</v>
       </c>
       <c r="C8">
-        <v>10814022044.47304</v>
+        <v>10814.02204447304</v>
       </c>
       <c r="D8">
-        <v>82648097.8838595</v>
+        <v>82.64809788385944</v>
       </c>
       <c r="E8">
-        <v>6989665.613174995</v>
+        <v>6.989665613175008</v>
       </c>
       <c r="F8">
-        <v>378404829.5836226</v>
+        <v>378.4048295836224</v>
       </c>
       <c r="G8">
-        <v>272133764.0640385</v>
+        <v>272.1337640640384</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1100703521.086549</v>
+        <v>1100.703521086549</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1258,7 +1258,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>93420133.14408515</v>
+        <v>93.42013314408483</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1287,7 +1287,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>9420118782.233515</v>
+        <v>9420.118782233503</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1310,10 +1310,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>630648890.2065049</v>
+        <v>630.6488902065047</v>
       </c>
       <c r="C7">
-        <v>2120745972.793324</v>
+        <v>2120.745972793322</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1336,22 +1336,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2654187443.359417</v>
+        <v>2654.187443359416</v>
       </c>
       <c r="C8">
-        <v>10768295138.80357</v>
+        <v>10768.29513880355</v>
       </c>
       <c r="D8">
-        <v>88056281.68692388</v>
+        <v>88.0562816869239</v>
       </c>
       <c r="E8">
-        <v>7473610.651526809</v>
+        <v>7.473610651526783</v>
       </c>
       <c r="F8">
-        <v>376804751.2893409</v>
+        <v>376.8047512893405</v>
       </c>
       <c r="G8">
-        <v>275139486.2999828</v>
+        <v>275.1394862999826</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1450,7 +1450,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9082342175225949</v>
+        <v>9.082342175225957E-07</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1476,7 +1476,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.004335618972028115</v>
+        <v>4.335618972028115E-09</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1505,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>666941.3997436757</v>
+        <v>0.6669413997436759</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1528,10 +1528,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.4433395559629014</v>
+        <v>4.433395559629017E-07</v>
       </c>
       <c r="C7">
-        <v>150148.137225525</v>
+        <v>0.150148137225525</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1554,22 +1554,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.865865937218984</v>
+        <v>1.865865937218985E-06</v>
       </c>
       <c r="C8">
-        <v>762391.8550020509</v>
+        <v>0.7623918550020511</v>
       </c>
       <c r="D8">
-        <v>0.07265873740180756</v>
+        <v>7.265873740180762E-08</v>
       </c>
       <c r="E8">
-        <v>0.0003468495177622491</v>
+        <v>3.46849517762249E-10</v>
       </c>
       <c r="F8">
-        <v>26677.65598974705</v>
+        <v>0.02667765598974706</v>
       </c>
       <c r="G8">
-        <v>15014.85805650809</v>
+        <v>0.0150148580565081</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1668,7 +1668,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9.663366078754565</v>
+        <v>9.663366078754574E-06</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1694,7 +1694,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.05422510330209006</v>
+        <v>5.422510330209007E-08</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1723,7 +1723,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1388136.745073202</v>
+        <v>1.388136745073202</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1746,10 +1746,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4.725584894605062</v>
+        <v>4.725584894605065E-06</v>
       </c>
       <c r="C7">
-        <v>312510.4343007477</v>
+        <v>0.3125104343007477</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1772,22 +1772,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.88838525614886</v>
+        <v>1.988838525614887E-05</v>
       </c>
       <c r="C8">
-        <v>1586802.30149096</v>
+        <v>1.58680230149096</v>
       </c>
       <c r="D8">
-        <v>0.7730692863003649</v>
+        <v>7.730692863003655E-07</v>
       </c>
       <c r="E8">
-        <v>0.004338008264167203</v>
+        <v>4.338008264167203E-09</v>
       </c>
       <c r="F8">
-        <v>55525.46980292814</v>
+        <v>0.05552546980292811</v>
       </c>
       <c r="G8">
-        <v>31251.51598856422</v>
+        <v>0.03125151598856422</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1886,7 +1886,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>82.08486525127988</v>
+        <v>8.208486525127992E-05</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5317322264243718</v>
+        <v>5.317322264243717E-07</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1941,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>2759835.447609405</v>
+        <v>2.759835447609405</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1964,10 +1964,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>40.21649787766104</v>
+        <v>4.021649787766105E-05</v>
       </c>
       <c r="C7">
-        <v>621320.1814533999</v>
+        <v>0.6213201814533998</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1990,22 +1990,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>169.2576096468291</v>
+        <v>0.0001692576096468291</v>
       </c>
       <c r="C8">
-        <v>3154814.001967798</v>
+        <v>3.154814001967797</v>
       </c>
       <c r="D8">
-        <v>6.566789220102387</v>
+        <v>6.566789220102391E-06</v>
       </c>
       <c r="E8">
-        <v>0.04253857811394973</v>
+        <v>4.253857811394971E-08</v>
       </c>
       <c r="F8">
-        <v>110393.4179043763</v>
+        <v>0.1103934179043763</v>
       </c>
       <c r="G8">
-        <v>62136.03979512776</v>
+        <v>0.06213603979512774</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -2104,7 +2104,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>578.8908616494591</v>
+        <v>0.0005788908616494593</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -2130,7 +2130,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4.253701345120986</v>
+        <v>4.253701345120986E-06</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -2159,7 +2159,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>5301877.158605545</v>
+        <v>5.301877158605544</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -2182,10 +2182,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>284.1540650538014</v>
+        <v>0.0002841540650538015</v>
       </c>
       <c r="C7">
-        <v>1193608.583106601</v>
+        <v>1.193608583106601</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -2208,22 +2208,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1195.908156118968</v>
+        <v>0.001195908156118968</v>
       </c>
       <c r="C8">
-        <v>6060664.345466902</v>
+        <v>6.060664345466901</v>
       </c>
       <c r="D8">
-        <v>46.3112689319567</v>
+        <v>4.631126893195673E-05</v>
       </c>
       <c r="E8">
-        <v>0.3402961076096787</v>
+        <v>3.402961076096787E-07</v>
       </c>
       <c r="F8">
-        <v>212075.086344222</v>
+        <v>0.212075086344222</v>
       </c>
       <c r="G8">
-        <v>119389.2737171654</v>
+        <v>0.1193892737171654</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -2322,7 +2322,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3491.783233092724</v>
+        <v>0.003491783233092725</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -2348,7 +2348,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>28.64324601358768</v>
+        <v>2.864324601358767E-05</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -2377,7 +2377,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>9896901.94241982</v>
+        <v>9.89690194241982</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -2400,10 +2400,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1717.136289820771</v>
+        <v>0.001717136289820772</v>
       </c>
       <c r="C7">
-        <v>2228083.893921006</v>
+        <v>2.228083893921007</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -2426,22 +2426,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7226.844682921251</v>
+        <v>0.007226844682921255</v>
       </c>
       <c r="C8">
-        <v>11313313.93366002</v>
+        <v>11.31331393366002</v>
       </c>
       <c r="D8">
-        <v>279.3426586474178</v>
+        <v>0.0002793426586474179</v>
       </c>
       <c r="E8">
-        <v>2.291459681087014</v>
+        <v>2.291459681087012E-06</v>
       </c>
       <c r="F8">
-        <v>395876.0776967931</v>
+        <v>0.3958760776967932</v>
       </c>
       <c r="G8">
-        <v>222980.1030210826</v>
+        <v>0.2229801030210827</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -2540,7 +2540,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18435.90405820206</v>
+        <v>0.01843590405820206</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -2566,7 +2566,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>166.4614677526422</v>
+        <v>0.0001664614677526422</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -2595,7 +2595,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>17934038.22541994</v>
+        <v>17.93403822541994</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -2618,10 +2618,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9082.257818644834</v>
+        <v>0.009082257818644838</v>
       </c>
       <c r="C7">
-        <v>4037479.804842026</v>
+        <v>4.037479804842026</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -2644,22 +2644,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>38224.14505749234</v>
+        <v>0.03822414505749237</v>
       </c>
       <c r="C8">
-        <v>20500698.67549147</v>
+        <v>20.50069867549146</v>
       </c>
       <c r="D8">
-        <v>1474.872324656164</v>
+        <v>0.001474872324656164</v>
       </c>
       <c r="E8">
-        <v>13.31691742021137</v>
+        <v>1.331691742021137E-05</v>
       </c>
       <c r="F8">
-        <v>717361.5290167981</v>
+        <v>0.7173615290167982</v>
       </c>
       <c r="G8">
-        <v>404656.2062660669</v>
+        <v>0.404656206266067</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>86778.77080375013</v>
+        <v>0.08677877080375015</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -2784,7 +2784,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>851.9256109283259</v>
+        <v>0.0008519256109283258</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -2813,7 +2813,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>31427108.76312434</v>
+        <v>31.42710876312435</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -2836,10 +2836,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>42823.07601810843</v>
+        <v>0.04282307601810845</v>
       </c>
       <c r="C7">
-        <v>7075167.085115167</v>
+        <v>7.075167085115169</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -2862,22 +2862,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>180227.8136350502</v>
+        <v>0.1802278136350502</v>
       </c>
       <c r="C8">
-        <v>35924853.00279453</v>
+        <v>35.92485300279453</v>
       </c>
       <c r="D8">
-        <v>6942.301664300006</v>
+        <v>0.006942301664300009</v>
       </c>
       <c r="E8">
-        <v>68.15404887426604</v>
+        <v>6.815404887426603E-05</v>
       </c>
       <c r="F8">
-        <v>1257084.350524975</v>
+        <v>1.257084350524975</v>
       </c>
       <c r="G8">
-        <v>711799.0161133274</v>
+        <v>0.7117990161133275</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -2976,7 +2976,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>369561.2701233092</v>
+        <v>0.3695612701233093</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -3002,7 +3002,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3903.21494502595</v>
+        <v>0.00390321494502595</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -3031,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>53102895.40859414</v>
+        <v>53.10289540859413</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -3054,10 +3054,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>182660.275847129</v>
+        <v>0.182660275847129</v>
       </c>
       <c r="C7">
-        <v>11955024.57929086</v>
+        <v>11.95502457929086</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -3080,22 +3080,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>768755.1949790405</v>
+        <v>0.7687551949790407</v>
       </c>
       <c r="C8">
-        <v>60702806.80146348</v>
+        <v>60.70280680146347</v>
       </c>
       <c r="D8">
-        <v>29564.90160986472</v>
+        <v>0.02956490160986473</v>
       </c>
       <c r="E8">
-        <v>312.2571956020759</v>
+        <v>0.0003122571956020758</v>
       </c>
       <c r="F8">
-        <v>2124115.816343768</v>
+        <v>2.124115816343767</v>
       </c>
       <c r="G8">
-        <v>1213768.485513798</v>
+        <v>1.213768485513798</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -3194,7 +3194,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1440771.298866766</v>
+        <v>1.440771298866766</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -3220,7 +3220,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16225.98869411386</v>
+        <v>0.01622598869411386</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>86459481.43887128</v>
+        <v>86.45948143887128</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -3272,10 +3272,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>713187.5607323707</v>
+        <v>0.7131875607323708</v>
       </c>
       <c r="C7">
-        <v>19464573.78192539</v>
+        <v>19.46457378192539</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -3298,22 +3298,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3001564.734120363</v>
+        <v>3.001564734120364</v>
       </c>
       <c r="C8">
-        <v>98833277.49938725</v>
+        <v>98.83327749938725</v>
       </c>
       <c r="D8">
-        <v>115261.7039093412</v>
+        <v>0.1152617039093413</v>
       </c>
       <c r="E8">
-        <v>1298.079095529108</v>
+        <v>0.001298079095529108</v>
       </c>
       <c r="F8">
-        <v>3458379.257554854</v>
+        <v>3.458379257554854</v>
       </c>
       <c r="G8">
-        <v>2017776.134265776</v>
+        <v>2.017776134265776</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -3630,7 +3630,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5187899.834503516</v>
+        <v>5.187899834503516</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -3656,7 +3656,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>61866.89842038271</v>
+        <v>0.0618668984203827</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -3685,7 +3685,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>135786135.1465857</v>
+        <v>135.7861351465857</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2571674.530594409</v>
+        <v>2.571674530594409</v>
       </c>
       <c r="C7">
-        <v>30569455.21922753</v>
+        <v>30.56945521922754</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -3734,22 +3734,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10823306.52365984</v>
+        <v>10.82330652365984</v>
       </c>
       <c r="C8">
-        <v>155219399.3321619</v>
+        <v>155.2193993321619</v>
       </c>
       <c r="D8">
-        <v>415031.986760281</v>
+        <v>0.4150319867602811</v>
       </c>
       <c r="E8">
-        <v>4949.351873630614</v>
+        <v>0.004949351873630614</v>
       </c>
       <c r="F8">
-        <v>5431445.405863431</v>
+        <v>5.431445405863432</v>
       </c>
       <c r="G8">
-        <v>3314112.974982194</v>
+        <v>3.314112974982193</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -3848,7 +3848,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17336412.88449991</v>
+        <v>17.33641288449991</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -3874,7 +3874,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>218062.6771820482</v>
+        <v>0.2180626771820482</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -3903,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>206130273.8636217</v>
+        <v>206.1302738636218</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -3926,10 +3926,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8605757.570250403</v>
+        <v>8.605757570250402</v>
       </c>
       <c r="C7">
-        <v>46405991.07853418</v>
+        <v>46.40599107853419</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -3952,22 +3952,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>36218717.00444049</v>
+        <v>36.2187170044405</v>
       </c>
       <c r="C8">
-        <v>235630959.3666929</v>
+        <v>235.6309593666929</v>
       </c>
       <c r="D8">
-        <v>1386913.030759992</v>
+        <v>1.386913030759992</v>
       </c>
       <c r="E8">
-        <v>17445.01417456385</v>
+        <v>0.01744501417456385</v>
       </c>
       <c r="F8">
-        <v>8245210.954544876</v>
+        <v>8.245210954544879</v>
       </c>
       <c r="G8">
-        <v>5501174.864878456</v>
+        <v>5.501174864878458</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -4066,7 +4066,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>53589631.31929215</v>
+        <v>53.58963131929215</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4092,7 +4092,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>712779.4649760119</v>
+        <v>0.7127794649760119</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4121,7 +4121,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>303195054.6744168</v>
+        <v>303.195054674417</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -4144,10 +4144,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>26642769.11015701</v>
+        <v>26.64276911015702</v>
       </c>
       <c r="C7">
-        <v>68258129.86395971</v>
+        <v>68.25812986395974</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -4170,22 +4170,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>112130385.5864194</v>
+        <v>112.1303855864195</v>
       </c>
       <c r="C8">
-        <v>346587331.7348655</v>
+        <v>346.5873317348656</v>
       </c>
       <c r="D8">
-        <v>4287170.50554337</v>
+        <v>4.28717050554337</v>
       </c>
       <c r="E8">
-        <v>57022.35719808092</v>
+        <v>0.05702235719808092</v>
       </c>
       <c r="F8">
-        <v>12127802.18697668</v>
+        <v>12.12780218697669</v>
       </c>
       <c r="G8">
-        <v>9490089.897411671</v>
+        <v>9.490089897411671</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -4284,7 +4284,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>149975578.5771292</v>
+        <v>149.9755785771292</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4310,7 +4310,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2146150.981609816</v>
+        <v>2.146150981609816</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4339,7 +4339,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>433146371.2368786</v>
+        <v>433.1463712368785</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -4362,10 +4362,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>74722559.69638424</v>
+        <v>74.72255969638427</v>
       </c>
       <c r="C7">
-        <v>97513995.70068409</v>
+        <v>97.51399570068406</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -4388,22 +4388,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>314481929.2663395</v>
+        <v>314.4819292663395</v>
       </c>
       <c r="C8">
-        <v>495136852.4755045</v>
+        <v>495.1368524755044</v>
       </c>
       <c r="D8">
-        <v>11998046.28617033</v>
+        <v>11.99804628617033</v>
       </c>
       <c r="E8">
-        <v>171692.0785287852</v>
+        <v>0.1716920785287852</v>
       </c>
       <c r="F8">
-        <v>17325854.84947516</v>
+        <v>17.32585484947516</v>
       </c>
       <c r="G8">
-        <v>17223655.53970683</v>
+        <v>17.22365553970683</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -4502,7 +4502,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>357846072.5029075</v>
+        <v>357.8460725029075</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4528,7 +4528,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5783739.948802859</v>
+        <v>5.783739948802857</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4557,7 +4557,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>602297334.0940039</v>
+        <v>602.2973340940039</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -4580,10 +4580,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>178992200.239889</v>
+        <v>178.992200239889</v>
       </c>
       <c r="C7">
-        <v>135594855.5673266</v>
+        <v>135.5948555673266</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -4606,22 +4606,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>753317507.9090744</v>
+        <v>753.3175079090745</v>
       </c>
       <c r="C8">
-        <v>688496143.7079718</v>
+        <v>688.4961437079717</v>
       </c>
       <c r="D8">
-        <v>28627685.80023258</v>
+        <v>28.62768580023258</v>
       </c>
       <c r="E8">
-        <v>462699.1959042284</v>
+        <v>0.4626991959042284</v>
       </c>
       <c r="F8">
-        <v>24091893.36376018</v>
+        <v>24.09189336376017</v>
       </c>
       <c r="G8">
-        <v>31458705.58072156</v>
+        <v>31.45870558072156</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -4720,7 +4720,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>648576369.4561766</v>
+        <v>648.5763694561765</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4746,7 +4746,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12972148.00810478</v>
+        <v>12.97214800810478</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4775,7 +4775,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>816640978.2207716</v>
+        <v>816.6409782207714</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -4798,10 +4798,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>327049603.2132493</v>
+        <v>327.0496032132492</v>
       </c>
       <c r="C7">
-        <v>183849918.0122939</v>
+        <v>183.8499180122939</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -4824,22 +4824,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1376440938.348506</v>
+        <v>1376.440938348506</v>
       </c>
       <c r="C8">
-        <v>933515943.8231099</v>
+        <v>933.5159438231098</v>
       </c>
       <c r="D8">
-        <v>51886109.5564941</v>
+        <v>51.8861095564941</v>
       </c>
       <c r="E8">
-        <v>1037771.840648382</v>
+        <v>1.037771840648382</v>
       </c>
       <c r="F8">
-        <v>32665639.12883089</v>
+        <v>32.66563912883089</v>
       </c>
       <c r="G8">
-        <v>51089952.12255431</v>
+        <v>51.08995212255429</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -4938,7 +4938,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>822129976.6418266</v>
+        <v>822.1299766418263</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4964,7 +4964,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21058259.3002547</v>
+        <v>21.0582593002547</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4993,7 +4993,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1081239121.548187</v>
+        <v>1081.239121548187</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -5016,10 +5016,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>419452024.6538493</v>
+        <v>419.4520246538492</v>
       </c>
       <c r="C7">
-        <v>243418747.2215961</v>
+        <v>243.418747221596</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -5042,22 +5042,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1765331413.749705</v>
+        <v>1765.331413749704</v>
       </c>
       <c r="C8">
-        <v>1235982501.453235</v>
+        <v>1235.982501453235</v>
       </c>
       <c r="D8">
-        <v>65770398.1313461</v>
+        <v>65.77039813134607</v>
       </c>
       <c r="E8">
-        <v>1684660.744020375</v>
+        <v>1.684660744020375</v>
       </c>
       <c r="F8">
-        <v>43249564.86192752</v>
+        <v>43.24956486192751</v>
       </c>
       <c r="G8">
-        <v>66287077.18754452</v>
+        <v>66.2870771875445</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -5156,7 +5156,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>863956055.090048</v>
+        <v>863.9560550900478</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -5182,7 +5182,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>20752764.84417545</v>
+        <v>20.75276484417545</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -5211,7 +5211,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1399544123.997804</v>
+        <v>1399.544123997804</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -5234,10 +5234,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>439333822.9239293</v>
+        <v>439.3338229239292</v>
       </c>
       <c r="C7">
-        <v>315078571.0168264</v>
+        <v>315.0785710168265</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -5260,22 +5260,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1849007164.455572</v>
+        <v>1849.007164455572</v>
       </c>
       <c r="C8">
-        <v>1599842266.894789</v>
+        <v>1599.84226689479</v>
       </c>
       <c r="D8">
-        <v>69116484.40720381</v>
+        <v>69.11648440720379</v>
       </c>
       <c r="E8">
-        <v>1660221.187534035</v>
+        <v>1.660221187534035</v>
       </c>
       <c r="F8">
-        <v>55981764.9599122</v>
+        <v>55.98176495991222</v>
       </c>
       <c r="G8">
-        <v>75441239.39407557</v>
+        <v>75.44123939407555</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -5374,7 +5374,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>932159180.0837102</v>
+        <v>932.15918008371</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -5400,7 +5400,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12649711.58475125</v>
+        <v>12.64971158475126</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -5429,7 +5429,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1772672197.694262</v>
+        <v>1772.672197694262</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -5452,10 +5452,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>463700980.8769667</v>
+        <v>463.7009808769666</v>
       </c>
       <c r="C7">
-        <v>399080681.5974612</v>
+        <v>399.0806815974613</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -5478,22 +5478,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1951560273.917367</v>
+        <v>1951.560273917366</v>
       </c>
       <c r="C8">
-        <v>2026371200.873268</v>
+        <v>2026.371200873269</v>
       </c>
       <c r="D8">
-        <v>74572734.40669678</v>
+        <v>74.57273440669677</v>
       </c>
       <c r="E8">
-        <v>1011976.9267801</v>
+        <v>1.0119769267801</v>
       </c>
       <c r="F8">
-        <v>70906887.90777053</v>
+        <v>70.90688790777055</v>
       </c>
       <c r="G8">
-        <v>86278166.24744277</v>
+        <v>86.27816624744275</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -5592,7 +5592,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1021796674.433462</v>
+        <v>1021.796674433462</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -5618,7 +5618,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11200188.25393694</v>
+        <v>11.20018825393694</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -5647,7 +5647,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>2198727195.658155</v>
+        <v>2198.727195658155</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -5670,10 +5670,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>505468042.8190863</v>
+        <v>505.4680428190863</v>
       </c>
       <c r="C7">
-        <v>494998200.4746659</v>
+        <v>494.998200474666</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -5696,22 +5696,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2127343682.20417</v>
+        <v>2127.343682204169</v>
       </c>
       <c r="C8">
-        <v>2513401786.102233</v>
+        <v>2513.401786102233</v>
       </c>
       <c r="D8">
-        <v>81743733.95467693</v>
+        <v>81.74373395467693</v>
       </c>
       <c r="E8">
-        <v>896015.060314955</v>
+        <v>0.896015060314955</v>
       </c>
       <c r="F8">
-        <v>87949087.82632628</v>
+        <v>87.94908782632629</v>
       </c>
       <c r="G8">
-        <v>100046624.3293752</v>
+        <v>100.0466243293752</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -5865,7 +5865,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>2.368639212082215</v>
+        <v>2.368639212082214E-06</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -5891,7 +5891,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.5332503958970979</v>
+        <v>5.332503958970977E-07</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -5917,7 +5917,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>2.70763105038012</v>
+        <v>2.707631050380119E-06</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -5926,10 +5926,10 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.09474556848328868</v>
+        <v>9.474556848328864E-08</v>
       </c>
       <c r="G8">
-        <v>0.05332503958970978</v>
+        <v>5.332503958970976E-08</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -6028,7 +6028,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1121824366.230682</v>
+        <v>1121.824366230682</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -6054,7 +6054,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19081190.73620512</v>
+        <v>19.08119073620511</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -6083,7 +6083,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>2672511195.325106</v>
+        <v>2672.511195325107</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -6106,10 +6106,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>562134473.7205285</v>
+        <v>562.1344737205286</v>
       </c>
       <c r="C7">
-        <v>601660922.3038876</v>
+        <v>601.6609223038879</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -6132,22 +6132,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2365833484.841185</v>
+        <v>2365.833484841185</v>
       </c>
       <c r="C8">
-        <v>3054992190.469394</v>
+        <v>3054.992190469396</v>
       </c>
       <c r="D8">
-        <v>89745949.29845451</v>
+        <v>89.74594929845452</v>
       </c>
       <c r="E8">
-        <v>1526495.258896409</v>
+        <v>1.526495258896408</v>
       </c>
       <c r="F8">
-        <v>106900447.8130043</v>
+        <v>106.9004478130044</v>
       </c>
       <c r="G8">
-        <v>116379539.6024416</v>
+        <v>116.3795396024416</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -6246,7 +6246,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1218376850.988804</v>
+        <v>1218.376850988805</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -6272,7 +6272,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>28510212.41672206</v>
+        <v>28.51021241672206</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -6301,7 +6301,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3185807494.961815</v>
+        <v>3185.807494961815</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -6324,10 +6324,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>618761302.5280811</v>
+        <v>618.7613025280813</v>
       </c>
       <c r="C7">
-        <v>717219025.7067162</v>
+        <v>717.219025706716</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -6350,22 +6350,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2604156615.686708</v>
+        <v>2604.15661568671</v>
       </c>
       <c r="C8">
-        <v>3641749764.967124</v>
+        <v>3641.749764967123</v>
       </c>
       <c r="D8">
-        <v>97470148.0791043</v>
+        <v>97.47014807910435</v>
       </c>
       <c r="E8">
-        <v>2280816.993337763</v>
+        <v>2.280816993337764</v>
       </c>
       <c r="F8">
-        <v>127432299.7984727</v>
+        <v>127.4322997984727</v>
       </c>
       <c r="G8">
-        <v>133598032.8234797</v>
+        <v>133.5980328234797</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -6464,7 +6464,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1296485134.298156</v>
+        <v>1296.485134298156</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -6490,7 +6490,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>40361014.32818764</v>
+        <v>40.36101432818763</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -6519,7 +6519,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3728383670.295573</v>
+        <v>3728.383670295572</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -6542,10 +6542,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>669042552.271364</v>
+        <v>669.0425522713642</v>
       </c>
       <c r="C7">
-        <v>839368890.8382305</v>
+        <v>839.3688908382304</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -6568,22 +6568,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2815773354.854109</v>
+        <v>2815.77335485411</v>
       </c>
       <c r="C8">
-        <v>4261977654.481256</v>
+        <v>4261.977654481255</v>
       </c>
       <c r="D8">
-        <v>103718810.7438524</v>
+        <v>103.7188107438525</v>
       </c>
       <c r="E8">
-        <v>3228881.146255009</v>
+        <v>3.228881146255009</v>
       </c>
       <c r="F8">
-        <v>149135346.811823</v>
+        <v>149.135346811823</v>
       </c>
       <c r="G8">
-        <v>150841144.3109594</v>
+        <v>150.8411443109594</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -6682,7 +6682,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1379807591.579154</v>
+        <v>1379.807591579154</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -6708,7 +6708,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>54388493.22686084</v>
+        <v>54.38849322686084</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -6737,7 +6737,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4289971899.117383</v>
+        <v>4289.971899117382</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -6760,10 +6760,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>724147539.7172371</v>
+        <v>724.1475397172372</v>
       </c>
       <c r="C7">
-        <v>965798928.7362884</v>
+        <v>965.7989287362883</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -6786,22 +6786,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3047691571.181141</v>
+        <v>3047.691571181142</v>
       </c>
       <c r="C8">
-        <v>4903938539.925353</v>
+        <v>4903.938539925353</v>
       </c>
       <c r="D8">
-        <v>110384607.3263323</v>
+        <v>110.3846073263323</v>
       </c>
       <c r="E8">
-        <v>4351079.458148865</v>
+        <v>4.351079458148865</v>
       </c>
       <c r="F8">
-        <v>171598875.9646955</v>
+        <v>171.5988759646955</v>
       </c>
       <c r="G8">
-        <v>168994646.8453525</v>
+        <v>168.9946468453525</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -6900,7 +6900,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1359370886.660058</v>
+        <v>1359.370886660059</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -6926,7 +6926,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>62580570.50769158</v>
+        <v>62.58057050769159</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -6955,7 +6955,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4863464605.878381</v>
+        <v>4863.464605878381</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -6978,10 +6978,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>722949587.6292338</v>
+        <v>722.9495876292345</v>
       </c>
       <c r="C7">
-        <v>1094909014.968275</v>
+        <v>1094.909014968275</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -7004,22 +7004,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3042649796.845055</v>
+        <v>3042.649796845057</v>
       </c>
       <c r="C8">
-        <v>5559507632.960667</v>
+        <v>5559.507632960669</v>
       </c>
       <c r="D8">
-        <v>108749670.9328046</v>
+        <v>108.7496709328047</v>
       </c>
       <c r="E8">
-        <v>5006445.640615324</v>
+        <v>5.006445640615325</v>
       </c>
       <c r="F8">
-        <v>194538584.2351354</v>
+        <v>194.5385842351354</v>
       </c>
       <c r="G8">
-        <v>181785860.2597509</v>
+        <v>181.7858602597509</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -7118,7 +7118,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1321572477.658353</v>
+        <v>1321.572477658354</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -7144,7 +7144,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>73001103.76071149</v>
+        <v>73.00110376071153</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -7173,7 +7173,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>5449406418.317728</v>
+        <v>5449.406418317728</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -7196,10 +7196,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>715724276.9569077</v>
+        <v>715.7242769569082</v>
       </c>
       <c r="C7">
-        <v>1226821761.266718</v>
+        <v>1226.821761266718</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -7222,22 +7222,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3012240912.981675</v>
+        <v>3012.240912981677</v>
       </c>
       <c r="C8">
-        <v>6229307506.653594</v>
+        <v>6229.307506653594</v>
       </c>
       <c r="D8">
-        <v>105725798.2126682</v>
+        <v>105.7257982126683</v>
       </c>
       <c r="E8">
-        <v>5840088.300856916</v>
+        <v>5.84008830085692</v>
       </c>
       <c r="F8">
-        <v>217976256.7327093</v>
+        <v>217.9762567327093</v>
       </c>
       <c r="G8">
-        <v>194254603.8223625</v>
+        <v>194.2546038223626</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -7336,7 +7336,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1321328502.860866</v>
+        <v>1321.328502860867</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -7362,7 +7362,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>112411691.2578856</v>
+        <v>112.4116912578856</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -7391,7 +7391,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6061576820.852435</v>
+        <v>6061.576820852438</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -7414,10 +7414,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>757338257.2444725</v>
+        <v>757.3382572444725</v>
       </c>
       <c r="C7">
-        <v>1364639335.105308</v>
+        <v>1364.639335105308</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -7440,22 +7440,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3187380052.465919</v>
+        <v>3187.38005246592</v>
       </c>
       <c r="C8">
-        <v>6929089719.821287</v>
+        <v>6929.089719821289</v>
       </c>
       <c r="D8">
-        <v>105706280.2288692</v>
+        <v>105.7062802288693</v>
       </c>
       <c r="E8">
-        <v>8992935.300630843</v>
+        <v>8.992935300630842</v>
       </c>
       <c r="F8">
-        <v>242463072.8340976</v>
+        <v>242.4630728340977</v>
       </c>
       <c r="G8">
-        <v>212197759.234978</v>
+        <v>212.197759234978</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -7554,7 +7554,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1296081935.2626</v>
+        <v>1296.0819352626</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -7580,7 +7580,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>175818865.8684479</v>
+        <v>175.818865868448</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -7609,7 +7609,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6733018082.623174</v>
+        <v>6733.018082623175</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -7632,10 +7632,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>812283985.1371458</v>
+        <v>812.2839851371457</v>
       </c>
       <c r="C7">
-        <v>1515800523.704454</v>
+        <v>1515.800523704454</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -7658,22 +7658,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3418627999.308769</v>
+        <v>3418.627999308769</v>
       </c>
       <c r="C8">
-        <v>7696625442.274637</v>
+        <v>7696.625442274637</v>
       </c>
       <c r="D8">
-        <v>103686554.821008</v>
+        <v>103.6865548210079</v>
       </c>
       <c r="E8">
-        <v>14065509.26947583</v>
+        <v>14.06550926947583</v>
       </c>
       <c r="F8">
-        <v>269320723.3049272</v>
+        <v>269.3207233049272</v>
       </c>
       <c r="G8">
-        <v>232808450.8841599</v>
+        <v>232.80845088416</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -7772,7 +7772,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1294630919.110743</v>
+        <v>1294.630919110743</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -7798,7 +7798,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>240081248.5043343</v>
+        <v>240.0812485043343</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -7827,7 +7827,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>7521343856.600515</v>
+        <v>7521.343856600517</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -7850,10 +7850,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>879630415.3232199</v>
+        <v>879.6304153232202</v>
       </c>
       <c r="C7">
-        <v>1693275855.922636</v>
+        <v>1693.275855922636</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -7876,22 +7876,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3702066299.337218</v>
+        <v>3702.06629933722</v>
       </c>
       <c r="C8">
-        <v>8597773803.134375</v>
+        <v>8597.773803134376</v>
       </c>
       <c r="D8">
-        <v>103570473.5288594</v>
+        <v>103.5704735288594</v>
       </c>
       <c r="E8">
-        <v>19206499.88034673</v>
+        <v>19.20649988034674</v>
       </c>
       <c r="F8">
-        <v>300853754.2640209</v>
+        <v>300.8537542640209</v>
       </c>
       <c r="G8">
-        <v>257290627.1245855</v>
+        <v>257.2906271245856</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -7990,7 +7990,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1267842582.353245</v>
+        <v>1267.842582353246</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -8016,7 +8016,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>299691669.7432816</v>
+        <v>299.6916697432815</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -8045,7 +8045,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>8511666999.865415</v>
+        <v>8511.666999865418</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -8068,10 +8068,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>929810968.3478065</v>
+        <v>929.8109683478069</v>
       </c>
       <c r="C7">
-        <v>1916226740.76754</v>
+        <v>1916.226740767541</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -8094,22 +8094,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3913259240.143119</v>
+        <v>3913.259240143121</v>
       </c>
       <c r="C8">
-        <v>9729828731.101601</v>
+        <v>9729.828731101607</v>
       </c>
       <c r="D8">
-        <v>101427406.5882595</v>
+        <v>101.4274065882596</v>
       </c>
       <c r="E8">
-        <v>23975333.57946252</v>
+        <v>23.9753335794625</v>
       </c>
       <c r="F8">
-        <v>340466679.9946169</v>
+        <v>340.466679994617</v>
       </c>
       <c r="G8">
-        <v>284603770.9115346</v>
+        <v>284.6037709115347</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -8263,7 +8263,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>99.64479976023659</v>
+        <v>9.964479976023655E-05</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>22.4329769811262</v>
+        <v>2.243297698112618E-05</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>113.9056351273312</v>
+        <v>0.0001139056351273312</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -8324,10 +8324,10 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>3.985791990409467</v>
+        <v>3.985791990409466E-06</v>
       </c>
       <c r="G8">
-        <v>2.243297698112619</v>
+        <v>2.243297698112618E-06</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -8426,7 +8426,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1209560938.162163</v>
+        <v>1209.560938162163</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -8452,7 +8452,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>287819604.6671568</v>
+        <v>287.8196046671566</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -8481,7 +8481,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>9815235394.445396</v>
+        <v>9815.235394445399</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -8504,10 +8504,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>889085029.396348</v>
+        <v>889.0850293963476</v>
       </c>
       <c r="C7">
-        <v>2209698350.518376</v>
+        <v>2209.698350518377</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -8530,22 +8530,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3741857565.673212</v>
+        <v>3741.857565673211</v>
       </c>
       <c r="C8">
-        <v>11219959538.46764</v>
+        <v>11219.95953846764</v>
       </c>
       <c r="D8">
-        <v>96764875.05297297</v>
+        <v>96.76487505297295</v>
       </c>
       <c r="E8">
-        <v>23025568.37337253</v>
+        <v>23.02556837337251</v>
       </c>
       <c r="F8">
-        <v>392609415.7778162</v>
+        <v>392.6094157778163</v>
       </c>
       <c r="G8">
-        <v>309878337.9914723</v>
+        <v>309.8783379914723</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -8644,7 +8644,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1126655079.864232</v>
+        <v>1126.655079864231</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -8670,7 +8670,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>259402200.3585807</v>
+        <v>259.4022003585806</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -8699,7 +8699,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>11562580051.03065</v>
+        <v>11562.58005103066</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -8722,10 +8722,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>818943811.6230226</v>
+        <v>818.9438116230223</v>
       </c>
       <c r="C7">
-        <v>2603077057.220469</v>
+        <v>2603.07705722047</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -8748,22 +8748,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3446656951.881697</v>
+        <v>3446.656951881695</v>
       </c>
       <c r="C8">
-        <v>13217378404.01406</v>
+        <v>13217.37840401406</v>
       </c>
       <c r="D8">
-        <v>90132406.3891385</v>
+        <v>90.13240638913847</v>
       </c>
       <c r="E8">
-        <v>20752176.02868645</v>
+        <v>20.75217602868643</v>
       </c>
       <c r="F8">
-        <v>462503202.0412264</v>
+        <v>462.5032020412268</v>
       </c>
       <c r="G8">
-        <v>342202086.8843491</v>
+        <v>342.2020868843492</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -8862,7 +8862,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1032218603.020914</v>
+        <v>1032.218603020914</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -8888,7 +8888,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>253675914.224986</v>
+        <v>253.6759142249859</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -8917,7 +8917,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>13891101152.10779</v>
+        <v>13891.1011521078</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -8940,10 +8940,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>767260004.7757795</v>
+        <v>767.2600047757792</v>
       </c>
       <c r="C7">
-        <v>3127295685.650839</v>
+        <v>3127.29568565084</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -8966,22 +8966,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3229137325.20948</v>
+        <v>3229.137325209479</v>
       </c>
       <c r="C8">
-        <v>15879149771.54934</v>
+        <v>15879.14977154935</v>
       </c>
       <c r="D8">
-        <v>82577488.2416731</v>
+        <v>82.57748824167307</v>
       </c>
       <c r="E8">
-        <v>20294073.13799887</v>
+        <v>20.29407313799886</v>
       </c>
       <c r="F8">
-        <v>555644046.0843122</v>
+        <v>555.6440460843124</v>
       </c>
       <c r="G8">
-        <v>389455569.0426618</v>
+        <v>389.4555690426619</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -9080,7 +9080,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1066135165.1656</v>
+        <v>1066.135165165599</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -9106,7 +9106,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>228286981.8690724</v>
+        <v>228.2869818690725</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -9135,7 +9135,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>16928235002.08378</v>
+        <v>16928.23500208379</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -9158,10 +9158,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>756760052.3194951</v>
+        <v>756.7600523194947</v>
       </c>
       <c r="C7">
-        <v>3811043898.392982</v>
+        <v>3811.043898392984</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -9184,22 +9184,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3184946583.898232</v>
+        <v>3184.946583898231</v>
       </c>
       <c r="C8">
-        <v>19350948209.40703</v>
+        <v>19350.94820940704</v>
       </c>
       <c r="D8">
-        <v>85290813.21324795</v>
+        <v>85.29081321324789</v>
       </c>
       <c r="E8">
-        <v>18262958.54952579</v>
+        <v>18.26295854952579</v>
       </c>
       <c r="F8">
-        <v>677129400.0833519</v>
+        <v>677.1294000833522</v>
       </c>
       <c r="G8">
-        <v>456780395.0712476</v>
+        <v>456.7803950712478</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -9298,7 +9298,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1285317035.281001</v>
+        <v>1285.317035280999</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -9324,7 +9324,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>197005718.2241387</v>
+        <v>197.0057182241387</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -9353,7 +9353,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>20772437573.19838</v>
+        <v>20772.43757319837</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -9376,10 +9376,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>829518432.5016311</v>
+        <v>829.5184325016305</v>
       </c>
       <c r="C7">
-        <v>4676487032.36587</v>
+        <v>4676.487032365869</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -9402,22 +9402,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3491161947.276358</v>
+        <v>3491.161947276355</v>
       </c>
       <c r="C8">
-        <v>23745320384.11698</v>
+        <v>23745.32038411697</v>
       </c>
       <c r="D8">
-        <v>102825362.82248</v>
+        <v>102.8253628224799</v>
       </c>
       <c r="E8">
-        <v>15760457.45793109</v>
+        <v>15.76045745793109</v>
       </c>
       <c r="F8">
-        <v>830897502.9279361</v>
+        <v>830.8975029279358</v>
       </c>
       <c r="G8">
-        <v>550600546.48675</v>
+        <v>550.6005464867499</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -9516,7 +9516,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1820143173.65566</v>
+        <v>1820.143173655659</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -9542,7 +9542,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>171239141.2263343</v>
+        <v>171.2391412263342</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -9571,7 +9571,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>25474656911.74017</v>
+        <v>25474.65691174017</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -9594,10 +9594,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1060597321.38106</v>
+        <v>1060.59732138106</v>
       </c>
       <c r="C7">
-        <v>5735094992.194478</v>
+        <v>5735.094992194478</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -9620,22 +9620,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4463694674.779285</v>
+        <v>4463.694674779283</v>
       </c>
       <c r="C8">
-        <v>29120505858.45577</v>
+        <v>29120.50585845577</v>
       </c>
       <c r="D8">
-        <v>145611453.8924527</v>
+        <v>145.6114538924526</v>
       </c>
       <c r="E8">
-        <v>13699131.29810674</v>
+        <v>13.69913129810673</v>
       </c>
       <c r="F8">
-        <v>1018986276.469608</v>
+        <v>1018.986276469608</v>
       </c>
       <c r="G8">
-        <v>679569231.3575536</v>
+        <v>679.5692313575536</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -9734,7 +9734,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2801976208.168977</v>
+        <v>2801.976208168977</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -9760,7 +9760,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>215753117.7416984</v>
+        <v>215.7531177416984</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -9789,7 +9789,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>31022652060.35159</v>
+        <v>31022.65206035157</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -9812,10 +9812,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1582035725.927767</v>
+        <v>1582.035725927767</v>
       </c>
       <c r="C7">
-        <v>6984111978.125188</v>
+        <v>6984.111978125185</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -9838,22 +9838,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6658252196.921358</v>
+        <v>6658.25219692136</v>
       </c>
       <c r="C8">
-        <v>35462511789.58833</v>
+        <v>35462.51178958831</v>
       </c>
       <c r="D8">
-        <v>224158096.653518</v>
+        <v>224.1580966535181</v>
       </c>
       <c r="E8">
-        <v>17260249.41933587</v>
+        <v>17.26024941933586</v>
       </c>
       <c r="F8">
-        <v>1240906082.414064</v>
+        <v>1240.906082414064</v>
       </c>
       <c r="G8">
-        <v>856614770.4052951</v>
+        <v>856.614770405295</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -9952,7 +9952,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4143577617.217184</v>
+        <v>4143.577617217185</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -9978,7 +9978,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>333095080.7145106</v>
+        <v>333.0950807145105</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -10007,7 +10007,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>37329660512.62894</v>
+        <v>37329.66051262896</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -10030,10 +10030,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2354388052.353054</v>
+        <v>2354.388052353055</v>
       </c>
       <c r="C7">
-        <v>8404005196.53844</v>
+        <v>8404.005196538443</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -10056,22 +10056,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>9908821378.096279</v>
+        <v>9908.821378096283</v>
       </c>
       <c r="C8">
-        <v>42672158507.11607</v>
+        <v>42672.15850711608</v>
       </c>
       <c r="D8">
-        <v>331486209.3773745</v>
+        <v>331.4862093773747</v>
       </c>
       <c r="E8">
-        <v>26647606.45716083</v>
+        <v>26.64760645716083</v>
       </c>
       <c r="F8">
-        <v>1493186420.505159</v>
+        <v>1493.18642050516</v>
       </c>
       <c r="G8">
-        <v>1075839324.889149</v>
+        <v>1075.83932488915</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -10170,7 +10170,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5619265249.094445</v>
+        <v>5619.265249094444</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -10196,7 +10196,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>462787013.3580912</v>
+        <v>462.787013358091</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -10225,7 +10225,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>44228182877.47684</v>
+        <v>44228.18287747685</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -10248,10 +10248,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3204591945.103992</v>
+        <v>3204.591945103991</v>
       </c>
       <c r="C7">
-        <v>9957065604.977055</v>
+        <v>9957.065604977057</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -10274,22 +10274,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13487041416.97705</v>
+        <v>13487.04141697705</v>
       </c>
       <c r="C8">
-        <v>50557974659.07612</v>
+        <v>50557.97465907612</v>
       </c>
       <c r="D8">
-        <v>449541219.9275554</v>
+        <v>449.5412199275553</v>
       </c>
       <c r="E8">
-        <v>37022961.06864727</v>
+        <v>37.02296106864726</v>
       </c>
       <c r="F8">
-        <v>1769127315.099075</v>
+        <v>1769.127315099076</v>
       </c>
       <c r="G8">
-        <v>1316165755.008104</v>
+        <v>1316.165755008104</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -10388,7 +10388,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7812370675.783173</v>
+        <v>7812.370675783169</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -10414,7 +10414,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>651411920.2156777</v>
+        <v>651.4119202156777</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -10443,7 +10443,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>51469641878.85085</v>
+        <v>51469.64187885084</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -10466,10 +10466,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4463769146.657792</v>
+        <v>4463.769146657791</v>
       </c>
       <c r="C7">
-        <v>11587331142.95264</v>
+        <v>11587.33114295264</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -10492,22 +10492,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18786491505.9706</v>
+        <v>18786.4915059706</v>
       </c>
       <c r="C8">
-        <v>58835807408.85088</v>
+        <v>58835.80740885088</v>
       </c>
       <c r="D8">
-        <v>624989654.0626535</v>
+        <v>624.9896540626531</v>
       </c>
       <c r="E8">
-        <v>52112953.61725419</v>
+        <v>52.11295361725419</v>
       </c>
       <c r="F8">
-        <v>2058785675.154036</v>
+        <v>2058.785675154035</v>
       </c>
       <c r="G8">
-        <v>1605110028.961043</v>
+        <v>1605.110028961043</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -10661,7 +10661,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>881.2594618811924</v>
+        <v>0.0008812594618811921</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -10687,7 +10687,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>198.3974404118317</v>
+        <v>0.0001983974404118317</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -10713,7 +10713,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>1007.38241191794</v>
+        <v>0.00100738241191794</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -10722,10 +10722,10 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>35.25037847524773</v>
+        <v>3.525037847524771E-05</v>
       </c>
       <c r="G8">
-        <v>19.83974404118317</v>
+        <v>1.983974404118316E-05</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -10824,7 +10824,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10728129393.12714</v>
+        <v>10728.12939312714</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -10850,7 +10850,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>899089540.8234892</v>
+        <v>899.0895408234893</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -10879,7 +10879,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>58731309356.98637</v>
+        <v>58731.30935698641</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -10902,10 +10902,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6134575605.451101</v>
+        <v>6134.575605451103</v>
       </c>
       <c r="C7">
-        <v>13222146203.78448</v>
+        <v>13222.14620378448</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -10928,22 +10928,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25818349631.90959</v>
+        <v>25818.34963190959</v>
       </c>
       <c r="C8">
-        <v>67136740805.98524</v>
+        <v>67136.74080598528</v>
       </c>
       <c r="D8">
-        <v>858250351.4501706</v>
+        <v>858.2503514501707</v>
       </c>
       <c r="E8">
-        <v>71927163.26587909</v>
+        <v>71.9271632658791</v>
       </c>
       <c r="F8">
-        <v>2349252374.279457</v>
+        <v>2349.252374279458</v>
       </c>
       <c r="G8">
-        <v>1935672180.923558</v>
+        <v>1935.672180923558</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -11042,7 +11042,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12225986675.62416</v>
+        <v>12225.98667562416</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1025260672.322288</v>
+        <v>1025.260672322288</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -11097,7 +11097,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>65632429956.24877</v>
+        <v>65632.42995624879</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -11120,10 +11120,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6991761009.916128</v>
+        <v>6991.76100991613</v>
       </c>
       <c r="C7">
-        <v>14775791551.25606</v>
+        <v>14775.79155125606</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -11146,22 +11146,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>29425952487.46532</v>
+        <v>29425.95248746532</v>
       </c>
       <c r="C8">
-        <v>75025527043.10684</v>
+        <v>75025.52704310685</v>
       </c>
       <c r="D8">
-        <v>978078934.0499321</v>
+        <v>978.0789340499321</v>
       </c>
       <c r="E8">
-        <v>82020853.78578298</v>
+        <v>82.020853785783</v>
       </c>
       <c r="F8">
-        <v>2625297198.249953</v>
+        <v>2625.297198249954</v>
       </c>
       <c r="G8">
-        <v>2176755256.117218</v>
+        <v>2176.755256117219</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -11260,7 +11260,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12298083373.35398</v>
+        <v>12298.08337335398</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -11286,7 +11286,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1033968332.34958</v>
+        <v>1033.968332349579</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -11315,7 +11315,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>71760955725.60045</v>
+        <v>71760.95572560049</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -11338,10 +11338,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7035809920.522795</v>
+        <v>7035.809920522795</v>
       </c>
       <c r="C7">
-        <v>16155503064.98191</v>
+        <v>16155.50306498192</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -11364,22 +11364,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>29611339423.43153</v>
+        <v>29611.33942343153</v>
       </c>
       <c r="C8">
-        <v>82031147224.30957</v>
+        <v>82031.14722430961</v>
       </c>
       <c r="D8">
-        <v>983846669.8683175</v>
+        <v>983.8466698683177</v>
       </c>
       <c r="E8">
-        <v>82717466.58796632</v>
+        <v>82.71746658796631</v>
       </c>
       <c r="F8">
-        <v>2870438229.024021</v>
+        <v>2870.438229024022</v>
       </c>
       <c r="G8">
-        <v>2319131298.550469</v>
+        <v>2319.131298550471</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -11478,7 +11478,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12140351980.47541</v>
+        <v>12140.35198047542</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -11504,7 +11504,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1025502872.389998</v>
+        <v>1025.502872389998</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -11533,7 +11533,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>76710289822.51405</v>
+        <v>76710.2898225141</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -11556,10 +11556,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6950649181.235563</v>
+        <v>6950.649181235563</v>
       </c>
       <c r="C7">
-        <v>17269743829.52878</v>
+        <v>17269.74382952879</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -11582,22 +11582,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>29252926733.9089</v>
+        <v>29252.9267339089</v>
       </c>
       <c r="C8">
-        <v>87688813706.8837</v>
+        <v>87688.81370688372</v>
       </c>
       <c r="D8">
-        <v>971228158.4380326</v>
+        <v>971.2281584380328</v>
       </c>
       <c r="E8">
-        <v>82040229.79119983</v>
+        <v>82.04022979119983</v>
       </c>
       <c r="F8">
-        <v>3068411592.900565</v>
+        <v>3068.411592900567</v>
       </c>
       <c r="G8">
-        <v>2422039301.076433</v>
+        <v>2422.039301076435</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -11696,7 +11696,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11783461195.69021</v>
+        <v>11783.46119569021</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -11722,7 +11722,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>999194330.62718</v>
+        <v>999.1943306271803</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -11751,7 +11751,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>80122357952.57054</v>
+        <v>80122.35795257057</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -11774,10 +11774,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6750384764.02745</v>
+        <v>6750.384764027452</v>
       </c>
       <c r="C7">
-        <v>18037900783.06541</v>
+        <v>18037.90078306542</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -11800,22 +11800,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>28410081674.22535</v>
+        <v>28410.08167422536</v>
       </c>
       <c r="C8">
-        <v>91589205783.40933</v>
+        <v>91589.20578340936</v>
       </c>
       <c r="D8">
-        <v>942676895.6552163</v>
+        <v>942.6768956552166</v>
       </c>
       <c r="E8">
-        <v>79935546.45017436</v>
+        <v>79.93554645017439</v>
       </c>
       <c r="F8">
-        <v>3204894318.102825</v>
+        <v>3204.894318102826</v>
       </c>
       <c r="G8">
-        <v>2478828554.709286</v>
+        <v>2478.828554709287</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -11914,7 +11914,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11267331017.16489</v>
+        <v>11267.3310171649</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -11940,7 +11940,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>958941415.7398486</v>
+        <v>958.941415739849</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -11969,7 +11969,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>81730357241.68025</v>
+        <v>81730.35724168026</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -11992,10 +11992,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6458429507.760067</v>
+        <v>6458.42950776007</v>
       </c>
       <c r="C7">
-        <v>18399908746.60252</v>
+        <v>18399.90874660252</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -12018,22 +12018,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>27181340948.21864</v>
+        <v>27181.34094821865</v>
       </c>
       <c r="C8">
-        <v>93427336631.69299</v>
+        <v>93427.336631693</v>
       </c>
       <c r="D8">
-        <v>901386481.3731909</v>
+        <v>901.3864813731915</v>
       </c>
       <c r="E8">
-        <v>76715313.25918785</v>
+        <v>76.71531325918788</v>
       </c>
       <c r="F8">
-        <v>3269214289.667213</v>
+        <v>3269.214289667214</v>
       </c>
       <c r="G8">
-        <v>2485833825.436258</v>
+        <v>2485.833825436259</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -12132,7 +12132,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10855520175.0635</v>
+        <v>10855.5201750635</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -12158,7 +12158,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>928294906.6998389</v>
+        <v>928.2949066998393</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -12187,7 +12187,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>81393041526.70052</v>
+        <v>81393.04152670056</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -12210,10 +12210,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6227040912.578687</v>
+        <v>6227.04091257869</v>
       </c>
       <c r="C7">
-        <v>18323969051.92984</v>
+        <v>18323.96905192985</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -12236,22 +12236,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>26207504771.85449</v>
+        <v>26207.50477185451</v>
       </c>
       <c r="C8">
-        <v>93041745403.19289</v>
+        <v>93041.74540319292</v>
       </c>
       <c r="D8">
-        <v>868441614.0050795</v>
+        <v>868.4416140050797</v>
       </c>
       <c r="E8">
-        <v>74263592.53598708</v>
+        <v>74.26359253598712</v>
       </c>
       <c r="F8">
-        <v>3255721661.068024</v>
+        <v>3255.721661068025</v>
       </c>
       <c r="G8">
-        <v>2455100996.450852</v>
+        <v>2455.100996450853</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -12350,7 +12350,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10351068900.04176</v>
+        <v>10351.06890004176</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -12376,7 +12376,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>892297438.1993116</v>
+        <v>892.2974381993116</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -12405,7 +12405,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>79113333307.37505</v>
+        <v>79113.33330737505</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -12428,10 +12428,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5945233574.160452</v>
+        <v>5945.233574160451</v>
       </c>
       <c r="C7">
-        <v>17810739639.74911</v>
+        <v>17810.73963974911</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -12454,22 +12454,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25021473192.80692</v>
+        <v>25021.47319280692</v>
       </c>
       <c r="C8">
-        <v>90435772856.18509</v>
+        <v>90435.7728561851</v>
       </c>
       <c r="D8">
-        <v>828085512.0033405</v>
+        <v>828.0855120033405</v>
       </c>
       <c r="E8">
-        <v>71383795.05594489</v>
+        <v>71.38379505594489</v>
       </c>
       <c r="F8">
-        <v>3164533332.295005</v>
+        <v>3164.533332295005</v>
       </c>
       <c r="G8">
-        <v>2375597321.390956</v>
+        <v>2375.597321390956</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -12568,7 +12568,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9146426444.392271</v>
+        <v>9146.426444392266</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -12594,7 +12594,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>801878699.146521</v>
+        <v>801.8786991465212</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -12623,7 +12623,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>75037463831.1057</v>
+        <v>75037.46383110576</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -12646,10 +12646,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5267552176.07462</v>
+        <v>5267.552176074618</v>
       </c>
       <c r="C7">
-        <v>16893141467.44878</v>
+        <v>16893.1414674488</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -12672,22 +12672,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>22169341863.74252</v>
+        <v>22169.34186374251</v>
       </c>
       <c r="C8">
-        <v>85776578372.30167</v>
+        <v>85776.57837230175</v>
       </c>
       <c r="D8">
-        <v>731714115.5513813</v>
+        <v>731.7141155513809</v>
       </c>
       <c r="E8">
-        <v>64150295.93172164</v>
+        <v>64.15029593172166</v>
       </c>
       <c r="F8">
-        <v>3001498553.244231</v>
+        <v>3001.498553244233</v>
       </c>
       <c r="G8">
-        <v>2216069364.35234</v>
+        <v>2216.069364352341</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -12786,7 +12786,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6624548850.693637</v>
+        <v>6624.548850693632</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -12812,7 +12812,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>604001532.7712909</v>
+        <v>604.0015327712912</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -12841,7 +12841,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>69435704415.8629</v>
+        <v>69435.70441586293</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -12864,10 +12864,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3839754945.134686</v>
+        <v>3839.754945134684</v>
       </c>
       <c r="C7">
-        <v>15632020562.81232</v>
+        <v>15632.02056281233</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -12890,22 +12890,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16160227218.69303</v>
+        <v>16160.22721869302</v>
       </c>
       <c r="C8">
-        <v>79373113609.87497</v>
+        <v>79373.113609875</v>
       </c>
       <c r="D8">
-        <v>529963908.0554907</v>
+        <v>529.9639080554903</v>
       </c>
       <c r="E8">
-        <v>48320122.62170324</v>
+        <v>48.32012262170327</v>
       </c>
       <c r="F8">
-        <v>2777428176.634519</v>
+        <v>2777.42817663452</v>
       </c>
       <c r="G8">
-        <v>1947177550.7947</v>
+        <v>1947.177550794701</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -13059,7 +13059,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4248.635868928988</v>
+        <v>0.004248635868928988</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -13085,7 +13085,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>956.4929718179282</v>
+        <v>0.000956492971817928</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -13111,7 +13111,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4856.686633317271</v>
+        <v>0.004856686633317271</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -13120,10 +13120,10 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>169.9454347571597</v>
+        <v>0.0001699454347571596</v>
       </c>
       <c r="G8">
-        <v>95.64929718179279</v>
+        <v>9.564929718179277E-05</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -13222,7 +13222,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3226084107.50987</v>
+        <v>3226.084107509866</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -13248,7 +13248,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>326745892.6533798</v>
+        <v>326.7458926533797</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -13277,7 +13277,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>62670137173.61481</v>
+        <v>62670.13717361485</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -13300,10 +13300,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1904443363.206603</v>
+        <v>1904.443363206601</v>
       </c>
       <c r="C7">
-        <v>14108892265.35171</v>
+        <v>14108.89226535172</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -13326,22 +13326,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8015156673.877559</v>
+        <v>8015.156673877551</v>
       </c>
       <c r="C8">
-        <v>71639280679.51408</v>
+        <v>71639.28067951411</v>
       </c>
       <c r="D8">
-        <v>258086728.6007894</v>
+        <v>258.0867286007892</v>
       </c>
       <c r="E8">
-        <v>26139671.41227037</v>
+        <v>26.13967141227036</v>
       </c>
       <c r="F8">
-        <v>2506805486.944595</v>
+        <v>2506.805486944596</v>
       </c>
       <c r="G8">
-        <v>1601333562.855831</v>
+        <v>1601.333562855832</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -13440,7 +13440,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1459600980.172295</v>
+        <v>1459.600980172299</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -13466,7 +13466,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>172609461.7552371</v>
+        <v>172.6094617552369</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -13495,7 +13495,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>55156957754.25077</v>
+        <v>55156.95775425079</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -13518,10 +13518,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>887878111.4879647</v>
+        <v>887.8781114879664</v>
       </c>
       <c r="C7">
-        <v>12417454464.5311</v>
+        <v>12417.45446453111</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -13544,22 +13544,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3736778057.237785</v>
+        <v>3736.778057237793</v>
       </c>
       <c r="C8">
-        <v>63050839780.96795</v>
+        <v>63050.83978096797</v>
       </c>
       <c r="D8">
-        <v>116768078.4137836</v>
+        <v>116.7680784137839</v>
       </c>
       <c r="E8">
-        <v>13808756.94041896</v>
+        <v>13.80875694041894</v>
       </c>
       <c r="F8">
-        <v>2206278310.170033</v>
+        <v>2206.278310170033</v>
       </c>
       <c r="G8">
-        <v>1330533257.601907</v>
+        <v>1330.533257601907</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -13658,7 +13658,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1248257397.459432</v>
+        <v>1248.257397459436</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -13684,7 +13684,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>135008286.481694</v>
+        <v>135.0082864816945</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -13713,7 +13713,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>47329642630.47256</v>
+        <v>47329.64263047256</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -13736,10 +13736,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>745966681.712592</v>
+        <v>745.9666817125944</v>
       </c>
       <c r="C7">
-        <v>10655295471.60584</v>
+        <v>10655.29547160584</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -13762,22 +13762,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3139520945.034449</v>
+        <v>3139.520945034459</v>
       </c>
       <c r="C8">
-        <v>54103305111.21085</v>
+        <v>54103.30511121084</v>
       </c>
       <c r="D8">
-        <v>99860591.79675448</v>
+        <v>99.86059179675482</v>
       </c>
       <c r="E8">
-        <v>10800662.91853552</v>
+        <v>10.80066291853555</v>
       </c>
       <c r="F8">
-        <v>1893185705.218904</v>
+        <v>1893.185705218904</v>
       </c>
       <c r="G8">
-        <v>1140126215.331843</v>
+        <v>1140.126215331843</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -13876,7 +13876,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1077312263.733253</v>
+        <v>1077.312263733249</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -13902,7 +13902,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>94008151.7701446</v>
+        <v>94.00815177014525</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -13931,7 +13931,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>39605855187.07407</v>
+        <v>39605.85518707408</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -13954,10 +13954,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>619971725.3003737</v>
+        <v>619.9717253003723</v>
       </c>
       <c r="C7">
-        <v>8916443606.362669</v>
+        <v>8916.443606362673</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -13980,22 +13980,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2609250874.906484</v>
+        <v>2609.250874906477</v>
       </c>
       <c r="C8">
-        <v>45274114662.27895</v>
+        <v>45274.11466227897</v>
       </c>
       <c r="D8">
-        <v>86184981.09866022</v>
+        <v>86.18498109865988</v>
       </c>
       <c r="E8">
-        <v>7520652.141611564</v>
+        <v>7.520652141611616</v>
       </c>
       <c r="F8">
-        <v>1584234207.482964</v>
+        <v>1584.234207482965</v>
       </c>
       <c r="G8">
-        <v>953641533.1663042</v>
+        <v>953.6415331663044</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -14094,7 +14094,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>753549098.5493582</v>
+        <v>753.5490985493452</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -14120,7 +14120,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>52643024.85649134</v>
+        <v>52.64302485649207</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -14149,7 +14149,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>32357715641.01336</v>
+        <v>32357.71564101338</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -14172,10 +14172,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>419767148.4460174</v>
+        <v>419.7671484460119</v>
       </c>
       <c r="C7">
-        <v>7284674081.169093</v>
+        <v>7284.674081169096</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -14198,22 +14198,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1766657662.991184</v>
+        <v>1766.657662991161</v>
       </c>
       <c r="C8">
-        <v>36988645270.27734</v>
+        <v>36988.64527027735</v>
       </c>
       <c r="D8">
-        <v>60283927.88394863</v>
+        <v>60.28392788394758</v>
       </c>
       <c r="E8">
-        <v>4211441.988519305</v>
+        <v>4.211441988519363</v>
       </c>
       <c r="F8">
-        <v>1294308625.640536</v>
+        <v>1294.308625640536</v>
       </c>
       <c r="G8">
-        <v>770444122.9615109</v>
+        <v>770.4441229615106</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -14312,7 +14312,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>367644999.2116991</v>
+        <v>367.6449992116872</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -14338,7 +14338,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18982098.86321873</v>
+        <v>18.9820988632192</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -14367,7 +14367,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>25884511606.60804</v>
+        <v>25884.51160660804</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -14390,10 +14390,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>197701584.271306</v>
+        <v>197.7015842713007</v>
       </c>
       <c r="C7">
-        <v>5827365346.068445</v>
+        <v>5827.365346068444</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -14416,22 +14416,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>832058964.4316028</v>
+        <v>832.0589644315806</v>
       </c>
       <c r="C8">
-        <v>29589017606.59693</v>
+        <v>29589.01760659692</v>
       </c>
       <c r="D8">
-        <v>29411599.93693592</v>
+        <v>29.41159993693496</v>
       </c>
       <c r="E8">
-        <v>1518567.909057498</v>
+        <v>1.518567909057535</v>
       </c>
       <c r="F8">
-        <v>1035380464.264323</v>
+        <v>1035.380464264322</v>
       </c>
       <c r="G8">
-        <v>602506693.033975</v>
+        <v>602.5066930339743</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -14530,7 +14530,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>285162342.4412051</v>
+        <v>285.1623424411957</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -14556,7 +14556,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6551916.923183489</v>
+        <v>6.551916923183778</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -14585,7 +14585,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>20389533438.35201</v>
+        <v>20389.53343835201</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -14608,10 +14608,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>144693662.9950996</v>
+        <v>144.6936629950954</v>
       </c>
       <c r="C7">
-        <v>4590284042.710061</v>
+        <v>4590.284042710061</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -14634,22 +14634,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>608966588.8883401</v>
+        <v>608.9665888883222</v>
       </c>
       <c r="C8">
-        <v>23307616271.33334</v>
+        <v>23307.61627133334</v>
       </c>
       <c r="D8">
-        <v>22812987.3952964</v>
+        <v>22.81298739529564</v>
       </c>
       <c r="E8">
-        <v>524153.3538546788</v>
+        <v>0.524153353854702</v>
       </c>
       <c r="F8">
-        <v>815581337.534081</v>
+        <v>815.5813375340809</v>
       </c>
       <c r="G8">
-        <v>473497770.570516</v>
+        <v>473.4977705705155</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -14748,7 +14748,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>510173245.2745111</v>
+        <v>510.1732452745018</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -14774,7 +14774,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15361007.38157435</v>
+        <v>15.36100738157502</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -14803,7 +14803,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>15966175104.45272</v>
+        <v>15966.17510445271</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -14826,10 +14826,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>262719568.1335361</v>
+        <v>262.7195681335323</v>
       </c>
       <c r="C7">
-        <v>3594455901.930025</v>
+        <v>3594.455901930024</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -14852,22 +14852,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1105697623.025244</v>
+        <v>1105.697623025228</v>
       </c>
       <c r="C8">
-        <v>18251201469.64861</v>
+        <v>18251.2014696486</v>
       </c>
       <c r="D8">
-        <v>40813859.62196087</v>
+        <v>40.81385962196013</v>
       </c>
       <c r="E8">
-        <v>1228880.590525947</v>
+        <v>1.228880590526001</v>
       </c>
       <c r="F8">
-        <v>638647004.1781094</v>
+        <v>638.6470041781091</v>
       </c>
       <c r="G8">
-        <v>385717547.006356</v>
+        <v>385.7175470063555</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -14966,7 +14966,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>835682160.3353277</v>
+        <v>835.6821603353264</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -14992,7 +14992,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>39002626.36766968</v>
+        <v>39.00262636767108</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -15021,7 +15021,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>12599296294.95111</v>
+        <v>12599.2962949511</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -15044,10 +15044,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>445000071.2600661</v>
+        <v>445.0000712600669</v>
       </c>
       <c r="C7">
-        <v>2836472394.375913</v>
+        <v>2836.472394375912</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -15070,22 +15070,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1872854483.333444</v>
+        <v>1872.854483333447</v>
       </c>
       <c r="C8">
-        <v>14402466060.31646</v>
+        <v>14402.46606031645</v>
       </c>
       <c r="D8">
-        <v>66854572.82682618</v>
+        <v>66.85457282682609</v>
       </c>
       <c r="E8">
-        <v>3120210.109413573</v>
+        <v>3.120210109413684</v>
       </c>
       <c r="F8">
-        <v>503971851.7980447</v>
+        <v>503.9718517980444</v>
       </c>
       <c r="G8">
-        <v>328147246.5635979</v>
+        <v>328.1472465635978</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -15184,7 +15184,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1198909177.543329</v>
+        <v>1198.909177543332</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -15210,7 +15210,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>80110304.00289044</v>
+        <v>80.11030400289212</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -15239,7 +15239,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>10184281650.7002</v>
+        <v>10184.28165070019</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -15262,10 +15262,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>663996180.1989844</v>
+        <v>663.9961801989878</v>
       </c>
       <c r="C7">
-        <v>2292781523.864652</v>
+        <v>2292.781523864651</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -15288,22 +15288,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2794534885.085861</v>
+        <v>2794.534885085875</v>
       </c>
       <c r="C8">
-        <v>11641822478.74364</v>
+        <v>11641.82247874364</v>
       </c>
       <c r="D8">
-        <v>95912734.20346627</v>
+        <v>95.91273420346653</v>
       </c>
       <c r="E8">
-        <v>6408824.320231232</v>
+        <v>6.408824320231367</v>
       </c>
       <c r="F8">
-        <v>407371266.0280082</v>
+        <v>407.3712660280081</v>
       </c>
       <c r="G8">
-        <v>295677770.4063635</v>
+        <v>295.6777704063638</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -15402,7 +15402,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.709617179893105E-06</v>
+        <v>1.709617179893106E-12</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -15428,7 +15428,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.689503452694342E-09</v>
+        <v>3.689503452694341E-15</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -15457,7 +15457,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>15282.74237051</v>
+        <v>0.01528274237051</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -15480,10 +15480,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8.29786395690814E-07</v>
+        <v>8.297863956908147E-13</v>
       </c>
       <c r="C7">
-        <v>3440.5950800349</v>
+        <v>0.0034405950800349</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -15506,22 +15506,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.492289713523246E-06</v>
+        <v>3.492289713523248E-12</v>
       </c>
       <c r="C8">
-        <v>17469.95809504333</v>
+        <v>0.01746995809504334</v>
       </c>
       <c r="D8">
-        <v>1.367693743914483E-07</v>
+        <v>1.367693743914484E-13</v>
       </c>
       <c r="E8">
-        <v>2.951602762155472E-10</v>
+        <v>2.951602762155471E-16</v>
       </c>
       <c r="F8">
-        <v>611.3096948204005</v>
+        <v>0.0006113096948204006</v>
       </c>
       <c r="G8">
-        <v>344.0595080864685</v>
+        <v>0.0003440595080864685</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -15620,7 +15620,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1538247365.844959</v>
+        <v>1538.247365844959</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -15646,7 +15646,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>125497367.1251111</v>
+        <v>125.4973671251114</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -15675,7 +15675,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>8559751523.611358</v>
+        <v>8559.751523611356</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -15698,10 +15698,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>875983543.4216871</v>
+        <v>875.983543421687</v>
       </c>
       <c r="C7">
-        <v>1927051982.194455</v>
+        <v>1927.051982194454</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -15724,22 +15724,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3686717851.478348</v>
+        <v>3686.717851478349</v>
       </c>
       <c r="C8">
-        <v>9784794953.425854</v>
+        <v>9784.794953425853</v>
       </c>
       <c r="D8">
-        <v>123059789.2675967</v>
+        <v>123.0597892675966</v>
       </c>
       <c r="E8">
-        <v>10039789.37000888</v>
+        <v>10.03978937000891</v>
       </c>
       <c r="F8">
-        <v>342390060.9444546</v>
+        <v>342.3900609444545</v>
       </c>
       <c r="G8">
-        <v>280303552.5616141</v>
+        <v>280.3035525616141</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -15838,7 +15838,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1844234660.988817</v>
+        <v>1844.234660988818</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -15864,7 +15864,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>158807909.2753213</v>
+        <v>158.8079092753206</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -15893,7 +15893,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>7544411696.277289</v>
+        <v>7544.411696277288</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -15916,10 +15916,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1059071983.41501</v>
+        <v>1059.071983415009</v>
       </c>
       <c r="C7">
-        <v>1698469105.522399</v>
+        <v>1698.469105522399</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -15942,22 +15942,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4457275044.238043</v>
+        <v>4457.27504423804</v>
       </c>
       <c r="C8">
-        <v>8624143036.006746</v>
+        <v>8624.143036006742</v>
       </c>
       <c r="D8">
-        <v>147538772.8791053</v>
+        <v>147.5387728791054</v>
       </c>
       <c r="E8">
-        <v>12704632.7420257</v>
+        <v>12.70463274202564</v>
       </c>
       <c r="F8">
-        <v>301776467.8510919</v>
+        <v>301.7764678510918</v>
       </c>
       <c r="G8">
-        <v>275754108.8937408</v>
+        <v>275.7541088937408</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -16056,7 +16056,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2071878079.420777</v>
+        <v>2071.87807942078</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -16082,7 +16082,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>177606463.4983228</v>
+        <v>177.6064634983228</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -16111,7 +16111,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6967609270.707593</v>
+        <v>6967.609270707596</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -16134,10 +16134,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1188947435.79367</v>
+        <v>1188.947435793671</v>
       </c>
       <c r="C7">
-        <v>1568613904.181263</v>
+        <v>1568.613904181264</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -16160,22 +16160,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5003876806.735695</v>
+        <v>5003.8768067357</v>
       </c>
       <c r="C8">
-        <v>7964790548.113849</v>
+        <v>7964.790548113852</v>
       </c>
       <c r="D8">
-        <v>165750246.3536621</v>
+        <v>165.7502463536623</v>
       </c>
       <c r="E8">
-        <v>14208517.07986582</v>
+        <v>14.20851707986581</v>
       </c>
       <c r="F8">
-        <v>278704370.828304</v>
+        <v>278.7043708283041</v>
       </c>
       <c r="G8">
-        <v>275756133.9974932</v>
+        <v>275.7561339974935</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -16274,7 +16274,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1904546824.422061</v>
+        <v>1904.546824422069</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -16300,7 +16300,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>162277233.7310977</v>
+        <v>162.2772337310978</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -16329,7 +16329,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6687305969.007212</v>
+        <v>6687.305969007213</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -16352,10 +16352,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1091881167.625397</v>
+        <v>1091.881167625401</v>
       </c>
       <c r="C7">
-        <v>1505509381.618034</v>
+        <v>1505.509381618034</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -16378,22 +16378,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4595357781.09906</v>
+        <v>4595.357781099076</v>
       </c>
       <c r="C8">
-        <v>7644371161.600004</v>
+        <v>7644.371161600007</v>
       </c>
       <c r="D8">
-        <v>152363745.9537648</v>
+        <v>152.3637459537654</v>
       </c>
       <c r="E8">
-        <v>12982178.69848781</v>
+        <v>12.98217869848782</v>
       </c>
       <c r="F8">
-        <v>267492238.7602887</v>
+        <v>267.4922387602888</v>
       </c>
       <c r="G8">
-        <v>259739054.924343</v>
+        <v>259.7390549243435</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -16492,7 +16492,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1156718662.686472</v>
+        <v>1156.718662686479</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -16518,7 +16518,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>98572819.27339487</v>
+        <v>98.57281927339426</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -16547,7 +16547,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6595495865.935664</v>
+        <v>6595.495865935669</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -16570,10 +16570,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>663164785.1679282</v>
+        <v>663.1647851679311</v>
       </c>
       <c r="C7">
-        <v>1484840225.437334</v>
+        <v>1484.840225437335</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -16596,22 +16596,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2791035825.171274</v>
+        <v>2791.035825171286</v>
       </c>
       <c r="C8">
-        <v>7539421499.132586</v>
+        <v>7539.421499132591</v>
       </c>
       <c r="D8">
-        <v>92537493.01491769</v>
+        <v>92.53749301491827</v>
       </c>
       <c r="E8">
-        <v>7885825.541871586</v>
+        <v>7.885825541871537</v>
       </c>
       <c r="F8">
-        <v>263819834.6374268</v>
+        <v>263.819834637427</v>
       </c>
       <c r="G8">
-        <v>214800501.0605262</v>
+        <v>214.8005010605266</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -16710,7 +16710,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>374281940.6649475</v>
+        <v>374.2819406649529</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -16736,7 +16736,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>32509295.07950342</v>
+        <v>32.50929507950195</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -16765,7 +16765,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6615555117.958099</v>
+        <v>6615.555117958101</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -16788,10 +16788,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>215231686.2430946</v>
+        <v>215.2316862430957</v>
       </c>
       <c r="C7">
-        <v>1489356153.413111</v>
+        <v>1489.356153413111</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -16814,22 +16814,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>905837222.4399471</v>
+        <v>905.8372224399513</v>
       </c>
       <c r="C8">
-        <v>7562351565.200183</v>
+        <v>7562.351565200184</v>
       </c>
       <c r="D8">
-        <v>29942555.25319578</v>
+        <v>29.94255525319621</v>
       </c>
       <c r="E8">
-        <v>2600743.606360273</v>
+        <v>2.600743606360155</v>
       </c>
       <c r="F8">
-        <v>264622204.7183242</v>
+        <v>264.6222047183243</v>
       </c>
       <c r="G8">
-        <v>170458783.9656205</v>
+        <v>170.4587839656206</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -16928,7 +16928,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>49914709.07731952</v>
+        <v>49.91470907732213</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -16954,7 +16954,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4738737.615556953</v>
+        <v>4.738737615556047</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -16983,7 +16983,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6696570809.736188</v>
+        <v>6696.570809736189</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -17006,10 +17006,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>29130576.42043501</v>
+        <v>29.13057642043531</v>
       </c>
       <c r="C7">
-        <v>1507595169.931192</v>
+        <v>1507.595169931192</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -17032,22 +17032,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>122600723.4035136</v>
+        <v>122.6007234035149</v>
       </c>
       <c r="C8">
-        <v>7654961955.802279</v>
+        <v>7654.961955802282</v>
       </c>
       <c r="D8">
-        <v>3993176.726185559</v>
+        <v>3.993176726185768</v>
       </c>
       <c r="E8">
-        <v>379099.009244556</v>
+        <v>0.3790990092444836</v>
       </c>
       <c r="F8">
-        <v>267862832.3894477</v>
+        <v>267.8628323894478</v>
       </c>
       <c r="G8">
-        <v>153672574.6351627</v>
+        <v>153.6725746351627</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -17146,7 +17146,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10088104.76939696</v>
+        <v>10.08810476939709</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -17172,7 +17172,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1065962.127660306</v>
+        <v>1.065962127660207</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -17201,7 +17201,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6807467289.67862</v>
+        <v>6807.467289678622</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -17224,10 +17224,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6002094.612779343</v>
+        <v>6.002094612779302</v>
       </c>
       <c r="C7">
-        <v>1532561231.259254</v>
+        <v>1532.561231259255</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -17250,22 +17250,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25260782.03337147</v>
+        <v>25.2607820333713</v>
       </c>
       <c r="C8">
-        <v>7781729574.500119</v>
+        <v>7781.729574500121</v>
       </c>
       <c r="D8">
-        <v>807048.3815517561</v>
+        <v>0.8070483815517669</v>
       </c>
       <c r="E8">
-        <v>85276.97021282441</v>
+        <v>0.08527697021281649</v>
       </c>
       <c r="F8">
-        <v>272298691.587145</v>
+        <v>272.2986915871451</v>
       </c>
       <c r="G8">
-        <v>153856332.5872033</v>
+        <v>153.8563325872034</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -17364,7 +17364,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>24166592.3003242</v>
+        <v>24.16659230032399</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -17390,7 +17390,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2562417.963600702</v>
+        <v>2.562417963600625</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -17419,7 +17419,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6931413822.858342</v>
+        <v>6931.413822858344</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -17442,10 +17442,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14387707.43982693</v>
+        <v>14.38770743982674</v>
       </c>
       <c r="C7">
-        <v>1560465243.635228</v>
+        <v>1560.465243635228</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -17468,22 +17468,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>60552984.42373063</v>
+        <v>60.55298442372985</v>
       </c>
       <c r="C8">
-        <v>7923414927.048751</v>
+        <v>7923.414927048752</v>
       </c>
       <c r="D8">
-        <v>1933327.384025935</v>
+        <v>1.933327384025918</v>
       </c>
       <c r="E8">
-        <v>204993.437088056</v>
+        <v>0.2049934370880499</v>
       </c>
       <c r="F8">
-        <v>277256552.9143339</v>
+        <v>277.256552914334</v>
       </c>
       <c r="G8">
-        <v>157485295.1075054</v>
+        <v>157.4852951075055</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -17582,7 +17582,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>64602985.70047408</v>
+        <v>64.60298570047352</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -17608,7 +17608,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6820778.231693786</v>
+        <v>6.820778231693587</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -17637,7 +17637,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>7060258823.517076</v>
+        <v>7060.258823517069</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -17660,10 +17660,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>38430840.59890335</v>
+        <v>38.43084059890287</v>
       </c>
       <c r="C7">
-        <v>1589472045.20305</v>
+        <v>1589.472045203049</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -17686,22 +17686,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>161742383.3441711</v>
+        <v>161.742383344169</v>
       </c>
       <c r="C8">
-        <v>8070699799.59933</v>
+        <v>8070.699799599323</v>
       </c>
       <c r="D8">
-        <v>5168238.856037924</v>
+        <v>5.168238856037879</v>
       </c>
       <c r="E8">
-        <v>545662.2585355026</v>
+        <v>0.5456622585354867</v>
       </c>
       <c r="F8">
-        <v>282410352.9406832</v>
+        <v>282.410352940683</v>
       </c>
       <c r="G8">
-        <v>162790288.5801953</v>
+        <v>162.7902885801951</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -17800,7 +17800,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.0001019976626679013</v>
+        <v>1.019976626679014E-10</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -17826,7 +17826,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.828033678263647E-07</v>
+        <v>2.828033678263646E-13</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -17855,7 +17855,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>46482.64132941133</v>
+        <v>0.04648264132941133</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -17878,10 +17878,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4.957235488551255E-05</v>
+        <v>4.957235488551258E-11</v>
       </c>
       <c r="C7">
-        <v>10464.61055141523</v>
+        <v>0.01046461055141523</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -17904,22 +17904,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.0002086332409651914</v>
+        <v>2.086332409651915E-10</v>
       </c>
       <c r="C8">
-        <v>53135.08377519331</v>
+        <v>0.05313508377519331</v>
       </c>
       <c r="D8">
-        <v>8.159813013432099E-06</v>
+        <v>8.159813013432104E-12</v>
       </c>
       <c r="E8">
-        <v>2.262426942610916E-08</v>
+        <v>2.262426942610916E-14</v>
       </c>
       <c r="F8">
-        <v>1859.305653176455</v>
+        <v>0.001859305653176455</v>
       </c>
       <c r="G8">
-        <v>1046.461060098758</v>
+        <v>0.001046461060098758</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -18018,7 +18018,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>140948779.0981342</v>
+        <v>140.948779098133</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -18044,7 +18044,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14749810.77653402</v>
+        <v>14.7498107765336</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -18073,7 +18073,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>7189319504.166049</v>
+        <v>7189.319504166046</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -18096,10 +18096,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>83707910.65159102</v>
+        <v>83.70791065158997</v>
       </c>
       <c r="C7">
-        <v>1618527402.684156</v>
+        <v>1618.527402684156</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -18122,22 +18122,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>352298226.1786801</v>
+        <v>352.2982261786758</v>
       </c>
       <c r="C8">
-        <v>8218231219.549589</v>
+        <v>8218.231219549587</v>
       </c>
       <c r="D8">
-        <v>11275902.32785073</v>
+        <v>11.27590232785063</v>
       </c>
       <c r="E8">
-        <v>1179984.862122721</v>
+        <v>1.179984862122688</v>
       </c>
       <c r="F8">
-        <v>287572780.1666422</v>
+        <v>287.5727801666421</v>
       </c>
       <c r="G8">
-        <v>170223531.3335747</v>
+        <v>170.2235313335745</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -18236,7 +18236,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>206878099.8413188</v>
+        <v>206.8780998413172</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -18262,7 +18262,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21024649.50362831</v>
+        <v>21.02464950362779</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -18291,7 +18291,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>7313526264.038898</v>
+        <v>7313.526264038889</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -18314,10 +18314,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>122201380.5101436</v>
+        <v>122.2013805101423</v>
       </c>
       <c r="C7">
-        <v>1646489999.747247</v>
+        <v>1646.489999747245</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -18340,22 +18340,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>514304194.8508036</v>
+        <v>514.3041948507979</v>
       </c>
       <c r="C8">
-        <v>8360214041.578106</v>
+        <v>8360.214041578096</v>
       </c>
       <c r="D8">
-        <v>16550247.9873055</v>
+        <v>16.55024798730537</v>
       </c>
       <c r="E8">
-        <v>1681971.960290264</v>
+        <v>1.681971960290222</v>
       </c>
       <c r="F8">
-        <v>292541050.5615562</v>
+        <v>292.5410505615558</v>
       </c>
       <c r="G8">
-        <v>176869138.025739</v>
+        <v>176.8691380257387</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -18454,7 +18454,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>181137615.919551</v>
+        <v>181.1376159195501</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -18480,7 +18480,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15951544.89102222</v>
+        <v>15.95154489102213</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -18509,7 +18509,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>7425873435.47065</v>
+        <v>7425.873435470646</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -18532,10 +18532,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>104394795.5411509</v>
+        <v>104.3947955411504</v>
       </c>
       <c r="C7">
-        <v>1671782654.423531</v>
+        <v>1671.78265442353</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -18558,22 +18558,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>439362313.6110901</v>
+        <v>439.3623136110879</v>
       </c>
       <c r="C8">
-        <v>8488639969.950532</v>
+        <v>8488.639969950527</v>
       </c>
       <c r="D8">
-        <v>14491009.27356408</v>
+        <v>14.491009273564</v>
       </c>
       <c r="E8">
-        <v>1276123.591281777</v>
+        <v>1.276123591281769</v>
       </c>
       <c r="F8">
-        <v>297034937.4188263</v>
+        <v>297.0349374188261</v>
       </c>
       <c r="G8">
-        <v>177617744.9964682</v>
+        <v>177.617744996468</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -18672,7 +18672,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>257566881.1675694</v>
+        <v>257.566881167569</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -18698,7 +18698,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18026590.72132168</v>
+        <v>18.02659072132217</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -18727,7 +18727,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>7518420892.615081</v>
+        <v>7518.42089261508</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -18750,10 +18750,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>143513407.2543976</v>
+        <v>143.5134072543979</v>
       </c>
       <c r="C7">
-        <v>1692617810.706431</v>
+        <v>1692.617810706431</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -18776,22 +18776,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>603999292.480511</v>
+        <v>603.9992924805123</v>
       </c>
       <c r="C8">
-        <v>8594432514.175829</v>
+        <v>8594.432514175831</v>
       </c>
       <c r="D8">
-        <v>20605350.49340554</v>
+        <v>20.60535049340551</v>
       </c>
       <c r="E8">
-        <v>1442127.257705734</v>
+        <v>1.442127257705772</v>
       </c>
       <c r="F8">
-        <v>300736835.7046035</v>
+        <v>300.7368357046035</v>
       </c>
       <c r="G8">
-        <v>183613121.7960828</v>
+        <v>183.6131217960828</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -18890,7 +18890,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>590540863.3305528</v>
+        <v>590.5408633305517</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -18916,7 +18916,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>40762249.20805716</v>
+        <v>40.76224920805818</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -18945,7 +18945,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>7585188634.885964</v>
+        <v>7585.188634885964</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -18968,10 +18968,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>328440804.1824899</v>
+        <v>328.4408041824905</v>
       </c>
       <c r="C7">
-        <v>1707649194.472051</v>
+        <v>1707.649194472051</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -18994,22 +18994,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1382296031.731037</v>
+        <v>1382.296031731039</v>
       </c>
       <c r="C8">
-        <v>8670755835.690676</v>
+        <v>8670.755835690676</v>
       </c>
       <c r="D8">
-        <v>47243269.0664442</v>
+        <v>47.24326906644411</v>
       </c>
       <c r="E8">
-        <v>3260979.936644571</v>
+        <v>3.260979936644653</v>
       </c>
       <c r="F8">
-        <v>303407545.3954388</v>
+        <v>303.4075453954388</v>
       </c>
       <c r="G8">
-        <v>203608999.865454</v>
+        <v>203.6089998654541</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -19108,7 +19108,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1044052900.113442</v>
+        <v>1044.052900113439</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -19134,7 +19134,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>72431665.36331168</v>
+        <v>72.43166536331277</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -19163,7 +19163,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>7625581665.683794</v>
+        <v>7625.581665683801</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -19186,10 +19186,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>581057512.3029519</v>
+        <v>581.0575123029513</v>
       </c>
       <c r="C7">
-        <v>1716742854.475041</v>
+        <v>1716.742854475043</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -19212,22 +19212,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2445474140.958455</v>
+        <v>2445.474140958452</v>
       </c>
       <c r="C8">
-        <v>8716929783.943022</v>
+        <v>8716.929783943031</v>
       </c>
       <c r="D8">
-        <v>83524232.00907534</v>
+        <v>83.52423200907505</v>
       </c>
       <c r="E8">
-        <v>5794533.229064931</v>
+        <v>5.794533229065019</v>
       </c>
       <c r="F8">
-        <v>305023266.6273521</v>
+        <v>305.0232666273523</v>
       </c>
       <c r="G8">
-        <v>229780036.6777993</v>
+        <v>229.7800366777994</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -19326,7 +19326,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1262700350.865489</v>
+        <v>1262.70035086548</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -19352,7 +19352,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>89600782.35268389</v>
+        <v>89.60078235268381</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -19381,7 +19381,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>7646714908.311898</v>
+        <v>7646.714908311898</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -19404,10 +19404,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>704861794.8599483</v>
+        <v>704.8617948599441</v>
       </c>
       <c r="C7">
-        <v>1721500569.343791</v>
+        <v>1721.500569343791</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -19430,22 +19430,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2966524407.279071</v>
+        <v>2966.524407279054</v>
       </c>
       <c r="C8">
-        <v>8741087546.61249</v>
+        <v>8741.087546612489</v>
       </c>
       <c r="D8">
-        <v>101016028.069239</v>
+        <v>101.0160280692384</v>
       </c>
       <c r="E8">
-        <v>7168062.588214708</v>
+        <v>7.168062588214701</v>
       </c>
       <c r="F8">
-        <v>305868596.3324762</v>
+        <v>305.8685963324762</v>
       </c>
       <c r="G8">
-        <v>242636236.4203738</v>
+        <v>242.6362364203734</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -19544,7 +19544,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1263177988.391952</v>
+        <v>1263.177988391945</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -19570,7 +19570,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>95341125.09176634</v>
+        <v>95.34112509176585</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -19599,7 +19599,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>7663315869.32565</v>
+        <v>7663.315869325651</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -19622,10 +19622,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>711170975.6536508</v>
+        <v>711.170975653647</v>
       </c>
       <c r="C7">
-        <v>1725237934.235708</v>
+        <v>1725.237934235709</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -19648,22 +19648,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2993077610.972249</v>
+        <v>2993.077610972233</v>
       </c>
       <c r="C8">
-        <v>8760064382.45887</v>
+        <v>8760.06438245887</v>
       </c>
       <c r="D8">
-        <v>101054239.0713561</v>
+        <v>101.0542390713555</v>
       </c>
       <c r="E8">
-        <v>7627290.007341304</v>
+        <v>7.627290007341264</v>
       </c>
       <c r="F8">
-        <v>306532634.7730263</v>
+        <v>306.5326347730263</v>
       </c>
       <c r="G8">
-        <v>243640890.9889359</v>
+        <v>243.6408909889355</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -19762,7 +19762,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1313191393.597138</v>
+        <v>1313.191393597144</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -19788,7 +19788,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>105084994.9494919</v>
+        <v>105.0849949494916</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -19817,7 +19817,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>7694768184.065122</v>
+        <v>7694.768184065125</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -19840,10 +19840,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>745649160.5611041</v>
+        <v>745.6491605611071</v>
       </c>
       <c r="C7">
-        <v>1732318775.927913</v>
+        <v>1732.318775927914</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -19866,22 +19866,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3138184606.12009</v>
+        <v>3138.184606120102</v>
       </c>
       <c r="C8">
-        <v>8796018048.83428</v>
+        <v>8796.018048834285</v>
       </c>
       <c r="D8">
-        <v>105055311.487771</v>
+        <v>105.0553114877715</v>
       </c>
       <c r="E8">
-        <v>8406799.595959349</v>
+        <v>8.406799595959328</v>
       </c>
       <c r="F8">
-        <v>307790727.3626052</v>
+        <v>307.7907273626053</v>
       </c>
       <c r="G8">
-        <v>247796793.6489017</v>
+        <v>247.7967936489021</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -19980,7 +19980,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1450307434.923959</v>
+        <v>1450.307434923972</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -20006,7 +20006,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>117884199.4055045</v>
+        <v>117.8841994055045</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -20035,7 +20035,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>7760054973.891301</v>
+        <v>7760.054973891311</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -20058,10 +20058,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>825440061.9109372</v>
+        <v>825.4400619109433</v>
       </c>
       <c r="C7">
-        <v>1747016753.713672</v>
+        <v>1747.016753713674</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -20084,22 +20084,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3473997467.675607</v>
+        <v>3473.997467675632</v>
       </c>
       <c r="C8">
-        <v>8870648468.870941</v>
+        <v>8870.648468870955</v>
       </c>
       <c r="D8">
-        <v>116024594.7939166</v>
+        <v>116.0245947939177</v>
       </c>
       <c r="E8">
-        <v>9430735.952440359</v>
+        <v>9.430735952440353</v>
       </c>
       <c r="F8">
-        <v>310402198.9556523</v>
+        <v>310.4021989556528</v>
       </c>
       <c r="G8">
-        <v>257245681.5624608</v>
+        <v>257.2456815624617</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -20198,7 +20198,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.003233689788346917</v>
+        <v>3.23368978834692E-09</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -20224,7 +20224,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.072332510013269E-05</v>
+        <v>1.072332510013269E-11</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -20253,7 +20253,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>124740.0342690086</v>
+        <v>0.1247400342690086</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -20276,10 +20276,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.001573481463509907</v>
+        <v>1.573481463509909E-09</v>
       </c>
       <c r="C7">
-        <v>28082.65282397832</v>
+        <v>0.02808265282397832</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -20302,22 +20302,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.006622250205560925</v>
+        <v>6.622250205560929E-09</v>
       </c>
       <c r="C8">
-        <v>142592.4168988741</v>
+        <v>0.1425924168988741</v>
       </c>
       <c r="D8">
-        <v>0.0002586951830677533</v>
+        <v>2.586951830677535E-10</v>
       </c>
       <c r="E8">
-        <v>8.578660080106147E-07</v>
+        <v>8.578660080106144E-13</v>
       </c>
       <c r="F8">
-        <v>4989.601370760349</v>
+        <v>0.004989601370760348</v>
       </c>
       <c r="G8">
-        <v>2808.265439745978</v>
+        <v>0.002808265439745978</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -20416,7 +20416,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1572932233.785552</v>
+        <v>1572.932233785553</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -20442,7 +20442,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>129492895.8382846</v>
+        <v>129.4928958382849</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -20471,7 +20471,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>7872337261.30289</v>
+        <v>7872.3372613029</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -20494,10 +20494,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>896969925.2234987</v>
+        <v>896.9699252235</v>
       </c>
       <c r="C7">
-        <v>1772294801.087475</v>
+        <v>1772.294801087477</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -20520,22 +20520,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3775042419.910833</v>
+        <v>3775.042419910838</v>
       </c>
       <c r="C8">
-        <v>8999000227.236061</v>
+        <v>8999.000227236074</v>
       </c>
       <c r="D8">
-        <v>125834578.7028441</v>
+        <v>125.8345787028442</v>
       </c>
       <c r="E8">
-        <v>10359431.66706276</v>
+        <v>10.35943166706279</v>
       </c>
       <c r="F8">
-        <v>314893490.4521159</v>
+        <v>314.8934904521163</v>
       </c>
       <c r="G8">
-        <v>266926472.6310973</v>
+        <v>266.9264726310976</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -20634,7 +20634,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1633023225.67504</v>
+        <v>1633.02322567504</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -20660,7 +20660,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>139834294.4674247</v>
+        <v>139.8342944674251</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -20689,7 +20689,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>8035135221.726838</v>
+        <v>8035.135221726846</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -20712,10 +20712,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>936949099.9782077</v>
+        <v>936.9490999782084</v>
       </c>
       <c r="C7">
-        <v>1808945413.136997</v>
+        <v>1808.945413136998</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -20738,22 +20738,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3943301216.965204</v>
+        <v>3943.301216965207</v>
       </c>
       <c r="C8">
-        <v>9185097295.263126</v>
+        <v>9185.097295263136</v>
       </c>
       <c r="D8">
-        <v>130641858.0540031</v>
+        <v>130.6418580540032</v>
       </c>
       <c r="E8">
-        <v>11186743.55739397</v>
+        <v>11.186743557394</v>
       </c>
       <c r="F8">
-        <v>321405408.8690738</v>
+        <v>321.4054088690741</v>
       </c>
       <c r="G8">
-        <v>274589451.3115204</v>
+        <v>274.5894513115206</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -20852,7 +20852,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1636576776.205872</v>
+        <v>1636.576776205876</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -20878,7 +20878,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>146364189.2049288</v>
+        <v>146.3641892049287</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -20907,7 +20907,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>8241397955.91625</v>
+        <v>8241.397955916264</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -20930,10 +20930,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>945580244.6912541</v>
+        <v>945.5802446912559</v>
       </c>
       <c r="C7">
-        <v>1855381224.933185</v>
+        <v>1855.381224933188</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -20956,22 +20956,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3979626779.849625</v>
+        <v>3979.626779849631</v>
       </c>
       <c r="C8">
-        <v>9420879672.240919</v>
+        <v>9420.879672240935</v>
       </c>
       <c r="D8">
-        <v>130926142.0964697</v>
+        <v>130.92614209647</v>
       </c>
       <c r="E8">
-        <v>11709135.1363943</v>
+        <v>11.70913513639429</v>
       </c>
       <c r="F8">
-        <v>329655918.2366503</v>
+        <v>329.6559182366508</v>
       </c>
       <c r="G8">
-        <v>280096146.9624439</v>
+        <v>280.0961469624443</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -21070,7 +21070,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1573523587.38999</v>
+        <v>1573.523587389995</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -21096,7 +21096,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>142501767.6055865</v>
+        <v>142.5017676055859</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -21125,7 +21125,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>8475514654.145006</v>
+        <v>8475.514654145016</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -21148,10 +21148,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>911030679.3524393</v>
+        <v>911.030679352441</v>
       </c>
       <c r="C7">
-        <v>1908087783.779207</v>
+        <v>1908.087783779209</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -21174,22 +21174,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3834219368.657985</v>
+        <v>3834.219368657992</v>
       </c>
       <c r="C8">
-        <v>9688502380.799984</v>
+        <v>9688.502380799997</v>
       </c>
       <c r="D8">
-        <v>125881886.9911992</v>
+        <v>125.8818869911995</v>
       </c>
       <c r="E8">
-        <v>11400141.40844692</v>
+        <v>11.40014140844686</v>
       </c>
       <c r="F8">
-        <v>339020586.1658006</v>
+        <v>339.0205861658009</v>
       </c>
       <c r="G8">
-        <v>281911846.3131645</v>
+        <v>281.9118463131649</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -21288,7 +21288,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1426476776.022019</v>
+        <v>1426.476776022019</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -21314,7 +21314,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>126042806.692981</v>
+        <v>126.0428066929803</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -21343,7 +21343,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>8717213809.109352</v>
+        <v>8717.213809109368</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -21366,10 +21366,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>822567121.7177724</v>
+        <v>822.5671217177717</v>
       </c>
       <c r="C7">
-        <v>1962501376.788769</v>
+        <v>1962.501376788772</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -21392,22 +21392,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3461906236.081234</v>
+        <v>3461.906236081231</v>
       </c>
       <c r="C8">
-        <v>9964792722.315022</v>
+        <v>9964.792722315038</v>
       </c>
       <c r="D8">
-        <v>114118142.0817614</v>
+        <v>114.1181420817615</v>
       </c>
       <c r="E8">
-        <v>10083424.53543847</v>
+        <v>10.08342453543842</v>
       </c>
       <c r="F8">
-        <v>348688552.3643744</v>
+        <v>348.688552364375</v>
       </c>
       <c r="G8">
-        <v>278506849.850654</v>
+        <v>278.5068498506543</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -21506,7 +21506,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1174130337.31281</v>
+        <v>1174.130337312807</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -21532,7 +21532,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>100272250.1182896</v>
+        <v>100.27225011829</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -21561,7 +21561,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>8945845997.136932</v>
+        <v>8945.845997136945</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -21584,10 +21584,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>673375519.6376051</v>
+        <v>673.3755196376039</v>
       </c>
       <c r="C7">
-        <v>2013973210.978895</v>
+        <v>2013.973210978898</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -21610,22 +21610,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2834009345.996815</v>
+        <v>2834.009345996811</v>
       </c>
       <c r="C8">
-        <v>10226145995.64685</v>
+        <v>10226.14599564687</v>
       </c>
       <c r="D8">
-        <v>93930426.98502475</v>
+        <v>93.93042698502448</v>
       </c>
       <c r="E8">
-        <v>8021780.009463164</v>
+        <v>8.0217800094632</v>
       </c>
       <c r="F8">
-        <v>357833839.8854776</v>
+        <v>357.8338398854781</v>
       </c>
       <c r="G8">
-        <v>268734873.06165</v>
+        <v>268.7348730616501</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -21724,7 +21724,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>863278607.7956409</v>
+        <v>863.2786077956316</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -21750,7 +21750,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>72416538.09305601</v>
+        <v>72.4165380930565</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -21779,7 +21779,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>9143818278.912197</v>
+        <v>9143.818278912202</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -21802,10 +21802,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>493713290.404135</v>
+        <v>493.7132904041311</v>
       </c>
       <c r="C7">
-        <v>2058542597.947925</v>
+        <v>2058.542597947926</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -21828,22 +21828,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2077871913.135732</v>
+        <v>2077.871913135716</v>
       </c>
       <c r="C8">
-        <v>10452451417.98177</v>
+        <v>10452.45141798177</v>
       </c>
       <c r="D8">
-        <v>69062288.62365124</v>
+        <v>69.06228862365049</v>
       </c>
       <c r="E8">
-        <v>5793323.047444478</v>
+        <v>5.793323047444518</v>
       </c>
       <c r="F8">
-        <v>365752731.1564882</v>
+        <v>365.7527311564884</v>
       </c>
       <c r="G8">
-        <v>255225588.835206</v>
+        <v>255.2255888352057</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -21942,7 +21942,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>641664638.3103839</v>
+        <v>641.6646383103823</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -21968,7 +21968,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>53791125.77628359</v>
+        <v>53.79112577628307</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -21997,7 +21997,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>9298598281.067081</v>
+        <v>9298.598281067096</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -22020,10 +22020,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>366933875.9930015</v>
+        <v>366.9338759930001</v>
       </c>
       <c r="C7">
-        <v>2093388131.621874</v>
+        <v>2093.388131621877</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -22046,22 +22046,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1544300325.153859</v>
+        <v>1544.300325153854</v>
       </c>
       <c r="C8">
-        <v>10629383023.9751</v>
+        <v>10629.38302397511</v>
       </c>
       <c r="D8">
-        <v>51333171.06483069</v>
+        <v>51.33317106483056</v>
       </c>
       <c r="E8">
-        <v>4303290.062102685</v>
+        <v>4.303290062102644</v>
       </c>
       <c r="F8">
-        <v>371943931.2426836</v>
+        <v>371.9439312426842</v>
       </c>
       <c r="G8">
-        <v>246032200.7614875</v>
+        <v>246.0322007614877</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -22160,7 +22160,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>664734993.2069801</v>
+        <v>664.7349932069892</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -22186,7 +22186,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>55986305.40324362</v>
+        <v>55.98630540324327</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -22215,7 +22215,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>9403314212.727568</v>
+        <v>9403.314212727571</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -22238,10 +22238,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>380403146.1538458</v>
+        <v>380.4031461538498</v>
       </c>
       <c r="C7">
-        <v>2116962769.637598</v>
+        <v>2116.962769637599</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -22264,22 +22264,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1600987918.341286</v>
+        <v>1600.987918341303</v>
       </c>
       <c r="C8">
-        <v>10749085554.68857</v>
+        <v>10749.08555468858</v>
       </c>
       <c r="D8">
-        <v>53178799.45655838</v>
+        <v>53.17879945655911</v>
       </c>
       <c r="E8">
-        <v>4478904.432259488</v>
+        <v>4.478904432259459</v>
       </c>
       <c r="F8">
-        <v>376132568.5091031</v>
+        <v>376.1325685091032</v>
       </c>
       <c r="G8">
-        <v>249736591.5791443</v>
+        <v>249.7365915791448</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -22378,7 +22378,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>867784457.6778352</v>
+        <v>867.784457677841</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -22404,7 +22404,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>73225168.46751037</v>
+        <v>73.22516846751049</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -22433,7 +22433,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>9456314934.841877</v>
+        <v>9456.314934841883</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -22456,10 +22456,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>496746228.3972195</v>
+        <v>496.7462283972225</v>
       </c>
       <c r="C7">
-        <v>2128894792.001376</v>
+        <v>2128.894792001377</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -22482,22 +22482,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2090636521.244527</v>
+        <v>2090.63652124454</v>
       </c>
       <c r="C8">
-        <v>10809671565.49058</v>
+        <v>10809.67156549058</v>
       </c>
       <c r="D8">
-        <v>69422756.61422679</v>
+        <v>69.42275661422725</v>
       </c>
       <c r="E8">
-        <v>5858013.477400827</v>
+        <v>5.858013477400836</v>
       </c>
       <c r="F8">
-        <v>378252597.3936754</v>
+        <v>378.2525973936757</v>
       </c>
       <c r="G8">
-        <v>262564102.0398596</v>
+        <v>262.56410203986</v>
       </c>
       <c r="H8">
         <v>0</v>

--- a/Recycling/SW2/SW2_Avg.xlsx
+++ b/Recycling/SW2/SW2_Avg.xlsx
@@ -851,7 +851,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.3009943598500011</v>
+        <v>0.3009944665697986</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>3.149748511036065E-08</v>
       </c>
       <c r="C7">
-        <v>0.06776268869234424</v>
+        <v>0.06776271271811142</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -903,7 +903,7 @@
         <v>1.325622399017379E-07</v>
       </c>
       <c r="C8">
-        <v>0.3440716807194621</v>
+        <v>0.3440718027126453</v>
       </c>
       <c r="D8">
         <v>5.170832314249514E-09</v>
@@ -912,10 +912,10 @@
         <v>2.0663007475386E-11</v>
       </c>
       <c r="F8">
-        <v>0.01203977439400005</v>
+        <v>0.01203977866279196</v>
       </c>
       <c r="G8">
-        <v>0.006776272018982934</v>
+        <v>0.006776274421559652</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1014,7 +1014,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1033.101223548244</v>
+        <v>13569.28915263963</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1040,7 +1040,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>87.37082016468764</v>
+        <v>1093.535736305937</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>9460.120739590551</v>
+        <v>74084.45552582381</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1092,10 +1092,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>591.5860499849171</v>
+        <v>7712.97818622707</v>
       </c>
       <c r="C7">
-        <v>2129.751590655467</v>
+        <v>16678.59125081277</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1118,22 +1118,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2489.785187796668</v>
+        <v>32461.31115220954</v>
       </c>
       <c r="C8">
-        <v>10814.02204447304</v>
+        <v>84687.17865896033</v>
       </c>
       <c r="D8">
-        <v>82.64809788385944</v>
+        <v>1085.54313221117</v>
       </c>
       <c r="E8">
-        <v>6.989665613175008</v>
+        <v>87.48285890447492</v>
       </c>
       <c r="F8">
-        <v>378.4048295836224</v>
+        <v>2963.378221032955</v>
       </c>
       <c r="G8">
-        <v>272.1337640640384</v>
+        <v>2439.156943703984</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1100.703521086549</v>
+        <v>13067.11140639742</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1258,7 +1258,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>93.42013314408483</v>
+        <v>1065.705140728758</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1287,7 +1287,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>9420.118782233503</v>
+        <v>76142.73914013911</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1310,10 +1310,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>630.6488902065047</v>
+        <v>7440.917036204568</v>
       </c>
       <c r="C7">
-        <v>2120.745972793322</v>
+        <v>17141.97146786039</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1336,22 +1336,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2654.187443359416</v>
+        <v>31316.29797700329</v>
       </c>
       <c r="C8">
-        <v>10768.29513880355</v>
+        <v>87040.03704118294</v>
       </c>
       <c r="D8">
-        <v>88.0562816869239</v>
+        <v>1045.368912511793</v>
       </c>
       <c r="E8">
-        <v>7.473610651526783</v>
+        <v>85.25641125830063</v>
       </c>
       <c r="F8">
-        <v>376.8047512893405</v>
+        <v>3045.709565605567</v>
       </c>
       <c r="G8">
-        <v>275.1394862999826</v>
+        <v>2458.288850406495</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1505,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.6669413997436759</v>
+        <v>0.6669419039776491</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1531,7 +1531,7 @@
         <v>4.433395559629017E-07</v>
       </c>
       <c r="C7">
-        <v>0.150148137225525</v>
+        <v>0.150148250743432</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1557,7 +1557,7 @@
         <v>1.865865937218985E-06</v>
       </c>
       <c r="C8">
-        <v>0.7623918550020511</v>
+        <v>0.7623924314003288</v>
       </c>
       <c r="D8">
         <v>7.265873740180762E-08</v>
@@ -1566,10 +1566,10 @@
         <v>3.46849517762249E-10</v>
       </c>
       <c r="F8">
-        <v>0.02667765598974706</v>
+        <v>0.02667767615910599</v>
       </c>
       <c r="G8">
-        <v>0.0150148580565081</v>
+        <v>0.01501486940829879</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1723,7 +1723,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1.388136745073202</v>
+        <v>1.388138754934264</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1749,7 +1749,7 @@
         <v>4.725584894605065E-06</v>
       </c>
       <c r="C7">
-        <v>0.3125104343007477</v>
+        <v>0.3125108867796231</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1775,7 +1775,7 @@
         <v>1.988838525614887E-05</v>
       </c>
       <c r="C8">
-        <v>1.58680230149096</v>
+        <v>1.586804598996714</v>
       </c>
       <c r="D8">
         <v>7.730692863003655E-07</v>
@@ -1784,10 +1784,10 @@
         <v>4.338008264167203E-09</v>
       </c>
       <c r="F8">
-        <v>0.05552546980292811</v>
+        <v>0.05552555019737061</v>
       </c>
       <c r="G8">
-        <v>0.03125151598856422</v>
+        <v>0.03125156123645177</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1941,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>2.759835447609405</v>
+        <v>2.759842467501803</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1967,7 +1967,7 @@
         <v>4.021649787766105E-05</v>
       </c>
       <c r="C7">
-        <v>0.6213201814533998</v>
+        <v>0.6213217618377747</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1993,7 +1993,7 @@
         <v>0.0001692576096468291</v>
       </c>
       <c r="C8">
-        <v>3.154814001967797</v>
+        <v>3.154822026524061</v>
       </c>
       <c r="D8">
         <v>6.566789220102391E-06</v>
@@ -2002,10 +2002,10 @@
         <v>4.253857811394971E-08</v>
       </c>
       <c r="F8">
-        <v>0.1103934179043763</v>
+        <v>0.1103936987000722</v>
       </c>
       <c r="G8">
-        <v>0.06213603979512774</v>
+        <v>0.06213619783356522</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -2159,7 +2159,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>5.301877158605544</v>
+        <v>5.301899192592779</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -2185,7 +2185,7 @@
         <v>0.0002841540650538015</v>
       </c>
       <c r="C7">
-        <v>1.193608583106601</v>
+        <v>1.193613543605589</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -2211,7 +2211,7 @@
         <v>0.001195908156118968</v>
       </c>
       <c r="C8">
-        <v>6.060664345466901</v>
+        <v>6.060689532885777</v>
       </c>
       <c r="D8">
         <v>4.631126893195673E-05</v>
@@ -2220,10 +2220,10 @@
         <v>3.402961076096787E-07</v>
       </c>
       <c r="F8">
-        <v>0.212075086344222</v>
+        <v>0.2120759677037113</v>
       </c>
       <c r="G8">
-        <v>0.1193892737171654</v>
+        <v>0.1193897697670643</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -2377,7 +2377,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>9.89690194241982</v>
+        <v>9.896965221330502</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -2403,7 +2403,7 @@
         <v>0.001717136289820772</v>
       </c>
       <c r="C7">
-        <v>2.228083893921007</v>
+        <v>2.228098139866105</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -2429,7 +2429,7 @@
         <v>0.007226844682921255</v>
       </c>
       <c r="C8">
-        <v>11.31331393366002</v>
+        <v>11.31338626883987</v>
       </c>
       <c r="D8">
         <v>0.0002793426586474179</v>
@@ -2438,10 +2438,10 @@
         <v>2.291459681087012E-06</v>
       </c>
       <c r="F8">
-        <v>0.3958760776967932</v>
+        <v>0.3958786088532205</v>
       </c>
       <c r="G8">
-        <v>0.2229801030210827</v>
+        <v>0.2229815276155926</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -2595,7 +2595,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>17.93403822541994</v>
+        <v>17.93420680744768</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -2621,7 +2621,7 @@
         <v>0.009082257818644838</v>
       </c>
       <c r="C7">
-        <v>4.037479804842026</v>
+        <v>4.037517757617853</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -2647,7 +2647,7 @@
         <v>0.03822414505749237</v>
       </c>
       <c r="C8">
-        <v>20.50069867549146</v>
+        <v>20.50089138442346</v>
       </c>
       <c r="D8">
         <v>0.001474872324656164</v>
@@ -2656,10 +2656,10 @@
         <v>1.331691742021137E-05</v>
       </c>
       <c r="F8">
-        <v>0.7173615290167982</v>
+        <v>0.7173682722979078</v>
       </c>
       <c r="G8">
-        <v>0.404656206266067</v>
+        <v>0.4046600015436497</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -2813,7 +2813,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>31.42710876312435</v>
+        <v>31.42753005838587</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -2839,7 +2839,7 @@
         <v>0.04282307601810845</v>
       </c>
       <c r="C7">
-        <v>7.075167085115169</v>
+        <v>7.075261931077293</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -2865,7 +2865,7 @@
         <v>0.1802278136350502</v>
       </c>
       <c r="C8">
-        <v>35.92485300279453</v>
+        <v>35.92533459244552</v>
       </c>
       <c r="D8">
         <v>0.006942301664300009</v>
@@ -2874,10 +2874,10 @@
         <v>6.815404887426603E-05</v>
       </c>
       <c r="F8">
-        <v>1.257084350524975</v>
+        <v>1.257101202335436</v>
       </c>
       <c r="G8">
-        <v>0.7117990161133275</v>
+        <v>0.7118085007095399</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -3031,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>53.10289540859413</v>
+        <v>53.10389217083066</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -3057,7 +3057,7 @@
         <v>0.182660275847129</v>
       </c>
       <c r="C7">
-        <v>11.95502457929086</v>
+        <v>11.9552489798051</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -3083,7 +3083,7 @@
         <v>0.7687551949790407</v>
       </c>
       <c r="C8">
-        <v>60.70280680146347</v>
+        <v>60.70394621702651</v>
       </c>
       <c r="D8">
         <v>0.02956490160986473</v>
@@ -3092,10 +3092,10 @@
         <v>0.0003122571956020758</v>
       </c>
       <c r="F8">
-        <v>2.124115816343767</v>
+        <v>2.124155686833229</v>
       </c>
       <c r="G8">
-        <v>1.213768485513798</v>
+        <v>1.213790925565222</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -3194,7 +3194,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.440771298866766</v>
+        <v>1.440771298866767</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>86.45948143887128</v>
+        <v>86.46173122341241</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -3272,10 +3272,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7131875607323708</v>
+        <v>0.7131875607323709</v>
       </c>
       <c r="C7">
-        <v>19.46457378192539</v>
+        <v>19.46508027463696</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -3301,7 +3301,7 @@
         <v>3.001564734120364</v>
       </c>
       <c r="C8">
-        <v>98.83327749938725</v>
+        <v>98.83584926567785</v>
       </c>
       <c r="D8">
         <v>0.1152617039093413</v>
@@ -3310,10 +3310,10 @@
         <v>0.001298079095529108</v>
       </c>
       <c r="F8">
-        <v>3.458379257554854</v>
+        <v>3.458469248936499</v>
       </c>
       <c r="G8">
-        <v>2.017776134265776</v>
+        <v>2.017826783536933</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -3685,7 +3685,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>135.7861351465857</v>
+        <v>135.7910094639132</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>2.571674530594409</v>
       </c>
       <c r="C7">
-        <v>30.56945521922754</v>
+        <v>30.57055257150954</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -3737,7 +3737,7 @@
         <v>10.82330652365984</v>
       </c>
       <c r="C8">
-        <v>155.2193993321619</v>
+        <v>155.2249712457223</v>
       </c>
       <c r="D8">
         <v>0.4150319867602811</v>
@@ -3746,10 +3746,10 @@
         <v>0.004949351873630614</v>
       </c>
       <c r="F8">
-        <v>5.431445405863432</v>
+        <v>5.431640378556533</v>
       </c>
       <c r="G8">
-        <v>3.314112974982193</v>
+        <v>3.314222710210394</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -3874,7 +3874,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2180626771820482</v>
+        <v>0.2180626771820483</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -3903,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>206.1302738636218</v>
+        <v>206.1404596747721</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -3929,7 +3929,7 @@
         <v>8.605757570250402</v>
       </c>
       <c r="C7">
-        <v>46.40599107853419</v>
+        <v>46.40828420439344</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -3955,7 +3955,7 @@
         <v>36.2187170044405</v>
       </c>
       <c r="C8">
-        <v>235.6309593666929</v>
+        <v>235.6426029375683</v>
       </c>
       <c r="D8">
         <v>1.386913030759992</v>
@@ -3964,10 +3964,10 @@
         <v>0.01744501417456385</v>
       </c>
       <c r="F8">
-        <v>8.245210954544879</v>
+        <v>8.245618386990891</v>
       </c>
       <c r="G8">
-        <v>5.501174864878458</v>
+        <v>5.501404177464383</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -4066,7 +4066,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>53.58963131929215</v>
+        <v>53.5896313192922</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4092,7 +4092,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7127794649760119</v>
+        <v>0.7127794649760122</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4121,7 +4121,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>303.195054674417</v>
+        <v>303.2156583451058</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -4144,10 +4144,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>26.64276911015702</v>
+        <v>26.64276911015704</v>
       </c>
       <c r="C7">
-        <v>68.25812986395974</v>
+        <v>68.26276835659961</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -4173,19 +4173,19 @@
         <v>112.1303855864195</v>
       </c>
       <c r="C8">
-        <v>346.5873317348656</v>
+        <v>346.6108841350051</v>
       </c>
       <c r="D8">
-        <v>4.28717050554337</v>
+        <v>4.287170505543374</v>
       </c>
       <c r="E8">
-        <v>0.05702235719808092</v>
+        <v>0.05702235719808094</v>
       </c>
       <c r="F8">
-        <v>12.12780218697669</v>
+        <v>12.12862633380424</v>
       </c>
       <c r="G8">
-        <v>9.490089897411671</v>
+        <v>9.490553746675662</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -4284,7 +4284,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>149.9755785771292</v>
+        <v>149.9755785771297</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4310,7 +4310,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.146150981609816</v>
+        <v>2.146150981609819</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4339,7 +4339,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>433.1463712368785</v>
+        <v>433.1868185875634</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -4362,10 +4362,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>74.72255969638427</v>
+        <v>74.72255969638447</v>
       </c>
       <c r="C7">
-        <v>97.51399570068406</v>
+        <v>97.52310158969227</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -4388,22 +4388,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>314.4819292663395</v>
+        <v>314.4819292663403</v>
       </c>
       <c r="C8">
-        <v>495.1368524755044</v>
+        <v>495.183088517727</v>
       </c>
       <c r="D8">
-        <v>11.99804628617033</v>
+        <v>11.99804628617037</v>
       </c>
       <c r="E8">
-        <v>0.1716920785287852</v>
+        <v>0.1716920785287854</v>
       </c>
       <c r="F8">
-        <v>17.32585484947516</v>
+        <v>17.32747274350255</v>
       </c>
       <c r="G8">
-        <v>17.22365553970683</v>
+        <v>17.22456612860767</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -4502,7 +4502,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>357.8460725029075</v>
+        <v>357.8460725029113</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4528,7 +4528,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.783739948802857</v>
+        <v>5.78373994880288</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4557,7 +4557,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>602.2973340940039</v>
+        <v>602.3745393261937</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -4580,10 +4580,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>178.992200239889</v>
+        <v>178.9922002398908</v>
       </c>
       <c r="C7">
-        <v>135.5948555673266</v>
+        <v>135.6122367372492</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -4606,22 +4606,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>753.3175079090745</v>
+        <v>753.3175079090823</v>
       </c>
       <c r="C8">
-        <v>688.4961437079717</v>
+        <v>688.5843982985665</v>
       </c>
       <c r="D8">
-        <v>28.62768580023258</v>
+        <v>28.62768580023289</v>
       </c>
       <c r="E8">
-        <v>0.4626991959042284</v>
+        <v>0.4626991959042302</v>
       </c>
       <c r="F8">
-        <v>24.09189336376017</v>
+        <v>24.09498157304777</v>
       </c>
       <c r="G8">
-        <v>31.45870558072156</v>
+        <v>31.460443697714</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -4720,7 +4720,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>648.5763694561765</v>
+        <v>648.5763694562085</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4746,7 +4746,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.97214800810478</v>
+        <v>12.97214800810499</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4775,7 +4775,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>816.6409782207714</v>
+        <v>816.7844685444021</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -4798,10 +4798,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>327.0496032132492</v>
+        <v>327.0496032132648</v>
       </c>
       <c r="C7">
-        <v>183.8499180122939</v>
+        <v>183.8822219070759</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -4824,22 +4824,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1376.440938348506</v>
+        <v>1376.440938348572</v>
       </c>
       <c r="C8">
-        <v>933.5159438231098</v>
+        <v>933.679970008993</v>
       </c>
       <c r="D8">
-        <v>51.8861095564941</v>
+        <v>51.88610955649665</v>
       </c>
       <c r="E8">
-        <v>1.037771840648382</v>
+        <v>1.037771840648399</v>
       </c>
       <c r="F8">
-        <v>32.66563912883089</v>
+        <v>32.67137874177611</v>
       </c>
       <c r="G8">
-        <v>51.08995212255429</v>
+        <v>51.09318251203406</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -4938,7 +4938,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>822.1299766418263</v>
+        <v>822.1299766420689</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4964,7 +4964,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.0582593002547</v>
+        <v>21.05825930025639</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4993,7 +4993,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1081.239121548187</v>
+        <v>1081.499080967141</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -5016,10 +5016,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>419.4520246538492</v>
+        <v>419.4520246539681</v>
       </c>
       <c r="C7">
-        <v>243.418747221596</v>
+        <v>243.4772717374308</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -5042,22 +5042,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1765.331413749704</v>
+        <v>1765.331413750205</v>
       </c>
       <c r="C8">
-        <v>1235.982501453235</v>
+        <v>1236.279665407546</v>
       </c>
       <c r="D8">
-        <v>65.77039813134607</v>
+        <v>65.77039813136548</v>
       </c>
       <c r="E8">
-        <v>1.684660744020375</v>
+        <v>1.684660744020511</v>
       </c>
       <c r="F8">
-        <v>43.24956486192751</v>
+        <v>43.25996323868567</v>
       </c>
       <c r="G8">
-        <v>66.2870771875445</v>
+        <v>66.29292963913987</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -5156,7 +5156,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>863.9560550900478</v>
+        <v>863.9560550917312</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -5182,7 +5182,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>20.75276484417545</v>
+        <v>20.75276484418793</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -5211,7 +5211,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1399.544123997804</v>
+        <v>1400.003663177515</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -5234,10 +5234,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>439.3338229239292</v>
+        <v>439.3338229247556</v>
       </c>
       <c r="C7">
-        <v>315.0785710168265</v>
+        <v>315.1820268104573</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -5260,22 +5260,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1849.007164455572</v>
+        <v>1849.00716445905</v>
       </c>
       <c r="C8">
-        <v>1599.84226689479</v>
+        <v>1600.367573807512</v>
       </c>
       <c r="D8">
-        <v>69.11648440720379</v>
+        <v>69.11648440733846</v>
       </c>
       <c r="E8">
-        <v>1.660221187534035</v>
+        <v>1.660221187535033</v>
       </c>
       <c r="F8">
-        <v>55.98176495991222</v>
+        <v>56.00014652710065</v>
       </c>
       <c r="G8">
-        <v>75.44123939407555</v>
+        <v>75.45158497352128</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -5374,7 +5374,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>932.15918008371</v>
+        <v>932.1591800944993</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -5400,7 +5400,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.64971158475126</v>
+        <v>12.64971158483578</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -5429,7 +5429,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1772.672197694262</v>
+        <v>1773.465565415226</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -5452,10 +5452,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>463.7009808769666</v>
+        <v>463.7009808822681</v>
       </c>
       <c r="C7">
-        <v>399.0806815974613</v>
+        <v>399.259292020331</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -5478,22 +5478,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1951.560273917366</v>
+        <v>1951.560273939679</v>
       </c>
       <c r="C8">
-        <v>2026.371200873269</v>
+        <v>2027.278112767952</v>
       </c>
       <c r="D8">
-        <v>74.57273440669677</v>
+        <v>74.57273440755991</v>
       </c>
       <c r="E8">
-        <v>1.0119769267801</v>
+        <v>1.011976926786862</v>
       </c>
       <c r="F8">
-        <v>70.90688790777055</v>
+        <v>70.93862261660911</v>
       </c>
       <c r="G8">
-        <v>86.27816624744275</v>
+        <v>86.2960272902599</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -5592,7 +5592,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1021.796674433462</v>
+        <v>1021.796674497714</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -5618,7 +5618,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.20018825393694</v>
+        <v>11.20018825446712</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -5647,7 +5647,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>2198.727195658155</v>
+        <v>2200.066110108916</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -5670,10 +5670,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>505.4680428190863</v>
+        <v>505.4680428506862</v>
       </c>
       <c r="C7">
-        <v>494.998200474666</v>
+        <v>495.2996295219006</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -5696,22 +5696,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2127.343682204169</v>
+        <v>2127.343682337163</v>
       </c>
       <c r="C8">
-        <v>2513.401786102233</v>
+        <v>2514.932321576859</v>
       </c>
       <c r="D8">
-        <v>81.74373395467693</v>
+        <v>81.74373395981704</v>
       </c>
       <c r="E8">
-        <v>0.896015060314955</v>
+        <v>0.8960150603573693</v>
       </c>
       <c r="F8">
-        <v>87.94908782632629</v>
+        <v>88.00264440435672</v>
       </c>
       <c r="G8">
-        <v>100.0466243293752</v>
+        <v>100.0767672372587</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -6028,7 +6028,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1121.824366230682</v>
+        <v>1121.82436658813</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -6054,7 +6054,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.08119073620511</v>
+        <v>19.08119073930133</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -6083,7 +6083,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>2672.511195325107</v>
+        <v>2674.721966484308</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -6106,10 +6106,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>562.1344737205286</v>
+        <v>562.1344738964826</v>
       </c>
       <c r="C7">
-        <v>601.6609223038879</v>
+        <v>602.1586319550108</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -6132,22 +6132,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2365.833484841185</v>
+        <v>2365.833485581716</v>
       </c>
       <c r="C8">
-        <v>3054.992190469396</v>
+        <v>3057.519359911412</v>
       </c>
       <c r="D8">
-        <v>89.74594929845452</v>
+        <v>89.74594932705035</v>
       </c>
       <c r="E8">
-        <v>1.526495258896408</v>
+        <v>1.526495259144106</v>
       </c>
       <c r="F8">
-        <v>106.9004478130044</v>
+        <v>106.9888786593724</v>
       </c>
       <c r="G8">
-        <v>116.3795396024416</v>
+        <v>116.4293105851493</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -6246,7 +6246,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1218.376850988805</v>
+        <v>1218.376852855495</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -6272,7 +6272,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>28.51021241672206</v>
+        <v>28.51021243364321</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -6301,7 +6301,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3185.807494961815</v>
+        <v>3189.382091861666</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -6324,10 +6324,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>618.7613025280813</v>
+        <v>618.7613034477571</v>
       </c>
       <c r="C7">
-        <v>717.219025706716</v>
+        <v>718.0237726695692</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -6350,22 +6350,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2604.15661568671</v>
+        <v>2604.156619557313</v>
       </c>
       <c r="C8">
-        <v>3641.749764967123</v>
+        <v>3645.83594639537</v>
       </c>
       <c r="D8">
-        <v>97.47014807910435</v>
+        <v>97.47014822843953</v>
       </c>
       <c r="E8">
-        <v>2.280816993337764</v>
+        <v>2.280816994691456</v>
       </c>
       <c r="F8">
-        <v>127.4322997984727</v>
+        <v>127.5752836744668</v>
       </c>
       <c r="G8">
-        <v>133.5980328234797</v>
+        <v>133.6785076117326</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -6464,7 +6464,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1296.485134298156</v>
+        <v>1296.485143487113</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -6490,7 +6490,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>40.36101432818763</v>
+        <v>40.36101441511575</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -6519,7 +6519,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3728.383670295572</v>
+        <v>3734.048298226219</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -6542,10 +6542,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>669.0425522713642</v>
+        <v>669.0425568024012</v>
       </c>
       <c r="C7">
-        <v>839.3688908382304</v>
+        <v>840.6441652959102</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -6568,22 +6568,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2815.77335485411</v>
+        <v>2815.77337392371</v>
       </c>
       <c r="C8">
-        <v>4261.977654481255</v>
+        <v>4268.452985293829</v>
       </c>
       <c r="D8">
-        <v>103.7188107438525</v>
+        <v>103.718811478969</v>
       </c>
       <c r="E8">
-        <v>3.228881146255009</v>
+        <v>3.228881153209259</v>
       </c>
       <c r="F8">
-        <v>149.135346811823</v>
+        <v>149.3619319290489</v>
       </c>
       <c r="G8">
-        <v>150.8411443109594</v>
+        <v>150.9686722098311</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -6682,7 +6682,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1379.807591579154</v>
+        <v>1379.80763436515</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -6708,7 +6708,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>54.38849322686084</v>
+        <v>54.38849364826633</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -6737,7 +6737,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4289.971899117382</v>
+        <v>4298.776909023177</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -6760,10 +6760,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>724.1475397172372</v>
+        <v>724.1475608324652</v>
       </c>
       <c r="C7">
-        <v>965.7989287362883</v>
+        <v>967.7811955982876</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -6786,22 +6786,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3047.691571181142</v>
+        <v>3047.691660047979</v>
       </c>
       <c r="C8">
-        <v>4903.938539925353</v>
+        <v>4914.003693832382</v>
       </c>
       <c r="D8">
-        <v>110.3846073263323</v>
+        <v>110.384610749212</v>
       </c>
       <c r="E8">
-        <v>4.351079458148865</v>
+        <v>4.351079491861305</v>
       </c>
       <c r="F8">
-        <v>171.5988759646955</v>
+        <v>171.9510763609272</v>
       </c>
       <c r="G8">
-        <v>168.9946468453525</v>
+        <v>169.1928756430752</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -6900,7 +6900,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1359.370886660059</v>
+        <v>1359.371075615915</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -6926,7 +6926,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>62.58057050769159</v>
+        <v>62.58057244160209</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -6955,7 +6955,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4863.464605878381</v>
+        <v>4876.899558033156</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -6978,10 +6978,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>722.9495876292345</v>
+        <v>722.9496809575929</v>
       </c>
       <c r="C7">
-        <v>1094.909014968275</v>
+        <v>1097.933618090122</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -7004,22 +7004,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3042.649796845057</v>
+        <v>3042.650189632488</v>
       </c>
       <c r="C8">
-        <v>5559.507632960669</v>
+        <v>5574.865351193602</v>
       </c>
       <c r="D8">
-        <v>108.7496709328047</v>
+        <v>108.7496860492731</v>
       </c>
       <c r="E8">
-        <v>5.006445640615325</v>
+        <v>5.006445795328165</v>
       </c>
       <c r="F8">
-        <v>194.5385842351354</v>
+        <v>195.0759823213264</v>
       </c>
       <c r="G8">
-        <v>181.7858602597509</v>
+        <v>182.0883299047715</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -7118,7 +7118,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1321.572477658354</v>
+        <v>1321.573270656369</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -7144,7 +7144,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>73.00110376071153</v>
+        <v>73.00111218310086</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -7173,7 +7173,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>5449.406418317728</v>
+        <v>5469.543747416792</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -7196,10 +7196,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>715.7242769569082</v>
+        <v>715.7246689557913</v>
       </c>
       <c r="C7">
-        <v>1226.821761266718</v>
+        <v>1231.355266690259</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -7222,22 +7222,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3012.240912981677</v>
+        <v>3012.242562772122</v>
       </c>
       <c r="C8">
-        <v>6229.307506653594</v>
+        <v>6252.326823931727</v>
       </c>
       <c r="D8">
-        <v>105.7257982126683</v>
+        <v>105.7258616525095</v>
       </c>
       <c r="E8">
-        <v>5.84008830085692</v>
+        <v>5.840088974648066</v>
       </c>
       <c r="F8">
-        <v>217.9762567327093</v>
+        <v>218.7817498966719</v>
       </c>
       <c r="G8">
-        <v>194.2546038223626</v>
+        <v>194.707993564605</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -7336,7 +7336,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1321.328502860867</v>
+        <v>1321.3316688078</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -7362,7 +7362,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>112.4116912578856</v>
+        <v>112.4117261248485</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -7391,7 +7391,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6061.576820852438</v>
+        <v>6091.246680738328</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -7414,10 +7414,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>757.3382572444725</v>
+        <v>757.3398235664868</v>
       </c>
       <c r="C7">
-        <v>1364.639335105308</v>
+        <v>1371.318893752171</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -7440,22 +7440,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3187.38005246592</v>
+        <v>3187.386644584429</v>
       </c>
       <c r="C8">
-        <v>6929.089719821289</v>
+        <v>6963.005832278467</v>
       </c>
       <c r="D8">
-        <v>105.7062802288693</v>
+        <v>105.7065335046239</v>
       </c>
       <c r="E8">
-        <v>8.992935300630842</v>
+        <v>8.992938089987875</v>
       </c>
       <c r="F8">
-        <v>242.4630728340977</v>
+        <v>243.6498672295333</v>
       </c>
       <c r="G8">
-        <v>212.197759234978</v>
+        <v>212.8658717318657</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -7554,7 +7554,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1296.0819352626</v>
+        <v>1296.093962830349</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -7580,7 +7580,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>175.818865868448</v>
+        <v>175.8190031876005</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -7609,7 +7609,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6733.018082623175</v>
+        <v>6776.015485027978</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -7632,10 +7632,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>812.2839851371457</v>
+        <v>812.2899408056467</v>
       </c>
       <c r="C7">
-        <v>1515.800523704454</v>
+        <v>1525.480504403056</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -7658,22 +7658,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3418.627999308769</v>
+        <v>3418.653064699032</v>
       </c>
       <c r="C8">
-        <v>7696.625442274637</v>
+        <v>7745.776491215767</v>
       </c>
       <c r="D8">
-        <v>103.6865548210079</v>
+        <v>103.6875170264279</v>
       </c>
       <c r="E8">
-        <v>14.06550926947583</v>
+        <v>14.06552025500803</v>
       </c>
       <c r="F8">
-        <v>269.3207233049272</v>
+        <v>271.0406194011193</v>
       </c>
       <c r="G8">
-        <v>232.80845088416</v>
+        <v>233.7770445208703</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -7772,7 +7772,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1294.630919110743</v>
+        <v>1294.674382025414</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -7798,7 +7798,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>240.0812485043343</v>
+        <v>240.0817630291744</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -7827,7 +7827,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>7521.343856600517</v>
+        <v>7582.667105373191</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -7850,10 +7850,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>879.6304153232202</v>
+        <v>879.6519561599172</v>
       </c>
       <c r="C7">
-        <v>1693.275855922636</v>
+        <v>1707.081523969894</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -7876,22 +7876,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3702.06629933722</v>
+        <v>3702.156957418394</v>
       </c>
       <c r="C8">
-        <v>8597.773803134376</v>
+        <v>8667.873433183611</v>
       </c>
       <c r="D8">
-        <v>103.5704735288594</v>
+        <v>103.5739505620331</v>
       </c>
       <c r="E8">
-        <v>19.20649988034674</v>
+        <v>19.20654104233395</v>
       </c>
       <c r="F8">
-        <v>300.8537542640209</v>
+        <v>303.3066842149279</v>
       </c>
       <c r="G8">
-        <v>257.2906271245856</v>
+        <v>258.673348012981</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -7990,7 +7990,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1267.842582353246</v>
+        <v>1267.991827983527</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -8016,7 +8016,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>299.6916697432815</v>
+        <v>299.693502754274</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -8045,7 +8045,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>8511.666999865418</v>
+        <v>8597.783688898729</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -8068,10 +8068,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>929.8109683478069</v>
+        <v>929.8850067013739</v>
       </c>
       <c r="C7">
-        <v>1916.226740767541</v>
+        <v>1935.614141890564</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -8094,22 +8094,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3913.259240143121</v>
+        <v>3913.570842480675</v>
       </c>
       <c r="C8">
-        <v>9729.828731101607</v>
+        <v>9828.270156876006</v>
       </c>
       <c r="D8">
-        <v>101.4274065882596</v>
+        <v>101.4393462386821</v>
       </c>
       <c r="E8">
-        <v>23.9753335794625</v>
+        <v>23.97548022034191</v>
       </c>
       <c r="F8">
-        <v>340.466679994617</v>
+        <v>343.9113475559495</v>
       </c>
       <c r="G8">
-        <v>284.6037709115347</v>
+        <v>286.5499148591937</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -8426,7 +8426,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1209.560938162163</v>
+        <v>1210.047203577468</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -8452,7 +8452,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>287.8196046671566</v>
+        <v>287.8258059278723</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -8481,7 +8481,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>9815.235394445399</v>
+        <v>9934.369035542877</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -8504,10 +8504,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>889.0850293963476</v>
+        <v>889.326500353562</v>
       </c>
       <c r="C7">
-        <v>2209.698350518377</v>
+        <v>2236.518839242806</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -8530,22 +8530,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3741.857565673211</v>
+        <v>3742.873835094322</v>
       </c>
       <c r="C8">
-        <v>11219.95953846764</v>
+        <v>11356.14319367987</v>
       </c>
       <c r="D8">
-        <v>96.76487505297295</v>
+        <v>96.80377628619736</v>
       </c>
       <c r="E8">
-        <v>23.02556837337251</v>
+        <v>23.02606447422977</v>
       </c>
       <c r="F8">
-        <v>392.6094157778163</v>
+        <v>397.3747614217154</v>
       </c>
       <c r="G8">
-        <v>309.8783379914723</v>
+        <v>312.5845339596368</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -8644,7 +8644,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1126.655079864231</v>
+        <v>1128.155164124383</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -8670,7 +8670,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>259.4022003585806</v>
+        <v>259.4220878001569</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -8699,7 +8699,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>11562.58005103066</v>
+        <v>11725.0070383238</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -8722,10 +8722,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>818.9438116230223</v>
+        <v>819.6895291193619</v>
       </c>
       <c r="C7">
-        <v>2603.07705722047</v>
+        <v>2639.644152300476</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -8748,22 +8748,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3446.656951881695</v>
+        <v>3449.795424089947</v>
       </c>
       <c r="C8">
-        <v>13217.37840401406</v>
+        <v>13403.05140645836</v>
       </c>
       <c r="D8">
-        <v>90.13240638913847</v>
+        <v>90.25241312995061</v>
       </c>
       <c r="E8">
-        <v>20.75217602868643</v>
+        <v>20.75376702401254</v>
       </c>
       <c r="F8">
-        <v>462.5032020412268</v>
+        <v>469.0002815329523</v>
       </c>
       <c r="G8">
-        <v>342.2020868843492</v>
+        <v>345.9333681419836</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -8862,7 +8862,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1032.218603020914</v>
+        <v>1036.586950540862</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -8888,7 +8888,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>253.6759142249859</v>
+        <v>253.7362234244281</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -8917,7 +8917,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>13891.1011521078</v>
+        <v>14109.44474541377</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -8940,10 +8940,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>767.2600047757792</v>
+        <v>769.4341216228701</v>
       </c>
       <c r="C7">
-        <v>3127.29568565084</v>
+        <v>3176.451254374898</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -8966,22 +8966,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3229.137325209479</v>
+        <v>3238.287446181</v>
       </c>
       <c r="C8">
-        <v>15879.14977154935</v>
+        <v>16128.74198038858</v>
       </c>
       <c r="D8">
-        <v>82.57748824167307</v>
+        <v>82.92695604326889</v>
       </c>
       <c r="E8">
-        <v>20.29407313799886</v>
+        <v>20.29889787395424</v>
       </c>
       <c r="F8">
-        <v>555.6440460843124</v>
+        <v>564.3777898165514</v>
       </c>
       <c r="G8">
-        <v>389.4555690426619</v>
+        <v>394.5885375997767</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -9080,7 +9080,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1066.135165165599</v>
+        <v>1078.089564196</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -9106,7 +9106,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>228.2869818690725</v>
+        <v>228.4593058029068</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -9135,7 +9135,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>16928.23500208379</v>
+        <v>17217.7409938593</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -9158,10 +9158,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>756.7600523194947</v>
+        <v>762.7174411082682</v>
       </c>
       <c r="C7">
-        <v>3811.043898392984</v>
+        <v>3876.220217328093</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -9184,22 +9184,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3184.946583898231</v>
+        <v>3210.019214269776</v>
       </c>
       <c r="C8">
-        <v>19350.94820940704</v>
+        <v>19681.88734467256</v>
       </c>
       <c r="D8">
-        <v>85.29081321324789</v>
+        <v>86.24716513567998</v>
       </c>
       <c r="E8">
-        <v>18.26295854952579</v>
+        <v>18.27674446423254</v>
       </c>
       <c r="F8">
-        <v>677.1294000833522</v>
+        <v>688.7096397543728</v>
       </c>
       <c r="G8">
-        <v>456.7803950712478</v>
+        <v>463.8937658436361</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -9298,7 +9298,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1285.317035280999</v>
+        <v>1315.849401024094</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -9324,7 +9324,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>197.0057182241387</v>
+        <v>197.4671853712966</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -9353,7 +9353,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>20772.43757319837</v>
+        <v>21151.21609996582</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -9376,10 +9376,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>829.5184325016305</v>
+        <v>844.7566141478187</v>
       </c>
       <c r="C7">
-        <v>4676.487032365869</v>
+        <v>4761.761226226105</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -9402,22 +9402,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3491.161947276355</v>
+        <v>3555.294289397339</v>
       </c>
       <c r="C8">
-        <v>23745.32038411697</v>
+        <v>24178.30844538916</v>
       </c>
       <c r="D8">
-        <v>102.8253628224799</v>
+        <v>105.2679520819275</v>
       </c>
       <c r="E8">
-        <v>15.76045745793109</v>
+        <v>15.79737482970372</v>
       </c>
       <c r="F8">
-        <v>830.8975029279358</v>
+        <v>846.0486439986333</v>
       </c>
       <c r="G8">
-        <v>550.6005464867499</v>
+        <v>560.6517840373922</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -9516,7 +9516,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1820.143173655659</v>
+        <v>1892.158526185334</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -9542,7 +9542,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>171.2391412263342</v>
+        <v>172.3877498569392</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -9571,7 +9571,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>25474.65691174017</v>
+        <v>25963.87734115055</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -9594,10 +9594,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1060.59732138106</v>
+        <v>1096.602662431312</v>
       </c>
       <c r="C7">
-        <v>5735.094992194478</v>
+        <v>5845.232908654411</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -9620,22 +9620,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4463.694674779283</v>
+        <v>4615.228952558099</v>
       </c>
       <c r="C8">
-        <v>29120.50585845577</v>
+        <v>29679.74190352124</v>
       </c>
       <c r="D8">
-        <v>145.6114538924526</v>
+        <v>151.3726820948266</v>
       </c>
       <c r="E8">
-        <v>13.69913129810673</v>
+        <v>13.79101998855513</v>
       </c>
       <c r="F8">
-        <v>1018.986276469608</v>
+        <v>1038.555093646023</v>
       </c>
       <c r="G8">
-        <v>679.5692313575536</v>
+        <v>694.1835571085722</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -9734,7 +9734,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2801.976208168977</v>
+        <v>2956.381982886047</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -9760,7 +9760,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>215.7531177416984</v>
+        <v>218.376328843592</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -9789,7 +9789,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>31022.65206035157</v>
+        <v>31646.68382052632</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -9812,10 +9812,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1582.035725927767</v>
+        <v>1659.403577433838</v>
       </c>
       <c r="C7">
-        <v>6984.111978125185</v>
+        <v>7124.599892649329</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -9838,22 +9838,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6658.25219692136</v>
+        <v>6983.867262889161</v>
       </c>
       <c r="C8">
-        <v>35462.51178958831</v>
+        <v>36175.85291881295</v>
       </c>
       <c r="D8">
-        <v>224.1580966535181</v>
+        <v>236.5105586308837</v>
       </c>
       <c r="E8">
-        <v>17.26024941933586</v>
+        <v>17.47010630748735</v>
       </c>
       <c r="F8">
-        <v>1240.906082414064</v>
+        <v>1265.867352821054</v>
       </c>
       <c r="G8">
-        <v>856.614770405295</v>
+        <v>878.4003470083165</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -9952,7 +9952,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4143.577617217185</v>
+        <v>4437.985458637164</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -9978,7 +9978,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>333.0950807145105</v>
+        <v>338.4844717257962</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -10007,7 +10007,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>37329.66051262896</v>
+        <v>38116.1627053298</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -10030,10 +10030,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2354.388052353055</v>
+        <v>2502.317020893912</v>
       </c>
       <c r="C7">
-        <v>8404.005196538443</v>
+        <v>8581.069986943128</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -10056,22 +10056,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>9908.821378096283</v>
+        <v>10531.4042715375</v>
       </c>
       <c r="C8">
-        <v>42672.15850711608</v>
+        <v>43571.22230175656</v>
       </c>
       <c r="D8">
-        <v>331.4862093773747</v>
+        <v>355.0388366909729</v>
       </c>
       <c r="E8">
-        <v>26.64760645716083</v>
+        <v>27.07875773806368</v>
       </c>
       <c r="F8">
-        <v>1493.18642050516</v>
+        <v>1524.646508213193</v>
       </c>
       <c r="G8">
-        <v>1075.83932488915</v>
+        <v>1108.338700783704</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -10170,7 +10170,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5619.265249094444</v>
+        <v>6105.72220853811</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -10196,7 +10196,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>462.787013358091</v>
+        <v>472.4641729656315</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -10225,7 +10225,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>44228.18287747685</v>
+        <v>45208.15972966384</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -10248,10 +10248,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3204.591945103991</v>
+        <v>3449.836059737334</v>
       </c>
       <c r="C7">
-        <v>9957.065604977057</v>
+        <v>10177.68723520808</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -10274,22 +10274,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13487.04141697705</v>
+        <v>14519.19077888978</v>
       </c>
       <c r="C8">
-        <v>50557.97465907612</v>
+        <v>51678.20256888207</v>
       </c>
       <c r="D8">
-        <v>449.5412199275553</v>
+        <v>488.4577766830486</v>
       </c>
       <c r="E8">
-        <v>37.02296106864726</v>
+        <v>37.79713383725051</v>
       </c>
       <c r="F8">
-        <v>1769.127315099076</v>
+        <v>1808.326389186555</v>
       </c>
       <c r="G8">
-        <v>1316.165755008104</v>
+        <v>1362.752329494541</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -10388,7 +10388,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7812.370675783169</v>
+        <v>8495.723995760716</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -10414,7 +10414,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>651.4119202156777</v>
+        <v>666.0283694090886</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -10443,7 +10443,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>51469.64187885084</v>
+        <v>52677.49920589541</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -10466,10 +10466,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4463.769146657791</v>
+        <v>4809.359901870525</v>
       </c>
       <c r="C7">
-        <v>11587.33114295264</v>
+        <v>11859.25537461624</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -10492,22 +10492,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18786.4915059706</v>
+        <v>20240.96586923537</v>
       </c>
       <c r="C8">
-        <v>58835.80740885088</v>
+        <v>60216.529296107</v>
       </c>
       <c r="D8">
-        <v>624.9896540626531</v>
+        <v>679.6579196608569</v>
       </c>
       <c r="E8">
-        <v>52.11295361725419</v>
+        <v>53.28226955272706</v>
       </c>
       <c r="F8">
-        <v>2058.785675154035</v>
+        <v>2107.099968235818</v>
       </c>
       <c r="G8">
-        <v>1605.110028961043</v>
+        <v>1666.861527648676</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -10661,7 +10661,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.0008812594618811921</v>
+        <v>0.0008812594619481226</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -10687,7 +10687,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.0001983974404118317</v>
+        <v>0.0001983974404268997</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -10713,7 +10713,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.00100738241191794</v>
+        <v>0.001007382411994449</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -10722,10 +10722,10 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>3.525037847524771E-05</v>
+        <v>3.525037847792493E-05</v>
       </c>
       <c r="G8">
-        <v>1.983974404118316E-05</v>
+        <v>1.983974404268996E-05</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -10824,7 +10824,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10728.12939312714</v>
+        <v>11553.61557042353</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -10850,7 +10850,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>899.0895408234893</v>
+        <v>916.9458143292127</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -10879,7 +10879,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>58731.30935698641</v>
+        <v>60204.96822882265</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -10902,10 +10902,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6134.575605451103</v>
+        <v>6552.258358859085</v>
       </c>
       <c r="C7">
-        <v>13222.14620378448</v>
+        <v>13553.9101857432</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -10928,22 +10928,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25818.34963190959</v>
+        <v>27576.23478261563</v>
       </c>
       <c r="C8">
-        <v>67136.74080598528</v>
+        <v>68821.30487918761</v>
       </c>
       <c r="D8">
-        <v>858.2503514501707</v>
+        <v>924.2892456338816</v>
       </c>
       <c r="E8">
-        <v>71.9271632658791</v>
+        <v>73.35566514633697</v>
       </c>
       <c r="F8">
-        <v>2349.252374279458</v>
+        <v>2408.198729152909</v>
       </c>
       <c r="G8">
-        <v>1935.672180923558</v>
+        <v>2010.616854460228</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -11042,7 +11042,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12225.98667562416</v>
+        <v>13137.18401463394</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1025.260672322288</v>
+        <v>1042.869911784431</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -11097,7 +11097,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>65632.42995624879</v>
+        <v>67413.57587152219</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -11120,10 +11120,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6991.76100991613</v>
+        <v>7450.587412677436</v>
       </c>
       <c r="C7">
-        <v>14775.79155125606</v>
+        <v>15176.77991606283</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -11146,22 +11146,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>29425.95248746532</v>
+        <v>31356.99731415496</v>
       </c>
       <c r="C8">
-        <v>75025.52704310685</v>
+        <v>77061.58469209446</v>
       </c>
       <c r="D8">
-        <v>978.0789340499321</v>
+        <v>1050.974721170715</v>
       </c>
       <c r="E8">
-        <v>82.020853785783</v>
+        <v>83.42959294275447</v>
       </c>
       <c r="F8">
-        <v>2625.297198249954</v>
+        <v>2696.54303486089</v>
       </c>
       <c r="G8">
-        <v>2176.755256117219</v>
+        <v>2262.736732874027</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -11260,7 +11260,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12298.08337335398</v>
+        <v>13285.14101225336</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -11286,7 +11286,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1033.968332349579</v>
+        <v>1050.092930752921</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -11315,7 +11315,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>71760.95572560049</v>
+        <v>73895.52211776457</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -11338,10 +11338,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7035.809920522795</v>
+        <v>7529.710730396919</v>
       </c>
       <c r="C7">
-        <v>16155.50306498192</v>
+        <v>16636.05678033206</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -11364,22 +11364,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>29611.33942343153</v>
+        <v>31690.00054246354</v>
       </c>
       <c r="C8">
-        <v>82031.14722430961</v>
+        <v>84471.20572416051</v>
       </c>
       <c r="D8">
-        <v>983.8466698683177</v>
+        <v>1062.811280980268</v>
       </c>
       <c r="E8">
-        <v>82.71746658796631</v>
+        <v>84.00743446023367</v>
       </c>
       <c r="F8">
-        <v>2870.438229024022</v>
+        <v>2955.820884710586</v>
       </c>
       <c r="G8">
-        <v>2319.131298550471</v>
+        <v>2416.576751072897</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -11478,7 +11478,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12140.35198047542</v>
+        <v>13214.67400303183</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -11504,7 +11504,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1025.502872389998</v>
+        <v>1043.721664761723</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -11533,7 +11533,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>76710.2898225141</v>
+        <v>79249.29004183106</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -11556,10 +11556,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6950.649181235563</v>
+        <v>7488.923093297775</v>
       </c>
       <c r="C7">
-        <v>17269.74382952879</v>
+        <v>17841.34750189364</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -11582,22 +11582,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>29252.9267339089</v>
+        <v>31518.33920140037</v>
       </c>
       <c r="C8">
-        <v>87688.81370688372</v>
+        <v>90591.18727043763</v>
       </c>
       <c r="D8">
-        <v>971.2281584380328</v>
+        <v>1057.173920242546</v>
       </c>
       <c r="E8">
-        <v>82.04022979119983</v>
+        <v>83.49773318093783</v>
       </c>
       <c r="F8">
-        <v>3068.411592900567</v>
+        <v>3169.971601673245</v>
       </c>
       <c r="G8">
-        <v>2422.039301076435</v>
+        <v>2533.027059519141</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -11696,7 +11696,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11783.46119569021</v>
+        <v>12948.34024288149</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -11722,7 +11722,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>999.1943306271803</v>
+        <v>1024.649173184657</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -11751,7 +11751,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>80122.35795257057</v>
+        <v>83123.185560825</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -11774,10 +11774,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6750.384764027452</v>
+        <v>7340.067090283283</v>
       </c>
       <c r="C7">
-        <v>18037.90078306542</v>
+        <v>18713.4753923002</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -11800,22 +11800,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>28410.08167422536</v>
+        <v>30891.85473404427</v>
       </c>
       <c r="C8">
-        <v>91589.20578340936</v>
+        <v>95019.50194987576</v>
       </c>
       <c r="D8">
-        <v>942.6768956552166</v>
+        <v>1035.867219430519</v>
       </c>
       <c r="E8">
-        <v>79.93554645017439</v>
+        <v>81.97193385477256</v>
       </c>
       <c r="F8">
-        <v>3204.894318102826</v>
+        <v>3324.927422433003</v>
       </c>
       <c r="G8">
-        <v>2478.828554709287</v>
+        <v>2605.354248258348</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -11914,7 +11914,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11267.3310171649</v>
+        <v>12514.59086240107</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -11940,7 +11940,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>958.941415739849</v>
+        <v>994.7918370350253</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -11969,7 +11969,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>81730.35724168026</v>
+        <v>85258.66553915782</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -11992,10 +11992,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6458.42950776007</v>
+        <v>7098.916109825445</v>
       </c>
       <c r="C7">
-        <v>18399.90874660252</v>
+        <v>19194.23478278385</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -12018,22 +12018,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>27181.34094821865</v>
+        <v>29876.93198665718</v>
       </c>
       <c r="C8">
-        <v>93427.336631693</v>
+        <v>97460.6047853372</v>
       </c>
       <c r="D8">
-        <v>901.3864813731915</v>
+        <v>1001.167268992085</v>
       </c>
       <c r="E8">
-        <v>76.71531325918788</v>
+        <v>79.58334696280198</v>
       </c>
       <c r="F8">
-        <v>3269.214289667214</v>
+        <v>3410.346621566316</v>
       </c>
       <c r="G8">
-        <v>2485.833825436259</v>
+        <v>2629.315089260928</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -12132,7 +12132,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10855.5201750635</v>
+        <v>12166.4753570337</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -12158,7 +12158,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>928.2949066998393</v>
+        <v>976.3244177140624</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -12187,7 +12187,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>81393.04152670056</v>
+        <v>85525.28467487002</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -12210,10 +12210,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6227.04091257869</v>
+        <v>6911.19380110396</v>
       </c>
       <c r="C7">
-        <v>18323.96905192985</v>
+        <v>19254.25859685694</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -12236,22 +12236,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>26207.50477185451</v>
+        <v>29086.87241090203</v>
       </c>
       <c r="C8">
-        <v>93041.74540319292</v>
+        <v>97765.38157312214</v>
       </c>
       <c r="D8">
-        <v>868.4416140050797</v>
+        <v>973.3180285626952</v>
       </c>
       <c r="E8">
-        <v>74.26359253598712</v>
+        <v>78.10595341712495</v>
       </c>
       <c r="F8">
-        <v>3255.721661068025</v>
+        <v>3421.011386994804</v>
       </c>
       <c r="G8">
-        <v>2455.100996450853</v>
+        <v>2616.54523979609</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -12350,7 +12350,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10351.06890004176</v>
+        <v>11696.31965058829</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -12376,7 +12376,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>892.2974381993116</v>
+        <v>954.1747301110329</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -12405,7 +12405,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>79113.33330737505</v>
+        <v>83939.99891676712</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -12428,10 +12428,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5945.233574160451</v>
+        <v>6660.617324160509</v>
       </c>
       <c r="C7">
-        <v>17810.73963974911</v>
+        <v>18897.36411761066</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -12454,22 +12454,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25021.47319280692</v>
+        <v>28032.28094323646</v>
       </c>
       <c r="C8">
-        <v>90435.7728561851</v>
+        <v>95953.21494155163</v>
       </c>
       <c r="D8">
-        <v>828.0855120033405</v>
+        <v>935.7055720470624</v>
       </c>
       <c r="E8">
-        <v>71.38379505594489</v>
+        <v>76.33397840888259</v>
       </c>
       <c r="F8">
-        <v>3164.533332295005</v>
+        <v>3357.599956670688</v>
       </c>
       <c r="G8">
-        <v>2375.597321390956</v>
+        <v>2555.798144177116</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -12568,7 +12568,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9146.426444392266</v>
+        <v>10489.27936680076</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -12594,7 +12594,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>801.8786991465212</v>
+        <v>881.1324073345736</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -12623,7 +12623,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>75037.46383110576</v>
+        <v>80666.94789872687</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -12646,10 +12646,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5267.552176074618</v>
+        <v>6000.177459637735</v>
       </c>
       <c r="C7">
-        <v>16893.1414674488</v>
+        <v>18160.50400727454</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -12672,22 +12672,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>22169.34186374251</v>
+        <v>25252.71338554782</v>
       </c>
       <c r="C8">
-        <v>85776.57837230175</v>
+        <v>92211.73564798987</v>
       </c>
       <c r="D8">
-        <v>731.7141155513809</v>
+        <v>839.1423493440606</v>
       </c>
       <c r="E8">
-        <v>64.15029593172166</v>
+        <v>70.49059258676586</v>
       </c>
       <c r="F8">
-        <v>3001.498553244233</v>
+        <v>3226.677915949077</v>
       </c>
       <c r="G8">
-        <v>2216.069364352341</v>
+        <v>2416.068146691227</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -12786,7 +12786,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6624.548850693632</v>
+        <v>7947.541789435227</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -12812,7 +12812,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>604.0015327712912</v>
+        <v>710.5286236917698</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -12841,7 +12841,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>69435.70441586293</v>
+        <v>75998.67437450866</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -12864,10 +12864,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3839.754945134684</v>
+        <v>4591.666057291011</v>
       </c>
       <c r="C7">
-        <v>15632.02056281233</v>
+        <v>17109.53824927843</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -12890,22 +12890,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16160.22721869302</v>
+        <v>19324.76625681651</v>
       </c>
       <c r="C8">
-        <v>79373.113609875</v>
+        <v>86875.35420105387</v>
       </c>
       <c r="D8">
-        <v>529.9639080554903</v>
+        <v>635.8033431548179</v>
       </c>
       <c r="E8">
-        <v>48.32012262170327</v>
+        <v>56.84228989534155</v>
       </c>
       <c r="F8">
-        <v>2777.42817663452</v>
+        <v>3039.946974980349</v>
       </c>
       <c r="G8">
-        <v>1947.177550794701</v>
+        <v>2170.120430656943</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -13059,7 +13059,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.004248635868928988</v>
+        <v>0.004248635874503787</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -13085,7 +13085,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.000956492971817928</v>
+        <v>0.0009564929730729795</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -13111,7 +13111,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.004856686633317271</v>
+        <v>0.004856686639689918</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -13120,10 +13120,10 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.0001699454347571596</v>
+        <v>0.0001699454349801516</v>
       </c>
       <c r="G8">
-        <v>9.564929718179277E-05</v>
+        <v>9.564929730729793E-05</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -13222,7 +13222,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3226.084107509866</v>
+        <v>4532.447259447667</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -13248,7 +13248,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>326.7458926533797</v>
+        <v>476.0278202075409</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -13277,7 +13277,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>62670.13717361485</v>
+        <v>70324.10196327179</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -13300,10 +13300,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1904.443363206601</v>
+        <v>2693.594042188286</v>
       </c>
       <c r="C7">
-        <v>14108.89226535172</v>
+        <v>15832.02499635091</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -13326,22 +13326,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8015.156673877551</v>
+        <v>11336.42442777131</v>
       </c>
       <c r="C8">
-        <v>71639.28067951411</v>
+        <v>80388.65568659813</v>
       </c>
       <c r="D8">
-        <v>258.0867286007892</v>
+        <v>362.5957807558132</v>
       </c>
       <c r="E8">
-        <v>26.13967141227036</v>
+        <v>38.08222561660325</v>
       </c>
       <c r="F8">
-        <v>2506.805486944596</v>
+        <v>2812.964078530874</v>
       </c>
       <c r="G8">
-        <v>1601.333562855832</v>
+        <v>1852.56190385392</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -13440,7 +13440,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1459.600980172299</v>
+        <v>2748.512723073253</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -13466,7 +13466,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>172.6094617552369</v>
+        <v>374.4202612190598</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -13495,7 +13495,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>55156.95775425079</v>
+        <v>64090.62460291308</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -13518,10 +13518,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>887.8781114879664</v>
+        <v>1724.221167192904</v>
       </c>
       <c r="C7">
-        <v>12417.45446453111</v>
+        <v>14428.68579075496</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -13544,22 +13544,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3736.778057237793</v>
+        <v>7256.662530618882</v>
       </c>
       <c r="C8">
-        <v>63050.83978096797</v>
+        <v>73263.06358854628</v>
       </c>
       <c r="D8">
-        <v>116.7680784137839</v>
+        <v>219.8810178458601</v>
       </c>
       <c r="E8">
-        <v>13.80875694041894</v>
+        <v>29.95362089752477</v>
       </c>
       <c r="F8">
-        <v>2206.278310170033</v>
+        <v>2563.624984116525</v>
       </c>
       <c r="G8">
-        <v>1330.533257601907</v>
+        <v>1615.290695794786</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -13658,7 +13658,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1248.257397459436</v>
+        <v>2513.201122808156</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -13684,7 +13684,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>135.0082864816945</v>
+        <v>383.652642041902</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -13713,7 +13713,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>47329.64263047256</v>
+        <v>57766.50333970515</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -13736,10 +13736,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>745.9666817125944</v>
+        <v>1620.323314284356</v>
       </c>
       <c r="C7">
-        <v>10655.29547160584</v>
+        <v>13004.93997496973</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -13762,22 +13762,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3139.520945034459</v>
+        <v>6819.391680127771</v>
       </c>
       <c r="C8">
-        <v>54103.30511121084</v>
+        <v>66033.85493098204</v>
       </c>
       <c r="D8">
-        <v>99.86059179675482</v>
+        <v>201.0560898246523</v>
       </c>
       <c r="E8">
-        <v>10.80066291853555</v>
+        <v>30.69221136335215</v>
       </c>
       <c r="F8">
-        <v>1893.185705218904</v>
+        <v>2310.660133588208</v>
       </c>
       <c r="G8">
-        <v>1140.126215331843</v>
+        <v>1462.526328925408</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -13876,7 +13876,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1077.312263733249</v>
+        <v>2304.865709287483</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -13902,7 +13902,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>94.00815177014525</v>
+        <v>367.7482173169773</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -13931,7 +13931,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>39605.85518707408</v>
+        <v>51806.32980220549</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -13954,10 +13954,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>619.9717253003723</v>
+        <v>1502.83973851625</v>
       </c>
       <c r="C7">
-        <v>8916.443606362673</v>
+        <v>11663.12950325455</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -13980,22 +13980,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2609.250874906477</v>
+        <v>6324.943126507762</v>
       </c>
       <c r="C8">
-        <v>45274.11466227897</v>
+        <v>59220.68099825738</v>
       </c>
       <c r="D8">
-        <v>86.18498109865988</v>
+        <v>184.3892567429985</v>
       </c>
       <c r="E8">
-        <v>7.520652141611616</v>
+        <v>29.41985738535817</v>
       </c>
       <c r="F8">
-        <v>1584.234207482965</v>
+        <v>2072.253192088222</v>
       </c>
       <c r="G8">
-        <v>953.6415331663044</v>
+        <v>1316.59692417708</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -14094,7 +14094,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>753.5490985493452</v>
+        <v>1932.510227142077</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -14120,7 +14120,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>52.64302485649207</v>
+        <v>321.5933333704959</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -14149,7 +14149,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>32357.71564101338</v>
+        <v>46619.11161894952</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -14172,10 +14172,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>419.7671484460119</v>
+        <v>1274.08938023845</v>
       </c>
       <c r="C7">
-        <v>7284.674081169096</v>
+        <v>10495.33402992273</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -14198,22 +14198,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1766.657662991161</v>
+        <v>5362.210395136274</v>
       </c>
       <c r="C8">
-        <v>36988.64527027735</v>
+        <v>53291.08524283901</v>
       </c>
       <c r="D8">
-        <v>60.28392788394758</v>
+        <v>154.6008181713661</v>
       </c>
       <c r="E8">
-        <v>4.211441988519363</v>
+        <v>25.72746666963966</v>
       </c>
       <c r="F8">
-        <v>1294.308625640536</v>
+        <v>1864.764464757983</v>
       </c>
       <c r="G8">
-        <v>770.4441229615106</v>
+        <v>1176.942341016118</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -14312,7 +14312,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>367.6449992116872</v>
+        <v>1519.243353495256</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -14338,7 +14338,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.9820988632192</v>
+        <v>265.4383856700437</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -14367,7 +14367,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>25884.51160660804</v>
+        <v>42538.05611472362</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -14390,10 +14390,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>197.7015842713007</v>
+        <v>1014.986542164185</v>
       </c>
       <c r="C7">
-        <v>5827.365346068444</v>
+        <v>9576.56833010413</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -14416,22 +14416,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>832.0589644315806</v>
+        <v>4271.734363171304</v>
       </c>
       <c r="C8">
-        <v>29589.01760659692</v>
+        <v>48625.96252376818</v>
       </c>
       <c r="D8">
-        <v>29.41159993693496</v>
+        <v>121.5394682796204</v>
       </c>
       <c r="E8">
-        <v>1.518567909057535</v>
+        <v>21.23507085360348</v>
       </c>
       <c r="F8">
-        <v>1035.380464264322</v>
+        <v>1701.522244588946</v>
       </c>
       <c r="G8">
-        <v>602.5066930339743</v>
+        <v>1059.155487226831</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -14530,7 +14530,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>285.1623424411957</v>
+        <v>1498.852506694968</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -14556,7 +14556,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.551916923183778</v>
+        <v>229.0384437934515</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -14585,7 +14585,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>20389.53343835201</v>
+        <v>39793.82670009798</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -14608,10 +14608,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>144.6936629950954</v>
+        <v>966.5922900431455</v>
       </c>
       <c r="C7">
-        <v>4590.284042710061</v>
+        <v>8958.76152596228</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -14634,22 +14634,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>608.9665888883222</v>
+        <v>4068.059357466667</v>
       </c>
       <c r="C8">
-        <v>23307.61627133334</v>
+        <v>45488.98803879588</v>
       </c>
       <c r="D8">
-        <v>22.81298739529564</v>
+        <v>119.9082005355973</v>
       </c>
       <c r="E8">
-        <v>0.524153353854702</v>
+        <v>18.32307550347611</v>
       </c>
       <c r="F8">
-        <v>815.5813375340809</v>
+        <v>1591.753068003921</v>
       </c>
       <c r="G8">
-        <v>473.4977705705155</v>
+        <v>992.5353816005422</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -14748,7 +14748,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>510.1732452745018</v>
+        <v>1963.227220977192</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -14774,7 +14774,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.36100738157502</v>
+        <v>220.0444204409751</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -14803,7 +14803,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>15966.17510445271</v>
+        <v>38496.60819660612</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -14826,10 +14826,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>262.7195681335323</v>
+        <v>1181.398042608941</v>
       </c>
       <c r="C7">
-        <v>3594.455901930024</v>
+        <v>8666.719463573225</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -14852,22 +14852,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1105.697623025228</v>
+        <v>4972.103969413599</v>
       </c>
       <c r="C8">
-        <v>18251.2014696486</v>
+        <v>44006.11589800473</v>
       </c>
       <c r="D8">
-        <v>40.81385962196013</v>
+        <v>157.0581776781753</v>
       </c>
       <c r="E8">
-        <v>1.228880590526001</v>
+        <v>17.603553635278</v>
       </c>
       <c r="F8">
-        <v>638.6470041781091</v>
+        <v>1539.864327864246</v>
       </c>
       <c r="G8">
-        <v>385.7175470063555</v>
+        <v>984.8117506182163</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -14966,7 +14966,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>835.6821603353264</v>
+        <v>2802.268364734894</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -14992,7 +14992,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>39.00262636767108</v>
+        <v>242.7490820255851</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -15021,7 +15021,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>12599.2962949511</v>
+        <v>38633.28046102287</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -15044,10 +15044,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>445.0000712600669</v>
+        <v>1610.762865332943</v>
       </c>
       <c r="C7">
-        <v>2836.472394375912</v>
+        <v>8697.488412570028</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -15070,22 +15070,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1872.854483333447</v>
+        <v>6779.154990657963</v>
       </c>
       <c r="C8">
-        <v>14402.46606031645</v>
+        <v>44162.34824650801</v>
       </c>
       <c r="D8">
-        <v>66.85457282682609</v>
+        <v>224.1814691787914</v>
       </c>
       <c r="E8">
-        <v>3.120210109413684</v>
+        <v>19.4199265620468</v>
       </c>
       <c r="F8">
-        <v>503.9718517980444</v>
+        <v>1545.331218440916</v>
       </c>
       <c r="G8">
-        <v>328.1472465635978</v>
+        <v>1030.825127790297</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -15184,7 +15184,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1198.909177543332</v>
+        <v>4043.749384202592</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -15210,7 +15210,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>80.11030400289212</v>
+        <v>315.4247489001454</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -15239,7 +15239,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>10184.28165070019</v>
+        <v>40082.53586980956</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -15262,10 +15262,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>663.9961801989878</v>
+        <v>2287.452062801522</v>
       </c>
       <c r="C7">
-        <v>2292.781523864651</v>
+        <v>9023.758456800253</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -15288,22 +15288,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2794.534885085875</v>
+        <v>9627.110483594684</v>
       </c>
       <c r="C8">
-        <v>11641.82247874364</v>
+        <v>45819.01631344955</v>
       </c>
       <c r="D8">
-        <v>95.91273420346653</v>
+        <v>323.4999507362072</v>
       </c>
       <c r="E8">
-        <v>6.408824320231367</v>
+        <v>25.23397991201162</v>
       </c>
       <c r="F8">
-        <v>407.3712660280081</v>
+        <v>1603.301434792384</v>
       </c>
       <c r="G8">
-        <v>295.6777704063638</v>
+        <v>1131.121051960177</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -15457,7 +15457,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.01528274237051</v>
+        <v>0.01528274253389771</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -15483,7 +15483,7 @@
         <v>8.297863956908147E-13</v>
       </c>
       <c r="C7">
-        <v>0.0034405950800349</v>
+        <v>0.003440595116818282</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -15509,7 +15509,7 @@
         <v>3.492289713523248E-12</v>
       </c>
       <c r="C8">
-        <v>0.01746995809504334</v>
+        <v>0.01746995828181456</v>
       </c>
       <c r="D8">
         <v>1.367693743914484E-13</v>
@@ -15518,10 +15518,10 @@
         <v>2.951602762155471E-16</v>
       </c>
       <c r="F8">
-        <v>0.0006113096948204006</v>
+        <v>0.000611309701355909</v>
       </c>
       <c r="G8">
-        <v>0.0003440595080864685</v>
+        <v>0.0003440595117648068</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -15620,7 +15620,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1538.247365844959</v>
+        <v>5663.066247550528</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -15646,7 +15646,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>125.4973671251114</v>
+        <v>438.1396262159465</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -15675,7 +15675,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>8559.751523611356</v>
+        <v>42644.36167720981</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -15698,10 +15698,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>875.983543421687</v>
+        <v>3199.652174565467</v>
       </c>
       <c r="C7">
-        <v>1927.051982194454</v>
+        <v>9600.500840801693</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -15724,22 +15724,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3686.717851478349</v>
+        <v>13466.25159693609</v>
       </c>
       <c r="C8">
-        <v>9784.794953425853</v>
+        <v>48747.48218803259</v>
       </c>
       <c r="D8">
-        <v>123.0597892675966</v>
+        <v>453.045299804042</v>
       </c>
       <c r="E8">
-        <v>10.03978937000891</v>
+        <v>35.0511700972757</v>
       </c>
       <c r="F8">
-        <v>342.3900609444545</v>
+        <v>1705.774467088394</v>
       </c>
       <c r="G8">
-        <v>280.3035525616141</v>
+        <v>1280.015301536716</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -15838,7 +15838,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1844.234660988818</v>
+        <v>7608.680553284808</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -15864,7 +15864,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>158.8079092753206</v>
+        <v>594.9954477317734</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -15893,7 +15893,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>7544.411696277288</v>
+        <v>46074.8630344512</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -15916,10 +15916,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1059.071983415009</v>
+        <v>4305.631437181847</v>
       </c>
       <c r="C7">
-        <v>1698.469105522399</v>
+        <v>10372.80765626912</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -15942,22 +15942,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4457.27504423804</v>
+        <v>18120.94348181531</v>
       </c>
       <c r="C8">
-        <v>8624.143036006742</v>
+        <v>52668.94559447201</v>
       </c>
       <c r="D8">
-        <v>147.5387728791054</v>
+        <v>608.6944442627843</v>
       </c>
       <c r="E8">
-        <v>12.70463274202564</v>
+        <v>47.59963581854185</v>
       </c>
       <c r="F8">
-        <v>301.7764678510918</v>
+        <v>1842.99452137805</v>
       </c>
       <c r="G8">
-        <v>275.7541088937408</v>
+        <v>1467.843909345097</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -16056,7 +16056,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2071.87807942078</v>
+        <v>9769.71023130727</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -16082,7 +16082,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>177.6064634983228</v>
+        <v>770.1795372573019</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -16111,7 +16111,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6967.609270707596</v>
+        <v>50116.44661819243</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -16134,10 +16134,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1188.947435793671</v>
+        <v>5535.081058288789</v>
       </c>
       <c r="C7">
-        <v>1568.613904181264</v>
+        <v>11282.68706512458</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -16160,22 +16160,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5003.8768067357</v>
+        <v>23295.28025979094</v>
       </c>
       <c r="C8">
-        <v>7964.790548113852</v>
+        <v>57288.9473018762</v>
       </c>
       <c r="D8">
-        <v>165.7502463536623</v>
+        <v>781.5768185045812</v>
       </c>
       <c r="E8">
-        <v>14.20851707986581</v>
+        <v>61.61436298058413</v>
       </c>
       <c r="F8">
-        <v>278.7043708283041</v>
+        <v>2004.657864727699</v>
       </c>
       <c r="G8">
-        <v>275.7561339974935</v>
+        <v>1681.776812341337</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -16274,7 +16274,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1904.546824422069</v>
+        <v>11722.24886075135</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -16300,7 +16300,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>162.2772337310978</v>
+        <v>928.3073730939306</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -16329,7 +16329,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6687.305969007213</v>
+        <v>54517.4302649335</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -16352,10 +16352,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1091.881167625401</v>
+        <v>6645.752248891121</v>
       </c>
       <c r="C7">
-        <v>1505.509381618034</v>
+        <v>12273.47800533632</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -16378,22 +16378,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4595.357781099076</v>
+        <v>27969.71887940457</v>
       </c>
       <c r="C8">
-        <v>7644.371161600007</v>
+        <v>62319.78522491133</v>
       </c>
       <c r="D8">
-        <v>152.3637459537654</v>
+        <v>937.7799088601075</v>
       </c>
       <c r="E8">
-        <v>12.98217869848782</v>
+        <v>74.2645898475144</v>
       </c>
       <c r="F8">
-        <v>267.4922387602888</v>
+        <v>2180.697210597342</v>
       </c>
       <c r="G8">
-        <v>259.7390549243435</v>
+        <v>1891.923025422744</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -16492,7 +16492,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1156.718662686479</v>
+        <v>12873.30131473475</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -16518,7 +16518,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>98.57281927339426</v>
+        <v>1020.256681661479</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -16547,7 +16547,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6595.495865935669</v>
+        <v>59041.30105255651</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -16570,10 +16570,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>663.1647851679311</v>
+        <v>7299.166179385011</v>
       </c>
       <c r="C7">
-        <v>1484.840225437335</v>
+        <v>13291.9344575398</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -16596,22 +16596,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2791.035825171286</v>
+        <v>30719.71666195061</v>
       </c>
       <c r="C8">
-        <v>7539.421499132591</v>
+        <v>67491.09749146283</v>
       </c>
       <c r="D8">
-        <v>92.53749301491827</v>
+        <v>1029.86410517878</v>
       </c>
       <c r="E8">
-        <v>7.885825541871537</v>
+        <v>81.62053453291831</v>
       </c>
       <c r="F8">
-        <v>263.819834637427</v>
+        <v>2361.652042102262</v>
       </c>
       <c r="G8">
-        <v>214.8005010605266</v>
+        <v>2059.11006369248</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -16710,7 +16710,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>374.2819406649529</v>
+        <v>13175.00827802646</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -16736,7 +16736,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>32.50929507950195</v>
+        <v>1043.31373185035</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -16765,7 +16765,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6615.555117958101</v>
+        <v>63470.09755955836</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -16788,10 +16788,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>215.2316862430957</v>
+        <v>7469.329468019099</v>
       </c>
       <c r="C7">
-        <v>1489.356153413111</v>
+        <v>14288.98689113112</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -16814,22 +16814,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>905.8372224399513</v>
+        <v>31435.87627314956</v>
       </c>
       <c r="C8">
-        <v>7562.351565200184</v>
+        <v>72553.72875966333</v>
       </c>
       <c r="D8">
-        <v>29.94255525319621</v>
+        <v>1054.000662242116</v>
       </c>
       <c r="E8">
-        <v>2.600743606360155</v>
+        <v>83.46509854802798</v>
       </c>
       <c r="F8">
-        <v>264.6222047183243</v>
+        <v>2538.803902382337</v>
       </c>
       <c r="G8">
-        <v>170.4587839656206</v>
+        <v>2175.831635915022</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -16928,7 +16928,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>49.91470907732213</v>
+        <v>13050.1885825224</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -16954,7 +16954,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4.738737615556047</v>
+        <v>1034.300922495047</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -16983,7 +16983,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6696.570809736189</v>
+        <v>67606.71525293925</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -17006,10 +17006,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>29.13057642043531</v>
+        <v>7399.488079700704</v>
       </c>
       <c r="C7">
-        <v>1507.595169931192</v>
+        <v>15220.26127492856</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -17032,22 +17032,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>122.6007234035149</v>
+        <v>31141.93753991756</v>
       </c>
       <c r="C8">
-        <v>7654.961955802282</v>
+        <v>77282.36554529851</v>
       </c>
       <c r="D8">
-        <v>3.993176726185768</v>
+        <v>1044.015086601792</v>
       </c>
       <c r="E8">
-        <v>0.3790990092444836</v>
+        <v>82.74407379960374</v>
       </c>
       <c r="F8">
-        <v>267.8628323894478</v>
+        <v>2704.268610117572</v>
       </c>
       <c r="G8">
-        <v>153.6725746351627</v>
+        <v>2261.974935462926</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -17146,7 +17146,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.08810476939709</v>
+        <v>12756.83087730143</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -17172,7 +17172,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.065962127660207</v>
+        <v>1015.275964918122</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -17201,7 +17201,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6807.467289678622</v>
+        <v>71278.46498498789</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -17224,10 +17224,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.002094612779302</v>
+        <v>7237.627719115979</v>
       </c>
       <c r="C7">
-        <v>1532.561231259255</v>
+        <v>16046.88019952569</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -17250,22 +17250,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.2607820333713</v>
+        <v>30460.72213890268</v>
       </c>
       <c r="C8">
-        <v>7781.729574500121</v>
+        <v>81479.60399892532</v>
       </c>
       <c r="D8">
-        <v>0.8070483815517669</v>
+        <v>1020.546470184114</v>
       </c>
       <c r="E8">
-        <v>0.08527697021281649</v>
+        <v>81.22207719344975</v>
       </c>
       <c r="F8">
-        <v>272.2986915871451</v>
+        <v>2851.138599399518</v>
       </c>
       <c r="G8">
-        <v>153.8563325872034</v>
+        <v>2328.450791864167</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -17364,7 +17364,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>24.16659230032399</v>
+        <v>12367.59458582927</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -17390,7 +17390,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.562417963600625</v>
+        <v>992.7975910108355</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -17419,7 +17419,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6931.413822858344</v>
+        <v>74341.66422901694</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -17442,10 +17442,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.38770743982674</v>
+        <v>7025.793639398744</v>
       </c>
       <c r="C7">
-        <v>1560.465243635228</v>
+        <v>16736.49649957598</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -17468,22 +17468,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>60.55298442372985</v>
+        <v>29569.18429083484</v>
       </c>
       <c r="C8">
-        <v>7923.414927048752</v>
+        <v>84981.19822413569</v>
       </c>
       <c r="D8">
-        <v>1.933327384025918</v>
+        <v>989.407566866341</v>
       </c>
       <c r="E8">
-        <v>0.2049934370880499</v>
+        <v>79.4238072808668</v>
       </c>
       <c r="F8">
-        <v>277.256552914334</v>
+        <v>2973.66656916068</v>
       </c>
       <c r="G8">
-        <v>157.4852951075055</v>
+        <v>2376.229013897472</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -17582,7 +17582,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>64.60298570047352</v>
+        <v>11912.52195491508</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -17608,7 +17608,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.820778231693587</v>
+        <v>970.813571480924</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -17637,7 +17637,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>7060.258823517069</v>
+        <v>76686.13926261073</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -17660,10 +17660,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>38.43084059890287</v>
+        <v>6782.678900223078</v>
       </c>
       <c r="C7">
-        <v>1589.472045203049</v>
+        <v>17264.30682774147</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -17686,22 +17686,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>161.742383344169</v>
+        <v>28545.99674854905</v>
       </c>
       <c r="C8">
-        <v>8070.699799599323</v>
+        <v>87661.206798434</v>
       </c>
       <c r="D8">
-        <v>5.168238856037879</v>
+        <v>953.0017563932055</v>
       </c>
       <c r="E8">
-        <v>0.5456622585354867</v>
+        <v>77.66508571847388</v>
       </c>
       <c r="F8">
-        <v>282.410352940683</v>
+        <v>3067.445570504432</v>
       </c>
       <c r="G8">
-        <v>162.7902885801951</v>
+        <v>2404.698572796454</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -17855,7 +17855,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.04648264132941133</v>
+        <v>0.04648264351298474</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -17881,7 +17881,7 @@
         <v>4.957235488551258E-11</v>
       </c>
       <c r="C7">
-        <v>0.01046461055141523</v>
+        <v>0.01046461104300187</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -17907,7 +17907,7 @@
         <v>2.086332409651915E-10</v>
       </c>
       <c r="C8">
-        <v>0.05313508377519331</v>
+        <v>0.05313508627127256</v>
       </c>
       <c r="D8">
         <v>8.159813013432104E-12</v>
@@ -17916,10 +17916,10 @@
         <v>2.262426942610916E-14</v>
       </c>
       <c r="F8">
-        <v>0.001859305653176455</v>
+        <v>0.001859305740519391</v>
       </c>
       <c r="G8">
-        <v>0.001046461060098758</v>
+        <v>0.001046461109257422</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -18018,7 +18018,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>140.948779098133</v>
+        <v>11290.06720605923</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -18044,7 +18044,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.7498107765336</v>
+        <v>942.9056865260543</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -18073,7 +18073,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>7189.319504166046</v>
+        <v>78239.01595030894</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -18096,10 +18096,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>83.70791065158997</v>
+        <v>6452.43265479099</v>
       </c>
       <c r="C7">
-        <v>1618.527402684156</v>
+        <v>17613.9050714379</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -18122,22 +18122,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>352.2982261786758</v>
+        <v>27156.10222648715</v>
       </c>
       <c r="C8">
-        <v>8218.231219549587</v>
+        <v>89436.32608024598</v>
       </c>
       <c r="D8">
-        <v>11.27590232785063</v>
+        <v>903.2053764847376</v>
       </c>
       <c r="E8">
-        <v>1.179984862122688</v>
+        <v>75.4324549220843</v>
       </c>
       <c r="F8">
-        <v>287.5727801666421</v>
+        <v>3129.56063801236</v>
       </c>
       <c r="G8">
-        <v>170.2235313335745</v>
+        <v>2406.633772622889</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -18236,7 +18236,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>206.8780998413172</v>
+        <v>10177.10773702361</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -18262,7 +18262,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.02464950362779</v>
+        <v>883.3024858317324</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -18291,7 +18291,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>7313.526264038889</v>
+        <v>78967.86160661533</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -18314,10 +18314,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>122.2013805101423</v>
+        <v>5851.671900111143</v>
       </c>
       <c r="C7">
-        <v>1646.489999747245</v>
+        <v>17777.98967866333</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -18340,22 +18340,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>514.3041948507979</v>
+        <v>24627.70381606221</v>
       </c>
       <c r="C8">
-        <v>8360.214041578096</v>
+        <v>90269.48172500756</v>
       </c>
       <c r="D8">
-        <v>16.55024798730537</v>
+        <v>814.168618961888</v>
       </c>
       <c r="E8">
-        <v>1.681971960290222</v>
+        <v>70.66419886653856</v>
       </c>
       <c r="F8">
-        <v>292.5410505615558</v>
+        <v>3158.714464264616</v>
       </c>
       <c r="G8">
-        <v>176.8691380257387</v>
+        <v>2362.966157877447</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -18454,7 +18454,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>181.1376159195501</v>
+        <v>8216.880136880256</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -18480,7 +18480,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.95154489102213</v>
+        <v>760.1281283882422</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -18509,7 +18509,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>7425.873435470646</v>
+        <v>78883.31571060458</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -18532,10 +18532,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>104.3947955411504</v>
+        <v>4774.298541887028</v>
       </c>
       <c r="C7">
-        <v>1671.78265442353</v>
+        <v>17758.95590927826</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -18558,22 +18558,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>439.3623136110879</v>
+        <v>20093.40448783846</v>
       </c>
       <c r="C8">
-        <v>8488.639969950527</v>
+        <v>90172.83589897664</v>
       </c>
       <c r="D8">
-        <v>14.491009273564</v>
+        <v>657.3504109504202</v>
       </c>
       <c r="E8">
-        <v>1.276123591281769</v>
+        <v>60.81025027105935</v>
       </c>
       <c r="F8">
-        <v>297.0349374188261</v>
+        <v>3155.332628424186</v>
       </c>
       <c r="G8">
-        <v>177.617744996468</v>
+        <v>2253.325445116528</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -18672,7 +18672,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>257.566881167569</v>
+        <v>6027.038709049137</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -18698,7 +18698,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.02659072132217</v>
+        <v>618.5958475640504</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -18727,7 +18727,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>7518.42089261508</v>
+        <v>78040.86891919959</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -18750,10 +18750,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>143.5134072543979</v>
+        <v>3566.564452256578</v>
       </c>
       <c r="C7">
-        <v>1692.617810706431</v>
+        <v>17569.29634325088</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -18776,22 +18776,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>603.9992924805123</v>
+        <v>15010.46102215725</v>
       </c>
       <c r="C8">
-        <v>8594.432514175831</v>
+        <v>89209.82089902819</v>
       </c>
       <c r="D8">
-        <v>20.60535049340551</v>
+        <v>482.1630967239307</v>
       </c>
       <c r="E8">
-        <v>1.442127257705772</v>
+        <v>49.487667805124</v>
       </c>
       <c r="F8">
-        <v>300.7368357046035</v>
+        <v>3121.634756767986</v>
       </c>
       <c r="G8">
-        <v>183.6131217960828</v>
+        <v>2113.586079550746</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -18890,7 +18890,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>590.5408633305517</v>
+        <v>4586.660699069887</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -18916,7 +18916,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>40.76224920805818</v>
+        <v>531.1015672024944</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -18945,7 +18945,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>7585.188634885964</v>
+        <v>76540.86372847462</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -18968,10 +18968,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>328.4408041824905</v>
+        <v>2778.10094444265</v>
       </c>
       <c r="C7">
-        <v>1707.649194472051</v>
+        <v>17231.60102953586</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -18994,22 +18994,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1382.296031731039</v>
+        <v>11692.08533881689</v>
       </c>
       <c r="C8">
-        <v>8670.755835690676</v>
+        <v>87495.1399086008</v>
       </c>
       <c r="D8">
-        <v>47.24326906644411</v>
+        <v>366.9328559255907</v>
       </c>
       <c r="E8">
-        <v>3.260979936644653</v>
+        <v>42.48812537619953</v>
       </c>
       <c r="F8">
-        <v>303.4075453954388</v>
+        <v>3061.634549138987</v>
       </c>
       <c r="G8">
-        <v>203.6089998654541</v>
+        <v>2000.970197397851</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -19108,7 +19108,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1044.052900113439</v>
+        <v>3948.691664427578</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -19134,7 +19134,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>72.43166536331277</v>
+        <v>493.8597879321863</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -19163,7 +19163,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>7625.581665683801</v>
+        <v>74525.45537519985</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -19186,10 +19186,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>581.0575123029513</v>
+        <v>2430.476425397055</v>
       </c>
       <c r="C7">
-        <v>1716.742854475043</v>
+        <v>16777.87329557112</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -19212,22 +19212,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2445.474140958452</v>
+        <v>10229.05155284995</v>
       </c>
       <c r="C8">
-        <v>8716.929783943031</v>
+        <v>85191.29295348552</v>
       </c>
       <c r="D8">
-        <v>83.52423200907505</v>
+        <v>315.8953331542061</v>
       </c>
       <c r="E8">
-        <v>5.794533229065019</v>
+        <v>39.50878303457488</v>
       </c>
       <c r="F8">
-        <v>305.0232666273523</v>
+        <v>2981.018215007996</v>
       </c>
       <c r="G8">
-        <v>229.7800366777994</v>
+        <v>1920.834972096817</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -19326,7 +19326,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1262.70035086548</v>
+        <v>3634.325444579102</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -19352,7 +19352,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>89.60078235268381</v>
+        <v>464.7383776229833</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -19381,7 +19381,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>7646.714908311898</v>
+        <v>72171.38192069357</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -19404,10 +19404,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>704.8617948599441</v>
+        <v>2247.776173977377</v>
       </c>
       <c r="C7">
-        <v>1721.500569343791</v>
+        <v>16247.90208037588</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -19430,22 +19430,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2966.524407279054</v>
+        <v>9460.128114234316</v>
       </c>
       <c r="C8">
-        <v>8741.087546612489</v>
+        <v>82500.31226390488</v>
       </c>
       <c r="D8">
-        <v>101.0160280692384</v>
+        <v>290.746035566328</v>
       </c>
       <c r="E8">
-        <v>7.168062588214701</v>
+        <v>37.17907020983864</v>
       </c>
       <c r="F8">
-        <v>305.8685963324762</v>
+        <v>2886.855276827745</v>
       </c>
       <c r="G8">
-        <v>242.6362364203734</v>
+        <v>1849.567825435325</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -19544,7 +19544,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1263.177988391945</v>
+        <v>3384.166949294441</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -19570,7 +19570,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>95.34112509176585</v>
+        <v>426.1552682956568</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -19599,7 +19599,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>7663.315869325651</v>
+        <v>69678.03526125712</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -19622,10 +19622,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>711.170975653647</v>
+        <v>2086.074318910546</v>
       </c>
       <c r="C7">
-        <v>1725.237934235709</v>
+        <v>15686.57636792835</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -19648,22 +19648,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2993.077610972233</v>
+        <v>8779.57980922458</v>
       </c>
       <c r="C8">
-        <v>8760.06438245887</v>
+        <v>79650.1260472725</v>
       </c>
       <c r="D8">
-        <v>101.0542390713555</v>
+        <v>270.7333559435551</v>
       </c>
       <c r="E8">
-        <v>7.627290007341264</v>
+        <v>34.09242146365253</v>
       </c>
       <c r="F8">
-        <v>306.5326347730263</v>
+        <v>2787.121410450287</v>
       </c>
       <c r="G8">
-        <v>243.6408909889355</v>
+        <v>1777.26506868389</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -19762,7 +19762,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1313.191393597144</v>
+        <v>3267.164824917277</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -19788,7 +19788,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>105.0849949494916</v>
+        <v>388.3376791216436</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -19817,7 +19817,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>7694.768184065125</v>
+        <v>67251.45510551144</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -19840,10 +19840,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>745.6491605611071</v>
+        <v>1989.508074296806</v>
       </c>
       <c r="C7">
-        <v>1732.318775927914</v>
+        <v>15140.28176040561</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -19866,22 +19866,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3138.184606120102</v>
+        <v>8373.165213264163</v>
       </c>
       <c r="C8">
-        <v>8796.018048834285</v>
+        <v>76876.26173631338</v>
       </c>
       <c r="D8">
-        <v>105.0553114877715</v>
+        <v>261.373185993382</v>
       </c>
       <c r="E8">
-        <v>8.406799595959328</v>
+        <v>31.06701432973147</v>
       </c>
       <c r="F8">
-        <v>307.7907273626053</v>
+        <v>2690.05820422046</v>
       </c>
       <c r="G8">
-        <v>247.7967936489021</v>
+        <v>1712.978983470242</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -19980,7 +19980,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1450.307434923972</v>
+        <v>3451.416254006541</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -20006,7 +20006,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>117.8841994055045</v>
+        <v>367.3515219115235</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -20035,7 +20035,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>7760.054973891311</v>
+        <v>65086.18511582378</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -20058,10 +20058,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>825.4400619109433</v>
+        <v>2056.29378358845</v>
       </c>
       <c r="C7">
-        <v>1747.016753713674</v>
+        <v>14652.81576164338</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -20084,22 +20084,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3473.997467675632</v>
+        <v>8654.243629083923</v>
       </c>
       <c r="C8">
-        <v>8870.648468870955</v>
+        <v>74401.10544124352</v>
       </c>
       <c r="D8">
-        <v>116.0245947939177</v>
+        <v>276.1133003205231</v>
       </c>
       <c r="E8">
-        <v>9.430735952440353</v>
+        <v>29.38812175292187</v>
       </c>
       <c r="F8">
-        <v>310.4021989556528</v>
+        <v>2603.447404632953</v>
       </c>
       <c r="G8">
-        <v>257.2456815624617</v>
+        <v>1670.910954523182</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -20253,7 +20253,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1247400342690086</v>
+        <v>0.1247400522257044</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -20279,7 +20279,7 @@
         <v>1.573481463509909E-09</v>
       </c>
       <c r="C7">
-        <v>0.02808265282397832</v>
+        <v>0.02808265686655901</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -20305,7 +20305,7 @@
         <v>6.622250205560929E-09</v>
       </c>
       <c r="C8">
-        <v>0.1425924168988741</v>
+        <v>0.142592437425473</v>
       </c>
       <c r="D8">
         <v>2.586951830677535E-10</v>
@@ -20314,10 +20314,10 @@
         <v>8.578660080106144E-13</v>
       </c>
       <c r="F8">
-        <v>0.004989601370760348</v>
+        <v>0.00498960208902818</v>
       </c>
       <c r="G8">
-        <v>0.002808265439745978</v>
+        <v>0.002808265844004047</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -20416,7 +20416,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1572.932233785553</v>
+        <v>4029.435796181808</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -20442,7 +20442,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>129.4928958382849</v>
+        <v>375.2761984000036</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -20471,7 +20471,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>7872.3372613029</v>
+        <v>63347.89077398308</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -20494,10 +20494,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>896.9699252235</v>
+        <v>2343.914125412411</v>
       </c>
       <c r="C7">
-        <v>1772.294801087477</v>
+        <v>14261.47454714183</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -20520,22 +20520,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3775.042419910838</v>
+        <v>9864.740169359966</v>
       </c>
       <c r="C8">
-        <v>8999.000227236074</v>
+        <v>72414.03214166303</v>
       </c>
       <c r="D8">
-        <v>125.8345787028442</v>
+        <v>322.3548636945445</v>
       </c>
       <c r="E8">
-        <v>10.35943166706279</v>
+        <v>30.02209587200027</v>
       </c>
       <c r="F8">
-        <v>314.8934904521163</v>
+        <v>2533.915630959325</v>
       </c>
       <c r="G8">
-        <v>266.9264726310976</v>
+        <v>1660.538867255424</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -20634,7 +20634,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1633.02322567504</v>
+        <v>5031.122715983612</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -20660,7 +20660,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>139.8342944674251</v>
+        <v>423.0961044554475</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -20689,7 +20689,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>8035.135221726846</v>
+        <v>62159.72544142314</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -20712,10 +20712,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>936.9490999782084</v>
+        <v>2878.444164465335</v>
       </c>
       <c r="C7">
-        <v>1808.945413136998</v>
+        <v>13993.98356297383</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -20738,22 +20738,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3943.301216965207</v>
+        <v>12114.39594420502</v>
       </c>
       <c r="C8">
-        <v>9185.097295263136</v>
+        <v>71055.82050224817</v>
       </c>
       <c r="D8">
-        <v>130.6418580540032</v>
+        <v>402.4898172786887</v>
       </c>
       <c r="E8">
-        <v>11.186743557394</v>
+        <v>33.84768835643578</v>
       </c>
       <c r="F8">
-        <v>321.4054088690741</v>
+        <v>2486.389017656928</v>
       </c>
       <c r="G8">
-        <v>274.5894513115206</v>
+        <v>1687.242772743916</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -20852,7 +20852,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1636.576776205876</v>
+        <v>6416.502238954625</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -20878,7 +20878,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>146.3641892049287</v>
+        <v>514.3393133328748</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -20907,7 +20907,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>8241.397955916264</v>
+        <v>61594.49953137511</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -20930,10 +20930,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>945.5802446912559</v>
+        <v>3644.308814026417</v>
       </c>
       <c r="C7">
-        <v>1855.381224933188</v>
+        <v>13866.73457597448</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -20956,22 +20956,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3979.626779849631</v>
+        <v>15337.66069222077</v>
       </c>
       <c r="C8">
-        <v>9420.879672240935</v>
+        <v>70409.70132262856</v>
       </c>
       <c r="D8">
-        <v>130.92614209647</v>
+        <v>513.3201791163697</v>
       </c>
       <c r="E8">
-        <v>11.70913513639429</v>
+        <v>41.14714506662996</v>
       </c>
       <c r="F8">
-        <v>329.6559182366508</v>
+        <v>2463.779981255007</v>
       </c>
       <c r="G8">
-        <v>280.0961469624443</v>
+        <v>1751.104339000089</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -21070,7 +21070,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1573.523587389995</v>
+        <v>8089.28171744449</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -21096,7 +21096,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>142.5017676055859</v>
+        <v>640.9226441991822</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -21125,7 +21125,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>8475.514654145016</v>
+        <v>61673.15889168772</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -21148,10 +21148,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>911.030679352441</v>
+        <v>4586.431876838607</v>
       </c>
       <c r="C7">
-        <v>1908.087783779209</v>
+        <v>13884.44311293264</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -21174,22 +21174,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3834.219368657992</v>
+        <v>19302.73736522756</v>
       </c>
       <c r="C8">
-        <v>9688.502380799997</v>
+        <v>70499.61815137102</v>
       </c>
       <c r="D8">
-        <v>125.8818869911995</v>
+        <v>647.1425373955589</v>
       </c>
       <c r="E8">
-        <v>11.40014140844686</v>
+        <v>51.27381153593455</v>
       </c>
       <c r="F8">
-        <v>339.0205861658009</v>
+        <v>2466.926355667511</v>
       </c>
       <c r="G8">
-        <v>281.9118463131649</v>
+        <v>1847.087498977124</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -21288,7 +21288,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1426.476776022019</v>
+        <v>9908.531951749785</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -21314,7 +21314,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>126.0428066929803</v>
+        <v>785.9349872857294</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -21343,7 +21343,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>8717.213809109368</v>
+        <v>62368.63084944298</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -21366,10 +21366,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>822.5671217177717</v>
+        <v>5618.826302879012</v>
       </c>
       <c r="C7">
-        <v>1962.501376788772</v>
+        <v>14041.01431842337</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -21392,22 +21392,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3461.906236081231</v>
+        <v>23647.73561186434</v>
       </c>
       <c r="C8">
-        <v>9964.792722315038</v>
+        <v>71294.6237638262</v>
       </c>
       <c r="D8">
-        <v>114.1181420817615</v>
+        <v>792.6825561399824</v>
       </c>
       <c r="E8">
-        <v>10.08342453543842</v>
+        <v>62.87479898285832</v>
       </c>
       <c r="F8">
-        <v>348.688552364375</v>
+        <v>2494.745233977721</v>
       </c>
       <c r="G8">
-        <v>278.5068498506543</v>
+        <v>1965.984062130237</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -21506,7 +21506,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1174.130337312807</v>
+        <v>11654.19282670071</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -21532,7 +21532,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>100.27225011829</v>
+        <v>926.7814593224728</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -21561,7 +21561,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>8945.845997136945</v>
+        <v>63613.31719785372</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -21584,10 +21584,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>673.3755196376039</v>
+        <v>6611.260042013379</v>
       </c>
       <c r="C7">
-        <v>2013.973210978898</v>
+        <v>14321.22984667778</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -21610,22 +21610,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2834.009345996811</v>
+        <v>27824.55287053603</v>
       </c>
       <c r="C8">
-        <v>10226.14599564687</v>
+        <v>72717.44552061817</v>
       </c>
       <c r="D8">
-        <v>93.93042698502448</v>
+        <v>932.3354261360563</v>
       </c>
       <c r="E8">
-        <v>8.0217800094632</v>
+        <v>74.14251674579778</v>
       </c>
       <c r="F8">
-        <v>357.8338398854781</v>
+        <v>2544.532687914151</v>
       </c>
       <c r="G8">
-        <v>268.7348730616501</v>
+        <v>2093.248988869116</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -21724,7 +21724,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>863.2786077956316</v>
+        <v>13056.093892346</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -21750,7 +21750,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>72.4165380930565</v>
+        <v>1039.939963492822</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -21779,7 +21779,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>9143.818278912202</v>
+        <v>65308.5043017068</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -21802,10 +21802,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>493.7132904041311</v>
+        <v>7408.311984844973</v>
       </c>
       <c r="C7">
-        <v>2058.542597947926</v>
+        <v>14702.86635325857</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -21828,22 +21828,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2077.871913135716</v>
+        <v>31179.07436612785</v>
       </c>
       <c r="C8">
-        <v>10452.45141798177</v>
+        <v>74655.24221636807</v>
       </c>
       <c r="D8">
-        <v>69.06228862365049</v>
+        <v>1044.487511387679</v>
       </c>
       <c r="E8">
-        <v>5.793323047444518</v>
+        <v>83.19519707942568</v>
       </c>
       <c r="F8">
-        <v>365.7527311564884</v>
+        <v>2612.340172068275</v>
       </c>
       <c r="G8">
-        <v>255.2255888352057</v>
+        <v>2211.117833810354</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -21942,7 +21942,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>641.6646383103823</v>
+        <v>13877.44790456082</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -21968,7 +21968,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>53.79112577628307</v>
+        <v>1106.245976477089</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -21997,7 +21997,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>9298.598281067096</v>
+        <v>67334.40095323131</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -22020,10 +22020,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>366.9338759930001</v>
+        <v>7875.301967513011</v>
       </c>
       <c r="C7">
-        <v>2093.388131621877</v>
+        <v>15158.95531183084</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -22046,22 +22046,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1544.300325153854</v>
+        <v>33144.47693389621</v>
       </c>
       <c r="C8">
-        <v>10629.38302397511</v>
+        <v>76971.07852041489</v>
       </c>
       <c r="D8">
-        <v>51.33317106483056</v>
+        <v>1110.195832364865</v>
       </c>
       <c r="E8">
-        <v>4.303290062102644</v>
+        <v>88.49967811816711</v>
       </c>
       <c r="F8">
-        <v>371.9439312426842</v>
+        <v>2693.376038129255</v>
       </c>
       <c r="G8">
-        <v>246.0322007614877</v>
+        <v>2303.425727934385</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -22160,7 +22160,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>664.7349932069892</v>
+        <v>14107.35229069579</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -22186,7 +22186,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>55.98630540324327</v>
+        <v>1125.800512839419</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -22215,7 +22215,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>9403.314212727571</v>
+        <v>69560.00275744074</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -22238,10 +22238,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>380.4031461538498</v>
+        <v>8007.070154026776</v>
       </c>
       <c r="C7">
-        <v>2116.962769637599</v>
+        <v>15660.00377761246</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -22264,22 +22264,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1600.987918341303</v>
+        <v>33699.04457289507</v>
       </c>
       <c r="C8">
-        <v>10749.08555468858</v>
+        <v>79515.20112048028</v>
       </c>
       <c r="D8">
-        <v>53.17879945655911</v>
+        <v>1128.588183255663</v>
       </c>
       <c r="E8">
-        <v>4.478904432259459</v>
+        <v>90.06404102715348</v>
       </c>
       <c r="F8">
-        <v>376.1325685091032</v>
+        <v>2782.400110297632</v>
       </c>
       <c r="G8">
-        <v>249.7365915791448</v>
+        <v>2366.707393163923</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -22378,7 +22378,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>867.784457677841</v>
+        <v>13943.53840785974</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -22404,7 +22404,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>73.22516846751049</v>
+        <v>1116.170572698377</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -22433,7 +22433,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>9456.314934841883</v>
+        <v>71852.29669286992</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -22456,10 +22456,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>496.7462283972225</v>
+        <v>7917.738026491483</v>
       </c>
       <c r="C7">
-        <v>2128.894792001377</v>
+        <v>16176.06660488685</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -22482,22 +22482,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2090.63652124454</v>
+        <v>33323.0759239768</v>
       </c>
       <c r="C8">
-        <v>10809.67156549058</v>
+        <v>82135.56060980496</v>
       </c>
       <c r="D8">
-        <v>69.42275661422725</v>
+        <v>1115.483072628778</v>
       </c>
       <c r="E8">
-        <v>5.858013477400836</v>
+        <v>89.29364581587011</v>
       </c>
       <c r="F8">
-        <v>378.2525973936757</v>
+        <v>2874.091867714799</v>
       </c>
       <c r="G8">
-        <v>262.56410203986</v>
+        <v>2409.380463137833</v>
       </c>
       <c r="H8">
         <v>0</v>

--- a/Recycling/SW2/SW2_Avg.xlsx
+++ b/Recycling/SW2/SW2_Avg.xlsx
@@ -796,7 +796,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.463540392811896E-08</v>
+        <v>8.50222187501303E-08</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.582875934423252E-10</v>
+        <v>3.310182963169564E-10</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -851,7 +851,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.3009944665697986</v>
+        <v>0.3373366371375102</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.149748511036065E-08</v>
+        <v>4.14229348633382E-08</v>
       </c>
       <c r="C7">
-        <v>0.06776271271811142</v>
+        <v>0.07594440486613425</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -900,22 +900,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.325622399017379E-07</v>
+        <v>1.743350940415772E-07</v>
       </c>
       <c r="C8">
-        <v>0.3440718027126453</v>
+        <v>0.3856151449681526</v>
       </c>
       <c r="D8">
-        <v>5.170832314249514E-09</v>
+        <v>6.80177750001042E-09</v>
       </c>
       <c r="E8">
-        <v>2.0663007475386E-11</v>
+        <v>2.64814637053565E-11</v>
       </c>
       <c r="F8">
-        <v>0.01203977866279196</v>
+        <v>0.01349346548550042</v>
       </c>
       <c r="G8">
-        <v>0.006776274421559652</v>
+        <v>0.00759444462890691</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1014,7 +1014,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13569.28915263963</v>
+        <v>14556.81852168409</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1040,7 +1040,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1093.535736305937</v>
+        <v>1185.381974454183</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>74084.45552582381</v>
+        <v>80453.1808821436</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1092,10 +1092,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7712.97818622707</v>
+        <v>8287.288462108021</v>
       </c>
       <c r="C7">
-        <v>16678.59125081277</v>
+        <v>18112.37876065981</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1118,22 +1118,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>32461.31115220954</v>
+        <v>34878.38846179834</v>
       </c>
       <c r="C8">
-        <v>84687.17865896033</v>
+        <v>91967.37500045201</v>
       </c>
       <c r="D8">
-        <v>1085.54313221117</v>
+        <v>1164.545481734727</v>
       </c>
       <c r="E8">
-        <v>87.48285890447492</v>
+        <v>94.83055795633457</v>
       </c>
       <c r="F8">
-        <v>2963.378221032955</v>
+        <v>3218.127235285747</v>
       </c>
       <c r="G8">
-        <v>2439.156943703984</v>
+        <v>2639.966722276783</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13067.11140639742</v>
+        <v>14005.90272431963</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1258,7 +1258,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1065.705140728758</v>
+        <v>1153.02062921835</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1287,7 +1287,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>76142.73914013911</v>
+        <v>82693.17355553211</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1310,10 +1310,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7440.917036204568</v>
+        <v>7986.885392297946</v>
       </c>
       <c r="C7">
-        <v>17141.97146786039</v>
+        <v>18616.66703461817</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1336,22 +1336,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>31316.29797700329</v>
+        <v>33614.09375166979</v>
       </c>
       <c r="C8">
-        <v>87040.03704118294</v>
+        <v>94527.94804346899</v>
       </c>
       <c r="D8">
-        <v>1045.368912511793</v>
+        <v>1120.47221794557</v>
       </c>
       <c r="E8">
-        <v>85.25641125830063</v>
+        <v>92.24165033746792</v>
       </c>
       <c r="F8">
-        <v>3045.709565605567</v>
+        <v>3307.726942221287</v>
       </c>
       <c r="G8">
-        <v>2458.288850406495</v>
+        <v>2660.355242691611</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1450,7 +1450,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9.082342175225957E-07</v>
+        <v>1.192742872069533E-06</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1476,7 +1476,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4.335618972028115E-09</v>
+        <v>5.51317070922893E-09</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1505,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.6669419039776491</v>
+        <v>0.7241256110080803</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1528,10 +1528,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4.433395559629017E-07</v>
+        <v>5.820265253235274E-07</v>
       </c>
       <c r="C7">
-        <v>0.150148250743432</v>
+        <v>0.1630219861174383</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1554,22 +1554,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.865865937218985E-06</v>
+        <v>2.449552388350313E-06</v>
       </c>
       <c r="C8">
-        <v>0.7623924314003288</v>
+        <v>0.8277600821348305</v>
       </c>
       <c r="D8">
-        <v>7.265873740180762E-08</v>
+        <v>9.541942976556256E-08</v>
       </c>
       <c r="E8">
-        <v>3.46849517762249E-10</v>
+        <v>4.410536567383142E-10</v>
       </c>
       <c r="F8">
-        <v>0.02667767615910599</v>
+        <v>0.02896502444032324</v>
       </c>
       <c r="G8">
-        <v>0.01501486940829879</v>
+        <v>0.01630225681439635</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1668,7 +1668,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9.663366078754574E-06</v>
+        <v>1.266615239392063E-05</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1694,7 +1694,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.422510330209007E-08</v>
+        <v>6.845227112215278E-08</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1723,7 +1723,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1.388138754934264</v>
+        <v>1.461783209354305</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1746,10 +1746,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4.725584894605065E-06</v>
+        <v>6.191232032973898E-06</v>
       </c>
       <c r="C7">
-        <v>0.3125108867796231</v>
+        <v>0.3290904208322534</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1772,22 +1772,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.988838525614887E-05</v>
+        <v>2.605679733371617E-05</v>
       </c>
       <c r="C8">
-        <v>1.586804598996714</v>
+        <v>1.670988805041634</v>
       </c>
       <c r="D8">
-        <v>7.730692863003655E-07</v>
+        <v>1.01329219151365E-06</v>
       </c>
       <c r="E8">
-        <v>4.338008264167203E-09</v>
+        <v>5.476181689772219E-09</v>
       </c>
       <c r="F8">
-        <v>0.05552555019737061</v>
+        <v>0.05847132837417224</v>
       </c>
       <c r="G8">
-        <v>0.03125156123645177</v>
+        <v>0.03290966120642863</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1886,7 +1886,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8.208486525127992E-05</v>
+        <v>0.0001073586231944383</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.317322264243717E-07</v>
+        <v>6.667376634105154E-07</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1941,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>2.759842467501803</v>
+        <v>2.820366562227913</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1964,10 +1964,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4.021649787766105E-05</v>
+        <v>5.256866825106379E-05</v>
       </c>
       <c r="C7">
-        <v>0.6213217618377747</v>
+        <v>0.6349475167899777</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1990,22 +1990,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.0001692576096468291</v>
+        <v>0.0002212437084292854</v>
       </c>
       <c r="C8">
-        <v>3.154822026524061</v>
+        <v>3.224008130233162</v>
       </c>
       <c r="D8">
-        <v>6.566789220102391E-06</v>
+        <v>8.588689855555062E-06</v>
       </c>
       <c r="E8">
-        <v>4.253857811394971E-08</v>
+        <v>5.333901307284121E-08</v>
       </c>
       <c r="F8">
-        <v>0.1103936987000722</v>
+        <v>0.1128146624891166</v>
       </c>
       <c r="G8">
-        <v>0.06213619783356522</v>
+        <v>0.06350000854582286</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -2104,7 +2104,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.0005788908616494593</v>
+        <v>0.0007553147272597484</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -2130,7 +2130,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4.253701345120986E-06</v>
+        <v>5.300687804070827E-06</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -2159,7 +2159,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>5.301899192592779</v>
+        <v>5.265376854520231</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -2182,10 +2182,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.0002841540650538015</v>
+        <v>0.0003704893234927652</v>
       </c>
       <c r="C7">
-        <v>1.193613543605589</v>
+        <v>1.185391290449882</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -2208,22 +2208,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.001195908156118968</v>
+        <v>0.001559263998690661</v>
       </c>
       <c r="C8">
-        <v>6.060689532885777</v>
+        <v>6.018940238145875</v>
       </c>
       <c r="D8">
-        <v>4.631126893195673E-05</v>
+        <v>6.042517818077984E-05</v>
       </c>
       <c r="E8">
-        <v>3.402961076096787E-07</v>
+        <v>4.24055024325666E-07</v>
       </c>
       <c r="F8">
-        <v>0.2120759677037113</v>
+        <v>0.2106150741808094</v>
       </c>
       <c r="G8">
-        <v>0.1193897697670643</v>
+        <v>0.1185761779773375</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -2322,7 +2322,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.003491783233092725</v>
+        <v>0.004544073155168224</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -2348,7 +2348,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.864324601358767E-05</v>
+        <v>3.549005930118218E-05</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -2377,7 +2377,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>9.896965221330502</v>
+        <v>9.576968696015751</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -2400,10 +2400,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.001717136289820772</v>
+        <v>0.002232725184736364</v>
       </c>
       <c r="C7">
-        <v>2.228098139866105</v>
+        <v>2.156057504492268</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -2426,22 +2426,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.007226844682921255</v>
+        <v>0.009396783601504652</v>
       </c>
       <c r="C8">
-        <v>11.31338626883987</v>
+        <v>10.94759289535505</v>
       </c>
       <c r="D8">
-        <v>0.0002793426586474179</v>
+        <v>0.0003635258524134577</v>
       </c>
       <c r="E8">
-        <v>2.291459681087012E-06</v>
+        <v>2.839204744094573E-06</v>
       </c>
       <c r="F8">
-        <v>0.3958786088532205</v>
+        <v>0.3830787478406304</v>
       </c>
       <c r="G8">
-        <v>0.2229815276155926</v>
+        <v>0.2158290229677004</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -2540,7 +2540,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.01843590405820206</v>
+        <v>0.02392478824197918</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -2566,7 +2566,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.0001664614677526422</v>
+        <v>0.0002051720106620927</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -2595,7 +2595,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>17.93420680744768</v>
+        <v>16.97489113129083</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -2618,10 +2618,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.009082257818644838</v>
+        <v>0.01177481122044527</v>
       </c>
       <c r="C7">
-        <v>4.037517757617853</v>
+        <v>3.821547566171417</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -2644,22 +2644,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.03822414505749237</v>
+        <v>0.04955618978255842</v>
       </c>
       <c r="C8">
-        <v>20.50089138442346</v>
+        <v>19.40428161007319</v>
       </c>
       <c r="D8">
-        <v>0.001474872324656164</v>
+        <v>0.001913983059358333</v>
       </c>
       <c r="E8">
-        <v>1.331691742021137E-05</v>
+        <v>1.64137608529674E-05</v>
       </c>
       <c r="F8">
-        <v>0.7173682722979078</v>
+        <v>0.6789956452516337</v>
       </c>
       <c r="G8">
-        <v>0.4046600015436497</v>
+        <v>0.3833322377391861</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.08677877080375015</v>
+        <v>0.1122821727573969</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -2784,7 +2784,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.0008519256109283258</v>
+        <v>0.001044982807459199</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -2813,7 +2813,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>31.42753005838587</v>
+        <v>29.22153169124118</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -2836,10 +2836,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.04282307601810845</v>
+        <v>0.05534765347467615</v>
       </c>
       <c r="C7">
-        <v>7.075261931077293</v>
+        <v>6.5786267759098</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -2862,22 +2862,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1802278136350502</v>
+        <v>0.2329395153994333</v>
       </c>
       <c r="C8">
-        <v>35.92533459244552</v>
+        <v>33.40362100875539</v>
       </c>
       <c r="D8">
-        <v>0.006942301664300009</v>
+        <v>0.008982573820591748</v>
       </c>
       <c r="E8">
-        <v>6.815404887426603E-05</v>
+        <v>8.359862459673584E-05</v>
       </c>
       <c r="F8">
-        <v>1.257101202335436</v>
+        <v>1.168861267649648</v>
       </c>
       <c r="G8">
-        <v>0.7118085007095399</v>
+        <v>0.6633974429384475</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -2976,7 +2976,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.3695612701233093</v>
+        <v>0.4766872903027811</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -3002,7 +3002,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.00390321494502595</v>
+        <v>0.004766472464845186</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -3031,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>53.10389217083066</v>
+        <v>48.6984425275146</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -3054,10 +3054,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.182660275847129</v>
+        <v>0.2353246732618584</v>
       </c>
       <c r="C7">
-        <v>11.9552489798051</v>
+        <v>10.96345261232966</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -3080,22 +3080,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7687551949790407</v>
+        <v>0.9904017950142737</v>
       </c>
       <c r="C8">
-        <v>60.70394621702651</v>
+        <v>55.66800313870407</v>
       </c>
       <c r="D8">
-        <v>0.02956490160986473</v>
+        <v>0.03813498322422246</v>
       </c>
       <c r="E8">
-        <v>0.0003122571956020758</v>
+        <v>0.0003813177971876147</v>
       </c>
       <c r="F8">
-        <v>2.124155686833229</v>
+        <v>1.947937701100586</v>
       </c>
       <c r="G8">
-        <v>1.213790925565222</v>
+        <v>1.119877728559152</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -3194,7 +3194,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.440771298866767</v>
+        <v>1.852391990666083</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -3220,7 +3220,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.01622598869411386</v>
+        <v>0.01973311071304895</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>86.46173122341241</v>
+        <v>78.45779516277705</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -3272,10 +3272,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7131875607323709</v>
+        <v>0.9157464233375396</v>
       </c>
       <c r="C7">
-        <v>19.46508027463696</v>
+        <v>17.66315871085567</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -3298,22 +3298,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.001564734120364</v>
+        <v>3.854066336861246</v>
       </c>
       <c r="C8">
-        <v>98.83584926567785</v>
+        <v>89.68641625262627</v>
       </c>
       <c r="D8">
-        <v>0.1152617039093413</v>
+        <v>0.1481913592532866</v>
       </c>
       <c r="E8">
-        <v>0.001298079095529108</v>
+        <v>0.001578648857043916</v>
       </c>
       <c r="F8">
-        <v>3.458469248936499</v>
+        <v>3.138311806511084</v>
       </c>
       <c r="G8">
-        <v>2.017826783536933</v>
+        <v>1.85789051341932</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -3630,7 +3630,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5.187899834503516</v>
+        <v>6.64744800526747</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -3656,7 +3656,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.0618668984203827</v>
+        <v>0.07494917711637369</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -3685,7 +3685,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>135.7910094639132</v>
+        <v>122.2408847004385</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.571674530594409</v>
+        <v>3.290603925538817</v>
       </c>
       <c r="C7">
-        <v>30.57055257150954</v>
+        <v>27.52002070590468</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -3734,22 +3734,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.82330652365984</v>
+        <v>13.84903669199266</v>
       </c>
       <c r="C8">
-        <v>155.2249712457223</v>
+        <v>139.7355972798761</v>
       </c>
       <c r="D8">
-        <v>0.4150319867602811</v>
+        <v>0.5317958404213973</v>
       </c>
       <c r="E8">
-        <v>0.004949351873630614</v>
+        <v>0.005995934169309892</v>
       </c>
       <c r="F8">
-        <v>5.431640378556533</v>
+        <v>4.889635388017543</v>
       </c>
       <c r="G8">
-        <v>3.314222710210394</v>
+        <v>3.081062463144349</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -3848,7 +3848,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.33641288449991</v>
+        <v>22.13309771098197</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -3874,7 +3874,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2180626771820483</v>
+        <v>0.2631956624022622</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -3903,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>206.1404596747721</v>
+        <v>184.4503416735504</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -3926,10 +3926,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8.605757570250402</v>
+        <v>10.97072495018873</v>
       </c>
       <c r="C7">
-        <v>46.40828420439344</v>
+        <v>41.52520030026495</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -3952,22 +3952,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>36.2187170044405</v>
+        <v>46.17206318686461</v>
       </c>
       <c r="C8">
-        <v>235.6426029375683</v>
+        <v>210.8482667267405</v>
       </c>
       <c r="D8">
-        <v>1.386913030759992</v>
+        <v>1.770647816878557</v>
       </c>
       <c r="E8">
-        <v>0.01744501417456385</v>
+        <v>0.02105565299218097</v>
       </c>
       <c r="F8">
-        <v>8.245618386990891</v>
+        <v>7.378013666942022</v>
       </c>
       <c r="G8">
-        <v>5.501404177464383</v>
+        <v>5.249592525045366</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -4066,7 +4066,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>53.5896313192922</v>
+        <v>68.12874692959998</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4092,7 +4092,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7127794649760122</v>
+        <v>0.8570250689965797</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4121,7 +4121,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>303.2156583451058</v>
+        <v>270.0626707699089</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -4144,10 +4144,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>26.64276911015704</v>
+        <v>33.81904721075592</v>
       </c>
       <c r="C7">
-        <v>68.26276835659961</v>
+        <v>60.79905515812383</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -4170,22 +4170,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>112.1303855864195</v>
+        <v>142.3329079732071</v>
       </c>
       <c r="C8">
-        <v>346.6108841350051</v>
+        <v>308.7131502321039</v>
       </c>
       <c r="D8">
-        <v>4.287170505543374</v>
+        <v>5.450299754367996</v>
       </c>
       <c r="E8">
-        <v>0.05702235719808094</v>
+        <v>0.06856200551972634</v>
       </c>
       <c r="F8">
-        <v>12.12862633380424</v>
+        <v>10.80250683079637</v>
       </c>
       <c r="G8">
-        <v>9.490553746675662</v>
+        <v>9.461810236887972</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -4284,7 +4284,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>149.9755785771297</v>
+        <v>189.5482482618005</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4310,7 +4310,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.146150981609819</v>
+        <v>2.568675611697823</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4339,7 +4339,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>433.1868185875634</v>
+        <v>384.4647975134593</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -4362,10 +4362,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>74.72255969638447</v>
+        <v>94.28668309422035</v>
       </c>
       <c r="C7">
-        <v>97.52310158969227</v>
+        <v>86.55434075260665</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -4388,22 +4388,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>314.4819292663403</v>
+        <v>396.8206940992837</v>
       </c>
       <c r="C8">
-        <v>495.183088517727</v>
+        <v>439.4881323485475</v>
       </c>
       <c r="D8">
-        <v>11.99804628617037</v>
+        <v>15.16385986094403</v>
       </c>
       <c r="E8">
-        <v>0.1716920785287854</v>
+        <v>0.2054940489358258</v>
       </c>
       <c r="F8">
-        <v>17.32747274350255</v>
+        <v>15.37859190053839</v>
       </c>
       <c r="G8">
-        <v>17.22456612860767</v>
+        <v>18.08410238468269</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -4502,7 +4502,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>357.8460725029113</v>
+        <v>447.4232250589402</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4528,7 +4528,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.78373994880288</v>
+        <v>6.874494763819166</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4557,7 +4557,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>602.3745393261937</v>
+        <v>533.1876577307858</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -4580,10 +4580,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>178.9922002398908</v>
+        <v>223.420010828193</v>
       </c>
       <c r="C7">
-        <v>135.6122367372492</v>
+        <v>120.0362335141985</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -4606,22 +4606,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>753.3175079090823</v>
+        <v>940.2991054836211</v>
       </c>
       <c r="C8">
-        <v>688.5843982985665</v>
+        <v>609.4957182112265</v>
       </c>
       <c r="D8">
-        <v>28.62768580023289</v>
+        <v>35.7938580047152</v>
       </c>
       <c r="E8">
-        <v>0.4626991959042302</v>
+        <v>0.549959581105533</v>
       </c>
       <c r="F8">
-        <v>24.09498157304777</v>
+        <v>21.32750630923145</v>
       </c>
       <c r="G8">
-        <v>31.460443697714</v>
+        <v>34.34562443423914</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -4720,7 +4720,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>648.5763694562085</v>
+        <v>790.6607225303746</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4746,7 +4746,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.97214800810499</v>
+        <v>15.21961259002855</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4775,7 +4775,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>816.7844685444021</v>
+        <v>721.51319159339</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -4798,10 +4798,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>327.0496032132648</v>
+        <v>398.0673611248537</v>
       </c>
       <c r="C7">
-        <v>183.8822219070759</v>
+        <v>162.4338536234616</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -4824,22 +4824,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1376.440938348572</v>
+        <v>1675.330612510618</v>
       </c>
       <c r="C8">
-        <v>933.679970008993</v>
+        <v>824.7737818626109</v>
       </c>
       <c r="D8">
-        <v>51.88610955649665</v>
+        <v>63.25285780242994</v>
       </c>
       <c r="E8">
-        <v>1.037771840648399</v>
+        <v>1.217569007202284</v>
       </c>
       <c r="F8">
-        <v>32.67137874177611</v>
+        <v>28.86052766373563</v>
       </c>
       <c r="G8">
-        <v>51.09318251203406</v>
+        <v>56.05012147483153</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -4938,7 +4938,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>822.1299766420689</v>
+        <v>942.2945118085694</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4964,7 +4964,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.05825930025639</v>
+        <v>24.05204604205543</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4993,7 +4993,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1081.499080967141</v>
+        <v>953.9717267043254</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -5016,10 +5016,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>419.4520246539681</v>
+        <v>480.6710661454389</v>
       </c>
       <c r="C7">
-        <v>243.4772717374308</v>
+        <v>214.7671111517775</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -5042,22 +5042,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1765.331413750205</v>
+        <v>2022.98161141876</v>
       </c>
       <c r="C8">
-        <v>1236.279665407546</v>
+        <v>1090.501016462829</v>
       </c>
       <c r="D8">
-        <v>65.77039813136548</v>
+        <v>75.38356094468551</v>
       </c>
       <c r="E8">
-        <v>1.684660744020511</v>
+        <v>1.924163683364434</v>
       </c>
       <c r="F8">
-        <v>43.25996323868567</v>
+        <v>38.15886906817305</v>
       </c>
       <c r="G8">
-        <v>66.29292963913987</v>
+        <v>69.54381772972164</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -5156,7 +5156,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>863.9560550917312</v>
+        <v>894.5132437451875</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -5182,7 +5182,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>20.75276484418793</v>
+        <v>22.4539559434802</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -5211,7 +5211,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1400.003663177515</v>
+        <v>1233.815771281335</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -5234,10 +5234,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>439.3338229247556</v>
+        <v>455.8967386821067</v>
       </c>
       <c r="C7">
-        <v>315.1820268104573</v>
+        <v>277.7682414205589</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -5260,22 +5260,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1849.00716445905</v>
+        <v>1918.71486348344</v>
       </c>
       <c r="C8">
-        <v>1600.367573807512</v>
+        <v>1410.395418487264</v>
       </c>
       <c r="D8">
-        <v>69.11648440733846</v>
+        <v>71.56105949961497</v>
       </c>
       <c r="E8">
-        <v>1.660221187535033</v>
+        <v>1.796316475478415</v>
       </c>
       <c r="F8">
-        <v>56.00014652710065</v>
+        <v>49.35263085125344</v>
       </c>
       <c r="G8">
-        <v>75.45158497352128</v>
+        <v>73.36649801026654</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -5374,7 +5374,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>932.1591800944993</v>
+        <v>892.2963104863421</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -5400,7 +5400,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.64971158483578</v>
+        <v>12.58006063712634</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -5429,7 +5429,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1773.465565415226</v>
+        <v>1562.483699368698</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -5452,10 +5452,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>463.7009808822681</v>
+        <v>444.3703257506545</v>
       </c>
       <c r="C7">
-        <v>399.259292020331</v>
+        <v>351.7610647586461</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -5478,22 +5478,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1951.560273939679</v>
+        <v>1870.204097913682</v>
       </c>
       <c r="C8">
-        <v>2027.278112767952</v>
+        <v>1786.101217333321</v>
       </c>
       <c r="D8">
-        <v>74.57273440755991</v>
+        <v>71.38370483890733</v>
       </c>
       <c r="E8">
-        <v>1.011976926786862</v>
+        <v>1.006404850970107</v>
       </c>
       <c r="F8">
-        <v>70.93862261660911</v>
+        <v>62.49934797474798</v>
       </c>
       <c r="G8">
-        <v>86.2960272902599</v>
+        <v>79.61313905093004</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -5592,7 +5592,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1021.796674497714</v>
+        <v>945.5416356322648</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -5618,7 +5618,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.20018825446712</v>
+        <v>10.14783492270254</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -5647,7 +5647,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>2200.066110108916</v>
+        <v>1939.142075956918</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -5670,10 +5670,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>505.4680428506862</v>
+        <v>467.5165244472458</v>
       </c>
       <c r="C7">
-        <v>495.2996295219006</v>
+        <v>436.5579504173367</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -5696,22 +5696,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2127.343682337163</v>
+        <v>1967.618603664858</v>
       </c>
       <c r="C8">
-        <v>2514.932321576859</v>
+        <v>2216.66569951949</v>
       </c>
       <c r="D8">
-        <v>81.74373395981704</v>
+        <v>75.64333085058115</v>
       </c>
       <c r="E8">
-        <v>0.8960150603573693</v>
+        <v>0.8118267938162025</v>
       </c>
       <c r="F8">
-        <v>88.00264440435672</v>
+        <v>77.5656830382768</v>
       </c>
       <c r="G8">
-        <v>100.0767672372587</v>
+        <v>90.40744748645822</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -5865,7 +5865,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>2.368639212082214E-06</v>
+        <v>3.126553069768913E-06</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -5891,7 +5891,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>5.332503958970977E-07</v>
+        <v>7.038791107329225E-07</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -5917,7 +5917,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>2.707631050380119E-06</v>
+        <v>3.574015041710688E-06</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -5926,10 +5926,10 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>9.474556848328864E-08</v>
+        <v>1.250621227907566E-07</v>
       </c>
       <c r="G8">
-        <v>5.332503958970976E-08</v>
+        <v>7.038791107329224E-08</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -6028,7 +6028,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1121.82436658813</v>
+        <v>1005.101621919056</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -6054,7 +6054,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.08119073930133</v>
+        <v>16.80599176401608</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -6083,7 +6083,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>2674.721966484308</v>
+        <v>2360.637460394195</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -6106,10 +6106,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>562.1344738964826</v>
+        <v>503.3389999670247</v>
       </c>
       <c r="C7">
-        <v>602.1586319550108</v>
+        <v>531.4489660998786</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -6132,22 +6132,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2365.833485581716</v>
+        <v>2118.383262401535</v>
       </c>
       <c r="C8">
-        <v>3057.519359911412</v>
+        <v>2698.484114359893</v>
       </c>
       <c r="D8">
-        <v>89.74594932705035</v>
+        <v>80.40812975352445</v>
       </c>
       <c r="E8">
-        <v>1.526495259144106</v>
+        <v>1.344479341121286</v>
       </c>
       <c r="F8">
-        <v>106.9888786593724</v>
+        <v>94.42549841576788</v>
       </c>
       <c r="G8">
-        <v>116.4293105851493</v>
+        <v>103.4787966066903</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -6246,7 +6246,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1218.376852855495</v>
+        <v>1050.052508815402</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -6272,7 +6272,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>28.51021243364321</v>
+        <v>24.48811782696113</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -6301,7 +6301,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3189.382091861666</v>
+        <v>2822.004258237277</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -6324,10 +6324,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>618.7613034477571</v>
+        <v>533.1884114516264</v>
       </c>
       <c r="C7">
-        <v>718.0237726695692</v>
+        <v>635.3162103592211</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -6350,22 +6350,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2604.156619557313</v>
+        <v>2244.009318967107</v>
       </c>
       <c r="C8">
-        <v>3645.83594639537</v>
+        <v>3225.880207898439</v>
       </c>
       <c r="D8">
-        <v>97.47014822843953</v>
+        <v>84.00420070523215</v>
       </c>
       <c r="E8">
-        <v>2.280816994691456</v>
+        <v>1.959049426156889</v>
       </c>
       <c r="F8">
-        <v>127.5752836744668</v>
+        <v>112.8801703294912</v>
       </c>
       <c r="G8">
-        <v>133.6785076117326</v>
+        <v>116.8504621810847</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -6464,7 +6464,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1296.485143487113</v>
+        <v>1096.303551570935</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -6490,7 +6490,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>40.36101441511575</v>
+        <v>34.444732320984</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -6519,7 +6519,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3734.048298226219</v>
+        <v>3317.616809587495</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -6542,10 +6542,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>669.0425568024012</v>
+        <v>566.0743544566201</v>
       </c>
       <c r="C7">
-        <v>840.6441652959102</v>
+        <v>746.8931815885148</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -6568,22 +6568,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2815.77337392371</v>
+        <v>2382.415107580018</v>
       </c>
       <c r="C8">
-        <v>4268.452985293829</v>
+        <v>3792.423194330845</v>
       </c>
       <c r="D8">
-        <v>103.718811478969</v>
+        <v>87.70428412567476</v>
       </c>
       <c r="E8">
-        <v>3.228881153209259</v>
+        <v>2.755578585678718</v>
       </c>
       <c r="F8">
-        <v>149.3619319290489</v>
+        <v>132.7046723834999</v>
       </c>
       <c r="G8">
-        <v>150.9686722098311</v>
+        <v>131.2967536045135</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -6682,7 +6682,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1379.80763436515</v>
+        <v>1182.337939332197</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -6708,7 +6708,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>54.38849364826633</v>
+        <v>47.25764033042137</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -6737,7 +6737,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4298.776909023177</v>
+        <v>3843.186891982189</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -6760,10 +6760,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>724.1475608324652</v>
+        <v>621.2033095213782</v>
       </c>
       <c r="C7">
-        <v>967.7811955982876</v>
+        <v>865.2144747086564</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -6786,22 +6786,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3047.691660047979</v>
+        <v>2614.434195491983</v>
       </c>
       <c r="C8">
-        <v>4914.003693832382</v>
+        <v>4393.211134927227</v>
       </c>
       <c r="D8">
-        <v>110.384610749212</v>
+        <v>94.5870351465757</v>
       </c>
       <c r="E8">
-        <v>4.351079491861305</v>
+        <v>3.780611226433707</v>
       </c>
       <c r="F8">
-        <v>171.9510763609272</v>
+        <v>153.7274756792877</v>
       </c>
       <c r="G8">
-        <v>169.1928756430752</v>
+        <v>148.6417784230034</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -6900,7 +6900,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1359.371075615915</v>
+        <v>1189.040732529265</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -6926,7 +6926,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>62.58057244160209</v>
+        <v>55.71158730434696</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -6955,7 +6955,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4876.899558033156</v>
+        <v>4398.799556046216</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -6978,10 +6978,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>722.9496809575929</v>
+        <v>633.3931635356415</v>
       </c>
       <c r="C7">
-        <v>1097.933618090122</v>
+        <v>990.2992371183484</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -7004,22 +7004,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3042.650189632488</v>
+        <v>2665.737159730052</v>
       </c>
       <c r="C8">
-        <v>5574.865351193602</v>
+        <v>5028.341252477591</v>
       </c>
       <c r="D8">
-        <v>108.7496860492731</v>
+        <v>95.12325860234117</v>
       </c>
       <c r="E8">
-        <v>5.006445795328165</v>
+        <v>4.456926984347755</v>
       </c>
       <c r="F8">
-        <v>195.0759823213264</v>
+        <v>175.9519822418488</v>
       </c>
       <c r="G8">
-        <v>182.0883299047715</v>
+        <v>162.369240065399</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -7118,7 +7118,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1321.573270656369</v>
+        <v>1172.655164108276</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -7144,7 +7144,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>73.00111218310086</v>
+        <v>66.67168348218338</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -7173,7 +7173,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>5469.543747416792</v>
+        <v>4993.049562985736</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -7196,10 +7196,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>715.7246689557913</v>
+        <v>637.0832820323894</v>
       </c>
       <c r="C7">
-        <v>1231.355266690259</v>
+        <v>1124.082402509665</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -7222,22 +7222,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3012.242562772122</v>
+        <v>2681.267617851321</v>
       </c>
       <c r="C8">
-        <v>6252.326823931727</v>
+        <v>5707.638362088305</v>
       </c>
       <c r="D8">
-        <v>105.7258616525095</v>
+        <v>93.81241312866203</v>
       </c>
       <c r="E8">
-        <v>5.840088974648066</v>
+        <v>5.333734678574668</v>
       </c>
       <c r="F8">
-        <v>218.7817498966719</v>
+        <v>199.7219825194296</v>
       </c>
       <c r="G8">
-        <v>194.707993564605</v>
+        <v>176.1165684542054</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -7336,7 +7336,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1321.3316688078</v>
+        <v>1196.265160120896</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -7362,7 +7362,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>112.4117261248485</v>
+        <v>105.3166868225654</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -7391,7 +7391,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6091.246680738328</v>
+        <v>5648.100716774871</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -7414,10 +7414,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>757.3398235664868</v>
+        <v>689.4099302274393</v>
       </c>
       <c r="C7">
-        <v>1371.318893752171</v>
+        <v>1271.553695439853</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -7440,22 +7440,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3187.386644584429</v>
+        <v>2901.492745888745</v>
       </c>
       <c r="C8">
-        <v>6963.005832278467</v>
+        <v>6456.438278318528</v>
       </c>
       <c r="D8">
-        <v>105.7065335046239</v>
+        <v>95.70121280967165</v>
       </c>
       <c r="E8">
-        <v>8.992938089987875</v>
+        <v>8.425334945805229</v>
       </c>
       <c r="F8">
-        <v>243.6498672295333</v>
+        <v>225.9240286709951</v>
       </c>
       <c r="G8">
-        <v>212.8658717318657</v>
+        <v>196.0963625667292</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -7554,7 +7554,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1296.093962830349</v>
+        <v>1201.892848811194</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -7580,7 +7580,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>175.8190031876005</v>
+        <v>169.9362177770375</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -7609,7 +7609,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6776.015485027978</v>
+        <v>6405.108080636545</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -7632,10 +7632,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>812.2899408056467</v>
+        <v>760.5541157589606</v>
       </c>
       <c r="C7">
-        <v>1525.480504403056</v>
+        <v>1441.978331837473</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -7658,22 +7658,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3418.653064699032</v>
+        <v>3200.91451105504</v>
       </c>
       <c r="C8">
-        <v>7745.776491215767</v>
+        <v>7321.786041415142</v>
       </c>
       <c r="D8">
-        <v>103.6875170264279</v>
+        <v>96.15142790489543</v>
       </c>
       <c r="E8">
-        <v>14.06552025500803</v>
+        <v>13.59489742216299</v>
       </c>
       <c r="F8">
-        <v>271.0406194011193</v>
+        <v>256.204323225462</v>
       </c>
       <c r="G8">
-        <v>233.7770445208703</v>
+        <v>220.2532447596433</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -7772,7 +7772,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1294.674382025414</v>
+        <v>1250.054940969258</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -7798,7 +7798,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>240.0817630291744</v>
+        <v>243.4576128838377</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -7827,7 +7827,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>7582.667105373191</v>
+        <v>7328.975466027376</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -7850,10 +7850,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>879.6519561599172</v>
+        <v>861.6719408673198</v>
       </c>
       <c r="C7">
-        <v>1707.081523969894</v>
+        <v>1649.968069786207</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -7876,22 +7876,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3702.156957418394</v>
+        <v>3626.485166724532</v>
       </c>
       <c r="C8">
-        <v>8667.873433183611</v>
+        <v>8377.874282443081</v>
       </c>
       <c r="D8">
-        <v>103.5739505620331</v>
+        <v>100.0043952775406</v>
       </c>
       <c r="E8">
-        <v>19.20654104233395</v>
+        <v>19.47660903070701</v>
       </c>
       <c r="F8">
-        <v>303.3066842149279</v>
+        <v>293.1590186410953</v>
       </c>
       <c r="G8">
-        <v>258.673348012981</v>
+        <v>251.1640010653527</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -7990,7 +7990,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1267.991827983527</v>
+        <v>1298.028710123528</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -8016,7 +8016,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>299.693502754274</v>
+        <v>314.3632506090865</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -8045,7 +8045,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>8597.783688898729</v>
+        <v>8510.938292577033</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -8068,10 +8068,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>929.8850067013739</v>
+        <v>959.9289677694783</v>
       </c>
       <c r="C7">
-        <v>1935.614141890564</v>
+        <v>1916.062687311006</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -8094,22 +8094,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3913.570842480675</v>
+        <v>4040.015692307701</v>
       </c>
       <c r="C8">
-        <v>9828.270156876006</v>
+        <v>9728.995733627526</v>
       </c>
       <c r="D8">
-        <v>101.4393462386821</v>
+        <v>103.8422968098822</v>
       </c>
       <c r="E8">
-        <v>23.97548022034191</v>
+        <v>25.14906004872691</v>
       </c>
       <c r="F8">
-        <v>343.9113475559495</v>
+        <v>340.4375317030816</v>
       </c>
       <c r="G8">
-        <v>286.5499148591937</v>
+        <v>287.5991655080484</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -8263,7 +8263,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>9.964479976023655E-05</v>
+        <v>0.0001313894481943181</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>2.243297698112618E-05</v>
+        <v>2.957963159139387E-05</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.0001139056351273312</v>
+        <v>0.0001501934730323538</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -8324,10 +8324,10 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>3.985791990409466E-06</v>
+        <v>5.255577927772729E-06</v>
       </c>
       <c r="G8">
-        <v>2.243297698112618E-06</v>
+        <v>2.957963159139386E-06</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -8426,7 +8426,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1210.047203577468</v>
+        <v>1272.914816968825</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -8452,7 +8452,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>287.8258059278723</v>
+        <v>302.7159994672618</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -8481,7 +8481,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>9934.369035542877</v>
+        <v>10067.16339121962</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -8504,10 +8504,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>889.326500353562</v>
+        <v>935.4637169750156</v>
       </c>
       <c r="C7">
-        <v>2236.518839242806</v>
+        <v>2266.414756855043</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -8530,22 +8530,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3742.873835094322</v>
+        <v>3937.04974332135</v>
       </c>
       <c r="C8">
-        <v>11356.14319367987</v>
+        <v>11507.94263992373</v>
       </c>
       <c r="D8">
-        <v>96.80377628619736</v>
+        <v>101.833185357506</v>
       </c>
       <c r="E8">
-        <v>23.02606447422977</v>
+        <v>24.21727995738093</v>
       </c>
       <c r="F8">
-        <v>397.3747614217154</v>
+        <v>402.6865356487853</v>
       </c>
       <c r="G8">
-        <v>312.5845339596368</v>
+        <v>320.1878473830058</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -8644,7 +8644,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1128.155164124383</v>
+        <v>1177.545897701285</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -8670,7 +8670,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>259.4220878001569</v>
+        <v>269.0375553303958</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -8699,7 +8699,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>11725.0070383238</v>
+        <v>12132.19684330099</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -8722,10 +8722,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>819.6895291193619</v>
+        <v>853.7309495274342</v>
       </c>
       <c r="C7">
-        <v>2639.644152300476</v>
+        <v>2731.314561032108</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -8748,22 +8748,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3449.795424089947</v>
+        <v>3593.064225485346</v>
       </c>
       <c r="C8">
-        <v>13403.05140645836</v>
+        <v>13868.51687444969</v>
       </c>
       <c r="D8">
-        <v>90.25241312995061</v>
+        <v>94.20367181610277</v>
       </c>
       <c r="E8">
-        <v>20.75376702401254</v>
+        <v>21.52300442643165</v>
       </c>
       <c r="F8">
-        <v>469.0002815329523</v>
+        <v>485.2878737320399</v>
       </c>
       <c r="G8">
-        <v>345.9333681419836</v>
+        <v>358.5045510559541</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -8862,7 +8862,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1036.586950540862</v>
+        <v>1076.067335527412</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -8888,7 +8888,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>253.7362234244281</v>
+        <v>261.0371723695192</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -8917,7 +8917,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>14109.44474541377</v>
+        <v>14847.07108951418</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -8940,10 +8940,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>769.4341216228701</v>
+        <v>796.2372222101017</v>
       </c>
       <c r="C7">
-        <v>3176.451254374898</v>
+        <v>3342.512652839165</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -8966,22 +8966,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3238.287446181</v>
+        <v>3351.092612615899</v>
       </c>
       <c r="C8">
-        <v>16128.74198038858</v>
+        <v>16971.93497604491</v>
       </c>
       <c r="D8">
-        <v>82.92695604326889</v>
+        <v>86.08538684219292</v>
       </c>
       <c r="E8">
-        <v>20.29889787395424</v>
+        <v>20.88297378956153</v>
       </c>
       <c r="F8">
-        <v>564.3777898165514</v>
+        <v>593.8828435805679</v>
       </c>
       <c r="G8">
-        <v>394.5885375997767</v>
+        <v>413.8749875049266</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -9080,7 +9080,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1078.089564196</v>
+        <v>1131.491745888271</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -9106,7 +9106,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>228.4593058029068</v>
+        <v>236.8777407324455</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -9135,7 +9135,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>17217.7409938593</v>
+        <v>18342.94005835677</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -9158,10 +9158,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>762.7174411082682</v>
+        <v>797.4291696580055</v>
       </c>
       <c r="C7">
-        <v>3876.220217328093</v>
+        <v>4129.535641452504</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -9184,22 +9184,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3210.019214269776</v>
+        <v>3356.109115456863</v>
       </c>
       <c r="C8">
-        <v>19681.88734467256</v>
+        <v>20968.12119124211</v>
       </c>
       <c r="D8">
-        <v>86.24716513567998</v>
+        <v>90.51933967106167</v>
       </c>
       <c r="E8">
-        <v>18.27674446423254</v>
+        <v>18.95021925859563</v>
       </c>
       <c r="F8">
-        <v>688.7096397543728</v>
+        <v>733.7176023342714</v>
       </c>
       <c r="G8">
-        <v>463.8937658436361</v>
+        <v>492.6964811110508</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -9298,7 +9298,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1315.849401024094</v>
+        <v>1402.373751804715</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -9324,7 +9324,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>197.4671853712966</v>
+        <v>207.0890470986618</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -9353,7 +9353,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>21151.21609996582</v>
+        <v>22722.12507341654</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -9376,10 +9376,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>844.7566141478187</v>
+        <v>896.7432635596945</v>
       </c>
       <c r="C7">
-        <v>4761.761226226105</v>
+        <v>5115.419068137161</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -9402,22 +9402,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3555.294289397339</v>
+        <v>3774.088477786614</v>
       </c>
       <c r="C8">
-        <v>24178.30844538916</v>
+        <v>25974.04073426604</v>
       </c>
       <c r="D8">
-        <v>105.2679520819275</v>
+        <v>112.1899001443771</v>
       </c>
       <c r="E8">
-        <v>15.79737482970372</v>
+        <v>16.56712376789294</v>
       </c>
       <c r="F8">
-        <v>846.0486439986333</v>
+        <v>908.8850029366623</v>
       </c>
       <c r="G8">
-        <v>560.6517840373922</v>
+        <v>601.2162331696854</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -9516,7 +9516,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1892.158526185334</v>
+        <v>2055.333277007215</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -9542,7 +9542,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>172.3877498569392</v>
+        <v>184.272601718459</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -9571,7 +9571,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>25963.87734115055</v>
+        <v>28038.95270276323</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -9594,10 +9594,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1096.602662431312</v>
+        <v>1188.013763128681</v>
       </c>
       <c r="C7">
-        <v>5845.232908654411</v>
+        <v>6312.393442201244</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -9620,22 +9620,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4615.228952558099</v>
+        <v>4999.947294923171</v>
       </c>
       <c r="C8">
-        <v>29679.74190352124</v>
+        <v>32051.79521257802</v>
       </c>
       <c r="D8">
-        <v>151.3726820948266</v>
+        <v>164.4266621605771</v>
       </c>
       <c r="E8">
-        <v>13.79101998855513</v>
+        <v>14.74180813747672</v>
       </c>
       <c r="F8">
-        <v>1038.555093646023</v>
+        <v>1121.55810811053</v>
       </c>
       <c r="G8">
-        <v>694.1835571085722</v>
+        <v>750.0407205329924</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -9734,7 +9734,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2956.381982886047</v>
+        <v>3263.548893377816</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -9760,7 +9760,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>218.376328843592</v>
+        <v>238.8933012089293</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -9789,7 +9789,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>31646.68382052632</v>
+        <v>34282.67155961579</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -9812,10 +9812,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1659.403577433838</v>
+        <v>1829.514763709465</v>
       </c>
       <c r="C7">
-        <v>7124.599892649329</v>
+        <v>7718.038310066093</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -9838,22 +9838,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6983.867262889161</v>
+        <v>7699.807592919547</v>
       </c>
       <c r="C8">
-        <v>36175.85291881295</v>
+        <v>39189.09453635154</v>
       </c>
       <c r="D8">
-        <v>236.5105586308837</v>
+        <v>261.0839114702251</v>
       </c>
       <c r="E8">
-        <v>17.47010630748735</v>
+        <v>19.11146409671434</v>
       </c>
       <c r="F8">
-        <v>1265.867352821054</v>
+        <v>1371.306862384633</v>
       </c>
       <c r="G8">
-        <v>878.4003470083165</v>
+        <v>954.7553073775556</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -9952,7 +9952,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4437.985458637164</v>
+        <v>4903.932982889326</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -9978,7 +9978,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>338.4844717257962</v>
+        <v>371.0879019443763</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -10007,7 +10007,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>38116.1627053298</v>
+        <v>41364.18465136481</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -10030,10 +10030,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2502.317020893912</v>
+        <v>2761.930074427169</v>
       </c>
       <c r="C7">
-        <v>8581.069986943128</v>
+        <v>9312.29531656311</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -10056,22 +10056,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10531.4042715375</v>
+        <v>11624.02762745038</v>
       </c>
       <c r="C8">
-        <v>43571.22230175656</v>
+        <v>47284.09044500977</v>
       </c>
       <c r="D8">
-        <v>355.0388366909729</v>
+        <v>392.3146386311459</v>
       </c>
       <c r="E8">
-        <v>27.07875773806368</v>
+        <v>29.68703215555009</v>
       </c>
       <c r="F8">
-        <v>1524.646508213193</v>
+        <v>1654.567386054594</v>
       </c>
       <c r="G8">
-        <v>1108.338700783704</v>
+        <v>1207.422539099028</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -10170,7 +10170,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6105.72220853811</v>
+        <v>6710.121661118465</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -10196,7 +10196,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>472.4641729656315</v>
+        <v>517.163978600067</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -10225,7 +10225,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>45208.15972966384</v>
+        <v>49107.87298860808</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -10248,10 +10248,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3449.836059737334</v>
+        <v>3789.141128024869</v>
       </c>
       <c r="C7">
-        <v>10177.68723520808</v>
+        <v>11055.62745869578</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -10274,22 +10274,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14519.19077888978</v>
+        <v>15947.21081619151</v>
       </c>
       <c r="C8">
-        <v>51678.20256888207</v>
+        <v>56136.02993813106</v>
       </c>
       <c r="D8">
-        <v>488.4577766830486</v>
+        <v>536.8097328894769</v>
       </c>
       <c r="E8">
-        <v>37.79713383725051</v>
+        <v>41.37311828800534</v>
       </c>
       <c r="F8">
-        <v>1808.326389186555</v>
+        <v>1964.314919544325</v>
       </c>
       <c r="G8">
-        <v>1362.752329494541</v>
+        <v>1484.476858672064</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -10388,7 +10388,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8495.723995760716</v>
+        <v>9276.958459285555</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -10414,7 +10414,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>666.0283694090886</v>
+        <v>728.2898412436758</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -10443,7 +10443,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>52677.49920589541</v>
+        <v>57249.90562369925</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -10466,10 +10466,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4809.359901870525</v>
+        <v>5252.68622519081</v>
       </c>
       <c r="C7">
-        <v>11859.25537461624</v>
+        <v>12888.63862558122</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -10492,22 +10492,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20240.96586923537</v>
+        <v>22106.7761147463</v>
       </c>
       <c r="C8">
-        <v>60216.529296107</v>
+        <v>65443.32345228399</v>
       </c>
       <c r="D8">
-        <v>679.6579196608569</v>
+        <v>742.1566767428441</v>
       </c>
       <c r="E8">
-        <v>53.28226955272706</v>
+        <v>58.26318729949404</v>
       </c>
       <c r="F8">
-        <v>2107.099968235818</v>
+        <v>2289.996224947972</v>
       </c>
       <c r="G8">
-        <v>1666.861527648676</v>
+        <v>1814.132485077203</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -10661,7 +10661,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.0008812594619481226</v>
+        <v>0.001155939743457786</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -10687,7 +10687,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.0001983974404268997</v>
+        <v>0.0002602360556592266</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -10713,7 +10713,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.001007382411994449</v>
+        <v>0.00132137403019827</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -10722,10 +10722,10 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>3.525037847792493E-05</v>
+        <v>4.623758973831147E-05</v>
       </c>
       <c r="G8">
-        <v>1.983974404268996E-05</v>
+        <v>2.602360556592266E-05</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -10824,7 +10824,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11553.61557042353</v>
+        <v>12551.67652567739</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -10850,7 +10850,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>916.9458143292127</v>
+        <v>1001.655380936546</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -10879,7 +10879,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>60204.96822882265</v>
+        <v>65445.00406342882</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -10902,10 +10902,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6552.258358859085</v>
+        <v>7124.099203600134</v>
       </c>
       <c r="C7">
-        <v>13553.9101857432</v>
+        <v>14733.59646682201</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -10928,22 +10928,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>27576.23478261563</v>
+        <v>29982.91909346052</v>
       </c>
       <c r="C8">
-        <v>68821.30487918761</v>
+        <v>74811.27737415941</v>
       </c>
       <c r="D8">
-        <v>924.2892456338816</v>
+        <v>1004.13412205419</v>
       </c>
       <c r="E8">
-        <v>73.35566514633697</v>
+        <v>80.13243047492367</v>
       </c>
       <c r="F8">
-        <v>2408.198729152909</v>
+        <v>2617.800162537155</v>
       </c>
       <c r="G8">
-        <v>2010.616854460228</v>
+        <v>2185.769567042214</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -11042,7 +11042,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13137.18401463394</v>
+        <v>14217.31696562468</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1042.869911784431</v>
+        <v>1138.096161105932</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -11097,7 +11097,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>67413.57587152219</v>
+        <v>73283.93343216163</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -11120,10 +11120,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7450.587412677436</v>
+        <v>8073.211594324572</v>
       </c>
       <c r="C7">
-        <v>15176.77991606283</v>
+        <v>16498.37016809479</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -11146,22 +11146,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>31356.99731415496</v>
+        <v>33977.41147887129</v>
       </c>
       <c r="C8">
-        <v>77061.58469209446</v>
+        <v>83772.08848133485</v>
       </c>
       <c r="D8">
-        <v>1050.974721170715</v>
+        <v>1137.385357249973</v>
       </c>
       <c r="E8">
-        <v>83.42959294275447</v>
+        <v>91.04769288847453</v>
       </c>
       <c r="F8">
-        <v>2696.54303486089</v>
+        <v>2931.357337286468</v>
       </c>
       <c r="G8">
-        <v>2262.736732874027</v>
+        <v>2457.158176241936</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -11260,7 +11260,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13285.14101225336</v>
+        <v>14325.94965482865</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -11286,7 +11286,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1050.092930752921</v>
+        <v>1144.474108226254</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -11315,7 +11315,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>73895.52211776457</v>
+        <v>80323.15967434912</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -11338,10 +11338,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7529.710730396919</v>
+        <v>8132.443331768038</v>
       </c>
       <c r="C7">
-        <v>16636.05678033206</v>
+        <v>18083.10716024986</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -11364,22 +11364,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>31690.00054246354</v>
+        <v>34226.69778732627</v>
       </c>
       <c r="C8">
-        <v>84471.20572416051</v>
+        <v>91818.74558587656</v>
       </c>
       <c r="D8">
-        <v>1062.811280980268</v>
+        <v>1146.075972386291</v>
       </c>
       <c r="E8">
-        <v>84.00743446023367</v>
+        <v>91.55792865810025</v>
       </c>
       <c r="F8">
-        <v>2955.820884710586</v>
+        <v>3212.926386973968</v>
       </c>
       <c r="G8">
-        <v>2416.576751072897</v>
+        <v>2621.555049201789</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -11478,7 +11478,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13214.67400303183</v>
+        <v>14201.94288415862</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -11504,7 +11504,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1043.721664761723</v>
+        <v>1135.461294167166</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -11533,7 +11533,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>79249.29004183106</v>
+        <v>86125.76948604424</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -11556,10 +11556,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7488.923093297775</v>
+        <v>8062.994645111682</v>
       </c>
       <c r="C7">
-        <v>17841.34750189364</v>
+        <v>19389.44540017232</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -11582,22 +11582,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>31518.33920140037</v>
+        <v>33934.41180229784</v>
       </c>
       <c r="C8">
-        <v>90591.18727043763</v>
+        <v>98451.80579160311</v>
       </c>
       <c r="D8">
-        <v>1057.173920242546</v>
+        <v>1136.155430732689</v>
       </c>
       <c r="E8">
-        <v>83.49773318093783</v>
+        <v>90.8369035333732</v>
       </c>
       <c r="F8">
-        <v>3169.971601673245</v>
+        <v>3445.030779441773</v>
       </c>
       <c r="G8">
-        <v>2533.027059519141</v>
+        <v>2745.2440045284</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -11696,7 +11696,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12948.34024288149</v>
+        <v>13870.89404957181</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -11722,7 +11722,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1024.649173184657</v>
+        <v>1112.16885293766</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -11751,7 +11751,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>83123.185560825</v>
+        <v>90309.39256946702</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -11774,10 +11774,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7340.067090283283</v>
+        <v>7878.407669105826</v>
       </c>
       <c r="C7">
-        <v>18713.4753923002</v>
+        <v>20331.30208064089</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -11800,22 +11800,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>30891.85473404427</v>
+        <v>33157.5477793357</v>
       </c>
       <c r="C8">
-        <v>95019.50194987576</v>
+        <v>103234.175223799</v>
       </c>
       <c r="D8">
-        <v>1035.867219430519</v>
+        <v>1109.671523965744</v>
       </c>
       <c r="E8">
-        <v>81.97193385477256</v>
+        <v>88.97350823501279</v>
       </c>
       <c r="F8">
-        <v>3324.927422433003</v>
+        <v>3612.375702778684</v>
       </c>
       <c r="G8">
-        <v>2605.354248258348</v>
+        <v>2820.97097497467</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -11914,7 +11914,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12514.59086240107</v>
+        <v>13375.31701598538</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -11940,7 +11940,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>994.7918370350253</v>
+        <v>1077.141725232714</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -11969,7 +11969,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>85258.66553915782</v>
+        <v>92593.71302350055</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -11992,10 +11992,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7098.916109825445</v>
+        <v>7601.914780471085</v>
       </c>
       <c r="C7">
-        <v>19194.23478278385</v>
+        <v>20845.56984259286</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -12018,22 +12018,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>29876.93198665718</v>
+        <v>31993.88291828726</v>
       </c>
       <c r="C8">
-        <v>97460.6047853372</v>
+        <v>105845.4200933469</v>
       </c>
       <c r="D8">
-        <v>1001.167268992085</v>
+        <v>1070.025361278829</v>
       </c>
       <c r="E8">
-        <v>79.58334696280198</v>
+        <v>86.17133801861705</v>
       </c>
       <c r="F8">
-        <v>3410.346621566316</v>
+        <v>3703.748520940025</v>
       </c>
       <c r="G8">
-        <v>2629.315089260928</v>
+        <v>2844.748462306394</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -12132,7 +12132,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12166.4753570337</v>
+        <v>12997.67883263675</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -12158,7 +12158,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>976.3244177140624</v>
+        <v>1055.044264009135</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -12187,7 +12187,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>85525.28467487002</v>
+        <v>92838.62346801002</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -12210,10 +12210,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6911.19380110396</v>
+        <v>7396.08684746625</v>
       </c>
       <c r="C7">
-        <v>19254.25859685694</v>
+        <v>20900.70639138756</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -12236,22 +12236,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>29086.87241090203</v>
+        <v>31127.62290616678</v>
       </c>
       <c r="C8">
-        <v>97765.38157312214</v>
+        <v>106125.3813135841</v>
       </c>
       <c r="D8">
-        <v>973.3180285626952</v>
+        <v>1039.814306610939</v>
       </c>
       <c r="E8">
-        <v>78.10595341712495</v>
+        <v>84.40354112073075</v>
       </c>
       <c r="F8">
-        <v>3421.011386994804</v>
+        <v>3713.544938720404</v>
       </c>
       <c r="G8">
-        <v>2616.54523979609</v>
+        <v>2829.67932388538</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -12350,7 +12350,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11696.31965058829</v>
+        <v>12504.61542748054</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -12376,7 +12376,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>954.1747301110329</v>
+        <v>1029.354448985084</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -12405,7 +12405,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>83939.99891676712</v>
+        <v>91065.14426948842</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -12428,10 +12428,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6660.617324160509</v>
+        <v>7130.695511960793</v>
       </c>
       <c r="C7">
-        <v>18897.36411761066</v>
+        <v>20501.44403015376</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -12454,22 +12454,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>28032.28094323646</v>
+        <v>30010.68071977156</v>
       </c>
       <c r="C8">
-        <v>95953.21494155163</v>
+        <v>104098.0876165845</v>
       </c>
       <c r="D8">
-        <v>935.7055720470624</v>
+        <v>1000.369234198443</v>
       </c>
       <c r="E8">
-        <v>76.33397840888259</v>
+        <v>82.34835591880666</v>
       </c>
       <c r="F8">
-        <v>3357.599956670688</v>
+        <v>3642.60577077954</v>
       </c>
       <c r="G8">
-        <v>2555.798144177116</v>
+        <v>2763.213954211455</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -12568,7 +12568,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10489.27936680076</v>
+        <v>11212.94383987259</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -12594,7 +12594,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>881.1324073345736</v>
+        <v>947.7228599752002</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -12623,7 +12623,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>80666.94789872687</v>
+        <v>87454.95356739868</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -12646,10 +12646,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6000.177459637735</v>
+        <v>6420.27690315834</v>
       </c>
       <c r="C7">
-        <v>18160.50400727454</v>
+        <v>19688.68385488797</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -12672,22 +12672,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25252.71338554782</v>
+        <v>27020.7695658886</v>
       </c>
       <c r="C8">
-        <v>92211.73564798987</v>
+        <v>99971.21831841952</v>
       </c>
       <c r="D8">
-        <v>839.1423493440606</v>
+        <v>897.035507189807</v>
       </c>
       <c r="E8">
-        <v>70.49059258676586</v>
+        <v>75.81782879801598</v>
       </c>
       <c r="F8">
-        <v>3226.677915949077</v>
+        <v>3498.198142695951</v>
       </c>
       <c r="G8">
-        <v>2416.068146691227</v>
+        <v>2610.896075804631</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -12786,7 +12786,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7947.541789435227</v>
+        <v>8466.376277102774</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -12812,7 +12812,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>710.5286236917698</v>
+        <v>759.0020091345385</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -12841,7 +12841,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>75998.67437450866</v>
+        <v>82329.64233475592</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -12864,10 +12864,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4591.666057291011</v>
+        <v>4893.63235724566</v>
       </c>
       <c r="C7">
-        <v>17109.53824927843</v>
+        <v>18534.8254580661</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -12890,22 +12890,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19324.76625681651</v>
+        <v>20595.64007282353</v>
       </c>
       <c r="C8">
-        <v>86875.35420105387</v>
+        <v>94112.38943237477</v>
       </c>
       <c r="D8">
-        <v>635.8033431548179</v>
+        <v>677.3101021682216</v>
       </c>
       <c r="E8">
-        <v>56.84228989534155</v>
+        <v>60.72016073076305</v>
       </c>
       <c r="F8">
-        <v>3039.946974980349</v>
+        <v>3293.18569339024</v>
       </c>
       <c r="G8">
-        <v>2170.120430656943</v>
+        <v>2342.845781531176</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -13059,7 +13059,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.004248635874503787</v>
+        <v>0.005491229694254636</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -13085,7 +13085,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.0009564929730729795</v>
+        <v>0.001236237411542753</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -13111,7 +13111,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.004856686639689918</v>
+        <v>0.006277116392016021</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -13120,10 +13120,10 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.0001699454349801516</v>
+        <v>0.0002196491877701856</v>
       </c>
       <c r="G8">
-        <v>9.564929730729793E-05</v>
+        <v>0.0001236237411542753</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -13222,7 +13222,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4532.447259447667</v>
+        <v>4773.240010683107</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -13248,7 +13248,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>476.0278202075409</v>
+        <v>501.7418290876304</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -13277,7 +13277,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>70324.10196327179</v>
+        <v>76115.5448635333</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -13300,10 +13300,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2693.594042188286</v>
+        <v>2837.144426049488</v>
       </c>
       <c r="C7">
-        <v>15832.02499635091</v>
+        <v>17135.8492358665</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -13326,22 +13326,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11336.42442777131</v>
+        <v>11940.57934225798</v>
       </c>
       <c r="C8">
-        <v>80388.65568659813</v>
+        <v>87008.95080932671</v>
       </c>
       <c r="D8">
-        <v>362.5957807558132</v>
+        <v>381.8592008546484</v>
       </c>
       <c r="E8">
-        <v>38.08222561660325</v>
+        <v>40.13934632701041</v>
       </c>
       <c r="F8">
-        <v>2812.964078530874</v>
+        <v>3044.621794541335</v>
       </c>
       <c r="G8">
-        <v>1852.56190385392</v>
+        <v>1997.299366191598</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -13440,7 +13440,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2748.512723073253</v>
+        <v>2871.371291346356</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -13466,7 +13466,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>374.4202612190598</v>
+        <v>392.4286328589343</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -13495,7 +13495,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>64090.62460291308</v>
+        <v>69302.18948150662</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -13518,10 +13518,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1724.221167192904</v>
+        <v>1802.64057043444</v>
       </c>
       <c r="C7">
-        <v>14428.68579075496</v>
+        <v>15601.96242173263</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -13544,22 +13544,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7256.662530618882</v>
+        <v>7586.703221456011</v>
       </c>
       <c r="C8">
-        <v>73263.06358854628</v>
+        <v>79220.49045810557</v>
       </c>
       <c r="D8">
-        <v>219.8810178458601</v>
+        <v>229.7097033077083</v>
       </c>
       <c r="E8">
-        <v>29.95362089752477</v>
+        <v>31.39429062871473</v>
       </c>
       <c r="F8">
-        <v>2563.624984116525</v>
+        <v>2772.087579260267</v>
       </c>
       <c r="G8">
-        <v>1615.290695794786</v>
+        <v>1740.460299216706</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -13658,7 +13658,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2513.201122808156</v>
+        <v>2660.160148803825</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -13684,7 +13684,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>383.652642041902</v>
+        <v>405.0830674508886</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -13713,7 +13713,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>57766.50333970515</v>
+        <v>62401.13907990175</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -13736,10 +13736,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1620.323314284356</v>
+        <v>1714.008744423198</v>
       </c>
       <c r="C7">
-        <v>13004.93997496973</v>
+        <v>14048.33287781968</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -13762,22 +13762,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6819.391680127771</v>
+        <v>7213.681904310705</v>
       </c>
       <c r="C8">
-        <v>66033.85493098204</v>
+        <v>71331.78446509893</v>
       </c>
       <c r="D8">
-        <v>201.0560898246523</v>
+        <v>212.8128119043058</v>
       </c>
       <c r="E8">
-        <v>30.69221136335215</v>
+        <v>32.40664539607107</v>
       </c>
       <c r="F8">
-        <v>2310.660133588208</v>
+        <v>2496.045563196072</v>
       </c>
       <c r="G8">
-        <v>1462.526328925408</v>
+        <v>1576.234162224287</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -13876,7 +13876,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2304.865709287483</v>
+        <v>2459.585707637628</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -13902,7 +13902,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>367.7482173169773</v>
+        <v>388.5909970654689</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -13931,7 +13931,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>51806.32980220549</v>
+        <v>55908.2383042782</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -13954,10 +13954,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1502.83973851625</v>
+        <v>1599.652071296732</v>
       </c>
       <c r="C7">
-        <v>11663.12950325455</v>
+        <v>12586.589826594</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -13980,22 +13980,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6324.943126507762</v>
+        <v>6732.393424159356</v>
       </c>
       <c r="C8">
-        <v>59220.68099825738</v>
+        <v>63909.64112750681</v>
       </c>
       <c r="D8">
-        <v>184.3892567429985</v>
+        <v>196.7668566110101</v>
       </c>
       <c r="E8">
-        <v>29.41985738535817</v>
+        <v>31.0872797652375</v>
       </c>
       <c r="F8">
-        <v>2072.253192088222</v>
+        <v>2236.32953217113</v>
       </c>
       <c r="G8">
-        <v>1316.59692417708</v>
+        <v>1418.624189789073</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -14094,7 +14094,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1932.510227142077</v>
+        <v>2060.424975684933</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -14120,7 +14120,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>321.5933333704959</v>
+        <v>337.7748399835199</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -14149,7 +14149,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>46619.11161894952</v>
+        <v>50268.78709754893</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -14172,10 +14172,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1274.08938023845</v>
+        <v>1353.016850387237</v>
       </c>
       <c r="C7">
-        <v>10495.33402992273</v>
+        <v>11316.98339042125</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -14198,22 +14198,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5362.210395136274</v>
+        <v>5694.389367395213</v>
       </c>
       <c r="C8">
-        <v>53291.08524283901</v>
+        <v>57463.09024860756</v>
       </c>
       <c r="D8">
-        <v>154.6008181713661</v>
+        <v>164.8339980547946</v>
       </c>
       <c r="E8">
-        <v>25.72746666963966</v>
+        <v>27.02198719868158</v>
       </c>
       <c r="F8">
-        <v>1864.764464757983</v>
+        <v>2010.751483901959</v>
       </c>
       <c r="G8">
-        <v>1176.942341016118</v>
+        <v>1267.000024080848</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -14312,7 +14312,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1519.243353495256</v>
+        <v>1613.41420286095</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -14338,7 +14338,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>265.4383856700437</v>
+        <v>276.9985039478427</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -14367,7 +14367,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>42538.05611472362</v>
+        <v>45844.63549749582</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -14390,10 +14390,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1014.986542164185</v>
+        <v>1072.719470195514</v>
       </c>
       <c r="C7">
-        <v>9576.56833010413</v>
+        <v>10320.97666208409</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -14416,22 +14416,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4271.734363171304</v>
+        <v>4514.712690777572</v>
       </c>
       <c r="C8">
-        <v>48625.96252376818</v>
+        <v>52405.76865113123</v>
       </c>
       <c r="D8">
-        <v>121.5394682796204</v>
+        <v>129.0731362288759</v>
       </c>
       <c r="E8">
-        <v>21.23507085360348</v>
+        <v>22.1598803158274</v>
       </c>
       <c r="F8">
-        <v>1701.522244588946</v>
+        <v>1833.785419899835</v>
       </c>
       <c r="G8">
-        <v>1059.155487226831</v>
+        <v>1139.369613227961</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -14530,7 +14530,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1498.852506694968</v>
+        <v>1602.229726808148</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -14556,7 +14556,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>229.0384437934515</v>
+        <v>239.9160279072957</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -14585,7 +14585,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>39793.82670009798</v>
+        <v>42885.13555465297</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -14608,10 +14608,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>966.5922900431455</v>
+        <v>1028.049884481202</v>
       </c>
       <c r="C7">
-        <v>8958.76152596228</v>
+        <v>9654.706126610239</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -14634,22 +14634,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4068.059357466667</v>
+        <v>4326.71354363855</v>
       </c>
       <c r="C8">
-        <v>45488.98803879588</v>
+        <v>49022.71482935682</v>
       </c>
       <c r="D8">
-        <v>119.9082005355973</v>
+        <v>128.1783781446518</v>
       </c>
       <c r="E8">
-        <v>18.32307550347611</v>
+        <v>19.19328223258364</v>
       </c>
       <c r="F8">
-        <v>1591.753068003921</v>
+        <v>1715.40542218612</v>
       </c>
       <c r="G8">
-        <v>992.5353816005422</v>
+        <v>1068.275601109144</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -14748,7 +14748,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1963.227220977192</v>
+        <v>2127.395290893323</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -14774,7 +14774,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>220.0444204409751</v>
+        <v>233.892832054987</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -14803,7 +14803,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>38496.60819660612</v>
+        <v>41507.76858795146</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -14826,10 +14826,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1181.398042608941</v>
+        <v>1275.368206405269</v>
       </c>
       <c r="C7">
-        <v>8666.719463573225</v>
+        <v>9344.620286376468</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -14852,22 +14852,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4972.103969413599</v>
+        <v>5367.592541060765</v>
       </c>
       <c r="C8">
-        <v>44006.11589800473</v>
+        <v>47448.22364142682</v>
       </c>
       <c r="D8">
-        <v>157.0581776781753</v>
+        <v>170.1916232714658</v>
       </c>
       <c r="E8">
-        <v>17.603553635278</v>
+        <v>18.71142656439895</v>
       </c>
       <c r="F8">
-        <v>1539.864327864246</v>
+        <v>1660.31074351806</v>
       </c>
       <c r="G8">
-        <v>984.8117506182163</v>
+        <v>1061.998849278173</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -14966,7 +14966,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2802.268364734894</v>
+        <v>3067.133511192395</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -14992,7 +14992,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>242.7490820255851</v>
+        <v>262.3330636956459</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -15021,7 +15021,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>38633.28046102287</v>
+        <v>41695.30922106394</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -15044,10 +15044,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1610.762865332943</v>
+        <v>1759.451028853389</v>
       </c>
       <c r="C7">
-        <v>8697.488412570028</v>
+        <v>9386.841202227182</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -15070,22 +15070,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6779.154990657963</v>
+        <v>7404.933078466718</v>
       </c>
       <c r="C8">
-        <v>44162.34824650801</v>
+        <v>47662.60447191933</v>
       </c>
       <c r="D8">
-        <v>224.1814691787914</v>
+        <v>245.3706808953914</v>
       </c>
       <c r="E8">
-        <v>19.4199265620468</v>
+        <v>20.98664509565166</v>
       </c>
       <c r="F8">
-        <v>1545.331218440916</v>
+        <v>1667.812368842559</v>
       </c>
       <c r="G8">
-        <v>1030.825127790297</v>
+        <v>1114.629223108057</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -15184,7 +15184,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4043.749384202592</v>
+        <v>4444.075364857863</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -15210,7 +15210,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>315.4247489001454</v>
+        <v>344.3381812985399</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -15239,7 +15239,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>40082.53586980956</v>
+        <v>43312.59577182544</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -15262,10 +15262,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2287.452062801522</v>
+        <v>2511.457412999953</v>
       </c>
       <c r="C7">
-        <v>9023.758456800253</v>
+        <v>9750.940001687017</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -15288,22 +15288,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>9627.110483594684</v>
+        <v>10569.87308410813</v>
       </c>
       <c r="C8">
-        <v>45819.01631344955</v>
+        <v>49511.35174413666</v>
       </c>
       <c r="D8">
-        <v>323.4999507362072</v>
+        <v>355.5260291886289</v>
       </c>
       <c r="E8">
-        <v>25.23397991201162</v>
+        <v>27.54705450388318</v>
       </c>
       <c r="F8">
-        <v>1603.301434792384</v>
+        <v>1732.503830873019</v>
       </c>
       <c r="G8">
-        <v>1131.121051960177</v>
+        <v>1226.239741468697</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -15402,7 +15402,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.709617179893106E-12</v>
+        <v>2.256658090712606E-12</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -15428,7 +15428,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.689503452694341E-15</v>
+        <v>4.87006560015697E-15</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -15457,7 +15457,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.01528274253389771</v>
+        <v>0.01919267184079498</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -15480,10 +15480,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8.297863956908147E-13</v>
+        <v>1.095300284427423E-12</v>
       </c>
       <c r="C7">
-        <v>0.003440595116818282</v>
+        <v>0.004320835273359381</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -15506,22 +15506,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.492289713523248E-12</v>
+        <v>4.609747684933418E-12</v>
       </c>
       <c r="C8">
-        <v>0.01746995828181456</v>
+        <v>0.02193946378613313</v>
       </c>
       <c r="D8">
-        <v>1.367693743914484E-13</v>
+        <v>1.805326472570084E-13</v>
       </c>
       <c r="E8">
-        <v>2.951602762155471E-16</v>
+        <v>3.896052480125574E-16</v>
       </c>
       <c r="F8">
-        <v>0.000611309701355909</v>
+        <v>0.0007677068736317999</v>
       </c>
       <c r="G8">
-        <v>0.0003440595117648068</v>
+        <v>0.0004320835274454682</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -15620,7 +15620,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5663.066247550528</v>
+        <v>6215.367358911789</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -15646,7 +15646,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>438.1396262159465</v>
+        <v>479.4186127363305</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -15675,7 +15675,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>42644.36167720981</v>
+        <v>46138.96439258095</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -15698,10 +15698,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3199.652174565467</v>
+        <v>3510.167343172568</v>
       </c>
       <c r="C7">
-        <v>9600.500840801693</v>
+        <v>10387.23875849266</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -15724,22 +15724,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13466.25159693609</v>
+        <v>14773.10470377296</v>
       </c>
       <c r="C8">
-        <v>48747.48218803259</v>
+        <v>52742.22092773439</v>
       </c>
       <c r="D8">
-        <v>453.045299804042</v>
+        <v>497.2293887129429</v>
       </c>
       <c r="E8">
-        <v>35.0511700972757</v>
+        <v>38.35348901890642</v>
       </c>
       <c r="F8">
-        <v>1705.774467088394</v>
+        <v>1845.55857570324</v>
       </c>
       <c r="G8">
-        <v>1280.015301536716</v>
+        <v>1389.740610166522</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -15838,7 +15838,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7608.680553284808</v>
+        <v>8316.143131185116</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -15864,7 +15864,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>594.9954477317734</v>
+        <v>650.6438330257799</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -15893,7 +15893,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>46074.8630344512</v>
+        <v>49906.45736784397</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -15916,10 +15916,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4305.631437181847</v>
+        <v>4706.317544540407</v>
       </c>
       <c r="C7">
-        <v>10372.80765626912</v>
+        <v>11235.4123048693</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -15942,22 +15942,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18120.94348181531</v>
+        <v>19807.29550969473</v>
       </c>
       <c r="C8">
-        <v>52668.94559447201</v>
+        <v>57048.90508202722</v>
       </c>
       <c r="D8">
-        <v>608.6944442627843</v>
+        <v>665.2914504948089</v>
       </c>
       <c r="E8">
-        <v>47.59963581854185</v>
+        <v>52.05150664206237</v>
       </c>
       <c r="F8">
-        <v>1842.99452137805</v>
+        <v>1996.258294713761</v>
       </c>
       <c r="G8">
-        <v>1467.843909345097</v>
+        <v>1594.17298494097</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -16056,7 +16056,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9769.71023130727</v>
+        <v>10630.34517765135</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -16082,7 +16082,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>770.1795372573019</v>
+        <v>841.4150983667329</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -16111,7 +16111,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>50116.44661819243</v>
+        <v>54332.8813669509</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -16134,10 +16134,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5535.081058288789</v>
+        <v>6026.266716675229</v>
       </c>
       <c r="C7">
-        <v>11282.68706512458</v>
+        <v>12231.93061711037</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -16160,22 +16160,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23295.28025979094</v>
+        <v>25362.5142264132</v>
       </c>
       <c r="C8">
-        <v>57288.9473018762</v>
+        <v>62108.82429682137</v>
       </c>
       <c r="D8">
-        <v>781.5768185045812</v>
+        <v>850.4276142121074</v>
       </c>
       <c r="E8">
-        <v>61.61436298058413</v>
+        <v>67.3132078693386</v>
       </c>
       <c r="F8">
-        <v>2004.657864727699</v>
+        <v>2173.315254678038</v>
       </c>
       <c r="G8">
-        <v>1681.776812341337</v>
+        <v>1825.819733378559</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -16274,7 +16274,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11722.24886075135</v>
+        <v>12705.78787839216</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -16300,7 +16300,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>928.3073730939306</v>
+        <v>1013.204447914807</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -16329,7 +16329,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>54517.4302649335</v>
+        <v>59143.22673949101</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -16352,10 +16352,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6645.752248891121</v>
+        <v>7210.776407705319</v>
       </c>
       <c r="C7">
-        <v>12273.47800533632</v>
+        <v>13314.88092935055</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -16378,22 +16378,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>27969.71887940457</v>
+        <v>30347.71406945128</v>
       </c>
       <c r="C8">
-        <v>62319.78522491133</v>
+        <v>67607.61044682024</v>
       </c>
       <c r="D8">
-        <v>937.7799088601075</v>
+        <v>1016.463030271372</v>
       </c>
       <c r="E8">
-        <v>74.2645898475144</v>
+        <v>81.05635583318454</v>
       </c>
       <c r="F8">
-        <v>2180.697210597342</v>
+        <v>2365.729069579642</v>
       </c>
       <c r="G8">
-        <v>1891.923025422744</v>
+        <v>2052.565733705587</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -16492,7 +16492,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12873.30131473475</v>
+        <v>13906.3149057666</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -16518,7 +16518,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1020.256681661479</v>
+        <v>1112.306161045938</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -16547,7 +16547,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>59041.30105255651</v>
+        <v>64079.70220495669</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -16570,10 +16570,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7299.166179385011</v>
+        <v>7895.664124444342</v>
       </c>
       <c r="C7">
-        <v>13291.9344575398</v>
+        <v>14426.22683752786</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -16596,22 +16596,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>30719.71666195061</v>
+        <v>33230.17435140718</v>
       </c>
       <c r="C8">
-        <v>67491.09749146283</v>
+        <v>73250.57801298861</v>
       </c>
       <c r="D8">
-        <v>1029.86410517878</v>
+        <v>1112.505192461327</v>
       </c>
       <c r="E8">
-        <v>81.62053453291831</v>
+        <v>88.98449288367502</v>
       </c>
       <c r="F8">
-        <v>2361.652042102262</v>
+        <v>2563.18808819827</v>
       </c>
       <c r="G8">
-        <v>2059.11006369248</v>
+        <v>2232.18909619722</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -16710,7 +16710,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13175.00827802646</v>
+        <v>14186.67767299527</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -16736,7 +16736,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1043.31373185035</v>
+        <v>1135.757030064466</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -16765,7 +16765,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>63470.09755955836</v>
+        <v>68905.29807541655</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -16788,10 +16788,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7469.329468019099</v>
+        <v>8055.933501798077</v>
       </c>
       <c r="C7">
-        <v>14288.98689113112</v>
+        <v>15512.61048567326</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -16814,22 +16814,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>31435.87627314956</v>
+        <v>33904.69384320875</v>
       </c>
       <c r="C8">
-        <v>72553.72875966333</v>
+        <v>78766.79726191222</v>
       </c>
       <c r="D8">
-        <v>1054.000662242116</v>
+        <v>1134.934213839621</v>
       </c>
       <c r="E8">
-        <v>83.46509854802798</v>
+        <v>90.86056240515722</v>
       </c>
       <c r="F8">
-        <v>2538.803902382337</v>
+        <v>2756.211923016665</v>
       </c>
       <c r="G8">
-        <v>2175.831635915022</v>
+        <v>2356.854398747133</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -16928,7 +16928,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13050.1885825224</v>
+        <v>14010.78172902666</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -16954,7 +16954,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1034.300922495047</v>
+        <v>1123.836299849656</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -16983,7 +16983,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>67606.71525293925</v>
+        <v>73406.14844908778</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -17006,10 +17006,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7399.488079700704</v>
+        <v>7958.33907254971</v>
       </c>
       <c r="C7">
-        <v>15220.26127492856</v>
+        <v>16525.88436520341</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -17032,22 +17032,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>31141.93753991756</v>
+        <v>33493.951966587</v>
       </c>
       <c r="C8">
-        <v>77282.36554529851</v>
+        <v>83911.79450872984</v>
       </c>
       <c r="D8">
-        <v>1044.015086601792</v>
+        <v>1120.862538322132</v>
       </c>
       <c r="E8">
-        <v>82.74407379960374</v>
+        <v>89.90690398797244</v>
       </c>
       <c r="F8">
-        <v>2704.268610117572</v>
+        <v>2936.245937963514</v>
       </c>
       <c r="G8">
-        <v>2261.974935462926</v>
+        <v>2448.422343775312</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -17146,7 +17146,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12756.83087730143</v>
+        <v>13663.22772831074</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -17172,7 +17172,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1015.275964918122</v>
+        <v>1100.821271913399</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -17201,7 +17201,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>71278.46498498789</v>
+        <v>77395.26229897358</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -17224,10 +17224,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7237.627719115979</v>
+        <v>7766.072555651142</v>
       </c>
       <c r="C7">
-        <v>16046.88019952569</v>
+        <v>17423.95129277919</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -17250,22 +17250,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>30460.72213890268</v>
+        <v>32684.7673587087</v>
       </c>
       <c r="C8">
-        <v>81479.60399892532</v>
+        <v>88471.81718688065</v>
       </c>
       <c r="D8">
-        <v>1020.546470184114</v>
+        <v>1093.058218264858</v>
       </c>
       <c r="E8">
-        <v>81.22207719344975</v>
+        <v>88.06570175307188</v>
       </c>
       <c r="F8">
-        <v>2851.138599399518</v>
+        <v>3095.810491958946</v>
       </c>
       <c r="G8">
-        <v>2328.450791864167</v>
+        <v>2519.002384843033</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -17364,7 +17364,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12367.59458582927</v>
+        <v>13227.74548614175</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -17390,7 +17390,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>992.7975910108355</v>
+        <v>1074.139548784711</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -17419,7 +17419,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>74341.66422901694</v>
+        <v>80717.39976470964</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -17442,10 +17442,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7025.793639398744</v>
+        <v>7527.447120749644</v>
       </c>
       <c r="C7">
-        <v>16736.49649957598</v>
+        <v>18171.86220711005</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -17468,22 +17468,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>29569.18429083484</v>
+        <v>31680.47377662638</v>
       </c>
       <c r="C8">
-        <v>84981.19822413569</v>
+        <v>92269.40801877042</v>
       </c>
       <c r="D8">
-        <v>989.407566866341</v>
+        <v>1058.21963889134</v>
       </c>
       <c r="E8">
-        <v>79.4238072808668</v>
+        <v>85.9311639027768</v>
       </c>
       <c r="F8">
-        <v>2973.66656916068</v>
+        <v>3228.695990588389</v>
       </c>
       <c r="G8">
-        <v>2376.229013897472</v>
+        <v>2569.930932785969</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -17582,7 +17582,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11912.52195491508</v>
+        <v>12738.20500151907</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -17608,7 +17608,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>970.813571480924</v>
+        <v>1048.2609926871</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -17637,7 +17637,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>76686.13926261073</v>
+        <v>83253.87695112398</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -17660,10 +17660,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6782.678900223078</v>
+        <v>7263.557775218876</v>
       </c>
       <c r="C7">
-        <v>17264.30682774147</v>
+        <v>18742.89787051545</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -17686,22 +17686,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>28545.99674854905</v>
+        <v>30569.85295698972</v>
       </c>
       <c r="C8">
-        <v>87661.206798434</v>
+        <v>95168.8974612672</v>
       </c>
       <c r="D8">
-        <v>953.0017563932055</v>
+        <v>1019.056400121525</v>
       </c>
       <c r="E8">
-        <v>77.66508571847388</v>
+        <v>83.86087941496794</v>
       </c>
       <c r="F8">
-        <v>3067.445570504432</v>
+        <v>3330.155078044962</v>
       </c>
       <c r="G8">
-        <v>2404.698572796454</v>
+        <v>2600.645564573432</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -17800,7 +17800,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.019976626679014E-10</v>
+        <v>1.344876600315225E-10</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -17826,7 +17826,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.828033678263646E-13</v>
+        <v>3.686019537894005E-13</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -17855,7 +17855,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.04648264351298474</v>
+        <v>0.05615248083417201</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -17878,10 +17878,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4.957235488551258E-11</v>
+        <v>6.535843146344776E-11</v>
       </c>
       <c r="C7">
-        <v>0.01046461104300187</v>
+        <v>0.01264157600815193</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -17904,22 +17904,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.086332409651915E-10</v>
+        <v>2.750714871648256E-10</v>
       </c>
       <c r="C8">
-        <v>0.05313508627127256</v>
+        <v>0.06418883884338965</v>
       </c>
       <c r="D8">
-        <v>8.159813013432104E-12</v>
+        <v>1.075901280252179E-11</v>
       </c>
       <c r="E8">
-        <v>2.262426942610916E-14</v>
+        <v>2.948815630315203E-14</v>
       </c>
       <c r="F8">
-        <v>0.001859305740519391</v>
+        <v>0.002246099233366882</v>
       </c>
       <c r="G8">
-        <v>0.001046461109257422</v>
+        <v>0.001264157607351036</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -18018,7 +18018,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11290.06720605923</v>
+        <v>12079.4795228628</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -18044,7 +18044,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>942.9056865260543</v>
+        <v>1016.118134076316</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -18073,7 +18073,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>78239.01595030894</v>
+        <v>84926.62121753738</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -18096,10 +18096,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6452.43265479099</v>
+        <v>6911.305503899517</v>
       </c>
       <c r="C7">
-        <v>17613.9050714379</v>
+        <v>19119.48183389391</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -18122,22 +18122,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>27156.10222648715</v>
+        <v>29087.34253011093</v>
       </c>
       <c r="C8">
-        <v>89436.32608024598</v>
+        <v>97081.03937464235</v>
       </c>
       <c r="D8">
-        <v>903.2053764847376</v>
+        <v>966.3583618290235</v>
       </c>
       <c r="E8">
-        <v>75.4324549220843</v>
+        <v>81.28945072610527</v>
       </c>
       <c r="F8">
-        <v>3129.56063801236</v>
+        <v>3397.064848701498</v>
       </c>
       <c r="G8">
-        <v>2406.633772622889</v>
+        <v>2603.078733779342</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -18236,7 +18236,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10177.10773702361</v>
+        <v>10892.91257456428</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -18262,7 +18262,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>883.3024858317324</v>
+        <v>949.4796730338757</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -18291,7 +18291,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>78967.86160661533</v>
+        <v>85701.54228360097</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -18314,10 +18314,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5851.671900111143</v>
+        <v>6267.536914959281</v>
       </c>
       <c r="C7">
-        <v>17777.98967866333</v>
+        <v>19293.93937185899</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -18340,22 +18340,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24627.70381606221</v>
+        <v>26377.93872122627</v>
       </c>
       <c r="C8">
-        <v>90269.48172500756</v>
+        <v>97966.86458996625</v>
       </c>
       <c r="D8">
-        <v>814.168618961888</v>
+        <v>871.4330059651421</v>
       </c>
       <c r="E8">
-        <v>70.66419886653856</v>
+        <v>75.95837384271002</v>
       </c>
       <c r="F8">
-        <v>3158.714464264616</v>
+        <v>3428.061691344042</v>
       </c>
       <c r="G8">
-        <v>2362.966157877447</v>
+        <v>2556.147628681826</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -18454,7 +18454,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8216.880136880256</v>
+        <v>8785.71285505756</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -18480,7 +18480,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>760.1281283882422</v>
+        <v>813.8200048452953</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -18509,7 +18509,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>78883.31571060458</v>
+        <v>85591.36430879415</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -18532,10 +18532,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4774.298541887028</v>
+        <v>5105.943776170999</v>
       </c>
       <c r="C7">
-        <v>17758.95590927826</v>
+        <v>19269.13506718262</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -18558,22 +18558,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20093.40448783846</v>
+        <v>21489.18687984151</v>
       </c>
       <c r="C8">
-        <v>90172.83589897664</v>
+        <v>97840.91830649124</v>
       </c>
       <c r="D8">
-        <v>657.3504109504202</v>
+        <v>702.8570284046044</v>
       </c>
       <c r="E8">
-        <v>60.81025027105935</v>
+        <v>65.1056003876236</v>
       </c>
       <c r="F8">
-        <v>3155.332628424186</v>
+        <v>3423.654572351769</v>
       </c>
       <c r="G8">
-        <v>2253.325445116528</v>
+        <v>2437.507884335361</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -18672,7 +18672,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6027.038709049137</v>
+        <v>6431.856711441209</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -18698,7 +18698,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>618.5958475640504</v>
+        <v>659.1749130541081</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -18727,7 +18727,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>78040.86891919959</v>
+        <v>84657.54141794928</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -18750,10 +18750,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3566.564452256578</v>
+        <v>3805.092531784608</v>
       </c>
       <c r="C7">
-        <v>17569.29634325088</v>
+        <v>19058.90405196479</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -18776,22 +18776,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15010.46102215725</v>
+        <v>16014.34486846771</v>
       </c>
       <c r="C8">
-        <v>89209.82089902819</v>
+        <v>96773.44976087658</v>
       </c>
       <c r="D8">
-        <v>482.1630967239307</v>
+        <v>514.5485369152965</v>
       </c>
       <c r="E8">
-        <v>49.487667805124</v>
+        <v>52.73399304432862</v>
       </c>
       <c r="F8">
-        <v>3121.634756767986</v>
+        <v>3386.301656717974</v>
       </c>
       <c r="G8">
-        <v>2113.586079550746</v>
+        <v>2286.399658374939</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -18890,7 +18890,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4586.660699069887</v>
+        <v>4897.861684314392</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -18916,7 +18916,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>531.1015672024944</v>
+        <v>564.744394877435</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -18945,7 +18945,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>76540.86372847462</v>
+        <v>83010.24042831417</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -18968,10 +18968,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2778.10094444265</v>
+        <v>2964.059863759127</v>
       </c>
       <c r="C7">
-        <v>17231.60102953586</v>
+        <v>18688.04811898697</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -18994,22 +18994,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11692.08533881689</v>
+        <v>12474.72340620311</v>
       </c>
       <c r="C8">
-        <v>87495.1399086008</v>
+        <v>94890.39248220516</v>
       </c>
       <c r="D8">
-        <v>366.9328559255907</v>
+        <v>391.8289347451512</v>
       </c>
       <c r="E8">
-        <v>42.48812537619953</v>
+        <v>45.17955159019478</v>
       </c>
       <c r="F8">
-        <v>3061.634549138987</v>
+        <v>3320.40961713257</v>
       </c>
       <c r="G8">
-        <v>2000.970197397851</v>
+        <v>2165.210798274609</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -19108,7 +19108,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3948.691664427578</v>
+        <v>4234.510183283519</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -19134,7 +19134,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>493.8597879321863</v>
+        <v>525.522490798551</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -19163,7 +19163,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>74525.45537519985</v>
+        <v>80805.01112600212</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -19186,10 +19186,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2430.476425397055</v>
+        <v>2602.076864195488</v>
       </c>
       <c r="C7">
-        <v>16777.87329557112</v>
+        <v>18191.58610294695</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -19212,22 +19212,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10229.05155284995</v>
+        <v>10951.25964202081</v>
       </c>
       <c r="C8">
-        <v>85191.29295348552</v>
+        <v>92369.5580293721</v>
       </c>
       <c r="D8">
-        <v>315.8953331542061</v>
+        <v>338.7608146626814</v>
       </c>
       <c r="E8">
-        <v>39.50878303457488</v>
+        <v>42.04179926388406</v>
       </c>
       <c r="F8">
-        <v>2981.018215007996</v>
+        <v>3232.200445040088</v>
       </c>
       <c r="G8">
-        <v>1920.834972096817</v>
+        <v>2079.366296714243</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -19326,7 +19326,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3634.325444579102</v>
+        <v>3912.973688749582</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -19352,7 +19352,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>464.7383776229833</v>
+        <v>494.6771992482359</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -19381,7 +19381,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>72171.38192069357</v>
+        <v>78234.88706934291</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -19404,10 +19404,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2247.776173977377</v>
+        <v>2414.087389603713</v>
       </c>
       <c r="C7">
-        <v>16247.90208037588</v>
+        <v>17612.97553881912</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -19430,22 +19430,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>9460.128114234316</v>
+        <v>10160.07565566378</v>
       </c>
       <c r="C8">
-        <v>82500.31226390488</v>
+        <v>89431.60628744264</v>
       </c>
       <c r="D8">
-        <v>290.746035566328</v>
+        <v>313.0378950999664</v>
       </c>
       <c r="E8">
-        <v>37.17907020983864</v>
+        <v>39.57417593985885</v>
       </c>
       <c r="F8">
-        <v>2886.855276827745</v>
+        <v>3129.395482773719</v>
       </c>
       <c r="G8">
-        <v>1849.567825435325</v>
+        <v>2002.706292842283</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -19544,7 +19544,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3384.166949294441</v>
+        <v>3651.704987818339</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -19570,7 +19570,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>426.1552682956568</v>
+        <v>453.3109828810788</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -19599,7 +19599,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>69678.03526125712</v>
+        <v>75517.36341791034</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -19622,10 +19622,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2086.074318910546</v>
+        <v>2244.071401435516</v>
       </c>
       <c r="C7">
-        <v>15686.57636792835</v>
+        <v>17001.18098792496</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -19648,22 +19648,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8779.57980922458</v>
+        <v>9444.535982203624</v>
       </c>
       <c r="C8">
-        <v>79650.1260472725</v>
+        <v>86325.15960648404</v>
       </c>
       <c r="D8">
-        <v>270.7333559435551</v>
+        <v>292.136399025467</v>
       </c>
       <c r="E8">
-        <v>34.09242146365253</v>
+        <v>36.26487863048629</v>
       </c>
       <c r="F8">
-        <v>2787.121410450287</v>
+        <v>3020.694536716416</v>
       </c>
       <c r="G8">
-        <v>1777.26506868389</v>
+        <v>1924.525238936047</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -19762,7 +19762,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3267.164824917277</v>
+        <v>3533.651616020904</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -19788,7 +19788,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>388.3376791216436</v>
+        <v>413.5219507291075</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -19817,7 +19817,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>67251.45510551144</v>
+        <v>72876.93345626391</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -19840,10 +19840,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1989.508074296806</v>
+        <v>2144.909762243381</v>
       </c>
       <c r="C7">
-        <v>15140.28176040561</v>
+        <v>16406.74249547563</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -19866,22 +19866,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8373.165213264163</v>
+        <v>9027.198250077397</v>
       </c>
       <c r="C8">
-        <v>76876.26173631338</v>
+        <v>83306.84001013529</v>
       </c>
       <c r="D8">
-        <v>261.373185993382</v>
+        <v>282.6921292816722</v>
       </c>
       <c r="E8">
-        <v>31.06701432973147</v>
+        <v>33.08175605832859</v>
       </c>
       <c r="F8">
-        <v>2690.05820422046</v>
+        <v>2915.077338250559</v>
       </c>
       <c r="G8">
-        <v>1712.978983470242</v>
+        <v>1855.165225771901</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -19980,7 +19980,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3451.416254006541</v>
+        <v>3748.014936728745</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -20006,7 +20006,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>367.3515219115235</v>
+        <v>393.210387471423</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -20035,7 +20035,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>65086.18511582378</v>
+        <v>70525.30395489981</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -20058,10 +20058,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2056.29378358845</v>
+        <v>2226.956210905005</v>
       </c>
       <c r="C7">
-        <v>14652.81576164338</v>
+        <v>15877.32148605844</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -20084,22 +20084,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8654.243629083923</v>
+        <v>9372.503945832463</v>
       </c>
       <c r="C8">
-        <v>74401.10544124352</v>
+        <v>80618.65304421655</v>
       </c>
       <c r="D8">
-        <v>276.1133003205231</v>
+        <v>299.8411949382995</v>
       </c>
       <c r="E8">
-        <v>29.38812175292187</v>
+        <v>31.45683099771382</v>
       </c>
       <c r="F8">
-        <v>2603.447404632953</v>
+        <v>2821.012158195995</v>
       </c>
       <c r="G8">
-        <v>1670.910954523182</v>
+        <v>1810.427769696344</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -20198,7 +20198,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.23368978834692E-09</v>
+        <v>4.25934830835577E-09</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -20224,7 +20224,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.072332510013269E-11</v>
+        <v>1.385678749280955E-11</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -20253,7 +20253,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1247400522257044</v>
+        <v>0.1448310547834248</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -20276,10 +20276,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.573481463509909E-09</v>
+        <v>2.072273232023915E-09</v>
       </c>
       <c r="C7">
-        <v>0.02808265686655901</v>
+        <v>0.0326057328222492</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -20302,22 +20302,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6.622250205560929E-09</v>
+        <v>8.721495711895537E-09</v>
       </c>
       <c r="C8">
-        <v>0.142592437425473</v>
+        <v>0.1655587980603328</v>
       </c>
       <c r="D8">
-        <v>2.586951830677535E-10</v>
+        <v>3.407478646684614E-10</v>
       </c>
       <c r="E8">
-        <v>8.578660080106144E-13</v>
+        <v>1.108542999424763E-12</v>
       </c>
       <c r="F8">
-        <v>0.00498960208902818</v>
+        <v>0.005793242191336999</v>
       </c>
       <c r="G8">
-        <v>0.002808265844004047</v>
+        <v>0.003260573489452243</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -20416,7 +20416,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4029.435796181808</v>
+        <v>4395.742024467232</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -20442,7 +20442,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>375.2761984000036</v>
+        <v>405.0050618485097</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -20471,7 +20471,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>63347.89077398308</v>
+        <v>68642.45744975527</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -20494,10 +20494,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2343.914125412411</v>
+        <v>2552.348718362616</v>
       </c>
       <c r="C7">
-        <v>14261.47454714183</v>
+        <v>15453.4373254145</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -20520,22 +20520,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>9864.740169359966</v>
+        <v>10741.97072975786</v>
       </c>
       <c r="C8">
-        <v>72414.03214166303</v>
+        <v>78466.33975208481</v>
       </c>
       <c r="D8">
-        <v>322.3548636945445</v>
+        <v>351.6593619573784</v>
       </c>
       <c r="E8">
-        <v>30.02209587200027</v>
+        <v>32.40040494788077</v>
       </c>
       <c r="F8">
-        <v>2533.915630959325</v>
+        <v>2745.698297990213</v>
       </c>
       <c r="G8">
-        <v>1660.538867255424</v>
+        <v>1800.578604377712</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -20634,7 +20634,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5031.122715983612</v>
+        <v>5504.945426404062</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -20660,7 +20660,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>423.0961044554475</v>
+        <v>460.0318192996267</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -20689,7 +20689,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>62159.72544142314</v>
+        <v>67361.82259522191</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -20712,10 +20712,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2878.444164465335</v>
+        <v>3146.449005107695</v>
       </c>
       <c r="C7">
-        <v>13993.98356297383</v>
+        <v>15165.12873046423</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -20738,22 +20738,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12114.39594420502</v>
+        <v>13242.33748796888</v>
       </c>
       <c r="C8">
-        <v>71055.82050224817</v>
+        <v>77002.42465744051</v>
       </c>
       <c r="D8">
-        <v>402.4898172786887</v>
+        <v>440.3956341123248</v>
       </c>
       <c r="E8">
-        <v>33.84768835643578</v>
+        <v>36.80254554397012</v>
       </c>
       <c r="F8">
-        <v>2486.389017656928</v>
+        <v>2694.472903808879</v>
       </c>
       <c r="G8">
-        <v>1687.242772743916</v>
+        <v>1831.157773557193</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -20852,7 +20852,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6416.502238954625</v>
+        <v>7024.214117365531</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -20878,7 +20878,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>514.3393133328748</v>
+        <v>561.5356882216149</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -20907,7 +20907,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>61594.49953137511</v>
+        <v>66761.79380735313</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -20930,10 +20930,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3644.308814026417</v>
+        <v>3987.857659728563</v>
       </c>
       <c r="C7">
-        <v>13866.73457597448</v>
+        <v>15030.04459141572</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -20956,22 +20956,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15337.66069222077</v>
+        <v>16783.54135038649</v>
       </c>
       <c r="C8">
-        <v>70409.70132262856</v>
+        <v>76316.52172681762</v>
       </c>
       <c r="D8">
-        <v>513.3201791163697</v>
+        <v>561.9371293892422</v>
       </c>
       <c r="E8">
-        <v>41.14714506662996</v>
+        <v>44.92285505772917</v>
       </c>
       <c r="F8">
-        <v>2463.779981255007</v>
+        <v>2670.471752294127</v>
       </c>
       <c r="G8">
-        <v>1751.104339000089</v>
+        <v>1901.790225114427</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -21070,7 +21070,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8089.28171744449</v>
+        <v>8840.407611123235</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -21096,7 +21096,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>640.9226441991822</v>
+        <v>700.5148410262518</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -21125,7 +21125,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>61673.15889168772</v>
+        <v>66864.14730596959</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -21148,10 +21148,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4586.431876838607</v>
+        <v>5012.386899306279</v>
       </c>
       <c r="C7">
-        <v>13884.44311293264</v>
+        <v>15053.08737622662</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -21174,22 +21174,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19302.73736522756</v>
+        <v>21095.43769282089</v>
       </c>
       <c r="C8">
-        <v>70499.61815137102</v>
+        <v>76433.52372085508</v>
       </c>
       <c r="D8">
-        <v>647.1425373955589</v>
+        <v>707.2326088898585</v>
       </c>
       <c r="E8">
-        <v>51.27381153593455</v>
+        <v>56.04118728210012</v>
       </c>
       <c r="F8">
-        <v>2466.926355667511</v>
+        <v>2674.565892238786</v>
       </c>
       <c r="G8">
-        <v>1847.087498977124</v>
+        <v>2006.547427553289</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -21288,7 +21288,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9908.531951749785</v>
+        <v>10796.89373737954</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -21314,7 +21314,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>785.9349872857294</v>
+        <v>858.7248709680491</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -21343,7 +21343,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>62368.63084944298</v>
+        <v>67638.31791186053</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -21366,10 +21366,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5618.826302879012</v>
+        <v>6125.052076667026</v>
       </c>
       <c r="C7">
-        <v>14041.01431842337</v>
+        <v>15227.37596352073</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -21392,22 +21392,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23647.73561186434</v>
+        <v>25778.26832691136</v>
       </c>
       <c r="C8">
-        <v>71294.6237638262</v>
+        <v>77318.49107261958</v>
       </c>
       <c r="D8">
-        <v>792.6825561399824</v>
+        <v>863.7514989903625</v>
       </c>
       <c r="E8">
-        <v>62.87479898285832</v>
+        <v>68.6979896774439</v>
       </c>
       <c r="F8">
-        <v>2494.745233977721</v>
+        <v>2705.532716474424</v>
       </c>
       <c r="G8">
-        <v>1965.984062130237</v>
+        <v>2135.242804018775</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -21506,7 +21506,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11654.19282670071</v>
+        <v>12657.9521535921</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -21532,7 +21532,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>926.7814593224728</v>
+        <v>1011.821393496945</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -21561,7 +21561,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>63613.31719785372</v>
+        <v>69009.64974613725</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -21584,10 +21584,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6611.260042013379</v>
+        <v>7186.203474463209</v>
       </c>
       <c r="C7">
-        <v>14321.22984667778</v>
+        <v>15536.10311783121</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -21610,22 +21610,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>27824.55287053603</v>
+        <v>30244.29492153783</v>
       </c>
       <c r="C8">
-        <v>72717.44552061817</v>
+        <v>78886.08339986062</v>
       </c>
       <c r="D8">
-        <v>932.3354261360563</v>
+        <v>1012.636172287368</v>
       </c>
       <c r="E8">
-        <v>74.14251674579778</v>
+        <v>80.94571147975559</v>
       </c>
       <c r="F8">
-        <v>2544.532687914151</v>
+        <v>2760.385989845493</v>
       </c>
       <c r="G8">
-        <v>2093.248988869116</v>
+        <v>2272.230659229441</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -21724,7 +21724,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13056.093892346</v>
+        <v>14137.16819550392</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -21750,7 +21750,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1039.939963492822</v>
+        <v>1134.279319595241</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -21779,7 +21779,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>65308.5043017068</v>
+        <v>70869.72526727949</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -21802,10 +21802,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7408.311984844973</v>
+        <v>8030.451783125329</v>
       </c>
       <c r="C7">
-        <v>14702.86635325857</v>
+        <v>15954.86085982419</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -21828,22 +21828,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>31179.07436612785</v>
+        <v>33797.44992541753</v>
       </c>
       <c r="C8">
-        <v>74655.24221636807</v>
+        <v>81012.36679980034</v>
       </c>
       <c r="D8">
-        <v>1044.487511387679</v>
+        <v>1130.973455640313</v>
       </c>
       <c r="E8">
-        <v>83.19519707942568</v>
+        <v>90.74234556761925</v>
       </c>
       <c r="F8">
-        <v>2612.340172068275</v>
+        <v>2834.789010691182</v>
       </c>
       <c r="G8">
-        <v>2211.117833810354</v>
+        <v>2398.531264294952</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -21942,7 +21942,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13877.44790456082</v>
+        <v>14984.28244529574</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -21968,7 +21968,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1106.245976477089</v>
+        <v>1205.200174672472</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -21997,7 +21997,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>67334.40095323131</v>
+        <v>73087.36029906869</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -22020,10 +22020,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7875.301967513011</v>
+        <v>8514.772639519389</v>
       </c>
       <c r="C7">
-        <v>15158.95531183084</v>
+        <v>16454.11577067121</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -22046,22 +22046,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>33144.47693389621</v>
+        <v>35835.79226702899</v>
       </c>
       <c r="C8">
-        <v>76971.07852041489</v>
+        <v>83547.38244923085</v>
       </c>
       <c r="D8">
-        <v>1110.195832364865</v>
+        <v>1198.742595623659</v>
       </c>
       <c r="E8">
-        <v>88.49967811816711</v>
+        <v>96.41601397379772</v>
       </c>
       <c r="F8">
-        <v>2693.376038129255</v>
+        <v>2923.49441196275</v>
       </c>
       <c r="G8">
-        <v>2303.425727934385</v>
+        <v>2496.888841019059</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -22160,7 +22160,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14107.35229069579</v>
+        <v>15193.14802759925</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -22186,7 +22186,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1125.800512839419</v>
+        <v>1224.737635148509</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -22215,7 +22215,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>69560.00275744074</v>
+        <v>75519.38829183301</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -22238,10 +22238,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8007.070154026776</v>
+        <v>8636.359347140829</v>
       </c>
       <c r="C7">
-        <v>15660.00377761246</v>
+        <v>17001.63684663717</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -22264,22 +22264,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>33699.04457289507</v>
+        <v>36347.50951201228</v>
       </c>
       <c r="C8">
-        <v>79515.20112048028</v>
+        <v>86327.47427368964</v>
       </c>
       <c r="D8">
-        <v>1128.588183255663</v>
+        <v>1215.45184220794</v>
       </c>
       <c r="E8">
-        <v>90.06404102715348</v>
+        <v>97.97901081188064</v>
       </c>
       <c r="F8">
-        <v>2782.400110297632</v>
+        <v>3020.775531673323</v>
       </c>
       <c r="G8">
-        <v>2366.707393163923</v>
+        <v>2563.799619377799</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -22378,7 +22378,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13943.53840785974</v>
+        <v>14983.11684428426</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -22404,7 +22404,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1116.170572698377</v>
+        <v>1212.186529247677</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -22433,7 +22433,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>71852.29669286992</v>
+        <v>78020.70321239792</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -22456,10 +22456,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7917.738026491483</v>
+        <v>8521.607407763375</v>
       </c>
       <c r="C7">
-        <v>16176.06660488685</v>
+        <v>17564.75644917132</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -22482,22 +22482,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>33323.0759239768</v>
+        <v>35864.55749017165</v>
       </c>
       <c r="C8">
-        <v>82135.56060980496</v>
+        <v>89186.76914272417</v>
       </c>
       <c r="D8">
-        <v>1115.483072628778</v>
+        <v>1198.64934754274</v>
       </c>
       <c r="E8">
-        <v>89.29364581587011</v>
+        <v>96.97492233981414</v>
       </c>
       <c r="F8">
-        <v>2874.091867714799</v>
+        <v>3120.828128495919</v>
       </c>
       <c r="G8">
-        <v>2409.380463137833</v>
+        <v>2608.636385693469</v>
       </c>
       <c r="H8">
         <v>0</v>

--- a/Recycling/SW2/SW2_Avg.xlsx
+++ b/Recycling/SW2/SW2_Avg.xlsx
@@ -796,7 +796,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8.50222187501303E-08</v>
+        <v>9.446913194458923E-08</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.310182963169564E-10</v>
+        <v>3.677981070188405E-10</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -851,7 +851,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.3373366371375102</v>
+        <v>0.3968666319264826</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4.14229348633382E-08</v>
+        <v>4.60254831814869E-08</v>
       </c>
       <c r="C7">
-        <v>0.07594440486613425</v>
+        <v>0.08934635866604031</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -906,16 +906,16 @@
         <v>0.3856151449681526</v>
       </c>
       <c r="D8">
-        <v>6.80177750001042E-09</v>
+        <v>7.557530555567135E-09</v>
       </c>
       <c r="E8">
-        <v>2.64814637053565E-11</v>
+        <v>2.942384856150722E-11</v>
       </c>
       <c r="F8">
-        <v>0.01349346548550042</v>
+        <v>0.01587466527705932</v>
       </c>
       <c r="G8">
-        <v>0.00759444462890691</v>
+        <v>0.008934640469152346</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1014,7 +1014,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14556.81852168409</v>
+        <v>16174.24280187121</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1040,7 +1040,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1185.381974454183</v>
+        <v>1317.09108272687</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>80453.1808821436</v>
+        <v>94650.801037816</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1092,10 +1092,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8287.288462108021</v>
+        <v>9208.098291231136</v>
       </c>
       <c r="C7">
-        <v>18112.37876065981</v>
+        <v>21308.6808948939</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1124,16 +1124,16 @@
         <v>91967.37500045201</v>
       </c>
       <c r="D8">
-        <v>1164.545481734727</v>
+        <v>1293.939424149696</v>
       </c>
       <c r="E8">
-        <v>94.83055795633457</v>
+        <v>105.3672866181495</v>
       </c>
       <c r="F8">
-        <v>3218.127235285747</v>
+        <v>3786.032041512643</v>
       </c>
       <c r="G8">
-        <v>2639.966722276783</v>
+        <v>3051.677918612503</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14005.90272431963</v>
+        <v>15562.11413813292</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1258,7 +1258,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1153.02062921835</v>
+        <v>1281.134032464833</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1287,7 +1287,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>82693.17355553211</v>
+        <v>97286.08653592013</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1310,10 +1310,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7986.885392297946</v>
+        <v>8874.317102553272</v>
       </c>
       <c r="C7">
-        <v>18616.66703461817</v>
+        <v>21901.96121719784</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1342,16 +1342,16 @@
         <v>94527.94804346899</v>
       </c>
       <c r="D8">
-        <v>1120.47221794557</v>
+        <v>1244.969131050633</v>
       </c>
       <c r="E8">
-        <v>92.24165033746792</v>
+        <v>102.4907225971866</v>
       </c>
       <c r="F8">
-        <v>3307.726942221287</v>
+        <v>3891.443461436808</v>
       </c>
       <c r="G8">
-        <v>2660.355242691611</v>
+        <v>3077.627831975111</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1450,7 +1450,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.192742872069533E-06</v>
+        <v>1.325269857855036E-06</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1476,7 +1476,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.51317070922893E-09</v>
+        <v>6.125745232476589E-09</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1505,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.7241256110080803</v>
+        <v>0.851912483538918</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1528,10 +1528,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5.820265253235274E-07</v>
+        <v>6.466961392483637E-07</v>
       </c>
       <c r="C7">
-        <v>0.1630219861174383</v>
+        <v>0.1917905719028686</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1560,16 +1560,16 @@
         <v>0.8277600821348305</v>
       </c>
       <c r="D8">
-        <v>9.541942976556256E-08</v>
+        <v>1.060215886284028E-07</v>
       </c>
       <c r="E8">
-        <v>4.410536567383142E-10</v>
+        <v>4.900596185981269E-10</v>
       </c>
       <c r="F8">
-        <v>0.02896502444032324</v>
+        <v>0.03407649934155675</v>
       </c>
       <c r="G8">
-        <v>0.01630225681439635</v>
+        <v>0.01917912185990078</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1668,7 +1668,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.266615239392063E-05</v>
+        <v>1.407350265991181E-05</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1694,7 +1694,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.845227112215278E-08</v>
+        <v>7.60580790246142E-08</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1723,7 +1723,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1.461783209354305</v>
+        <v>1.719744952181535</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1746,10 +1746,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.191232032973898E-06</v>
+        <v>6.879146703304331E-06</v>
       </c>
       <c r="C7">
-        <v>0.3290904208322534</v>
+        <v>0.3871652009791217</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1778,16 +1778,16 @@
         <v>1.670988805041634</v>
       </c>
       <c r="D8">
-        <v>1.01329219151365E-06</v>
+        <v>1.125880212792944E-06</v>
       </c>
       <c r="E8">
-        <v>5.476181689772219E-09</v>
+        <v>6.084646321969132E-09</v>
       </c>
       <c r="F8">
-        <v>0.05847132837417224</v>
+        <v>0.06878979808726146</v>
       </c>
       <c r="G8">
-        <v>0.03290966120642863</v>
+        <v>0.03871720801258249</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1886,7 +1886,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.0001073586231944383</v>
+        <v>0.0001192873591049315</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.667376634105154E-07</v>
+        <v>7.408196260116837E-07</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1941,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>2.820366562227913</v>
+        <v>3.318078308503428</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1964,10 +1964,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5.256866825106379E-05</v>
+        <v>5.840963139007089E-05</v>
       </c>
       <c r="C7">
-        <v>0.6349475167899777</v>
+        <v>0.7469970785764444</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1996,16 +1996,16 @@
         <v>3.224008130233162</v>
       </c>
       <c r="D8">
-        <v>8.588689855555062E-06</v>
+        <v>9.542988728394513E-06</v>
       </c>
       <c r="E8">
-        <v>5.333901307284121E-08</v>
+        <v>5.926557008093466E-08</v>
       </c>
       <c r="F8">
-        <v>0.1128146624891166</v>
+        <v>0.1327231323401372</v>
       </c>
       <c r="G8">
-        <v>0.06350000854582286</v>
+        <v>0.07470554882078342</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -2104,7 +2104,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.0007553147272597484</v>
+        <v>0.0008392385858441648</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -2130,7 +2130,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.300687804070827E-06</v>
+        <v>5.889653115634252E-06</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -2159,7 +2159,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>5.265376854520231</v>
+        <v>6.19456100531792</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -2182,10 +2182,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.0003704893234927652</v>
+        <v>0.0004116548038808502</v>
       </c>
       <c r="C7">
-        <v>1.185391290449882</v>
+        <v>1.394577988764568</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -2214,16 +2214,16 @@
         <v>6.018940238145875</v>
       </c>
       <c r="D8">
-        <v>6.042517818077984E-05</v>
+        <v>6.713908686753315E-05</v>
       </c>
       <c r="E8">
-        <v>4.24055024325666E-07</v>
+        <v>4.7117224925074E-07</v>
       </c>
       <c r="F8">
-        <v>0.2106150741808094</v>
+        <v>0.247782440212717</v>
       </c>
       <c r="G8">
-        <v>0.1185761779773375</v>
+        <v>0.1394989643568448</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -2322,7 +2322,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.004544073155168224</v>
+        <v>0.005048970172409137</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -2348,7 +2348,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.549005930118218E-05</v>
+        <v>3.943339922353576E-05</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -2377,7 +2377,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>9.576968696015751</v>
+        <v>11.26702199531265</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -2400,10 +2400,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.002232725184736364</v>
+        <v>0.002480805760818182</v>
       </c>
       <c r="C7">
-        <v>2.156057504492268</v>
+        <v>2.536538240579139</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -2432,16 +2432,16 @@
         <v>10.94759289535505</v>
       </c>
       <c r="D8">
-        <v>0.0003635258524134577</v>
+        <v>0.0004039176137927308</v>
       </c>
       <c r="E8">
-        <v>2.839204744094573E-06</v>
+        <v>3.154671937882859E-06</v>
       </c>
       <c r="F8">
-        <v>0.3830787478406304</v>
+        <v>0.4506808798125063</v>
       </c>
       <c r="G8">
-        <v>0.2158290229677004</v>
+        <v>0.2539019046339957</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -2540,7 +2540,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.02392478824197918</v>
+        <v>0.02658309804664353</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -2566,7 +2566,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.0002051720106620927</v>
+        <v>0.0002279689007356585</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -2595,7 +2595,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>16.97489113129083</v>
+        <v>19.9704601544598</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -2618,10 +2618,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.01177481122044527</v>
+        <v>0.01308312357827252</v>
       </c>
       <c r="C7">
-        <v>3.821547566171417</v>
+        <v>4.495938313142844</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -2650,16 +2650,16 @@
         <v>19.40428161007319</v>
       </c>
       <c r="D8">
-        <v>0.001913983059358333</v>
+        <v>0.002126647843731481</v>
       </c>
       <c r="E8">
-        <v>1.64137608529674E-05</v>
+        <v>1.823751205885267E-05</v>
       </c>
       <c r="F8">
-        <v>0.6789956452516337</v>
+        <v>0.7988184061783927</v>
       </c>
       <c r="G8">
-        <v>0.3833322377391861</v>
+        <v>0.4509021436721116</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1122821727573969</v>
+        <v>0.124757969730441</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -2784,7 +2784,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.001044982807459199</v>
+        <v>0.001161092008287998</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -2813,7 +2813,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>29.22153169124118</v>
+        <v>34.37827257793079</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -2836,10 +2836,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05534765347467615</v>
+        <v>0.06149739274964017</v>
       </c>
       <c r="C7">
-        <v>6.5786267759098</v>
+        <v>7.739560912835059</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -2868,16 +2868,16 @@
         <v>33.40362100875539</v>
       </c>
       <c r="D8">
-        <v>0.008982573820591748</v>
+        <v>0.009980637578435276</v>
       </c>
       <c r="E8">
-        <v>8.359862459673584E-05</v>
+        <v>9.288736066303981E-05</v>
       </c>
       <c r="F8">
-        <v>1.168861267649648</v>
+        <v>1.375130903117233</v>
       </c>
       <c r="G8">
-        <v>0.6633974429384475</v>
+        <v>0.7801058305584697</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -2976,7 +2976,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.4766872903027811</v>
+        <v>0.5296525447808679</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -3002,7 +3002,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.004766472464845186</v>
+        <v>0.005296080516494651</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -3031,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>48.6984425275146</v>
+        <v>57.29228532648776</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -3054,10 +3054,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2353246732618584</v>
+        <v>0.2614718591798426</v>
       </c>
       <c r="C7">
-        <v>10.96345261232966</v>
+        <v>12.89817954391725</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -3086,16 +3086,16 @@
         <v>55.66800313870407</v>
       </c>
       <c r="D8">
-        <v>0.03813498322422246</v>
+        <v>0.04237220358246941</v>
       </c>
       <c r="E8">
-        <v>0.0003813177971876147</v>
+        <v>0.0004236864413195719</v>
       </c>
       <c r="F8">
-        <v>1.947937701100586</v>
+        <v>2.291691413059513</v>
       </c>
       <c r="G8">
-        <v>1.119877728559152</v>
+        <v>1.315965140309709</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -3194,7 +3194,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.852391990666083</v>
+        <v>2.058213322962315</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -3220,7 +3220,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.01973311071304895</v>
+        <v>0.0219256785700544</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>78.45779516277705</v>
+        <v>92.30328842679651</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -3272,10 +3272,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9157464233375396</v>
+        <v>1.017496025930599</v>
       </c>
       <c r="C7">
-        <v>17.66315871085567</v>
+        <v>20.78018671865372</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -3304,16 +3304,16 @@
         <v>89.68641625262627</v>
       </c>
       <c r="D8">
-        <v>0.1481913592532866</v>
+        <v>0.1646570658369851</v>
       </c>
       <c r="E8">
-        <v>0.001578648857043916</v>
+        <v>0.001754054285604351</v>
       </c>
       <c r="F8">
-        <v>3.138311806511084</v>
+        <v>3.692131537071864</v>
       </c>
       <c r="G8">
-        <v>1.85789051341932</v>
+        <v>2.179768274458432</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -3630,7 +3630,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.64744800526747</v>
+        <v>7.386053339186078</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -3656,7 +3656,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.07494917711637369</v>
+        <v>0.08327686346263743</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -3685,7 +3685,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>122.2408847004385</v>
+        <v>143.8128055299276</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.290603925538817</v>
+        <v>3.656226583932019</v>
       </c>
       <c r="C7">
-        <v>27.52002070590468</v>
+        <v>32.37649494812316</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -3740,16 +3740,16 @@
         <v>139.7355972798761</v>
       </c>
       <c r="D8">
-        <v>0.5317958404213973</v>
+        <v>0.590884267134886</v>
       </c>
       <c r="E8">
-        <v>0.005995934169309892</v>
+        <v>0.006662149077010991</v>
       </c>
       <c r="F8">
-        <v>4.889635388017543</v>
+        <v>5.752512221197109</v>
       </c>
       <c r="G8">
-        <v>3.081062463144349</v>
+        <v>3.603272153205517</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -3848,7 +3848,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.13309771098197</v>
+        <v>24.59233078997996</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -3874,7 +3874,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2631956624022622</v>
+        <v>0.2924396248914024</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -3903,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>184.4503416735504</v>
+        <v>217.0004019688828</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -3926,10 +3926,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.97072495018873</v>
+        <v>12.18969438909859</v>
       </c>
       <c r="C7">
-        <v>41.52520030026495</v>
+        <v>48.85317682384112</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -3958,16 +3958,16 @@
         <v>210.8482667267405</v>
       </c>
       <c r="D8">
-        <v>1.770647816878557</v>
+        <v>1.967386463198396</v>
       </c>
       <c r="E8">
-        <v>0.02105565299218097</v>
+        <v>0.02339516999131218</v>
       </c>
       <c r="F8">
-        <v>7.378013666942022</v>
+        <v>8.680016078755321</v>
       </c>
       <c r="G8">
-        <v>5.249592525045366</v>
+        <v>6.10428712129397</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -4066,7 +4066,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>68.12874692959998</v>
+        <v>75.69860769955554</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4092,7 +4092,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8570250689965797</v>
+        <v>0.9522500766628663</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4121,7 +4121,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>270.0626707699089</v>
+        <v>317.7207891410694</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -4144,10 +4144,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>33.81904721075592</v>
+        <v>37.57671912306212</v>
       </c>
       <c r="C7">
-        <v>60.79905515812383</v>
+        <v>71.52830018602803</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -4176,16 +4176,16 @@
         <v>308.7131502321039</v>
       </c>
       <c r="D8">
-        <v>5.450299754367996</v>
+        <v>6.05588861596444</v>
       </c>
       <c r="E8">
-        <v>0.06856200551972634</v>
+        <v>0.07618000613302926</v>
       </c>
       <c r="F8">
-        <v>10.80250683079637</v>
+        <v>12.70883156564279</v>
       </c>
       <c r="G8">
-        <v>9.461810236887972</v>
+        <v>10.91050193090901</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -4284,7 +4284,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>189.5482482618005</v>
+        <v>210.6091647353339</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4310,7 +4310,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.568675611697823</v>
+        <v>2.854084012997582</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4339,7 +4339,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>384.4647975134593</v>
+        <v>452.3115264864227</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -4362,10 +4362,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>94.28668309422035</v>
+        <v>104.7629812158004</v>
       </c>
       <c r="C7">
-        <v>86.55434075260665</v>
+        <v>101.8286361795372</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -4394,16 +4394,16 @@
         <v>439.4881323485475</v>
       </c>
       <c r="D8">
-        <v>15.16385986094403</v>
+        <v>16.84873317882671</v>
       </c>
       <c r="E8">
-        <v>0.2054940489358258</v>
+        <v>0.2283267210398064</v>
       </c>
       <c r="F8">
-        <v>15.37859190053839</v>
+        <v>18.09246105945692</v>
       </c>
       <c r="G8">
-        <v>18.08410238468269</v>
+        <v>20.65916173953376</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -4502,7 +4502,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>447.4232250589402</v>
+        <v>497.1369167321558</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4528,7 +4528,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.874494763819166</v>
+        <v>7.63832751535463</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4557,7 +4557,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>533.1876577307858</v>
+        <v>627.2795973303363</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -4580,10 +4580,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>223.420010828193</v>
+        <v>248.24445647577</v>
       </c>
       <c r="C7">
-        <v>120.0362335141985</v>
+        <v>141.2190982519982</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -4612,16 +4612,16 @@
         <v>609.4957182112265</v>
       </c>
       <c r="D8">
-        <v>35.7938580047152</v>
+        <v>39.77095333857244</v>
       </c>
       <c r="E8">
-        <v>0.549959581105533</v>
+        <v>0.6110662012283701</v>
       </c>
       <c r="F8">
-        <v>21.32750630923145</v>
+        <v>25.09118389321347</v>
       </c>
       <c r="G8">
-        <v>34.34562443423914</v>
+        <v>38.94635547277682</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -4720,7 +4720,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>790.6607225303746</v>
+        <v>878.5119139226384</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4746,7 +4746,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.21961259002855</v>
+        <v>16.91068065558728</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4775,7 +4775,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>721.51319159339</v>
+        <v>848.8390489334</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -4798,10 +4798,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>398.0673611248537</v>
+        <v>442.2970679165041</v>
       </c>
       <c r="C7">
-        <v>162.4338536234616</v>
+        <v>191.0986513217195</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -4830,16 +4830,16 @@
         <v>824.7737818626109</v>
       </c>
       <c r="D8">
-        <v>63.25285780242994</v>
+        <v>70.28095311381104</v>
       </c>
       <c r="E8">
-        <v>1.217569007202284</v>
+        <v>1.352854452446982</v>
       </c>
       <c r="F8">
-        <v>28.86052766373563</v>
+        <v>33.95356195733603</v>
       </c>
       <c r="G8">
-        <v>56.05012147483153</v>
+        <v>63.33957192382235</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -4938,7 +4938,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>942.2945118085694</v>
+        <v>1046.993902009521</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4964,7 +4964,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>24.05204604205543</v>
+        <v>26.72449560228381</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4993,7 +4993,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>953.9717267043254</v>
+        <v>1122.319678475677</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -5016,10 +5016,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>480.6710661454389</v>
+        <v>534.078962383821</v>
       </c>
       <c r="C7">
-        <v>214.7671111517775</v>
+        <v>252.6671895903264</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -5048,16 +5048,16 @@
         <v>1090.501016462829</v>
       </c>
       <c r="D8">
-        <v>75.38356094468551</v>
+        <v>83.75951216076167</v>
       </c>
       <c r="E8">
-        <v>1.924163683364434</v>
+        <v>2.137959648182704</v>
       </c>
       <c r="F8">
-        <v>38.15886906817305</v>
+        <v>44.89278713902712</v>
       </c>
       <c r="G8">
-        <v>69.54381772972164</v>
+        <v>78.67461519741472</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -5156,7 +5156,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>894.5132437451875</v>
+        <v>993.9036041613194</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -5182,7 +5182,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.4539559434802</v>
+        <v>24.94883993720022</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -5211,7 +5211,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1233.815771281335</v>
+        <v>1451.547966213335</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -5234,10 +5234,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>455.8967386821067</v>
+        <v>506.5519318690074</v>
       </c>
       <c r="C7">
-        <v>277.7682414205589</v>
+        <v>326.7861663771281</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -5266,16 +5266,16 @@
         <v>1410.395418487264</v>
       </c>
       <c r="D8">
-        <v>71.56105949961497</v>
+        <v>79.51228833290551</v>
       </c>
       <c r="E8">
-        <v>1.796316475478415</v>
+        <v>1.995907194976017</v>
       </c>
       <c r="F8">
-        <v>49.35263085125344</v>
+        <v>58.06191864853346</v>
       </c>
       <c r="G8">
-        <v>73.36649801026654</v>
+        <v>83.33380982461354</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -5374,7 +5374,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>892.2963104863421</v>
+        <v>991.4403449848246</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -5400,7 +5400,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.58006063712634</v>
+        <v>13.9778451523626</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -5429,7 +5429,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1562.483699368698</v>
+        <v>1838.21611690435</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -5452,10 +5452,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>444.3703257506545</v>
+        <v>493.744806389616</v>
       </c>
       <c r="C7">
-        <v>351.7610647586461</v>
+        <v>413.8365467748777</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -5484,16 +5484,16 @@
         <v>1786.101217333321</v>
       </c>
       <c r="D8">
-        <v>71.38370483890733</v>
+        <v>79.31522759878592</v>
       </c>
       <c r="E8">
-        <v>1.006404850970107</v>
+        <v>1.118227612189008</v>
       </c>
       <c r="F8">
-        <v>62.49934797474798</v>
+        <v>73.52864467617408</v>
       </c>
       <c r="G8">
-        <v>79.61313905093004</v>
+        <v>90.75813531644935</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -5592,7 +5592,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>945.5416356322648</v>
+        <v>1050.601817369183</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -5618,7 +5618,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.14783492270254</v>
+        <v>11.27537213633615</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -5647,7 +5647,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1939.142075956918</v>
+        <v>2281.343618772845</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -5670,10 +5670,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>467.5165244472458</v>
+        <v>519.4628049413842</v>
       </c>
       <c r="C7">
-        <v>436.5579504173367</v>
+        <v>513.5975887262786</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -5702,16 +5702,16 @@
         <v>2216.66569951949</v>
       </c>
       <c r="D8">
-        <v>75.64333085058115</v>
+        <v>84.04814538953461</v>
       </c>
       <c r="E8">
-        <v>0.8118267938162025</v>
+        <v>0.9020297709068917</v>
       </c>
       <c r="F8">
-        <v>77.5656830382768</v>
+        <v>91.2537447509139</v>
       </c>
       <c r="G8">
-        <v>90.40744748645822</v>
+        <v>103.3060393667663</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -5865,7 +5865,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3.126553069768913E-06</v>
+        <v>3.678297729139898E-06</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -5891,7 +5891,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>7.038791107329225E-07</v>
+        <v>8.280930714504971E-07</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -5926,10 +5926,10 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.250621227907566E-07</v>
+        <v>1.47131909165596E-07</v>
       </c>
       <c r="G8">
-        <v>7.038791107329224E-08</v>
+        <v>8.280930714504969E-08</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -6028,7 +6028,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1005.101621919056</v>
+        <v>1116.779579910062</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -6054,7 +6054,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.80599176401608</v>
+        <v>18.67332418224009</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -6083,7 +6083,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>2360.637460394195</v>
+        <v>2777.220541640229</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -6106,10 +6106,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>503.3389999670247</v>
+        <v>559.2655555189164</v>
       </c>
       <c r="C7">
-        <v>531.4489660998786</v>
+        <v>625.234077764563</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -6138,16 +6138,16 @@
         <v>2698.484114359893</v>
       </c>
       <c r="D8">
-        <v>80.40812975352445</v>
+        <v>89.34236639280495</v>
       </c>
       <c r="E8">
-        <v>1.344479341121286</v>
+        <v>1.493865934579207</v>
       </c>
       <c r="F8">
-        <v>94.42549841576788</v>
+        <v>111.0888216656093</v>
       </c>
       <c r="G8">
-        <v>103.4787966066903</v>
+        <v>118.4499633283479</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -6246,7 +6246,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1050.052508815402</v>
+        <v>1166.725009794892</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -6272,7 +6272,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>24.48811782696113</v>
+        <v>27.20901980773458</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -6301,7 +6301,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>2822.004258237277</v>
+        <v>3320.005009690914</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -6324,10 +6324,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>533.1884114516264</v>
+        <v>592.4315682795848</v>
       </c>
       <c r="C7">
-        <v>635.3162103592211</v>
+        <v>747.4308357167307</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -6356,16 +6356,16 @@
         <v>3225.880207898439</v>
       </c>
       <c r="D8">
-        <v>84.00420070523215</v>
+        <v>93.33800078359128</v>
       </c>
       <c r="E8">
-        <v>1.959049426156889</v>
+        <v>2.176721584618766</v>
       </c>
       <c r="F8">
-        <v>112.8801703294912</v>
+        <v>132.8002003876367</v>
       </c>
       <c r="G8">
-        <v>116.8504621810847</v>
+        <v>133.9862403996315</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -6464,7 +6464,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1096.303551570935</v>
+        <v>1218.115057301039</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -6490,7 +6490,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>34.444732320984</v>
+        <v>38.27192480109333</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -6519,7 +6519,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3317.616809587495</v>
+        <v>3903.078599514699</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -6542,10 +6542,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>566.0743544566201</v>
+        <v>628.9715049518002</v>
       </c>
       <c r="C7">
-        <v>746.8931815885148</v>
+        <v>878.6978606923703</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -6574,16 +6574,16 @@
         <v>3792.423194330845</v>
       </c>
       <c r="D8">
-        <v>87.70428412567476</v>
+        <v>97.44920458408306</v>
       </c>
       <c r="E8">
-        <v>2.755578585678718</v>
+        <v>3.061753984087465</v>
       </c>
       <c r="F8">
-        <v>132.7046723834999</v>
+        <v>156.1231439805881</v>
       </c>
       <c r="G8">
-        <v>131.2967536045135</v>
+        <v>150.766936564417</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -6682,7 +6682,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1182.337939332197</v>
+        <v>1313.708821480219</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -6708,7 +6708,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>47.25764033042137</v>
+        <v>52.50848925602374</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -6737,7 +6737,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3843.186891982189</v>
+        <v>4521.396343508458</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -6760,10 +6760,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>621.2033095213782</v>
+        <v>690.225899468198</v>
       </c>
       <c r="C7">
-        <v>865.2144747086564</v>
+        <v>1017.899382010184</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -6792,16 +6792,16 @@
         <v>4393.211134927227</v>
       </c>
       <c r="D8">
-        <v>94.5870351465757</v>
+        <v>105.0967057184174</v>
       </c>
       <c r="E8">
-        <v>3.780611226433707</v>
+        <v>4.200679140481897</v>
       </c>
       <c r="F8">
-        <v>153.7274756792877</v>
+        <v>180.8558537403385</v>
       </c>
       <c r="G8">
-        <v>148.6417784230034</v>
+        <v>170.8125281478382</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -6900,7 +6900,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1189.040732529265</v>
+        <v>1321.156369476961</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -6926,7 +6926,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>55.71158730434696</v>
+        <v>61.90176367149662</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -6955,7 +6955,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4398.799556046216</v>
+        <v>5175.058301230843</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -6978,10 +6978,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>633.3931635356415</v>
+        <v>703.7701817062683</v>
       </c>
       <c r="C7">
-        <v>990.2992371183484</v>
+        <v>1165.057926021586</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -7010,16 +7010,16 @@
         <v>5028.341252477591</v>
       </c>
       <c r="D8">
-        <v>95.12325860234117</v>
+        <v>105.6925095581569</v>
       </c>
       <c r="E8">
-        <v>4.456926984347755</v>
+        <v>4.952141093719727</v>
       </c>
       <c r="F8">
-        <v>175.9519822418488</v>
+        <v>207.0023320492339</v>
       </c>
       <c r="G8">
-        <v>162.369240065399</v>
+        <v>186.8828107727854</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -7118,7 +7118,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1172.655164108276</v>
+        <v>1302.950182342529</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -7144,7 +7144,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>66.67168348218338</v>
+        <v>74.07964831353709</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -7173,7 +7173,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4993.049562985736</v>
+        <v>5874.175956453808</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -7196,10 +7196,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>637.0832820323894</v>
+        <v>707.8703133693216</v>
       </c>
       <c r="C7">
-        <v>1124.082402509665</v>
+        <v>1322.449885305488</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -7228,16 +7228,16 @@
         <v>5707.638362088305</v>
       </c>
       <c r="D8">
-        <v>93.81241312866203</v>
+        <v>104.2360145874023</v>
       </c>
       <c r="E8">
-        <v>5.333734678574668</v>
+        <v>5.926371865082964</v>
       </c>
       <c r="F8">
-        <v>199.7219825194296</v>
+        <v>234.9670382581525</v>
       </c>
       <c r="G8">
-        <v>176.1165684542054</v>
+        <v>203.0320198674809</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -7336,7 +7336,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1196.265160120896</v>
+        <v>1329.18351124544</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -7362,7 +7362,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>105.3166868225654</v>
+        <v>117.0185409139616</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -7391,7 +7391,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>5648.100716774871</v>
+        <v>6644.824372676319</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -7414,10 +7414,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>689.4099302274393</v>
+        <v>766.0110335860436</v>
       </c>
       <c r="C7">
-        <v>1271.553695439853</v>
+        <v>1495.945524046886</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -7446,16 +7446,16 @@
         <v>6456.438278318528</v>
       </c>
       <c r="D8">
-        <v>95.70121280967165</v>
+        <v>106.3346808996351</v>
       </c>
       <c r="E8">
-        <v>8.425334945805229</v>
+        <v>9.361483273116921</v>
       </c>
       <c r="F8">
-        <v>225.9240286709951</v>
+        <v>265.792974907053</v>
       </c>
       <c r="G8">
-        <v>196.0963625667292</v>
+        <v>226.1956557632929</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -7554,7 +7554,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1201.892848811194</v>
+        <v>1335.436498679104</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -7580,7 +7580,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>169.9362177770375</v>
+        <v>188.8180197522639</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -7609,7 +7609,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6405.108080636545</v>
+        <v>7535.421271337113</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -7632,10 +7632,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>760.5541157589606</v>
+        <v>845.0601286210673</v>
       </c>
       <c r="C7">
-        <v>1441.978331837473</v>
+        <v>1696.44509627938</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -7664,16 +7664,16 @@
         <v>7321.786041415142</v>
       </c>
       <c r="D8">
-        <v>96.15142790489543</v>
+        <v>106.8349198943283</v>
       </c>
       <c r="E8">
-        <v>13.59489742216299</v>
+        <v>15.1054415801811</v>
       </c>
       <c r="F8">
-        <v>256.204323225462</v>
+        <v>301.4168508534848</v>
       </c>
       <c r="G8">
-        <v>220.2532447596433</v>
+        <v>254.1505224900447</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -7772,7 +7772,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1250.054940969258</v>
+        <v>1388.949934410287</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -7798,7 +7798,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>243.4576128838377</v>
+        <v>270.5084587598197</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -7827,7 +7827,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>7328.975466027376</v>
+        <v>8622.324077679266</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -7850,10 +7850,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>861.6719408673198</v>
+        <v>957.4132676303552</v>
       </c>
       <c r="C7">
-        <v>1649.968069786207</v>
+        <v>1941.138905630833</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -7882,16 +7882,16 @@
         <v>8377.874282443081</v>
       </c>
       <c r="D8">
-        <v>100.0043952775406</v>
+        <v>111.1159947528229</v>
       </c>
       <c r="E8">
-        <v>19.47660903070701</v>
+        <v>21.64067670078557</v>
       </c>
       <c r="F8">
-        <v>293.1590186410953</v>
+        <v>344.8929631071709</v>
       </c>
       <c r="G8">
-        <v>251.1640010653527</v>
+        <v>289.8552173261187</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -7990,7 +7990,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1298.028710123528</v>
+        <v>1442.254122359475</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -8016,7 +8016,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>314.3632506090865</v>
+        <v>349.2925006767627</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -8045,7 +8045,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>8510.938292577033</v>
+        <v>10012.86857950239</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -8068,10 +8068,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>959.9289677694783</v>
+        <v>1066.587741966087</v>
       </c>
       <c r="C7">
-        <v>1916.062687311006</v>
+        <v>2254.191396836478</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -8100,16 +8100,16 @@
         <v>9728.995733627526</v>
       </c>
       <c r="D8">
-        <v>103.8422968098822</v>
+        <v>115.3803297887579</v>
       </c>
       <c r="E8">
-        <v>25.14906004872691</v>
+        <v>27.943400054141</v>
       </c>
       <c r="F8">
-        <v>340.4375317030816</v>
+        <v>400.514743180096</v>
       </c>
       <c r="G8">
-        <v>287.5991655080484</v>
+        <v>332.0779138802564</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -8263,7 +8263,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.0001313894481943181</v>
+        <v>0.0001545758214050801</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>2.957963159139387E-05</v>
+        <v>3.479956657811043E-05</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -8324,10 +8324,10 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>5.255577927772729E-06</v>
+        <v>6.183032856203211E-06</v>
       </c>
       <c r="G8">
-        <v>2.957963159139386E-06</v>
+        <v>3.479956657811042E-06</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -8426,7 +8426,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1272.914816968825</v>
+        <v>1414.349796632028</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -8452,7 +8452,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>302.7159994672618</v>
+        <v>336.3511105191798</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -8481,7 +8481,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>10067.16339121962</v>
+        <v>11843.72163672897</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -8504,10 +8504,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>935.4637169750156</v>
+        <v>1039.404129972239</v>
       </c>
       <c r="C7">
-        <v>2266.414756855043</v>
+        <v>2666.370302182404</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -8536,16 +8536,16 @@
         <v>11507.94263992373</v>
       </c>
       <c r="D8">
-        <v>101.833185357506</v>
+        <v>113.1479837305622</v>
       </c>
       <c r="E8">
-        <v>24.21727995738093</v>
+        <v>26.90808884153437</v>
       </c>
       <c r="F8">
-        <v>402.6865356487853</v>
+        <v>473.7488654691592</v>
       </c>
       <c r="G8">
-        <v>320.1878473830058</v>
+        <v>370.5774432154644</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -8644,7 +8644,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1177.545897701285</v>
+        <v>1308.384330779206</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -8670,7 +8670,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>269.0375553303958</v>
+        <v>298.9306170337731</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -8699,7 +8699,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>12132.19684330099</v>
+        <v>14273.17275682469</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -8722,10 +8722,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>853.7309495274342</v>
+        <v>948.5899439193713</v>
       </c>
       <c r="C7">
-        <v>2731.314561032108</v>
+        <v>3213.311248273068</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -8754,16 +8754,16 @@
         <v>13868.51687444969</v>
       </c>
       <c r="D8">
-        <v>94.20367181610277</v>
+        <v>104.6707464623364</v>
       </c>
       <c r="E8">
-        <v>21.52300442643165</v>
+        <v>23.91444936270184</v>
       </c>
       <c r="F8">
-        <v>485.2878737320399</v>
+        <v>570.9269102729882</v>
       </c>
       <c r="G8">
-        <v>358.5045510559541</v>
+        <v>416.1901192192439</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -8862,7 +8862,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1076.067335527412</v>
+        <v>1195.630372808236</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -8888,7 +8888,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>261.0371723695192</v>
+        <v>290.0413026327992</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -8917,7 +8917,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>14847.07108951418</v>
+        <v>17467.14245825198</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -8940,10 +8940,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>796.2372222101017</v>
+        <v>884.7080246778906</v>
       </c>
       <c r="C7">
-        <v>3342.512652839165</v>
+        <v>3932.367826869606</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -8972,16 +8972,16 @@
         <v>16971.93497604491</v>
       </c>
       <c r="D8">
-        <v>86.08538684219292</v>
+        <v>95.65042982465879</v>
       </c>
       <c r="E8">
-        <v>20.88297378956153</v>
+        <v>23.20330421062392</v>
       </c>
       <c r="F8">
-        <v>593.8828435805679</v>
+        <v>698.6856983300798</v>
       </c>
       <c r="G8">
-        <v>413.8749875049266</v>
+        <v>481.7075851547496</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -9080,7 +9080,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1131.491745888271</v>
+        <v>1257.213050986968</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -9106,7 +9106,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>236.8777407324455</v>
+        <v>263.1974897027172</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -9135,7 +9135,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>18342.94005835677</v>
+        <v>21579.92948041973</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -9158,10 +9158,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>797.4291696580055</v>
+        <v>886.0324107311174</v>
       </c>
       <c r="C7">
-        <v>4129.535641452504</v>
+        <v>4858.277225238241</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -9190,16 +9190,16 @@
         <v>20968.12119124211</v>
       </c>
       <c r="D8">
-        <v>90.51933967106167</v>
+        <v>100.5770440789574</v>
       </c>
       <c r="E8">
-        <v>18.95021925859563</v>
+        <v>21.05579917621736</v>
       </c>
       <c r="F8">
-        <v>733.7176023342714</v>
+        <v>863.19717921679</v>
       </c>
       <c r="G8">
-        <v>492.6964811110508</v>
+        <v>574.4309635969357</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -9298,7 +9298,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1402.373751804715</v>
+        <v>1558.193057560794</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -9324,7 +9324,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>207.0890470986618</v>
+        <v>230.0989412207354</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -9353,7 +9353,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>22722.12507341654</v>
+        <v>26731.91185107828</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -9376,10 +9376,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>896.7432635596945</v>
+        <v>996.3814039552161</v>
       </c>
       <c r="C7">
-        <v>5115.419068137161</v>
+        <v>6018.140080161366</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -9408,16 +9408,16 @@
         <v>25974.04073426604</v>
       </c>
       <c r="D8">
-        <v>112.1899001443771</v>
+        <v>124.6554446048635</v>
       </c>
       <c r="E8">
-        <v>16.56712376789294</v>
+        <v>18.40791529765882</v>
       </c>
       <c r="F8">
-        <v>908.8850029366623</v>
+        <v>1069.276474043132</v>
       </c>
       <c r="G8">
-        <v>601.2162331696854</v>
+        <v>701.452148411658</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -9516,7 +9516,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2055.333277007215</v>
+        <v>2283.703641119128</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -9542,7 +9542,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>184.272601718459</v>
+        <v>204.7473352427323</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -9571,7 +9571,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>28038.95270276323</v>
+        <v>32987.00317972145</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -9594,10 +9594,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1188.013763128681</v>
+        <v>1320.015292365201</v>
       </c>
       <c r="C7">
-        <v>6312.393442201244</v>
+        <v>7426.345226119111</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -9626,16 +9626,16 @@
         <v>32051.79521257802</v>
       </c>
       <c r="D8">
-        <v>164.4266621605771</v>
+        <v>182.6962912895301</v>
       </c>
       <c r="E8">
-        <v>14.74180813747672</v>
+        <v>16.37978681941857</v>
       </c>
       <c r="F8">
-        <v>1121.55810811053</v>
+        <v>1319.480127188859</v>
       </c>
       <c r="G8">
-        <v>750.0407205329924</v>
+        <v>874.6360518484311</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -9734,7 +9734,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3263.548893377816</v>
+        <v>3626.165437086461</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -9760,7 +9760,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>238.8933012089293</v>
+        <v>265.4370013432548</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -9789,7 +9789,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>34282.67155961579</v>
+        <v>40332.55477601858</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -9812,10 +9812,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1829.514763709465</v>
+        <v>2032.794181899405</v>
       </c>
       <c r="C7">
-        <v>7718.038310066093</v>
+        <v>9080.045070665992</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -9844,16 +9844,16 @@
         <v>39189.09453635154</v>
       </c>
       <c r="D8">
-        <v>261.0839114702251</v>
+        <v>290.0932349669167</v>
       </c>
       <c r="E8">
-        <v>19.11146409671434</v>
+        <v>21.23496010746037</v>
       </c>
       <c r="F8">
-        <v>1371.306862384633</v>
+        <v>1613.302191040745</v>
       </c>
       <c r="G8">
-        <v>954.7553073775556</v>
+        <v>1111.283925256539</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -9952,7 +9952,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4903.932982889326</v>
+        <v>5448.814425432584</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -9978,7 +9978,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>371.0879019443763</v>
+        <v>412.319891049307</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -10007,7 +10007,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>41364.18465136481</v>
+        <v>48663.74664866448</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -10030,10 +10030,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2761.930074427169</v>
+        <v>3068.811193807965</v>
       </c>
       <c r="C7">
-        <v>9312.29531656311</v>
+        <v>10955.64154889778</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -10062,16 +10062,16 @@
         <v>47284.09044500977</v>
       </c>
       <c r="D8">
-        <v>392.3146386311459</v>
+        <v>435.9051540346065</v>
       </c>
       <c r="E8">
-        <v>29.68703215555009</v>
+        <v>32.98559128394454</v>
       </c>
       <c r="F8">
-        <v>1654.567386054594</v>
+        <v>1946.549865946581</v>
       </c>
       <c r="G8">
-        <v>1207.422539099028</v>
+        <v>1402.445274270574</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -10170,7 +10170,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6710.121661118465</v>
+        <v>7455.690734576072</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -10196,7 +10196,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>517.163978600067</v>
+        <v>574.6266428889634</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -10225,7 +10225,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>49107.87298860808</v>
+        <v>57773.96822189185</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -10248,10 +10248,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3789.141128024869</v>
+        <v>4210.156808916521</v>
       </c>
       <c r="C7">
-        <v>11055.62745869578</v>
+        <v>13006.62053964209</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -10280,16 +10280,16 @@
         <v>56136.02993813106</v>
       </c>
       <c r="D8">
-        <v>536.8097328894769</v>
+        <v>596.4552587660854</v>
       </c>
       <c r="E8">
-        <v>41.37311828800534</v>
+        <v>45.97013143111705</v>
       </c>
       <c r="F8">
-        <v>1964.314919544325</v>
+        <v>2310.958728875676</v>
       </c>
       <c r="G8">
-        <v>1484.476858672064</v>
+        <v>1721.677734855861</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -10388,7 +10388,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9276.958459285555</v>
+        <v>10307.73162142839</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -10414,7 +10414,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>728.2898412436758</v>
+        <v>809.2109347151953</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -10443,7 +10443,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>57249.90562369925</v>
+        <v>67352.83014552853</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -10466,10 +10466,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5252.68622519081</v>
+        <v>5836.318027989789</v>
       </c>
       <c r="C7">
-        <v>12888.63862558122</v>
+        <v>15163.10426538968</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -10498,16 +10498,16 @@
         <v>65443.32345228399</v>
       </c>
       <c r="D8">
-        <v>742.1566767428441</v>
+        <v>824.6185297142712</v>
       </c>
       <c r="E8">
-        <v>58.26318729949404</v>
+        <v>64.73687477721559</v>
       </c>
       <c r="F8">
-        <v>2289.996224947972</v>
+        <v>2694.113205821143</v>
       </c>
       <c r="G8">
-        <v>1814.132485077203</v>
+        <v>2099.942229337946</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -10661,7 +10661,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.001155939743457786</v>
+        <v>0.001359929109950336</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -10687,7 +10687,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.0002602360556592266</v>
+        <v>0.0003061600654814432</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -10722,10 +10722,10 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>4.623758973831147E-05</v>
+        <v>5.43971643980135E-05</v>
       </c>
       <c r="G8">
-        <v>2.602360556592266E-05</v>
+        <v>3.061600654814431E-05</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -10824,7 +10824,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12551.67652567739</v>
+        <v>13946.30725075265</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -10850,7 +10850,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1001.655380936546</v>
+        <v>1112.950423262829</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -10879,7 +10879,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>65445.00406342882</v>
+        <v>76994.12242756331</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -10902,10 +10902,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7124.099203600134</v>
+        <v>7915.665781777927</v>
       </c>
       <c r="C7">
-        <v>14733.59646682201</v>
+        <v>17333.64290214355</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -10934,16 +10934,16 @@
         <v>74811.27737415941</v>
       </c>
       <c r="D8">
-        <v>1004.13412205419</v>
+        <v>1115.704580060212</v>
       </c>
       <c r="E8">
-        <v>80.13243047492367</v>
+        <v>89.0360338610263</v>
       </c>
       <c r="F8">
-        <v>2617.800162537155</v>
+        <v>3079.764897102535</v>
       </c>
       <c r="G8">
-        <v>2185.769567042214</v>
+        <v>2524.930868392147</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -11042,7 +11042,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14217.31696562468</v>
+        <v>15797.01885069408</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1138.096161105932</v>
+        <v>1264.551290117702</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -11097,7 +11097,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>73283.93343216163</v>
+        <v>86216.39227313134</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -11120,10 +11120,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8073.211594324572</v>
+        <v>8970.235104805079</v>
       </c>
       <c r="C7">
-        <v>16498.37016809479</v>
+        <v>19409.84725658211</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -11152,16 +11152,16 @@
         <v>83772.08848133485</v>
       </c>
       <c r="D8">
-        <v>1137.385357249973</v>
+        <v>1263.761508055526</v>
       </c>
       <c r="E8">
-        <v>91.04769288847453</v>
+        <v>101.1641032094161</v>
       </c>
       <c r="F8">
-        <v>2931.357337286468</v>
+        <v>3448.655690925256</v>
       </c>
       <c r="G8">
-        <v>2457.158176241936</v>
+        <v>2838.008236138718</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -11260,7 +11260,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14325.94965482865</v>
+        <v>15917.7218386985</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -11286,7 +11286,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1144.474108226254</v>
+        <v>1271.637898029171</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -11315,7 +11315,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>80323.15967434912</v>
+        <v>94497.83491099896</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -11338,10 +11338,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8132.443331768038</v>
+        <v>9036.04814640893</v>
       </c>
       <c r="C7">
-        <v>18083.10716024986</v>
+        <v>21274.24371794101</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -11370,16 +11370,16 @@
         <v>91818.74558587656</v>
       </c>
       <c r="D8">
-        <v>1146.075972386291</v>
+        <v>1273.417747095879</v>
       </c>
       <c r="E8">
-        <v>91.55792865810025</v>
+        <v>101.7310318423336</v>
       </c>
       <c r="F8">
-        <v>3212.926386973968</v>
+        <v>3779.913396439962</v>
       </c>
       <c r="G8">
-        <v>2621.555049201789</v>
+        <v>3031.029186434993</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -11478,7 +11478,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14201.94288415862</v>
+        <v>15779.93653795402</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -11504,7 +11504,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1135.461294167166</v>
+        <v>1261.623660185739</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -11533,7 +11533,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>86125.76948604424</v>
+        <v>101324.4346894638</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -11556,10 +11556,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8062.994645111682</v>
+        <v>8958.882939012979</v>
       </c>
       <c r="C7">
-        <v>19389.44540017232</v>
+        <v>22811.11223549685</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -11588,16 +11588,16 @@
         <v>98451.80579160311</v>
       </c>
       <c r="D8">
-        <v>1136.155430732689</v>
+        <v>1262.394923036321</v>
       </c>
       <c r="E8">
-        <v>90.8369035333732</v>
+        <v>100.9298928148591</v>
       </c>
       <c r="F8">
-        <v>3445.030779441773</v>
+        <v>4052.977387578557</v>
       </c>
       <c r="G8">
-        <v>2745.2440045284</v>
+        <v>3176.999517450982</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -11696,7 +11696,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13870.89404957181</v>
+        <v>15412.10449952423</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -11722,7 +11722,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1112.16885293766</v>
+        <v>1235.743169930734</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -11751,7 +11751,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>90309.39256946702</v>
+        <v>106246.344199373</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -11774,10 +11774,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7878.407669105826</v>
+        <v>8753.786299006473</v>
       </c>
       <c r="C7">
-        <v>20331.30208064089</v>
+        <v>23919.17891840104</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -11806,16 +11806,16 @@
         <v>103234.175223799</v>
       </c>
       <c r="D8">
-        <v>1109.671523965744</v>
+        <v>1232.968359961938</v>
       </c>
       <c r="E8">
-        <v>88.97350823501279</v>
+        <v>98.85945359445863</v>
       </c>
       <c r="F8">
-        <v>3612.375702778684</v>
+        <v>4249.853767974923</v>
       </c>
       <c r="G8">
-        <v>2820.97097497467</v>
+        <v>3267.296521740751</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -11914,7 +11914,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13375.31701598538</v>
+        <v>14861.46335109486</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -11940,7 +11940,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1077.141725232714</v>
+        <v>1196.82413914746</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -11969,7 +11969,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>92593.71302350055</v>
+        <v>108933.7800276477</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -11992,10 +11992,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7601.914780471085</v>
+        <v>8446.571978301205</v>
       </c>
       <c r="C7">
-        <v>20845.56984259286</v>
+        <v>24524.19981481513</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -12024,16 +12024,16 @@
         <v>105845.4200933469</v>
       </c>
       <c r="D8">
-        <v>1070.025361278829</v>
+        <v>1188.917068087588</v>
       </c>
       <c r="E8">
-        <v>86.17133801861705</v>
+        <v>95.74593113179672</v>
       </c>
       <c r="F8">
-        <v>3703.748520940025</v>
+        <v>4357.351201105912</v>
       </c>
       <c r="G8">
-        <v>2844.748462306394</v>
+        <v>3297.077179311633</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -12132,7 +12132,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12997.67883263675</v>
+        <v>14441.86536959638</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -12158,7 +12158,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1055.044264009135</v>
+        <v>1172.271404454594</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -12187,7 +12187,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>92838.62346801002</v>
+        <v>109221.9099623647</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -12210,10 +12210,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7396.08684746625</v>
+        <v>8217.8742749625</v>
       </c>
       <c r="C7">
-        <v>20900.70639138756</v>
+        <v>24589.0663428089</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -12242,16 +12242,16 @@
         <v>106125.3813135841</v>
       </c>
       <c r="D8">
-        <v>1039.814306610939</v>
+        <v>1155.34922956771</v>
       </c>
       <c r="E8">
-        <v>84.40354112073075</v>
+        <v>93.78171235636749</v>
       </c>
       <c r="F8">
-        <v>3713.544938720404</v>
+        <v>4368.876398494594</v>
       </c>
       <c r="G8">
-        <v>2829.67932388538</v>
+        <v>3280.694061777139</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -12350,7 +12350,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12504.61542748054</v>
+        <v>13894.01714164505</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -12376,7 +12376,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1029.354448985084</v>
+        <v>1143.727165538982</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -12405,7 +12405,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>91065.14426948842</v>
+        <v>107135.463846457</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -12428,10 +12428,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7130.695511960793</v>
+        <v>7922.99501328977</v>
       </c>
       <c r="C7">
-        <v>20501.44403015376</v>
+        <v>24119.34591782796</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -12460,16 +12460,16 @@
         <v>104098.0876165845</v>
       </c>
       <c r="D8">
-        <v>1000.369234198443</v>
+        <v>1111.521371331603</v>
       </c>
       <c r="E8">
-        <v>82.34835591880666</v>
+        <v>91.4981732431185</v>
       </c>
       <c r="F8">
-        <v>3642.60577077954</v>
+        <v>4285.418553858282</v>
       </c>
       <c r="G8">
-        <v>2763.213954211455</v>
+        <v>3204.234093111772</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -12568,7 +12568,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11212.94383987259</v>
+        <v>12458.82648874733</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -12594,7 +12594,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>947.7228599752002</v>
+        <v>1053.025399972445</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -12623,7 +12623,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>87454.95356739868</v>
+        <v>102888.1806675279</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -12646,10 +12646,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6420.27690315834</v>
+        <v>7133.641003509267</v>
       </c>
       <c r="C7">
-        <v>19688.68385488797</v>
+        <v>23163.15747633879</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -12678,16 +12678,16 @@
         <v>99971.21831841952</v>
       </c>
       <c r="D8">
-        <v>897.035507189807</v>
+        <v>996.7061190997855</v>
       </c>
       <c r="E8">
-        <v>75.81782879801598</v>
+        <v>84.24203199779554</v>
       </c>
       <c r="F8">
-        <v>3498.198142695951</v>
+        <v>4115.527226701118</v>
       </c>
       <c r="G8">
-        <v>2610.896075804631</v>
+        <v>3029.679847984805</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -12786,7 +12786,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8466.376277102774</v>
+        <v>9407.084752336415</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -12812,7 +12812,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>759.0020091345385</v>
+        <v>843.3355657050428</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -12841,7 +12841,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>82329.64233475592</v>
+        <v>96858.40274677168</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -12864,10 +12864,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4893.63235724566</v>
+        <v>5437.369285828511</v>
       </c>
       <c r="C7">
-        <v>18534.8254580661</v>
+        <v>21805.67700948953</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -12896,16 +12896,16 @@
         <v>94112.38943237477</v>
       </c>
       <c r="D8">
-        <v>677.3101021682216</v>
+        <v>752.5667801869129</v>
       </c>
       <c r="E8">
-        <v>60.72016073076305</v>
+        <v>67.46684525640339</v>
       </c>
       <c r="F8">
-        <v>3293.18569339024</v>
+        <v>3874.336109870871</v>
       </c>
       <c r="G8">
-        <v>2342.845781531176</v>
+        <v>2724.304629531804</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -13059,7 +13059,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.005491229694254636</v>
+        <v>0.006460270228534866</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -13085,7 +13085,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.001236237411542753</v>
+        <v>0.001454396954756181</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -13120,10 +13120,10 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.0002196491877701856</v>
+        <v>0.0002584108091413949</v>
       </c>
       <c r="G8">
-        <v>0.0001236237411542753</v>
+        <v>0.000145439695475618</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -13222,7 +13222,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4773.240010683107</v>
+        <v>5303.600011870119</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -13248,7 +13248,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>501.7418290876304</v>
+        <v>557.4909212084783</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -13277,7 +13277,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>76115.5448635333</v>
+        <v>89547.69983945094</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -13300,10 +13300,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2837.144426049488</v>
+        <v>3152.382695610542</v>
       </c>
       <c r="C7">
-        <v>17135.8492358665</v>
+        <v>20159.82263043118</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -13332,16 +13332,16 @@
         <v>87008.95080932671</v>
       </c>
       <c r="D8">
-        <v>381.8592008546484</v>
+        <v>424.2880009496093</v>
       </c>
       <c r="E8">
-        <v>40.13934632701041</v>
+        <v>44.59927369667825</v>
       </c>
       <c r="F8">
-        <v>3044.621794541335</v>
+        <v>3581.907993578041</v>
       </c>
       <c r="G8">
-        <v>1997.299366191598</v>
+        <v>2331.220532604172</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -13440,7 +13440,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2871.371291346356</v>
+        <v>3190.412545940395</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -13466,7 +13466,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>392.4286328589343</v>
+        <v>436.0318142877048</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -13495,7 +13495,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>69302.18948150662</v>
+        <v>81531.9876253019</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -13518,10 +13518,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1802.64057043444</v>
+        <v>2002.933967149378</v>
       </c>
       <c r="C7">
-        <v>15601.96242173263</v>
+        <v>18355.24990792074</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -13550,16 +13550,16 @@
         <v>79220.49045810557</v>
       </c>
       <c r="D8">
-        <v>229.7097033077083</v>
+        <v>255.2330036752315</v>
       </c>
       <c r="E8">
-        <v>31.39429062871473</v>
+        <v>34.88254514301637</v>
       </c>
       <c r="F8">
-        <v>2772.087579260267</v>
+        <v>3261.279505012079</v>
       </c>
       <c r="G8">
-        <v>1740.460299216706</v>
+        <v>2035.818387507011</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -13658,7 +13658,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2660.160148803825</v>
+        <v>2955.733498670916</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -13684,7 +13684,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>405.0830674508886</v>
+        <v>450.092297167654</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -13713,7 +13713,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>62401.13907990175</v>
+        <v>73413.1047998844</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -13736,10 +13736,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1714.008744423198</v>
+        <v>1904.45416047022</v>
       </c>
       <c r="C7">
-        <v>14048.33287781968</v>
+        <v>16527.45044449374</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -13768,16 +13768,16 @@
         <v>71331.78446509893</v>
       </c>
       <c r="D8">
-        <v>212.8128119043058</v>
+        <v>236.4586798936732</v>
       </c>
       <c r="E8">
-        <v>32.40664539607107</v>
+        <v>36.0073837734123</v>
       </c>
       <c r="F8">
-        <v>2496.045563196072</v>
+        <v>2936.524191995379</v>
       </c>
       <c r="G8">
-        <v>1576.234162224287</v>
+        <v>1843.190460496395</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -13876,7 +13876,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2459.585707637628</v>
+        <v>2732.873008486253</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -13902,7 +13902,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>388.5909970654689</v>
+        <v>431.7677745171877</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -13931,7 +13931,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>55908.2383042782</v>
+        <v>65774.39800503319</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -13954,10 +13954,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1599.652071296732</v>
+        <v>1777.391190329702</v>
       </c>
       <c r="C7">
-        <v>12586.589826594</v>
+        <v>14807.75273716942</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -13986,16 +13986,16 @@
         <v>63909.64112750681</v>
       </c>
       <c r="D8">
-        <v>196.7668566110101</v>
+        <v>218.6298406789001</v>
       </c>
       <c r="E8">
-        <v>31.0872797652375</v>
+        <v>34.54142196137499</v>
       </c>
       <c r="F8">
-        <v>2236.32953217113</v>
+        <v>2630.97592020133</v>
       </c>
       <c r="G8">
-        <v>1418.624189789073</v>
+        <v>1658.514392749912</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -14094,7 +14094,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2060.424975684933</v>
+        <v>2289.36108409437</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -14120,7 +14120,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>337.7748399835199</v>
+        <v>375.3053777594666</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -14149,7 +14149,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>50268.78709754893</v>
+        <v>59139.74952652815</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -14172,10 +14172,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1353.016850387237</v>
+        <v>1503.352055985819</v>
       </c>
       <c r="C7">
-        <v>11316.98339042125</v>
+        <v>13314.09810637794</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -14204,16 +14204,16 @@
         <v>57463.09024860756</v>
       </c>
       <c r="D8">
-        <v>164.8339980547946</v>
+        <v>183.1488867275495</v>
       </c>
       <c r="E8">
-        <v>27.02198719868158</v>
+        <v>30.02443022075731</v>
       </c>
       <c r="F8">
-        <v>2010.751483901959</v>
+        <v>2365.589981061128</v>
       </c>
       <c r="G8">
-        <v>1267.000024080848</v>
+        <v>1481.745016236375</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -14312,7 +14312,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1613.41420286095</v>
+        <v>1792.682447623278</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -14338,7 +14338,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>276.9985039478427</v>
+        <v>307.7761154976029</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -14367,7 +14367,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>45844.63549749582</v>
+        <v>53934.86529117155</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -14390,10 +14390,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1072.719470195514</v>
+        <v>1191.91052243946</v>
       </c>
       <c r="C7">
-        <v>10320.97666208409</v>
+        <v>12142.32548480482</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -14422,16 +14422,16 @@
         <v>52405.76865113123</v>
       </c>
       <c r="D8">
-        <v>129.0731362288759</v>
+        <v>143.4145958098622</v>
       </c>
       <c r="E8">
-        <v>22.1598803158274</v>
+        <v>24.62208923980822</v>
       </c>
       <c r="F8">
-        <v>1833.785419899835</v>
+        <v>2157.394611646864</v>
       </c>
       <c r="G8">
-        <v>1139.369613227961</v>
+        <v>1333.423600724427</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -14530,7 +14530,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1602.229726808148</v>
+        <v>1780.255252009053</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -14556,7 +14556,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>239.9160279072957</v>
+        <v>266.5733643414396</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -14585,7 +14585,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>42885.13555465297</v>
+        <v>50453.10065253291</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -14608,10 +14608,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1028.049884481202</v>
+        <v>1142.277649423557</v>
       </c>
       <c r="C7">
-        <v>9654.706126610239</v>
+        <v>11358.47779601205</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -14640,16 +14640,16 @@
         <v>49022.71482935682</v>
       </c>
       <c r="D8">
-        <v>128.1783781446518</v>
+        <v>142.4204201607242</v>
       </c>
       <c r="E8">
-        <v>19.19328223258364</v>
+        <v>21.32586914731516</v>
       </c>
       <c r="F8">
-        <v>1715.40542218612</v>
+        <v>2018.124026101318</v>
       </c>
       <c r="G8">
-        <v>1068.275601109144</v>
+        <v>1250.07554454356</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -14748,7 +14748,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2127.395290893323</v>
+        <v>2363.772545437026</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -14774,7 +14774,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>233.892832054987</v>
+        <v>259.8809245055411</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -14803,7 +14803,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>41507.76858795146</v>
+        <v>48832.66892700172</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -14826,10 +14826,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1275.368206405269</v>
+        <v>1417.075784894743</v>
       </c>
       <c r="C7">
-        <v>9344.620286376468</v>
+        <v>10993.67092514879</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -14858,16 +14858,16 @@
         <v>47448.22364142682</v>
       </c>
       <c r="D8">
-        <v>170.1916232714658</v>
+        <v>189.101803634962</v>
       </c>
       <c r="E8">
-        <v>18.71142656439895</v>
+        <v>20.79047396044328</v>
       </c>
       <c r="F8">
-        <v>1660.31074351806</v>
+        <v>1953.30675708007</v>
       </c>
       <c r="G8">
-        <v>1061.998849278173</v>
+        <v>1241.074671004353</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -14966,7 +14966,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3067.133511192395</v>
+        <v>3407.926123547105</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -14992,7 +14992,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>262.3330636956459</v>
+        <v>291.481181884051</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -15021,7 +15021,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>41695.30922106394</v>
+        <v>49053.30496595758</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -15044,10 +15044,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1759.451028853389</v>
+        <v>1954.945587614877</v>
       </c>
       <c r="C7">
-        <v>9386.841202227182</v>
+        <v>11043.34259085551</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -15076,16 +15076,16 @@
         <v>47662.60447191933</v>
       </c>
       <c r="D8">
-        <v>245.3706808953914</v>
+        <v>272.6340898837682</v>
       </c>
       <c r="E8">
-        <v>20.98664509565166</v>
+        <v>23.31849455072406</v>
       </c>
       <c r="F8">
-        <v>1667.812368842559</v>
+        <v>1962.132198638305</v>
       </c>
       <c r="G8">
-        <v>1114.629223108057</v>
+        <v>1299.828817847038</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -15184,7 +15184,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4444.075364857863</v>
+        <v>4937.861516508736</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -15210,7 +15210,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>344.3381812985399</v>
+        <v>382.5979792205999</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -15239,7 +15239,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>43312.59577182544</v>
+        <v>50955.99502567699</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -15262,10 +15262,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2511.457412999953</v>
+        <v>2790.508236666614</v>
       </c>
       <c r="C7">
-        <v>9750.940001687017</v>
+        <v>11471.69411963178</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -15294,16 +15294,16 @@
         <v>49511.35174413666</v>
       </c>
       <c r="D8">
-        <v>355.5260291886289</v>
+        <v>395.0289213206987</v>
       </c>
       <c r="E8">
-        <v>27.54705450388318</v>
+        <v>30.60783833764798</v>
       </c>
       <c r="F8">
-        <v>1732.503830873019</v>
+        <v>2038.239801027081</v>
       </c>
       <c r="G8">
-        <v>1226.239741468697</v>
+        <v>1426.220235629839</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -15402,7 +15402,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.256658090712606E-12</v>
+        <v>2.507397878569562E-12</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -15428,7 +15428,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4.87006560015697E-15</v>
+        <v>5.411184000174411E-15</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -15457,7 +15457,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.01919267184079498</v>
+        <v>0.02257961393034704</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -15480,10 +15480,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.095300284427423E-12</v>
+        <v>1.21700031603047E-12</v>
       </c>
       <c r="C7">
-        <v>0.004320835273359381</v>
+        <v>0.005083335615716919</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -15512,16 +15512,16 @@
         <v>0.02193946378613313</v>
       </c>
       <c r="D8">
-        <v>1.805326472570084E-13</v>
+        <v>2.005918302855649E-13</v>
       </c>
       <c r="E8">
-        <v>3.896052480125574E-16</v>
+        <v>4.328947200139526E-16</v>
       </c>
       <c r="F8">
-        <v>0.0007677068736317999</v>
+        <v>0.0009031845572138823</v>
       </c>
       <c r="G8">
-        <v>0.0004320835274454682</v>
+        <v>0.0005083335616933918</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -15620,7 +15620,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6215.367358911789</v>
+        <v>6905.963732124209</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -15646,7 +15646,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>479.4186127363305</v>
+        <v>532.6873474848117</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -15675,7 +15675,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>46138.96439258095</v>
+        <v>54281.134579507</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -15698,10 +15698,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3510.167343172568</v>
+        <v>3900.185936858409</v>
       </c>
       <c r="C7">
-        <v>10387.23875849266</v>
+        <v>12220.28089234431</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -15730,16 +15730,16 @@
         <v>52742.22092773439</v>
       </c>
       <c r="D8">
-        <v>497.2293887129429</v>
+        <v>552.4770985699364</v>
       </c>
       <c r="E8">
-        <v>38.35348901890642</v>
+        <v>42.61498779878491</v>
       </c>
       <c r="F8">
-        <v>1845.55857570324</v>
+        <v>2171.245383180282</v>
       </c>
       <c r="G8">
-        <v>1389.740610166522</v>
+        <v>1612.046682920271</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -15838,7 +15838,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8316.143131185116</v>
+        <v>9240.159034650127</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -15864,7 +15864,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>650.6438330257799</v>
+        <v>722.9375922508666</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -15893,7 +15893,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>49906.45736784397</v>
+        <v>58713.47925628703</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -15916,10 +15916,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4706.317544540407</v>
+        <v>5229.241716156007</v>
       </c>
       <c r="C7">
-        <v>11235.4123048693</v>
+        <v>13218.13212337564</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -15948,16 +15948,16 @@
         <v>57048.90508202722</v>
       </c>
       <c r="D8">
-        <v>665.2914504948089</v>
+        <v>739.2127227720098</v>
       </c>
       <c r="E8">
-        <v>52.05150664206237</v>
+        <v>57.8350073800693</v>
       </c>
       <c r="F8">
-        <v>1996.258294713761</v>
+        <v>2348.539170251483</v>
       </c>
       <c r="G8">
-        <v>1594.17298494097</v>
+        <v>1844.737383953165</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -16056,7 +16056,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10630.34517765135</v>
+        <v>11811.49464183483</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -16082,7 +16082,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>841.4150983667329</v>
+        <v>934.9056648519254</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -16111,7 +16111,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>54332.8813669509</v>
+        <v>63921.03690229518</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -16134,10 +16134,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6026.266716675229</v>
+        <v>6695.851907416921</v>
       </c>
       <c r="C7">
-        <v>12231.93061711037</v>
+        <v>14390.50660836514</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -16166,16 +16166,16 @@
         <v>62108.82429682137</v>
       </c>
       <c r="D8">
-        <v>850.4276142121074</v>
+        <v>944.919571346786</v>
       </c>
       <c r="E8">
-        <v>67.3132078693386</v>
+        <v>74.792453188154</v>
       </c>
       <c r="F8">
-        <v>2173.315254678038</v>
+        <v>2556.841476091809</v>
       </c>
       <c r="G8">
-        <v>1825.819733378559</v>
+        <v>2108.635851578206</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -16274,7 +16274,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12705.78787839216</v>
+        <v>14117.5420871024</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -16300,7 +16300,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1013.204447914807</v>
+        <v>1125.782719905341</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -16329,7 +16329,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>59143.22673949101</v>
+        <v>69580.26675234236</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -16352,10 +16352,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7210.776407705319</v>
+        <v>8011.973786339243</v>
       </c>
       <c r="C7">
-        <v>13314.88092935055</v>
+        <v>15664.56579923595</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -16384,16 +16384,16 @@
         <v>67607.61044682024</v>
       </c>
       <c r="D8">
-        <v>1016.463030271372</v>
+        <v>1129.403366968191</v>
       </c>
       <c r="E8">
-        <v>81.05635583318454</v>
+        <v>90.06261759242726</v>
       </c>
       <c r="F8">
-        <v>2365.729069579642</v>
+        <v>2783.210670093697</v>
       </c>
       <c r="G8">
-        <v>2052.565733705587</v>
+        <v>2367.653958557519</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -16492,7 +16492,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13906.3149057666</v>
+        <v>15451.46100640733</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -16518,7 +16518,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1112.306161045938</v>
+        <v>1235.895734495487</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -16547,7 +16547,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>64079.70220495669</v>
+        <v>75387.88494700787</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -16570,10 +16570,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7895.664124444342</v>
+        <v>8772.960138271492</v>
       </c>
       <c r="C7">
-        <v>14426.22683752786</v>
+        <v>16972.03157356219</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -16602,16 +16602,16 @@
         <v>73250.57801298861</v>
       </c>
       <c r="D8">
-        <v>1112.505192461327</v>
+        <v>1236.116880512586</v>
       </c>
       <c r="E8">
-        <v>88.98449288367502</v>
+        <v>98.8716587596389</v>
       </c>
       <c r="F8">
-        <v>2563.18808819827</v>
+        <v>3015.515397880317</v>
       </c>
       <c r="G8">
-        <v>2232.18909619722</v>
+        <v>2574.499171183368</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -16710,7 +16710,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14186.67767299527</v>
+        <v>15762.97519221697</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -16736,7 +16736,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1135.757030064466</v>
+        <v>1261.952255627184</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -16765,7 +16765,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>68905.29807541655</v>
+        <v>81065.05655931358</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -16788,10 +16788,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8055.933501798077</v>
+        <v>8951.037224220087</v>
       </c>
       <c r="C7">
-        <v>15512.61048567326</v>
+        <v>18250.12998314501</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -16820,16 +16820,16 @@
         <v>78766.79726191222</v>
       </c>
       <c r="D8">
-        <v>1134.934213839621</v>
+        <v>1261.038015377356</v>
       </c>
       <c r="E8">
-        <v>90.86056240515722</v>
+        <v>100.9561804501747</v>
       </c>
       <c r="F8">
-        <v>2756.211923016665</v>
+        <v>3242.602262372546</v>
       </c>
       <c r="G8">
-        <v>2356.854398747133</v>
+        <v>2720.116720736509</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -16928,7 +16928,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14010.78172902666</v>
+        <v>15567.53525447406</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -16954,7 +16954,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1123.836299849656</v>
+        <v>1248.706999832951</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -16983,7 +16983,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>73406.14844908778</v>
+        <v>86360.17464598564</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -17006,10 +17006,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7958.33907254971</v>
+        <v>8842.598969499677</v>
       </c>
       <c r="C7">
-        <v>16525.88436520341</v>
+        <v>19442.21690023931</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -17038,16 +17038,16 @@
         <v>83911.79450872984</v>
       </c>
       <c r="D8">
-        <v>1120.862538322132</v>
+        <v>1245.402820357924</v>
       </c>
       <c r="E8">
-        <v>89.90690398797244</v>
+        <v>99.89655998663605</v>
       </c>
       <c r="F8">
-        <v>2936.245937963514</v>
+        <v>3454.406985839429</v>
       </c>
       <c r="G8">
-        <v>2448.422343775312</v>
+        <v>2828.481586973898</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -17146,7 +17146,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13663.22772831074</v>
+        <v>15181.36414256749</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -17172,7 +17172,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1100.821271913399</v>
+        <v>1223.134746570443</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -17201,7 +17201,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>77395.26229897358</v>
+        <v>91053.24976349833</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -17224,10 +17224,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7766.072555651142</v>
+        <v>8628.969506279045</v>
       </c>
       <c r="C7">
-        <v>17423.95129277919</v>
+        <v>20498.76622679905</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -17256,16 +17256,16 @@
         <v>88471.81718688065</v>
       </c>
       <c r="D8">
-        <v>1093.058218264858</v>
+        <v>1214.509131405398</v>
       </c>
       <c r="E8">
-        <v>88.06570175307188</v>
+        <v>97.85077972563541</v>
       </c>
       <c r="F8">
-        <v>3095.810491958946</v>
+        <v>3642.129990539936</v>
       </c>
       <c r="G8">
-        <v>2519.002384843033</v>
+        <v>2912.773573307809</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -17364,7 +17364,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13227.74548614175</v>
+        <v>14697.49498460195</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -17390,7 +17390,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1074.139548784711</v>
+        <v>1193.488387538567</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -17419,7 +17419,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>80717.39976470964</v>
+        <v>94961.64678201133</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -17442,10 +17442,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7527.447120749644</v>
+        <v>8363.830134166272</v>
       </c>
       <c r="C7">
-        <v>18171.86220711005</v>
+        <v>21378.66142012947</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -17474,16 +17474,16 @@
         <v>92269.40801877042</v>
       </c>
       <c r="D8">
-        <v>1058.21963889134</v>
+        <v>1175.799598768155</v>
       </c>
       <c r="E8">
-        <v>85.9311639027768</v>
+        <v>95.47907100308534</v>
       </c>
       <c r="F8">
-        <v>3228.695990588389</v>
+        <v>3798.465871280457</v>
       </c>
       <c r="G8">
-        <v>2569.930932785969</v>
+        <v>2974.249155429573</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -17582,7 +17582,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12738.20500151907</v>
+        <v>14153.56111279896</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -17608,7 +17608,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1048.2609926871</v>
+        <v>1164.734436319</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -17637,7 +17637,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>83253.87695112398</v>
+        <v>97945.73758955763</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -17660,10 +17660,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7263.557775218876</v>
+        <v>8070.619750243196</v>
       </c>
       <c r="C7">
-        <v>18742.89787051545</v>
+        <v>22050.46808295935</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -17692,16 +17692,16 @@
         <v>95168.8974612672</v>
       </c>
       <c r="D8">
-        <v>1019.056400121525</v>
+        <v>1132.284889023916</v>
       </c>
       <c r="E8">
-        <v>83.86087941496794</v>
+        <v>93.17875490551992</v>
       </c>
       <c r="F8">
-        <v>3330.155078044962</v>
+        <v>3917.829503582308</v>
       </c>
       <c r="G8">
-        <v>2600.645564573432</v>
+        <v>3012.108783320254</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -17800,7 +17800,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.344876600315225E-10</v>
+        <v>1.494307333683583E-10</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -17826,7 +17826,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.686019537894005E-13</v>
+        <v>4.095577264326672E-13</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -17855,7 +17855,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.05615248083417201</v>
+        <v>0.06606174215784943</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -17878,10 +17878,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.535843146344776E-11</v>
+        <v>7.262047940383084E-11</v>
       </c>
       <c r="C7">
-        <v>0.01264157600815193</v>
+        <v>0.01487244236253169</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -17910,16 +17910,16 @@
         <v>0.06418883884338965</v>
       </c>
       <c r="D8">
-        <v>1.075901280252179E-11</v>
+        <v>1.195445866946866E-11</v>
       </c>
       <c r="E8">
-        <v>2.948815630315203E-14</v>
+        <v>3.276461811461336E-14</v>
       </c>
       <c r="F8">
-        <v>0.002246099233366882</v>
+        <v>0.00264246968631398</v>
       </c>
       <c r="G8">
-        <v>0.001264157607351036</v>
+        <v>0.001487244243515216</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -18018,7 +18018,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12079.4795228628</v>
+        <v>13421.643914292</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -18044,7 +18044,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1016.118134076316</v>
+        <v>1129.020148973685</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -18073,7 +18073,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>84926.62121753738</v>
+        <v>99913.67202063222</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -18096,10 +18096,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6911.305503899517</v>
+        <v>7679.22833766613</v>
       </c>
       <c r="C7">
-        <v>19119.48183389391</v>
+        <v>22493.50803987519</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -18128,16 +18128,16 @@
         <v>97081.03937464235</v>
       </c>
       <c r="D8">
-        <v>966.3583618290235</v>
+        <v>1073.731513143359</v>
       </c>
       <c r="E8">
-        <v>81.28945072610527</v>
+        <v>90.32161191789474</v>
       </c>
       <c r="F8">
-        <v>3397.064848701498</v>
+        <v>3996.546880825292</v>
       </c>
       <c r="G8">
-        <v>2603.078733779342</v>
+        <v>3017.273637754131</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -18236,7 +18236,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10892.91257456428</v>
+        <v>12103.23619396031</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -18262,7 +18262,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>949.4796730338757</v>
+        <v>1054.977414482084</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -18291,7 +18291,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>85701.54228360097</v>
+        <v>100825.34386306</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -18314,10 +18314,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6267.536914959281</v>
+        <v>6963.929905510312</v>
       </c>
       <c r="C7">
-        <v>19293.93937185899</v>
+        <v>22698.75220218704</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -18346,16 +18346,16 @@
         <v>97966.86458996625</v>
       </c>
       <c r="D8">
-        <v>871.4330059651421</v>
+        <v>968.2588955168245</v>
       </c>
       <c r="E8">
-        <v>75.95837384271002</v>
+        <v>84.3981931585667</v>
       </c>
       <c r="F8">
-        <v>3428.061691344042</v>
+        <v>4033.013754522402</v>
       </c>
       <c r="G8">
-        <v>2556.147628681826</v>
+        <v>2966.268210769735</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -18454,7 +18454,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8785.71285505756</v>
+        <v>9761.903172286176</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -18480,7 +18480,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>813.8200048452953</v>
+        <v>904.244449828106</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -18509,7 +18509,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>85591.36430879415</v>
+        <v>100695.7227162284</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -18532,10 +18532,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5105.943776170999</v>
+        <v>5673.270862412221</v>
       </c>
       <c r="C7">
-        <v>19269.13506718262</v>
+        <v>22669.57066727367</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -18564,16 +18564,16 @@
         <v>97840.91830649124</v>
       </c>
       <c r="D8">
-        <v>702.8570284046044</v>
+        <v>780.9522537828938</v>
       </c>
       <c r="E8">
-        <v>65.1056003876236</v>
+        <v>72.33955598624844</v>
       </c>
       <c r="F8">
-        <v>3423.654572351769</v>
+        <v>4027.82890864914</v>
       </c>
       <c r="G8">
-        <v>2437.507884335361</v>
+        <v>2834.284152968588</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -18672,7 +18672,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6431.856711441209</v>
+        <v>7146.507457156899</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -18698,7 +18698,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>659.1749130541081</v>
+        <v>732.4165700601201</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -18727,7 +18727,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>84657.54141794928</v>
+        <v>99597.10755052857</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -18750,10 +18750,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3805.092531784608</v>
+        <v>4227.880590871786</v>
       </c>
       <c r="C7">
-        <v>19058.90405196479</v>
+        <v>22422.24006113505</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -18782,16 +18782,16 @@
         <v>96773.44976087658</v>
       </c>
       <c r="D8">
-        <v>514.5485369152965</v>
+        <v>571.7205965725517</v>
       </c>
       <c r="E8">
-        <v>52.73399304432862</v>
+        <v>58.59332560480958</v>
       </c>
       <c r="F8">
-        <v>3386.301656717974</v>
+        <v>3983.884302021146</v>
       </c>
       <c r="G8">
-        <v>2286.399658374939</v>
+        <v>2665.012065200683</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -18890,7 +18890,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4897.861684314392</v>
+        <v>5442.068538127102</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -18916,7 +18916,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>564.744394877435</v>
+        <v>627.4937720860388</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -18945,7 +18945,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>83010.24042831417</v>
+        <v>97659.10638625195</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -18968,10 +18968,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2964.059863759127</v>
+        <v>3293.399848621252</v>
       </c>
       <c r="C7">
-        <v>18688.04811898697</v>
+        <v>21985.93896351408</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -19000,16 +19000,16 @@
         <v>94890.39248220516</v>
       </c>
       <c r="D8">
-        <v>391.8289347451512</v>
+        <v>435.365483050168</v>
       </c>
       <c r="E8">
-        <v>45.17955159019478</v>
+        <v>50.19950176688308</v>
       </c>
       <c r="F8">
-        <v>3320.40961713257</v>
+        <v>3906.364255450082</v>
       </c>
       <c r="G8">
-        <v>2165.210798274609</v>
+        <v>2527.933881213532</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -19108,7 +19108,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4234.510183283519</v>
+        <v>4705.011314759465</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -19134,7 +19134,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>525.522490798551</v>
+        <v>583.9138786650566</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -19163,7 +19163,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>80805.01112600212</v>
+        <v>95064.7189717672</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -19186,10 +19186,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2602.076864195488</v>
+        <v>2891.196515772765</v>
       </c>
       <c r="C7">
-        <v>18191.58610294695</v>
+        <v>21401.866003467</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -19218,16 +19218,16 @@
         <v>92369.5580293721</v>
       </c>
       <c r="D8">
-        <v>338.7608146626814</v>
+        <v>376.400905180757</v>
       </c>
       <c r="E8">
-        <v>42.04179926388406</v>
+        <v>46.7131102932045</v>
       </c>
       <c r="F8">
-        <v>3232.200445040088</v>
+        <v>3802.588758870691</v>
       </c>
       <c r="G8">
-        <v>2079.366296714243</v>
+        <v>2429.306251923976</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -19326,7 +19326,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3912.973688749582</v>
+        <v>4347.748543055091</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -19352,7 +19352,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>494.6771992482359</v>
+        <v>549.6413324980399</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -19381,7 +19381,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>78234.88706934291</v>
+        <v>92041.04361099166</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -19404,10 +19404,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2414.087389603713</v>
+        <v>2682.319321781903</v>
       </c>
       <c r="C7">
-        <v>17612.97553881912</v>
+        <v>20721.14769272838</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -19436,16 +19436,16 @@
         <v>89431.60628744264</v>
       </c>
       <c r="D8">
-        <v>313.0378950999664</v>
+        <v>347.8198834444071</v>
       </c>
       <c r="E8">
-        <v>39.57417593985885</v>
+        <v>43.97130659984317</v>
       </c>
       <c r="F8">
-        <v>3129.395482773719</v>
+        <v>3681.64174443967</v>
       </c>
       <c r="G8">
-        <v>2002.706292842283</v>
+        <v>2340.346701451028</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -19544,7 +19544,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3651.704987818339</v>
+        <v>4057.449986464821</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -19570,7 +19570,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>453.3109828810788</v>
+        <v>503.6788698678653</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -19599,7 +19599,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>75517.36341791034</v>
+        <v>88843.95696224747</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -19622,10 +19622,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2244.071401435516</v>
+        <v>2493.412668261685</v>
       </c>
       <c r="C7">
-        <v>17001.18098792496</v>
+        <v>20001.38939755878</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -19654,16 +19654,16 @@
         <v>86325.15960648404</v>
       </c>
       <c r="D8">
-        <v>292.136399025467</v>
+        <v>324.5959989171855</v>
       </c>
       <c r="E8">
-        <v>36.26487863048629</v>
+        <v>40.2943095894292</v>
       </c>
       <c r="F8">
-        <v>3020.694536716416</v>
+        <v>3553.758278489902</v>
       </c>
       <c r="G8">
-        <v>1924.525238936047</v>
+        <v>2249.480206582046</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -19762,7 +19762,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3533.651616020904</v>
+        <v>3926.279573356559</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -19788,7 +19788,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>413.5219507291075</v>
+        <v>459.4688341434528</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -19817,7 +19817,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>72876.93345626391</v>
+        <v>85737.5687720752</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -19840,10 +19840,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2144.909762243381</v>
+        <v>2383.233069159312</v>
       </c>
       <c r="C7">
-        <v>16406.74249547563</v>
+        <v>19302.04999467722</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -19872,16 +19872,16 @@
         <v>83306.84001013529</v>
       </c>
       <c r="D8">
-        <v>282.6921292816722</v>
+        <v>314.1023658685246</v>
       </c>
       <c r="E8">
-        <v>33.08175605832859</v>
+        <v>36.75750673147621</v>
       </c>
       <c r="F8">
-        <v>2915.077338250559</v>
+        <v>3429.502750883011</v>
       </c>
       <c r="G8">
-        <v>1855.165225771901</v>
+        <v>2168.528306383653</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -19980,7 +19980,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3748.014936728745</v>
+        <v>4164.461040809717</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -20006,7 +20006,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>393.210387471423</v>
+        <v>436.9004305238033</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -20035,7 +20035,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>70525.30395489981</v>
+        <v>82970.94582929388</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -20058,10 +20058,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2226.956210905005</v>
+        <v>2474.39578989445</v>
       </c>
       <c r="C7">
-        <v>15877.32148605844</v>
+        <v>18679.20174830405</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -20090,16 +20090,16 @@
         <v>80618.65304421655</v>
       </c>
       <c r="D8">
-        <v>299.8411949382995</v>
+        <v>333.1568832647772</v>
       </c>
       <c r="E8">
-        <v>31.45683099771382</v>
+        <v>34.95203444190425</v>
       </c>
       <c r="F8">
-        <v>2821.012158195995</v>
+        <v>3318.837833171758</v>
       </c>
       <c r="G8">
-        <v>1810.427769696344</v>
+        <v>2115.359753819849</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -20198,7 +20198,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4.25934830835577E-09</v>
+        <v>4.732609231506411E-09</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -20224,7 +20224,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.385678749280955E-11</v>
+        <v>1.539643054756616E-11</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -20253,7 +20253,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1448310547834248</v>
+        <v>0.1703894762157939</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -20276,10 +20276,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.072273232023915E-09</v>
+        <v>2.302525813359906E-09</v>
       </c>
       <c r="C7">
-        <v>0.0326057328222492</v>
+        <v>0.03835968567323435</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -20308,16 +20308,16 @@
         <v>0.1655587980603328</v>
       </c>
       <c r="D8">
-        <v>3.407478646684614E-10</v>
+        <v>3.786087385205127E-10</v>
       </c>
       <c r="E8">
-        <v>1.108542999424763E-12</v>
+        <v>1.231714443805292E-12</v>
       </c>
       <c r="F8">
-        <v>0.005793242191336999</v>
+        <v>0.006815579048631763</v>
       </c>
       <c r="G8">
-        <v>0.003260573489452243</v>
+        <v>0.003835968797576016</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -20416,7 +20416,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4395.742024467232</v>
+        <v>4884.157804963591</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -20442,7 +20442,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>405.0050618485097</v>
+        <v>450.0056242761219</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -20471,7 +20471,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>68642.45744975527</v>
+        <v>80755.83229382974</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -20494,10 +20494,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2552.348718362616</v>
+        <v>2835.943020402906</v>
       </c>
       <c r="C7">
-        <v>15453.4373254145</v>
+        <v>18180.51450048765</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -20526,16 +20526,16 @@
         <v>78466.33975208481</v>
       </c>
       <c r="D8">
-        <v>351.6593619573784</v>
+        <v>390.7326243970871</v>
       </c>
       <c r="E8">
-        <v>32.40040494788077</v>
+        <v>36.00044994208974</v>
       </c>
       <c r="F8">
-        <v>2745.698297990213</v>
+        <v>3230.233291753192</v>
       </c>
       <c r="G8">
-        <v>1800.578604377712</v>
+        <v>2101.645752089055</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -20634,7 +20634,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5504.945426404062</v>
+        <v>6116.606029337847</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -20660,7 +20660,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>460.0318192996267</v>
+        <v>511.1464658884741</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -20689,7 +20689,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>67361.82259522191</v>
+        <v>79249.20305320226</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -20712,10 +20712,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3146.449005107695</v>
+        <v>3496.05445011966</v>
       </c>
       <c r="C7">
-        <v>15165.12873046423</v>
+        <v>17841.32791819322</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -20744,16 +20744,16 @@
         <v>77002.42465744051</v>
       </c>
       <c r="D8">
-        <v>440.3956341123248</v>
+        <v>489.3284823470275</v>
       </c>
       <c r="E8">
-        <v>36.80254554397012</v>
+        <v>40.89171727107791</v>
       </c>
       <c r="F8">
-        <v>2694.472903808879</v>
+        <v>3169.968122128093</v>
       </c>
       <c r="G8">
-        <v>1831.157773557193</v>
+        <v>2133.738236831287</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -20852,7 +20852,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7024.214117365531</v>
+        <v>7804.682352628367</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -20878,7 +20878,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>561.5356882216149</v>
+        <v>623.928542468461</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -20907,7 +20907,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>66761.79380735313</v>
+        <v>78543.28683218015</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -20930,10 +20930,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3987.857659728563</v>
+        <v>4430.952955253959</v>
       </c>
       <c r="C7">
-        <v>15030.04459141572</v>
+        <v>17682.40540166555</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -20962,16 +20962,16 @@
         <v>76316.52172681762</v>
       </c>
       <c r="D8">
-        <v>561.9371293892422</v>
+        <v>624.3745882102691</v>
       </c>
       <c r="E8">
-        <v>44.92285505772917</v>
+        <v>49.91428339747686</v>
       </c>
       <c r="F8">
-        <v>2670.471752294127</v>
+        <v>3141.731473287209</v>
       </c>
       <c r="G8">
-        <v>1901.790225114427</v>
+        <v>2211.33583569195</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -21070,7 +21070,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8840.407611123235</v>
+        <v>9822.675123470262</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -21096,7 +21096,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>700.5148410262518</v>
+        <v>778.349823362502</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -21125,7 +21125,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>66864.14730596959</v>
+        <v>78663.70271290539</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -21148,10 +21148,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5012.386899306279</v>
+        <v>5569.318777006975</v>
       </c>
       <c r="C7">
-        <v>15053.08737622662</v>
+        <v>17709.51456026661</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -21180,16 +21180,16 @@
         <v>76433.52372085508</v>
       </c>
       <c r="D8">
-        <v>707.2326088898585</v>
+        <v>785.8140098776206</v>
       </c>
       <c r="E8">
-        <v>56.04118728210012</v>
+        <v>62.26798586900013</v>
       </c>
       <c r="F8">
-        <v>2674.565892238786</v>
+        <v>3146.548108516218</v>
       </c>
       <c r="G8">
-        <v>2006.547427553289</v>
+        <v>2327.883333727358</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -21288,7 +21288,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10796.89373737954</v>
+        <v>11996.54859708837</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -21314,7 +21314,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>858.7248709680491</v>
+        <v>954.1387455200546</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -21343,7 +21343,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>67638.31791186053</v>
+        <v>79574.49166101239</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -21366,10 +21366,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6125.052076667026</v>
+        <v>6805.613418518918</v>
       </c>
       <c r="C7">
-        <v>15227.37596352073</v>
+        <v>17914.55995708321</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -21398,16 +21398,16 @@
         <v>77318.49107261958</v>
       </c>
       <c r="D8">
-        <v>863.7514989903625</v>
+        <v>959.7238877670693</v>
       </c>
       <c r="E8">
-        <v>68.6979896774439</v>
+        <v>76.33109964160433</v>
       </c>
       <c r="F8">
-        <v>2705.532716474424</v>
+        <v>3182.979666440498</v>
       </c>
       <c r="G8">
-        <v>2135.242804018775</v>
+        <v>2472.017337560213</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -21506,7 +21506,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12657.9521535921</v>
+        <v>14064.391281769</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -21532,7 +21532,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1011.821393496945</v>
+        <v>1124.245992774384</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -21561,7 +21561,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>69009.64974613725</v>
+        <v>81187.82323074971</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -21584,10 +21584,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7186.203474463209</v>
+        <v>7984.670527181343</v>
       </c>
       <c r="C7">
-        <v>15536.10311783121</v>
+        <v>18277.76837391907</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -21616,16 +21616,16 @@
         <v>78886.08339986062</v>
       </c>
       <c r="D8">
-        <v>1012.636172287368</v>
+        <v>1125.151302541519</v>
       </c>
       <c r="E8">
-        <v>80.94571147975559</v>
+        <v>89.93967942195066</v>
       </c>
       <c r="F8">
-        <v>2760.385989845493</v>
+        <v>3247.512929229991</v>
       </c>
       <c r="G8">
-        <v>2272.230659229441</v>
+        <v>2626.243890110041</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -21724,7 +21724,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14137.16819550392</v>
+        <v>15707.96466167103</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -21750,7 +21750,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1134.279319595241</v>
+        <v>1260.310355105823</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -21779,7 +21779,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>70869.72526727949</v>
+        <v>83376.14737326998</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -21802,10 +21802,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8030.451783125329</v>
+        <v>8922.724203472586</v>
       </c>
       <c r="C7">
-        <v>15954.86085982419</v>
+        <v>18770.42454096964</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -21834,16 +21834,16 @@
         <v>81012.36679980034</v>
       </c>
       <c r="D8">
-        <v>1130.973455640313</v>
+        <v>1256.637172933681</v>
       </c>
       <c r="E8">
-        <v>90.74234556761925</v>
+        <v>100.8248284084658</v>
       </c>
       <c r="F8">
-        <v>2834.789010691182</v>
+        <v>3335.045894930802</v>
       </c>
       <c r="G8">
-        <v>2398.531264294952</v>
+        <v>2769.314874444222</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -21942,7 +21942,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14984.28244529574</v>
+        <v>16649.20271699527</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -21968,7 +21968,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1205.200174672472</v>
+        <v>1339.111305191636</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -21997,7 +21997,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>73087.36029906869</v>
+        <v>85985.12976361022</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -22020,10 +22020,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8514.772639519389</v>
+        <v>9460.858488354877</v>
       </c>
       <c r="C7">
-        <v>16454.11577067121</v>
+        <v>19357.7832596132</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -22052,16 +22052,16 @@
         <v>83547.38244923085</v>
       </c>
       <c r="D8">
-        <v>1198.742595623659</v>
+        <v>1331.936217359621</v>
       </c>
       <c r="E8">
-        <v>96.41601397379772</v>
+        <v>107.1289044153308</v>
       </c>
       <c r="F8">
-        <v>2923.49441196275</v>
+        <v>3439.405190544412</v>
       </c>
       <c r="G8">
-        <v>2496.888841019059</v>
+        <v>2881.864174796807</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -22160,7 +22160,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15193.14802759925</v>
+        <v>16881.27558622139</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -22186,7 +22186,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1224.737635148509</v>
+        <v>1360.819594609454</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -22215,7 +22215,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>75519.38829183301</v>
+        <v>88846.33916686235</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -22238,10 +22238,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8636.359347140829</v>
+        <v>9595.954830156476</v>
       </c>
       <c r="C7">
-        <v>17001.63684663717</v>
+        <v>20001.92570192608</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -22270,16 +22270,16 @@
         <v>86327.47427368964</v>
       </c>
       <c r="D8">
-        <v>1215.45184220794</v>
+        <v>1350.50204689771</v>
       </c>
       <c r="E8">
-        <v>97.97901081188064</v>
+        <v>108.8655675687562</v>
       </c>
       <c r="F8">
-        <v>3020.775531673323</v>
+        <v>3553.853566674497</v>
       </c>
       <c r="G8">
-        <v>2563.799619377799</v>
+        <v>2959.788053208254</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -22378,7 +22378,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14983.11684428426</v>
+        <v>16647.90760476028</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -22404,7 +22404,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1212.186529247677</v>
+        <v>1346.873921386308</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -22433,7 +22433,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>78020.70321239792</v>
+        <v>91789.06260282108</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -22456,10 +22456,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8521.607407763375</v>
+        <v>9468.452675292639</v>
       </c>
       <c r="C7">
-        <v>17564.75644917132</v>
+        <v>20664.41935196627</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -22488,16 +22488,16 @@
         <v>89186.76914272417</v>
       </c>
       <c r="D8">
-        <v>1198.64934754274</v>
+        <v>1331.832608380822</v>
       </c>
       <c r="E8">
-        <v>96.97492233981414</v>
+        <v>107.7499137109046</v>
       </c>
       <c r="F8">
-        <v>3120.828128495919</v>
+        <v>3671.562504112846</v>
       </c>
       <c r="G8">
-        <v>2608.636385693469</v>
+        <v>3013.28720272589</v>
       </c>
       <c r="H8">
         <v>0</v>
